--- a/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_ユーザ情報編集画面.xlsx
+++ b/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_ユーザ情報編集画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\growthTeamDocument\2021年_テトリス\02_基本設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC525394-1F8B-4E65-B8BB-B189EE756092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303411D3-DC6C-43BB-AFBA-211790812CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="-120" windowWidth="24330" windowHeight="15990" activeTab="2" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
+    <workbookView xWindow="-28920" yWindow="-450" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ユーザ情報編集画面!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ヘッダー!$A$1:$AZ$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">ユーザ情報編集画面!$A$1:$AY$93</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">ユーザ情報編集画面!$A$1:$AY$90</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改訂履歴!$A$1:$BA$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="135">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -865,24 +865,6 @@
     <rPh sb="5" eb="7">
       <t>ガメン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイページ ログアウト確認ダイアログ画面</t>
-    <rPh sb="11" eb="13">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cancel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1253,7 +1235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1419,9 +1401,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1436,6 +1415,33 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1482,42 +1488,6 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1534,6 +1504,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1606,7 +1585,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3980"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3982"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1665,7 +1644,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2953"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2955"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2787,191 +2766,191 @@
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="12"/>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="61" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="61" t="s">
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="61" t="s">
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="61" t="s">
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="61" t="s">
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="70"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="61" t="s">
+      <c r="AQ1" s="70"/>
+      <c r="AR1" s="70"/>
+      <c r="AS1" s="70"/>
+      <c r="AT1" s="71"/>
+      <c r="AU1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="63"/>
+      <c r="AV1" s="70"/>
+      <c r="AW1" s="70"/>
+      <c r="AX1" s="70"/>
+      <c r="AY1" s="71"/>
       <c r="BB1" s="3"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="64" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="70">
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="78">
         <v>44577</v>
       </c>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="64" t="s">
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="79"/>
+      <c r="AI2" s="79"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="70">
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="74"/>
+      <c r="AP2" s="78">
         <v>44619</v>
       </c>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="64" t="s">
+      <c r="AQ2" s="79"/>
+      <c r="AR2" s="79"/>
+      <c r="AS2" s="79"/>
+      <c r="AT2" s="80"/>
+      <c r="AU2" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="AV2" s="65"/>
-      <c r="AW2" s="65"/>
-      <c r="AX2" s="65"/>
-      <c r="AY2" s="66"/>
+      <c r="AV2" s="73"/>
+      <c r="AW2" s="73"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="74"/>
       <c r="BB2" s="3"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="74"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="74"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="68"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="74"/>
-      <c r="AR3" s="74"/>
-      <c r="AS3" s="74"/>
-      <c r="AT3" s="75"/>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="68"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="69"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="77"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="82"/>
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="75"/>
+      <c r="AL3" s="76"/>
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="76"/>
+      <c r="AO3" s="77"/>
+      <c r="AP3" s="81"/>
+      <c r="AQ3" s="82"/>
+      <c r="AR3" s="82"/>
+      <c r="AS3" s="82"/>
+      <c r="AT3" s="83"/>
+      <c r="AU3" s="75"/>
+      <c r="AV3" s="76"/>
+      <c r="AW3" s="76"/>
+      <c r="AX3" s="76"/>
+      <c r="AY3" s="77"/>
       <c r="BB3" s="3"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1">
@@ -2988,11 +2967,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="K2:AE3"/>
-    <mergeCell ref="F2:J3"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="AP1:AT1"/>
@@ -3001,6 +2975,11 @@
     <mergeCell ref="AP2:AT3"/>
     <mergeCell ref="AK2:AO3"/>
     <mergeCell ref="AF2:AJ3"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="K2:AE3"/>
+    <mergeCell ref="F2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3102,118 +3081,118 @@
         <v>1</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="88">
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="84">
         <v>44577</v>
       </c>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="91" t="s">
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="91" t="s">
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="92"/>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="92"/>
-      <c r="AB8" s="92"/>
-      <c r="AC8" s="92"/>
-      <c r="AD8" s="92"/>
-      <c r="AE8" s="92"/>
-      <c r="AF8" s="92"/>
-      <c r="AG8" s="92"/>
-      <c r="AH8" s="92"/>
-      <c r="AI8" s="92"/>
-      <c r="AJ8" s="92"/>
-      <c r="AK8" s="92"/>
-      <c r="AL8" s="93"/>
-      <c r="AM8" s="91"/>
-      <c r="AN8" s="92"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="92"/>
-      <c r="AQ8" s="92"/>
-      <c r="AR8" s="92"/>
-      <c r="AS8" s="92"/>
-      <c r="AT8" s="92"/>
-      <c r="AU8" s="92"/>
-      <c r="AV8" s="92"/>
-      <c r="AW8" s="92"/>
-      <c r="AX8" s="92"/>
-      <c r="AY8" s="92"/>
-      <c r="AZ8" s="93"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="88"/>
+      <c r="AD8" s="88"/>
+      <c r="AE8" s="88"/>
+      <c r="AF8" s="88"/>
+      <c r="AG8" s="88"/>
+      <c r="AH8" s="88"/>
+      <c r="AI8" s="88"/>
+      <c r="AJ8" s="88"/>
+      <c r="AK8" s="88"/>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="87"/>
+      <c r="AN8" s="88"/>
+      <c r="AO8" s="88"/>
+      <c r="AP8" s="88"/>
+      <c r="AQ8" s="88"/>
+      <c r="AR8" s="88"/>
+      <c r="AS8" s="88"/>
+      <c r="AT8" s="88"/>
+      <c r="AU8" s="88"/>
+      <c r="AV8" s="88"/>
+      <c r="AW8" s="88"/>
+      <c r="AX8" s="88"/>
+      <c r="AY8" s="88"/>
+      <c r="AZ8" s="89"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="92"/>
-      <c r="AF9" s="92"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="92"/>
-      <c r="AJ9" s="92"/>
-      <c r="AK9" s="92"/>
-      <c r="AL9" s="93"/>
-      <c r="AM9" s="91"/>
-      <c r="AN9" s="92"/>
-      <c r="AO9" s="92"/>
-      <c r="AP9" s="92"/>
-      <c r="AQ9" s="92"/>
-      <c r="AR9" s="92"/>
-      <c r="AS9" s="92"/>
-      <c r="AT9" s="92"/>
-      <c r="AU9" s="92"/>
-      <c r="AV9" s="92"/>
-      <c r="AW9" s="92"/>
-      <c r="AX9" s="92"/>
-      <c r="AY9" s="92"/>
-      <c r="AZ9" s="93"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="88"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="88"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="88"/>
+      <c r="AA9" s="88"/>
+      <c r="AB9" s="88"/>
+      <c r="AC9" s="88"/>
+      <c r="AD9" s="88"/>
+      <c r="AE9" s="88"/>
+      <c r="AF9" s="88"/>
+      <c r="AG9" s="88"/>
+      <c r="AH9" s="88"/>
+      <c r="AI9" s="88"/>
+      <c r="AJ9" s="88"/>
+      <c r="AK9" s="88"/>
+      <c r="AL9" s="89"/>
+      <c r="AM9" s="87"/>
+      <c r="AN9" s="88"/>
+      <c r="AO9" s="88"/>
+      <c r="AP9" s="88"/>
+      <c r="AQ9" s="88"/>
+      <c r="AR9" s="88"/>
+      <c r="AS9" s="88"/>
+      <c r="AT9" s="88"/>
+      <c r="AU9" s="88"/>
+      <c r="AV9" s="88"/>
+      <c r="AW9" s="88"/>
+      <c r="AX9" s="88"/>
+      <c r="AY9" s="88"/>
+      <c r="AZ9" s="89"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="9" t="str">
@@ -3221,56 +3200,56 @@
         <v/>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="92"/>
-      <c r="AF10" s="92"/>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="92"/>
-      <c r="AJ10" s="92"/>
-      <c r="AK10" s="92"/>
-      <c r="AL10" s="93"/>
-      <c r="AM10" s="91"/>
-      <c r="AN10" s="92"/>
-      <c r="AO10" s="92"/>
-      <c r="AP10" s="92"/>
-      <c r="AQ10" s="92"/>
-      <c r="AR10" s="92"/>
-      <c r="AS10" s="92"/>
-      <c r="AT10" s="92"/>
-      <c r="AU10" s="92"/>
-      <c r="AV10" s="92"/>
-      <c r="AW10" s="92"/>
-      <c r="AX10" s="92"/>
-      <c r="AY10" s="92"/>
-      <c r="AZ10" s="93"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="88"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="88"/>
+      <c r="Y10" s="88"/>
+      <c r="Z10" s="88"/>
+      <c r="AA10" s="88"/>
+      <c r="AB10" s="88"/>
+      <c r="AC10" s="88"/>
+      <c r="AD10" s="88"/>
+      <c r="AE10" s="88"/>
+      <c r="AF10" s="88"/>
+      <c r="AG10" s="88"/>
+      <c r="AH10" s="88"/>
+      <c r="AI10" s="88"/>
+      <c r="AJ10" s="88"/>
+      <c r="AK10" s="88"/>
+      <c r="AL10" s="89"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="88"/>
+      <c r="AO10" s="88"/>
+      <c r="AP10" s="88"/>
+      <c r="AQ10" s="88"/>
+      <c r="AR10" s="88"/>
+      <c r="AS10" s="88"/>
+      <c r="AT10" s="88"/>
+      <c r="AU10" s="88"/>
+      <c r="AV10" s="88"/>
+      <c r="AW10" s="88"/>
+      <c r="AX10" s="88"/>
+      <c r="AY10" s="88"/>
+      <c r="AZ10" s="89"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="9" t="str">
@@ -3278,56 +3257,56 @@
         <v/>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="92"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="92"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="92"/>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="91"/>
-      <c r="AN11" s="92"/>
-      <c r="AO11" s="92"/>
-      <c r="AP11" s="92"/>
-      <c r="AQ11" s="92"/>
-      <c r="AR11" s="92"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="92"/>
-      <c r="AV11" s="92"/>
-      <c r="AW11" s="92"/>
-      <c r="AX11" s="92"/>
-      <c r="AY11" s="92"/>
-      <c r="AZ11" s="93"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="88"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="88"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="88"/>
+      <c r="Z11" s="88"/>
+      <c r="AA11" s="88"/>
+      <c r="AB11" s="88"/>
+      <c r="AC11" s="88"/>
+      <c r="AD11" s="88"/>
+      <c r="AE11" s="88"/>
+      <c r="AF11" s="88"/>
+      <c r="AG11" s="88"/>
+      <c r="AH11" s="88"/>
+      <c r="AI11" s="88"/>
+      <c r="AJ11" s="88"/>
+      <c r="AK11" s="88"/>
+      <c r="AL11" s="89"/>
+      <c r="AM11" s="87"/>
+      <c r="AN11" s="88"/>
+      <c r="AO11" s="88"/>
+      <c r="AP11" s="88"/>
+      <c r="AQ11" s="88"/>
+      <c r="AR11" s="88"/>
+      <c r="AS11" s="88"/>
+      <c r="AT11" s="88"/>
+      <c r="AU11" s="88"/>
+      <c r="AV11" s="88"/>
+      <c r="AW11" s="88"/>
+      <c r="AX11" s="88"/>
+      <c r="AY11" s="88"/>
+      <c r="AZ11" s="89"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="9" t="str">
@@ -3335,56 +3314,56 @@
         <v/>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="92"/>
-      <c r="W12" s="92"/>
-      <c r="X12" s="92"/>
-      <c r="Y12" s="92"/>
-      <c r="Z12" s="92"/>
-      <c r="AA12" s="92"/>
-      <c r="AB12" s="92"/>
-      <c r="AC12" s="92"/>
-      <c r="AD12" s="92"/>
-      <c r="AE12" s="92"/>
-      <c r="AF12" s="92"/>
-      <c r="AG12" s="92"/>
-      <c r="AH12" s="92"/>
-      <c r="AI12" s="92"/>
-      <c r="AJ12" s="92"/>
-      <c r="AK12" s="92"/>
-      <c r="AL12" s="93"/>
-      <c r="AM12" s="91"/>
-      <c r="AN12" s="92"/>
-      <c r="AO12" s="92"/>
-      <c r="AP12" s="92"/>
-      <c r="AQ12" s="92"/>
-      <c r="AR12" s="92"/>
-      <c r="AS12" s="92"/>
-      <c r="AT12" s="92"/>
-      <c r="AU12" s="92"/>
-      <c r="AV12" s="92"/>
-      <c r="AW12" s="92"/>
-      <c r="AX12" s="92"/>
-      <c r="AY12" s="92"/>
-      <c r="AZ12" s="93"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="88"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="88"/>
+      <c r="AB12" s="88"/>
+      <c r="AC12" s="88"/>
+      <c r="AD12" s="88"/>
+      <c r="AE12" s="88"/>
+      <c r="AF12" s="88"/>
+      <c r="AG12" s="88"/>
+      <c r="AH12" s="88"/>
+      <c r="AI12" s="88"/>
+      <c r="AJ12" s="88"/>
+      <c r="AK12" s="88"/>
+      <c r="AL12" s="89"/>
+      <c r="AM12" s="87"/>
+      <c r="AN12" s="88"/>
+      <c r="AO12" s="88"/>
+      <c r="AP12" s="88"/>
+      <c r="AQ12" s="88"/>
+      <c r="AR12" s="88"/>
+      <c r="AS12" s="88"/>
+      <c r="AT12" s="88"/>
+      <c r="AU12" s="88"/>
+      <c r="AV12" s="88"/>
+      <c r="AW12" s="88"/>
+      <c r="AX12" s="88"/>
+      <c r="AY12" s="88"/>
+      <c r="AZ12" s="89"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="9" t="str">
@@ -3392,56 +3371,56 @@
         <v/>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="92"/>
-      <c r="AB13" s="92"/>
-      <c r="AC13" s="92"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="92"/>
-      <c r="AF13" s="92"/>
-      <c r="AG13" s="92"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="92"/>
-      <c r="AJ13" s="92"/>
-      <c r="AK13" s="92"/>
-      <c r="AL13" s="93"/>
-      <c r="AM13" s="91"/>
-      <c r="AN13" s="92"/>
-      <c r="AO13" s="92"/>
-      <c r="AP13" s="92"/>
-      <c r="AQ13" s="92"/>
-      <c r="AR13" s="92"/>
-      <c r="AS13" s="92"/>
-      <c r="AT13" s="92"/>
-      <c r="AU13" s="92"/>
-      <c r="AV13" s="92"/>
-      <c r="AW13" s="92"/>
-      <c r="AX13" s="92"/>
-      <c r="AY13" s="92"/>
-      <c r="AZ13" s="93"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="88"/>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="88"/>
+      <c r="AD13" s="88"/>
+      <c r="AE13" s="88"/>
+      <c r="AF13" s="88"/>
+      <c r="AG13" s="88"/>
+      <c r="AH13" s="88"/>
+      <c r="AI13" s="88"/>
+      <c r="AJ13" s="88"/>
+      <c r="AK13" s="88"/>
+      <c r="AL13" s="89"/>
+      <c r="AM13" s="87"/>
+      <c r="AN13" s="88"/>
+      <c r="AO13" s="88"/>
+      <c r="AP13" s="88"/>
+      <c r="AQ13" s="88"/>
+      <c r="AR13" s="88"/>
+      <c r="AS13" s="88"/>
+      <c r="AT13" s="88"/>
+      <c r="AU13" s="88"/>
+      <c r="AV13" s="88"/>
+      <c r="AW13" s="88"/>
+      <c r="AX13" s="88"/>
+      <c r="AY13" s="88"/>
+      <c r="AZ13" s="89"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="9" t="str">
@@ -3449,56 +3428,56 @@
         <v/>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="92"/>
-      <c r="T14" s="92"/>
-      <c r="U14" s="92"/>
-      <c r="V14" s="92"/>
-      <c r="W14" s="92"/>
-      <c r="X14" s="92"/>
-      <c r="Y14" s="92"/>
-      <c r="Z14" s="92"/>
-      <c r="AA14" s="92"/>
-      <c r="AB14" s="92"/>
-      <c r="AC14" s="92"/>
-      <c r="AD14" s="92"/>
-      <c r="AE14" s="92"/>
-      <c r="AF14" s="92"/>
-      <c r="AG14" s="92"/>
-      <c r="AH14" s="92"/>
-      <c r="AI14" s="92"/>
-      <c r="AJ14" s="92"/>
-      <c r="AK14" s="92"/>
-      <c r="AL14" s="93"/>
-      <c r="AM14" s="91"/>
-      <c r="AN14" s="92"/>
-      <c r="AO14" s="92"/>
-      <c r="AP14" s="92"/>
-      <c r="AQ14" s="92"/>
-      <c r="AR14" s="92"/>
-      <c r="AS14" s="92"/>
-      <c r="AT14" s="92"/>
-      <c r="AU14" s="92"/>
-      <c r="AV14" s="92"/>
-      <c r="AW14" s="92"/>
-      <c r="AX14" s="92"/>
-      <c r="AY14" s="92"/>
-      <c r="AZ14" s="93"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="88"/>
+      <c r="AC14" s="88"/>
+      <c r="AD14" s="88"/>
+      <c r="AE14" s="88"/>
+      <c r="AF14" s="88"/>
+      <c r="AG14" s="88"/>
+      <c r="AH14" s="88"/>
+      <c r="AI14" s="88"/>
+      <c r="AJ14" s="88"/>
+      <c r="AK14" s="88"/>
+      <c r="AL14" s="89"/>
+      <c r="AM14" s="87"/>
+      <c r="AN14" s="88"/>
+      <c r="AO14" s="88"/>
+      <c r="AP14" s="88"/>
+      <c r="AQ14" s="88"/>
+      <c r="AR14" s="88"/>
+      <c r="AS14" s="88"/>
+      <c r="AT14" s="88"/>
+      <c r="AU14" s="88"/>
+      <c r="AV14" s="88"/>
+      <c r="AW14" s="88"/>
+      <c r="AX14" s="88"/>
+      <c r="AY14" s="88"/>
+      <c r="AZ14" s="89"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="9" t="str">
@@ -3506,56 +3485,56 @@
         <v/>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="92"/>
-      <c r="S15" s="92"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="92"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="92"/>
-      <c r="X15" s="92"/>
-      <c r="Y15" s="92"/>
-      <c r="Z15" s="92"/>
-      <c r="AA15" s="92"/>
-      <c r="AB15" s="92"/>
-      <c r="AC15" s="92"/>
-      <c r="AD15" s="92"/>
-      <c r="AE15" s="92"/>
-      <c r="AF15" s="92"/>
-      <c r="AG15" s="92"/>
-      <c r="AH15" s="92"/>
-      <c r="AI15" s="92"/>
-      <c r="AJ15" s="92"/>
-      <c r="AK15" s="92"/>
-      <c r="AL15" s="93"/>
-      <c r="AM15" s="91"/>
-      <c r="AN15" s="92"/>
-      <c r="AO15" s="92"/>
-      <c r="AP15" s="92"/>
-      <c r="AQ15" s="92"/>
-      <c r="AR15" s="92"/>
-      <c r="AS15" s="92"/>
-      <c r="AT15" s="92"/>
-      <c r="AU15" s="92"/>
-      <c r="AV15" s="92"/>
-      <c r="AW15" s="92"/>
-      <c r="AX15" s="92"/>
-      <c r="AY15" s="92"/>
-      <c r="AZ15" s="93"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="88"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="88"/>
+      <c r="X15" s="88"/>
+      <c r="Y15" s="88"/>
+      <c r="Z15" s="88"/>
+      <c r="AA15" s="88"/>
+      <c r="AB15" s="88"/>
+      <c r="AC15" s="88"/>
+      <c r="AD15" s="88"/>
+      <c r="AE15" s="88"/>
+      <c r="AF15" s="88"/>
+      <c r="AG15" s="88"/>
+      <c r="AH15" s="88"/>
+      <c r="AI15" s="88"/>
+      <c r="AJ15" s="88"/>
+      <c r="AK15" s="88"/>
+      <c r="AL15" s="89"/>
+      <c r="AM15" s="87"/>
+      <c r="AN15" s="88"/>
+      <c r="AO15" s="88"/>
+      <c r="AP15" s="88"/>
+      <c r="AQ15" s="88"/>
+      <c r="AR15" s="88"/>
+      <c r="AS15" s="88"/>
+      <c r="AT15" s="88"/>
+      <c r="AU15" s="88"/>
+      <c r="AV15" s="88"/>
+      <c r="AW15" s="88"/>
+      <c r="AX15" s="88"/>
+      <c r="AY15" s="88"/>
+      <c r="AZ15" s="89"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="9" t="str">
@@ -3563,56 +3542,56 @@
         <v/>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="92"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="92"/>
-      <c r="V16" s="92"/>
-      <c r="W16" s="92"/>
-      <c r="X16" s="92"/>
-      <c r="Y16" s="92"/>
-      <c r="Z16" s="92"/>
-      <c r="AA16" s="92"/>
-      <c r="AB16" s="92"/>
-      <c r="AC16" s="92"/>
-      <c r="AD16" s="92"/>
-      <c r="AE16" s="92"/>
-      <c r="AF16" s="92"/>
-      <c r="AG16" s="92"/>
-      <c r="AH16" s="92"/>
-      <c r="AI16" s="92"/>
-      <c r="AJ16" s="92"/>
-      <c r="AK16" s="92"/>
-      <c r="AL16" s="93"/>
-      <c r="AM16" s="91"/>
-      <c r="AN16" s="92"/>
-      <c r="AO16" s="92"/>
-      <c r="AP16" s="92"/>
-      <c r="AQ16" s="92"/>
-      <c r="AR16" s="92"/>
-      <c r="AS16" s="92"/>
-      <c r="AT16" s="92"/>
-      <c r="AU16" s="92"/>
-      <c r="AV16" s="92"/>
-      <c r="AW16" s="92"/>
-      <c r="AX16" s="92"/>
-      <c r="AY16" s="92"/>
-      <c r="AZ16" s="93"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="88"/>
+      <c r="S16" s="88"/>
+      <c r="T16" s="88"/>
+      <c r="U16" s="88"/>
+      <c r="V16" s="88"/>
+      <c r="W16" s="88"/>
+      <c r="X16" s="88"/>
+      <c r="Y16" s="88"/>
+      <c r="Z16" s="88"/>
+      <c r="AA16" s="88"/>
+      <c r="AB16" s="88"/>
+      <c r="AC16" s="88"/>
+      <c r="AD16" s="88"/>
+      <c r="AE16" s="88"/>
+      <c r="AF16" s="88"/>
+      <c r="AG16" s="88"/>
+      <c r="AH16" s="88"/>
+      <c r="AI16" s="88"/>
+      <c r="AJ16" s="88"/>
+      <c r="AK16" s="88"/>
+      <c r="AL16" s="89"/>
+      <c r="AM16" s="87"/>
+      <c r="AN16" s="88"/>
+      <c r="AO16" s="88"/>
+      <c r="AP16" s="88"/>
+      <c r="AQ16" s="88"/>
+      <c r="AR16" s="88"/>
+      <c r="AS16" s="88"/>
+      <c r="AT16" s="88"/>
+      <c r="AU16" s="88"/>
+      <c r="AV16" s="88"/>
+      <c r="AW16" s="88"/>
+      <c r="AX16" s="88"/>
+      <c r="AY16" s="88"/>
+      <c r="AZ16" s="89"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="9" t="str">
@@ -3620,56 +3599,56 @@
         <v/>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="92"/>
-      <c r="X17" s="92"/>
-      <c r="Y17" s="92"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="92"/>
-      <c r="AB17" s="92"/>
-      <c r="AC17" s="92"/>
-      <c r="AD17" s="92"/>
-      <c r="AE17" s="92"/>
-      <c r="AF17" s="92"/>
-      <c r="AG17" s="92"/>
-      <c r="AH17" s="92"/>
-      <c r="AI17" s="92"/>
-      <c r="AJ17" s="92"/>
-      <c r="AK17" s="92"/>
-      <c r="AL17" s="93"/>
-      <c r="AM17" s="91"/>
-      <c r="AN17" s="92"/>
-      <c r="AO17" s="92"/>
-      <c r="AP17" s="92"/>
-      <c r="AQ17" s="92"/>
-      <c r="AR17" s="92"/>
-      <c r="AS17" s="92"/>
-      <c r="AT17" s="92"/>
-      <c r="AU17" s="92"/>
-      <c r="AV17" s="92"/>
-      <c r="AW17" s="92"/>
-      <c r="AX17" s="92"/>
-      <c r="AY17" s="92"/>
-      <c r="AZ17" s="93"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="88"/>
+      <c r="S17" s="88"/>
+      <c r="T17" s="88"/>
+      <c r="U17" s="88"/>
+      <c r="V17" s="88"/>
+      <c r="W17" s="88"/>
+      <c r="X17" s="88"/>
+      <c r="Y17" s="88"/>
+      <c r="Z17" s="88"/>
+      <c r="AA17" s="88"/>
+      <c r="AB17" s="88"/>
+      <c r="AC17" s="88"/>
+      <c r="AD17" s="88"/>
+      <c r="AE17" s="88"/>
+      <c r="AF17" s="88"/>
+      <c r="AG17" s="88"/>
+      <c r="AH17" s="88"/>
+      <c r="AI17" s="88"/>
+      <c r="AJ17" s="88"/>
+      <c r="AK17" s="88"/>
+      <c r="AL17" s="89"/>
+      <c r="AM17" s="87"/>
+      <c r="AN17" s="88"/>
+      <c r="AO17" s="88"/>
+      <c r="AP17" s="88"/>
+      <c r="AQ17" s="88"/>
+      <c r="AR17" s="88"/>
+      <c r="AS17" s="88"/>
+      <c r="AT17" s="88"/>
+      <c r="AU17" s="88"/>
+      <c r="AV17" s="88"/>
+      <c r="AW17" s="88"/>
+      <c r="AX17" s="88"/>
+      <c r="AY17" s="88"/>
+      <c r="AZ17" s="89"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="9" t="str">
@@ -3677,56 +3656,56 @@
         <v/>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="92"/>
-      <c r="V18" s="92"/>
-      <c r="W18" s="92"/>
-      <c r="X18" s="92"/>
-      <c r="Y18" s="92"/>
-      <c r="Z18" s="92"/>
-      <c r="AA18" s="92"/>
-      <c r="AB18" s="92"/>
-      <c r="AC18" s="92"/>
-      <c r="AD18" s="92"/>
-      <c r="AE18" s="92"/>
-      <c r="AF18" s="92"/>
-      <c r="AG18" s="92"/>
-      <c r="AH18" s="92"/>
-      <c r="AI18" s="92"/>
-      <c r="AJ18" s="92"/>
-      <c r="AK18" s="92"/>
-      <c r="AL18" s="93"/>
-      <c r="AM18" s="91"/>
-      <c r="AN18" s="92"/>
-      <c r="AO18" s="92"/>
-      <c r="AP18" s="92"/>
-      <c r="AQ18" s="92"/>
-      <c r="AR18" s="92"/>
-      <c r="AS18" s="92"/>
-      <c r="AT18" s="92"/>
-      <c r="AU18" s="92"/>
-      <c r="AV18" s="92"/>
-      <c r="AW18" s="92"/>
-      <c r="AX18" s="92"/>
-      <c r="AY18" s="92"/>
-      <c r="AZ18" s="93"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="88"/>
+      <c r="T18" s="88"/>
+      <c r="U18" s="88"/>
+      <c r="V18" s="88"/>
+      <c r="W18" s="88"/>
+      <c r="X18" s="88"/>
+      <c r="Y18" s="88"/>
+      <c r="Z18" s="88"/>
+      <c r="AA18" s="88"/>
+      <c r="AB18" s="88"/>
+      <c r="AC18" s="88"/>
+      <c r="AD18" s="88"/>
+      <c r="AE18" s="88"/>
+      <c r="AF18" s="88"/>
+      <c r="AG18" s="88"/>
+      <c r="AH18" s="88"/>
+      <c r="AI18" s="88"/>
+      <c r="AJ18" s="88"/>
+      <c r="AK18" s="88"/>
+      <c r="AL18" s="89"/>
+      <c r="AM18" s="87"/>
+      <c r="AN18" s="88"/>
+      <c r="AO18" s="88"/>
+      <c r="AP18" s="88"/>
+      <c r="AQ18" s="88"/>
+      <c r="AR18" s="88"/>
+      <c r="AS18" s="88"/>
+      <c r="AT18" s="88"/>
+      <c r="AU18" s="88"/>
+      <c r="AV18" s="88"/>
+      <c r="AW18" s="88"/>
+      <c r="AX18" s="88"/>
+      <c r="AY18" s="88"/>
+      <c r="AZ18" s="89"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="9" t="str">
@@ -3734,56 +3713,56 @@
         <v/>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="92"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="92"/>
-      <c r="Z19" s="92"/>
-      <c r="AA19" s="92"/>
-      <c r="AB19" s="92"/>
-      <c r="AC19" s="92"/>
-      <c r="AD19" s="92"/>
-      <c r="AE19" s="92"/>
-      <c r="AF19" s="92"/>
-      <c r="AG19" s="92"/>
-      <c r="AH19" s="92"/>
-      <c r="AI19" s="92"/>
-      <c r="AJ19" s="92"/>
-      <c r="AK19" s="92"/>
-      <c r="AL19" s="93"/>
-      <c r="AM19" s="91"/>
-      <c r="AN19" s="92"/>
-      <c r="AO19" s="92"/>
-      <c r="AP19" s="92"/>
-      <c r="AQ19" s="92"/>
-      <c r="AR19" s="92"/>
-      <c r="AS19" s="92"/>
-      <c r="AT19" s="92"/>
-      <c r="AU19" s="92"/>
-      <c r="AV19" s="92"/>
-      <c r="AW19" s="92"/>
-      <c r="AX19" s="92"/>
-      <c r="AY19" s="92"/>
-      <c r="AZ19" s="93"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="88"/>
+      <c r="U19" s="88"/>
+      <c r="V19" s="88"/>
+      <c r="W19" s="88"/>
+      <c r="X19" s="88"/>
+      <c r="Y19" s="88"/>
+      <c r="Z19" s="88"/>
+      <c r="AA19" s="88"/>
+      <c r="AB19" s="88"/>
+      <c r="AC19" s="88"/>
+      <c r="AD19" s="88"/>
+      <c r="AE19" s="88"/>
+      <c r="AF19" s="88"/>
+      <c r="AG19" s="88"/>
+      <c r="AH19" s="88"/>
+      <c r="AI19" s="88"/>
+      <c r="AJ19" s="88"/>
+      <c r="AK19" s="88"/>
+      <c r="AL19" s="89"/>
+      <c r="AM19" s="87"/>
+      <c r="AN19" s="88"/>
+      <c r="AO19" s="88"/>
+      <c r="AP19" s="88"/>
+      <c r="AQ19" s="88"/>
+      <c r="AR19" s="88"/>
+      <c r="AS19" s="88"/>
+      <c r="AT19" s="88"/>
+      <c r="AU19" s="88"/>
+      <c r="AV19" s="88"/>
+      <c r="AW19" s="88"/>
+      <c r="AX19" s="88"/>
+      <c r="AY19" s="88"/>
+      <c r="AZ19" s="89"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="9" t="str">
@@ -3791,56 +3770,56 @@
         <v/>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="92"/>
-      <c r="S20" s="92"/>
-      <c r="T20" s="92"/>
-      <c r="U20" s="92"/>
-      <c r="V20" s="92"/>
-      <c r="W20" s="92"/>
-      <c r="X20" s="92"/>
-      <c r="Y20" s="92"/>
-      <c r="Z20" s="92"/>
-      <c r="AA20" s="92"/>
-      <c r="AB20" s="92"/>
-      <c r="AC20" s="92"/>
-      <c r="AD20" s="92"/>
-      <c r="AE20" s="92"/>
-      <c r="AF20" s="92"/>
-      <c r="AG20" s="92"/>
-      <c r="AH20" s="92"/>
-      <c r="AI20" s="92"/>
-      <c r="AJ20" s="92"/>
-      <c r="AK20" s="92"/>
-      <c r="AL20" s="93"/>
-      <c r="AM20" s="91"/>
-      <c r="AN20" s="92"/>
-      <c r="AO20" s="92"/>
-      <c r="AP20" s="92"/>
-      <c r="AQ20" s="92"/>
-      <c r="AR20" s="92"/>
-      <c r="AS20" s="92"/>
-      <c r="AT20" s="92"/>
-      <c r="AU20" s="92"/>
-      <c r="AV20" s="92"/>
-      <c r="AW20" s="92"/>
-      <c r="AX20" s="92"/>
-      <c r="AY20" s="92"/>
-      <c r="AZ20" s="93"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="88"/>
+      <c r="U20" s="88"/>
+      <c r="V20" s="88"/>
+      <c r="W20" s="88"/>
+      <c r="X20" s="88"/>
+      <c r="Y20" s="88"/>
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="88"/>
+      <c r="AB20" s="88"/>
+      <c r="AC20" s="88"/>
+      <c r="AD20" s="88"/>
+      <c r="AE20" s="88"/>
+      <c r="AF20" s="88"/>
+      <c r="AG20" s="88"/>
+      <c r="AH20" s="88"/>
+      <c r="AI20" s="88"/>
+      <c r="AJ20" s="88"/>
+      <c r="AK20" s="88"/>
+      <c r="AL20" s="89"/>
+      <c r="AM20" s="87"/>
+      <c r="AN20" s="88"/>
+      <c r="AO20" s="88"/>
+      <c r="AP20" s="88"/>
+      <c r="AQ20" s="88"/>
+      <c r="AR20" s="88"/>
+      <c r="AS20" s="88"/>
+      <c r="AT20" s="88"/>
+      <c r="AU20" s="88"/>
+      <c r="AV20" s="88"/>
+      <c r="AW20" s="88"/>
+      <c r="AX20" s="88"/>
+      <c r="AY20" s="88"/>
+      <c r="AZ20" s="89"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="9" t="str">
@@ -3848,56 +3827,56 @@
         <v/>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="92"/>
-      <c r="S21" s="92"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="92"/>
-      <c r="V21" s="92"/>
-      <c r="W21" s="92"/>
-      <c r="X21" s="92"/>
-      <c r="Y21" s="92"/>
-      <c r="Z21" s="92"/>
-      <c r="AA21" s="92"/>
-      <c r="AB21" s="92"/>
-      <c r="AC21" s="92"/>
-      <c r="AD21" s="92"/>
-      <c r="AE21" s="92"/>
-      <c r="AF21" s="92"/>
-      <c r="AG21" s="92"/>
-      <c r="AH21" s="92"/>
-      <c r="AI21" s="92"/>
-      <c r="AJ21" s="92"/>
-      <c r="AK21" s="92"/>
-      <c r="AL21" s="93"/>
-      <c r="AM21" s="91"/>
-      <c r="AN21" s="92"/>
-      <c r="AO21" s="92"/>
-      <c r="AP21" s="92"/>
-      <c r="AQ21" s="92"/>
-      <c r="AR21" s="92"/>
-      <c r="AS21" s="92"/>
-      <c r="AT21" s="92"/>
-      <c r="AU21" s="92"/>
-      <c r="AV21" s="92"/>
-      <c r="AW21" s="92"/>
-      <c r="AX21" s="92"/>
-      <c r="AY21" s="92"/>
-      <c r="AZ21" s="93"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="88"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="88"/>
+      <c r="S21" s="88"/>
+      <c r="T21" s="88"/>
+      <c r="U21" s="88"/>
+      <c r="V21" s="88"/>
+      <c r="W21" s="88"/>
+      <c r="X21" s="88"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="88"/>
+      <c r="AB21" s="88"/>
+      <c r="AC21" s="88"/>
+      <c r="AD21" s="88"/>
+      <c r="AE21" s="88"/>
+      <c r="AF21" s="88"/>
+      <c r="AG21" s="88"/>
+      <c r="AH21" s="88"/>
+      <c r="AI21" s="88"/>
+      <c r="AJ21" s="88"/>
+      <c r="AK21" s="88"/>
+      <c r="AL21" s="89"/>
+      <c r="AM21" s="87"/>
+      <c r="AN21" s="88"/>
+      <c r="AO21" s="88"/>
+      <c r="AP21" s="88"/>
+      <c r="AQ21" s="88"/>
+      <c r="AR21" s="88"/>
+      <c r="AS21" s="88"/>
+      <c r="AT21" s="88"/>
+      <c r="AU21" s="88"/>
+      <c r="AV21" s="88"/>
+      <c r="AW21" s="88"/>
+      <c r="AX21" s="88"/>
+      <c r="AY21" s="88"/>
+      <c r="AZ21" s="89"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="9" t="str">
@@ -3905,56 +3884,56 @@
         <v/>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="92"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="92"/>
-      <c r="U22" s="92"/>
-      <c r="V22" s="92"/>
-      <c r="W22" s="92"/>
-      <c r="X22" s="92"/>
-      <c r="Y22" s="92"/>
-      <c r="Z22" s="92"/>
-      <c r="AA22" s="92"/>
-      <c r="AB22" s="92"/>
-      <c r="AC22" s="92"/>
-      <c r="AD22" s="92"/>
-      <c r="AE22" s="92"/>
-      <c r="AF22" s="92"/>
-      <c r="AG22" s="92"/>
-      <c r="AH22" s="92"/>
-      <c r="AI22" s="92"/>
-      <c r="AJ22" s="92"/>
-      <c r="AK22" s="92"/>
-      <c r="AL22" s="93"/>
-      <c r="AM22" s="91"/>
-      <c r="AN22" s="92"/>
-      <c r="AO22" s="92"/>
-      <c r="AP22" s="92"/>
-      <c r="AQ22" s="92"/>
-      <c r="AR22" s="92"/>
-      <c r="AS22" s="92"/>
-      <c r="AT22" s="92"/>
-      <c r="AU22" s="92"/>
-      <c r="AV22" s="92"/>
-      <c r="AW22" s="92"/>
-      <c r="AX22" s="92"/>
-      <c r="AY22" s="92"/>
-      <c r="AZ22" s="93"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="88"/>
+      <c r="T22" s="88"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="88"/>
+      <c r="W22" s="88"/>
+      <c r="X22" s="88"/>
+      <c r="Y22" s="88"/>
+      <c r="Z22" s="88"/>
+      <c r="AA22" s="88"/>
+      <c r="AB22" s="88"/>
+      <c r="AC22" s="88"/>
+      <c r="AD22" s="88"/>
+      <c r="AE22" s="88"/>
+      <c r="AF22" s="88"/>
+      <c r="AG22" s="88"/>
+      <c r="AH22" s="88"/>
+      <c r="AI22" s="88"/>
+      <c r="AJ22" s="88"/>
+      <c r="AK22" s="88"/>
+      <c r="AL22" s="89"/>
+      <c r="AM22" s="87"/>
+      <c r="AN22" s="88"/>
+      <c r="AO22" s="88"/>
+      <c r="AP22" s="88"/>
+      <c r="AQ22" s="88"/>
+      <c r="AR22" s="88"/>
+      <c r="AS22" s="88"/>
+      <c r="AT22" s="88"/>
+      <c r="AU22" s="88"/>
+      <c r="AV22" s="88"/>
+      <c r="AW22" s="88"/>
+      <c r="AX22" s="88"/>
+      <c r="AY22" s="88"/>
+      <c r="AZ22" s="89"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="9" t="str">
@@ -3962,56 +3941,56 @@
         <v/>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="92"/>
-      <c r="T23" s="92"/>
-      <c r="U23" s="92"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="92"/>
-      <c r="X23" s="92"/>
-      <c r="Y23" s="92"/>
-      <c r="Z23" s="92"/>
-      <c r="AA23" s="92"/>
-      <c r="AB23" s="92"/>
-      <c r="AC23" s="92"/>
-      <c r="AD23" s="92"/>
-      <c r="AE23" s="92"/>
-      <c r="AF23" s="92"/>
-      <c r="AG23" s="92"/>
-      <c r="AH23" s="92"/>
-      <c r="AI23" s="92"/>
-      <c r="AJ23" s="92"/>
-      <c r="AK23" s="92"/>
-      <c r="AL23" s="93"/>
-      <c r="AM23" s="91"/>
-      <c r="AN23" s="92"/>
-      <c r="AO23" s="92"/>
-      <c r="AP23" s="92"/>
-      <c r="AQ23" s="92"/>
-      <c r="AR23" s="92"/>
-      <c r="AS23" s="92"/>
-      <c r="AT23" s="92"/>
-      <c r="AU23" s="92"/>
-      <c r="AV23" s="92"/>
-      <c r="AW23" s="92"/>
-      <c r="AX23" s="92"/>
-      <c r="AY23" s="92"/>
-      <c r="AZ23" s="93"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="88"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="88"/>
+      <c r="S23" s="88"/>
+      <c r="T23" s="88"/>
+      <c r="U23" s="88"/>
+      <c r="V23" s="88"/>
+      <c r="W23" s="88"/>
+      <c r="X23" s="88"/>
+      <c r="Y23" s="88"/>
+      <c r="Z23" s="88"/>
+      <c r="AA23" s="88"/>
+      <c r="AB23" s="88"/>
+      <c r="AC23" s="88"/>
+      <c r="AD23" s="88"/>
+      <c r="AE23" s="88"/>
+      <c r="AF23" s="88"/>
+      <c r="AG23" s="88"/>
+      <c r="AH23" s="88"/>
+      <c r="AI23" s="88"/>
+      <c r="AJ23" s="88"/>
+      <c r="AK23" s="88"/>
+      <c r="AL23" s="89"/>
+      <c r="AM23" s="87"/>
+      <c r="AN23" s="88"/>
+      <c r="AO23" s="88"/>
+      <c r="AP23" s="88"/>
+      <c r="AQ23" s="88"/>
+      <c r="AR23" s="88"/>
+      <c r="AS23" s="88"/>
+      <c r="AT23" s="88"/>
+      <c r="AU23" s="88"/>
+      <c r="AV23" s="88"/>
+      <c r="AW23" s="88"/>
+      <c r="AX23" s="88"/>
+      <c r="AY23" s="88"/>
+      <c r="AZ23" s="89"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="9" t="str">
@@ -4019,56 +3998,56 @@
         <v/>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="92"/>
-      <c r="S24" s="92"/>
-      <c r="T24" s="92"/>
-      <c r="U24" s="92"/>
-      <c r="V24" s="92"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="92"/>
-      <c r="Y24" s="92"/>
-      <c r="Z24" s="92"/>
-      <c r="AA24" s="92"/>
-      <c r="AB24" s="92"/>
-      <c r="AC24" s="92"/>
-      <c r="AD24" s="92"/>
-      <c r="AE24" s="92"/>
-      <c r="AF24" s="92"/>
-      <c r="AG24" s="92"/>
-      <c r="AH24" s="92"/>
-      <c r="AI24" s="92"/>
-      <c r="AJ24" s="92"/>
-      <c r="AK24" s="92"/>
-      <c r="AL24" s="93"/>
-      <c r="AM24" s="91"/>
-      <c r="AN24" s="92"/>
-      <c r="AO24" s="92"/>
-      <c r="AP24" s="92"/>
-      <c r="AQ24" s="92"/>
-      <c r="AR24" s="92"/>
-      <c r="AS24" s="92"/>
-      <c r="AT24" s="92"/>
-      <c r="AU24" s="92"/>
-      <c r="AV24" s="92"/>
-      <c r="AW24" s="92"/>
-      <c r="AX24" s="92"/>
-      <c r="AY24" s="92"/>
-      <c r="AZ24" s="93"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="89"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="88"/>
+      <c r="T24" s="88"/>
+      <c r="U24" s="88"/>
+      <c r="V24" s="88"/>
+      <c r="W24" s="88"/>
+      <c r="X24" s="88"/>
+      <c r="Y24" s="88"/>
+      <c r="Z24" s="88"/>
+      <c r="AA24" s="88"/>
+      <c r="AB24" s="88"/>
+      <c r="AC24" s="88"/>
+      <c r="AD24" s="88"/>
+      <c r="AE24" s="88"/>
+      <c r="AF24" s="88"/>
+      <c r="AG24" s="88"/>
+      <c r="AH24" s="88"/>
+      <c r="AI24" s="88"/>
+      <c r="AJ24" s="88"/>
+      <c r="AK24" s="88"/>
+      <c r="AL24" s="89"/>
+      <c r="AM24" s="87"/>
+      <c r="AN24" s="88"/>
+      <c r="AO24" s="88"/>
+      <c r="AP24" s="88"/>
+      <c r="AQ24" s="88"/>
+      <c r="AR24" s="88"/>
+      <c r="AS24" s="88"/>
+      <c r="AT24" s="88"/>
+      <c r="AU24" s="88"/>
+      <c r="AV24" s="88"/>
+      <c r="AW24" s="88"/>
+      <c r="AX24" s="88"/>
+      <c r="AY24" s="88"/>
+      <c r="AZ24" s="89"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="9" t="str">
@@ -4076,56 +4055,56 @@
         <v/>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="92"/>
-      <c r="S25" s="92"/>
-      <c r="T25" s="92"/>
-      <c r="U25" s="92"/>
-      <c r="V25" s="92"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="92"/>
-      <c r="Y25" s="92"/>
-      <c r="Z25" s="92"/>
-      <c r="AA25" s="92"/>
-      <c r="AB25" s="92"/>
-      <c r="AC25" s="92"/>
-      <c r="AD25" s="92"/>
-      <c r="AE25" s="92"/>
-      <c r="AF25" s="92"/>
-      <c r="AG25" s="92"/>
-      <c r="AH25" s="92"/>
-      <c r="AI25" s="92"/>
-      <c r="AJ25" s="92"/>
-      <c r="AK25" s="92"/>
-      <c r="AL25" s="93"/>
-      <c r="AM25" s="91"/>
-      <c r="AN25" s="92"/>
-      <c r="AO25" s="92"/>
-      <c r="AP25" s="92"/>
-      <c r="AQ25" s="92"/>
-      <c r="AR25" s="92"/>
-      <c r="AS25" s="92"/>
-      <c r="AT25" s="92"/>
-      <c r="AU25" s="92"/>
-      <c r="AV25" s="92"/>
-      <c r="AW25" s="92"/>
-      <c r="AX25" s="92"/>
-      <c r="AY25" s="92"/>
-      <c r="AZ25" s="93"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="88"/>
+      <c r="U25" s="88"/>
+      <c r="V25" s="88"/>
+      <c r="W25" s="88"/>
+      <c r="X25" s="88"/>
+      <c r="Y25" s="88"/>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="88"/>
+      <c r="AB25" s="88"/>
+      <c r="AC25" s="88"/>
+      <c r="AD25" s="88"/>
+      <c r="AE25" s="88"/>
+      <c r="AF25" s="88"/>
+      <c r="AG25" s="88"/>
+      <c r="AH25" s="88"/>
+      <c r="AI25" s="88"/>
+      <c r="AJ25" s="88"/>
+      <c r="AK25" s="88"/>
+      <c r="AL25" s="89"/>
+      <c r="AM25" s="87"/>
+      <c r="AN25" s="88"/>
+      <c r="AO25" s="88"/>
+      <c r="AP25" s="88"/>
+      <c r="AQ25" s="88"/>
+      <c r="AR25" s="88"/>
+      <c r="AS25" s="88"/>
+      <c r="AT25" s="88"/>
+      <c r="AU25" s="88"/>
+      <c r="AV25" s="88"/>
+      <c r="AW25" s="88"/>
+      <c r="AX25" s="88"/>
+      <c r="AY25" s="88"/>
+      <c r="AZ25" s="89"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="9" t="str">
@@ -4133,56 +4112,56 @@
         <v/>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="92"/>
-      <c r="T26" s="92"/>
-      <c r="U26" s="92"/>
-      <c r="V26" s="92"/>
-      <c r="W26" s="92"/>
-      <c r="X26" s="92"/>
-      <c r="Y26" s="92"/>
-      <c r="Z26" s="92"/>
-      <c r="AA26" s="92"/>
-      <c r="AB26" s="92"/>
-      <c r="AC26" s="92"/>
-      <c r="AD26" s="92"/>
-      <c r="AE26" s="92"/>
-      <c r="AF26" s="92"/>
-      <c r="AG26" s="92"/>
-      <c r="AH26" s="92"/>
-      <c r="AI26" s="92"/>
-      <c r="AJ26" s="92"/>
-      <c r="AK26" s="92"/>
-      <c r="AL26" s="93"/>
-      <c r="AM26" s="91"/>
-      <c r="AN26" s="92"/>
-      <c r="AO26" s="92"/>
-      <c r="AP26" s="92"/>
-      <c r="AQ26" s="92"/>
-      <c r="AR26" s="92"/>
-      <c r="AS26" s="92"/>
-      <c r="AT26" s="92"/>
-      <c r="AU26" s="92"/>
-      <c r="AV26" s="92"/>
-      <c r="AW26" s="92"/>
-      <c r="AX26" s="92"/>
-      <c r="AY26" s="92"/>
-      <c r="AZ26" s="93"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="88"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="88"/>
+      <c r="X26" s="88"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="88"/>
+      <c r="AA26" s="88"/>
+      <c r="AB26" s="88"/>
+      <c r="AC26" s="88"/>
+      <c r="AD26" s="88"/>
+      <c r="AE26" s="88"/>
+      <c r="AF26" s="88"/>
+      <c r="AG26" s="88"/>
+      <c r="AH26" s="88"/>
+      <c r="AI26" s="88"/>
+      <c r="AJ26" s="88"/>
+      <c r="AK26" s="88"/>
+      <c r="AL26" s="89"/>
+      <c r="AM26" s="87"/>
+      <c r="AN26" s="88"/>
+      <c r="AO26" s="88"/>
+      <c r="AP26" s="88"/>
+      <c r="AQ26" s="88"/>
+      <c r="AR26" s="88"/>
+      <c r="AS26" s="88"/>
+      <c r="AT26" s="88"/>
+      <c r="AU26" s="88"/>
+      <c r="AV26" s="88"/>
+      <c r="AW26" s="88"/>
+      <c r="AX26" s="88"/>
+      <c r="AY26" s="88"/>
+      <c r="AZ26" s="89"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="9" t="str">
@@ -4190,56 +4169,56 @@
         <v/>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="92"/>
-      <c r="T27" s="92"/>
-      <c r="U27" s="92"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="92"/>
-      <c r="X27" s="92"/>
-      <c r="Y27" s="92"/>
-      <c r="Z27" s="92"/>
-      <c r="AA27" s="92"/>
-      <c r="AB27" s="92"/>
-      <c r="AC27" s="92"/>
-      <c r="AD27" s="92"/>
-      <c r="AE27" s="92"/>
-      <c r="AF27" s="92"/>
-      <c r="AG27" s="92"/>
-      <c r="AH27" s="92"/>
-      <c r="AI27" s="92"/>
-      <c r="AJ27" s="92"/>
-      <c r="AK27" s="92"/>
-      <c r="AL27" s="93"/>
-      <c r="AM27" s="91"/>
-      <c r="AN27" s="92"/>
-      <c r="AO27" s="92"/>
-      <c r="AP27" s="92"/>
-      <c r="AQ27" s="92"/>
-      <c r="AR27" s="92"/>
-      <c r="AS27" s="92"/>
-      <c r="AT27" s="92"/>
-      <c r="AU27" s="92"/>
-      <c r="AV27" s="92"/>
-      <c r="AW27" s="92"/>
-      <c r="AX27" s="92"/>
-      <c r="AY27" s="92"/>
-      <c r="AZ27" s="93"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="89"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="88"/>
+      <c r="W27" s="88"/>
+      <c r="X27" s="88"/>
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="88"/>
+      <c r="AB27" s="88"/>
+      <c r="AC27" s="88"/>
+      <c r="AD27" s="88"/>
+      <c r="AE27" s="88"/>
+      <c r="AF27" s="88"/>
+      <c r="AG27" s="88"/>
+      <c r="AH27" s="88"/>
+      <c r="AI27" s="88"/>
+      <c r="AJ27" s="88"/>
+      <c r="AK27" s="88"/>
+      <c r="AL27" s="89"/>
+      <c r="AM27" s="87"/>
+      <c r="AN27" s="88"/>
+      <c r="AO27" s="88"/>
+      <c r="AP27" s="88"/>
+      <c r="AQ27" s="88"/>
+      <c r="AR27" s="88"/>
+      <c r="AS27" s="88"/>
+      <c r="AT27" s="88"/>
+      <c r="AU27" s="88"/>
+      <c r="AV27" s="88"/>
+      <c r="AW27" s="88"/>
+      <c r="AX27" s="88"/>
+      <c r="AY27" s="88"/>
+      <c r="AZ27" s="89"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="9" t="str">
@@ -4247,56 +4226,56 @@
         <v/>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="92"/>
-      <c r="U28" s="92"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="92"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="92"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="92"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="92"/>
-      <c r="AJ28" s="92"/>
-      <c r="AK28" s="92"/>
-      <c r="AL28" s="93"/>
-      <c r="AM28" s="91"/>
-      <c r="AN28" s="92"/>
-      <c r="AO28" s="92"/>
-      <c r="AP28" s="92"/>
-      <c r="AQ28" s="92"/>
-      <c r="AR28" s="92"/>
-      <c r="AS28" s="92"/>
-      <c r="AT28" s="92"/>
-      <c r="AU28" s="92"/>
-      <c r="AV28" s="92"/>
-      <c r="AW28" s="92"/>
-      <c r="AX28" s="92"/>
-      <c r="AY28" s="92"/>
-      <c r="AZ28" s="93"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="88"/>
+      <c r="X28" s="88"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="88"/>
+      <c r="AA28" s="88"/>
+      <c r="AB28" s="88"/>
+      <c r="AC28" s="88"/>
+      <c r="AD28" s="88"/>
+      <c r="AE28" s="88"/>
+      <c r="AF28" s="88"/>
+      <c r="AG28" s="88"/>
+      <c r="AH28" s="88"/>
+      <c r="AI28" s="88"/>
+      <c r="AJ28" s="88"/>
+      <c r="AK28" s="88"/>
+      <c r="AL28" s="89"/>
+      <c r="AM28" s="87"/>
+      <c r="AN28" s="88"/>
+      <c r="AO28" s="88"/>
+      <c r="AP28" s="88"/>
+      <c r="AQ28" s="88"/>
+      <c r="AR28" s="88"/>
+      <c r="AS28" s="88"/>
+      <c r="AT28" s="88"/>
+      <c r="AU28" s="88"/>
+      <c r="AV28" s="88"/>
+      <c r="AW28" s="88"/>
+      <c r="AX28" s="88"/>
+      <c r="AY28" s="88"/>
+      <c r="AZ28" s="89"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="9" t="str">
@@ -4304,56 +4283,56 @@
         <v/>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="92"/>
-      <c r="S29" s="92"/>
-      <c r="T29" s="92"/>
-      <c r="U29" s="92"/>
-      <c r="V29" s="92"/>
-      <c r="W29" s="92"/>
-      <c r="X29" s="92"/>
-      <c r="Y29" s="92"/>
-      <c r="Z29" s="92"/>
-      <c r="AA29" s="92"/>
-      <c r="AB29" s="92"/>
-      <c r="AC29" s="92"/>
-      <c r="AD29" s="92"/>
-      <c r="AE29" s="92"/>
-      <c r="AF29" s="92"/>
-      <c r="AG29" s="92"/>
-      <c r="AH29" s="92"/>
-      <c r="AI29" s="92"/>
-      <c r="AJ29" s="92"/>
-      <c r="AK29" s="92"/>
-      <c r="AL29" s="93"/>
-      <c r="AM29" s="91"/>
-      <c r="AN29" s="92"/>
-      <c r="AO29" s="92"/>
-      <c r="AP29" s="92"/>
-      <c r="AQ29" s="92"/>
-      <c r="AR29" s="92"/>
-      <c r="AS29" s="92"/>
-      <c r="AT29" s="92"/>
-      <c r="AU29" s="92"/>
-      <c r="AV29" s="92"/>
-      <c r="AW29" s="92"/>
-      <c r="AX29" s="92"/>
-      <c r="AY29" s="92"/>
-      <c r="AZ29" s="93"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="89"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="88"/>
+      <c r="X29" s="88"/>
+      <c r="Y29" s="88"/>
+      <c r="Z29" s="88"/>
+      <c r="AA29" s="88"/>
+      <c r="AB29" s="88"/>
+      <c r="AC29" s="88"/>
+      <c r="AD29" s="88"/>
+      <c r="AE29" s="88"/>
+      <c r="AF29" s="88"/>
+      <c r="AG29" s="88"/>
+      <c r="AH29" s="88"/>
+      <c r="AI29" s="88"/>
+      <c r="AJ29" s="88"/>
+      <c r="AK29" s="88"/>
+      <c r="AL29" s="89"/>
+      <c r="AM29" s="87"/>
+      <c r="AN29" s="88"/>
+      <c r="AO29" s="88"/>
+      <c r="AP29" s="88"/>
+      <c r="AQ29" s="88"/>
+      <c r="AR29" s="88"/>
+      <c r="AS29" s="88"/>
+      <c r="AT29" s="88"/>
+      <c r="AU29" s="88"/>
+      <c r="AV29" s="88"/>
+      <c r="AW29" s="88"/>
+      <c r="AX29" s="88"/>
+      <c r="AY29" s="88"/>
+      <c r="AZ29" s="89"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="9" t="str">
@@ -4361,56 +4340,56 @@
         <v/>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="92"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="92"/>
-      <c r="U30" s="92"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="92"/>
-      <c r="X30" s="92"/>
-      <c r="Y30" s="92"/>
-      <c r="Z30" s="92"/>
-      <c r="AA30" s="92"/>
-      <c r="AB30" s="92"/>
-      <c r="AC30" s="92"/>
-      <c r="AD30" s="92"/>
-      <c r="AE30" s="92"/>
-      <c r="AF30" s="92"/>
-      <c r="AG30" s="92"/>
-      <c r="AH30" s="92"/>
-      <c r="AI30" s="92"/>
-      <c r="AJ30" s="92"/>
-      <c r="AK30" s="92"/>
-      <c r="AL30" s="93"/>
-      <c r="AM30" s="91"/>
-      <c r="AN30" s="92"/>
-      <c r="AO30" s="92"/>
-      <c r="AP30" s="92"/>
-      <c r="AQ30" s="92"/>
-      <c r="AR30" s="92"/>
-      <c r="AS30" s="92"/>
-      <c r="AT30" s="92"/>
-      <c r="AU30" s="92"/>
-      <c r="AV30" s="92"/>
-      <c r="AW30" s="92"/>
-      <c r="AX30" s="92"/>
-      <c r="AY30" s="92"/>
-      <c r="AZ30" s="93"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="89"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="88"/>
+      <c r="W30" s="88"/>
+      <c r="X30" s="88"/>
+      <c r="Y30" s="88"/>
+      <c r="Z30" s="88"/>
+      <c r="AA30" s="88"/>
+      <c r="AB30" s="88"/>
+      <c r="AC30" s="88"/>
+      <c r="AD30" s="88"/>
+      <c r="AE30" s="88"/>
+      <c r="AF30" s="88"/>
+      <c r="AG30" s="88"/>
+      <c r="AH30" s="88"/>
+      <c r="AI30" s="88"/>
+      <c r="AJ30" s="88"/>
+      <c r="AK30" s="88"/>
+      <c r="AL30" s="89"/>
+      <c r="AM30" s="87"/>
+      <c r="AN30" s="88"/>
+      <c r="AO30" s="88"/>
+      <c r="AP30" s="88"/>
+      <c r="AQ30" s="88"/>
+      <c r="AR30" s="88"/>
+      <c r="AS30" s="88"/>
+      <c r="AT30" s="88"/>
+      <c r="AU30" s="88"/>
+      <c r="AV30" s="88"/>
+      <c r="AW30" s="88"/>
+      <c r="AX30" s="88"/>
+      <c r="AY30" s="88"/>
+      <c r="AZ30" s="89"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="9" t="str">
@@ -4418,56 +4397,56 @@
         <v/>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="92"/>
-      <c r="T31" s="92"/>
-      <c r="U31" s="92"/>
-      <c r="V31" s="92"/>
-      <c r="W31" s="92"/>
-      <c r="X31" s="92"/>
-      <c r="Y31" s="92"/>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="92"/>
-      <c r="AB31" s="92"/>
-      <c r="AC31" s="92"/>
-      <c r="AD31" s="92"/>
-      <c r="AE31" s="92"/>
-      <c r="AF31" s="92"/>
-      <c r="AG31" s="92"/>
-      <c r="AH31" s="92"/>
-      <c r="AI31" s="92"/>
-      <c r="AJ31" s="92"/>
-      <c r="AK31" s="92"/>
-      <c r="AL31" s="93"/>
-      <c r="AM31" s="91"/>
-      <c r="AN31" s="92"/>
-      <c r="AO31" s="92"/>
-      <c r="AP31" s="92"/>
-      <c r="AQ31" s="92"/>
-      <c r="AR31" s="92"/>
-      <c r="AS31" s="92"/>
-      <c r="AT31" s="92"/>
-      <c r="AU31" s="92"/>
-      <c r="AV31" s="92"/>
-      <c r="AW31" s="92"/>
-      <c r="AX31" s="92"/>
-      <c r="AY31" s="92"/>
-      <c r="AZ31" s="93"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="88"/>
+      <c r="T31" s="88"/>
+      <c r="U31" s="88"/>
+      <c r="V31" s="88"/>
+      <c r="W31" s="88"/>
+      <c r="X31" s="88"/>
+      <c r="Y31" s="88"/>
+      <c r="Z31" s="88"/>
+      <c r="AA31" s="88"/>
+      <c r="AB31" s="88"/>
+      <c r="AC31" s="88"/>
+      <c r="AD31" s="88"/>
+      <c r="AE31" s="88"/>
+      <c r="AF31" s="88"/>
+      <c r="AG31" s="88"/>
+      <c r="AH31" s="88"/>
+      <c r="AI31" s="88"/>
+      <c r="AJ31" s="88"/>
+      <c r="AK31" s="88"/>
+      <c r="AL31" s="89"/>
+      <c r="AM31" s="87"/>
+      <c r="AN31" s="88"/>
+      <c r="AO31" s="88"/>
+      <c r="AP31" s="88"/>
+      <c r="AQ31" s="88"/>
+      <c r="AR31" s="88"/>
+      <c r="AS31" s="88"/>
+      <c r="AT31" s="88"/>
+      <c r="AU31" s="88"/>
+      <c r="AV31" s="88"/>
+      <c r="AW31" s="88"/>
+      <c r="AX31" s="88"/>
+      <c r="AY31" s="88"/>
+      <c r="AZ31" s="89"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="9" t="str">
@@ -4475,56 +4454,56 @@
         <v/>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="92"/>
-      <c r="S32" s="92"/>
-      <c r="T32" s="92"/>
-      <c r="U32" s="92"/>
-      <c r="V32" s="92"/>
-      <c r="W32" s="92"/>
-      <c r="X32" s="92"/>
-      <c r="Y32" s="92"/>
-      <c r="Z32" s="92"/>
-      <c r="AA32" s="92"/>
-      <c r="AB32" s="92"/>
-      <c r="AC32" s="92"/>
-      <c r="AD32" s="92"/>
-      <c r="AE32" s="92"/>
-      <c r="AF32" s="92"/>
-      <c r="AG32" s="92"/>
-      <c r="AH32" s="92"/>
-      <c r="AI32" s="92"/>
-      <c r="AJ32" s="92"/>
-      <c r="AK32" s="92"/>
-      <c r="AL32" s="93"/>
-      <c r="AM32" s="91"/>
-      <c r="AN32" s="92"/>
-      <c r="AO32" s="92"/>
-      <c r="AP32" s="92"/>
-      <c r="AQ32" s="92"/>
-      <c r="AR32" s="92"/>
-      <c r="AS32" s="92"/>
-      <c r="AT32" s="92"/>
-      <c r="AU32" s="92"/>
-      <c r="AV32" s="92"/>
-      <c r="AW32" s="92"/>
-      <c r="AX32" s="92"/>
-      <c r="AY32" s="92"/>
-      <c r="AZ32" s="93"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="87"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88"/>
+      <c r="U32" s="88"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="88"/>
+      <c r="Y32" s="88"/>
+      <c r="Z32" s="88"/>
+      <c r="AA32" s="88"/>
+      <c r="AB32" s="88"/>
+      <c r="AC32" s="88"/>
+      <c r="AD32" s="88"/>
+      <c r="AE32" s="88"/>
+      <c r="AF32" s="88"/>
+      <c r="AG32" s="88"/>
+      <c r="AH32" s="88"/>
+      <c r="AI32" s="88"/>
+      <c r="AJ32" s="88"/>
+      <c r="AK32" s="88"/>
+      <c r="AL32" s="89"/>
+      <c r="AM32" s="87"/>
+      <c r="AN32" s="88"/>
+      <c r="AO32" s="88"/>
+      <c r="AP32" s="88"/>
+      <c r="AQ32" s="88"/>
+      <c r="AR32" s="88"/>
+      <c r="AS32" s="88"/>
+      <c r="AT32" s="88"/>
+      <c r="AU32" s="88"/>
+      <c r="AV32" s="88"/>
+      <c r="AW32" s="88"/>
+      <c r="AX32" s="88"/>
+      <c r="AY32" s="88"/>
+      <c r="AZ32" s="89"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="9" t="str">
@@ -4532,56 +4511,56 @@
         <v/>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
-      <c r="V33" s="92"/>
-      <c r="W33" s="92"/>
-      <c r="X33" s="92"/>
-      <c r="Y33" s="92"/>
-      <c r="Z33" s="92"/>
-      <c r="AA33" s="92"/>
-      <c r="AB33" s="92"/>
-      <c r="AC33" s="92"/>
-      <c r="AD33" s="92"/>
-      <c r="AE33" s="92"/>
-      <c r="AF33" s="92"/>
-      <c r="AG33" s="92"/>
-      <c r="AH33" s="92"/>
-      <c r="AI33" s="92"/>
-      <c r="AJ33" s="92"/>
-      <c r="AK33" s="92"/>
-      <c r="AL33" s="93"/>
-      <c r="AM33" s="91"/>
-      <c r="AN33" s="92"/>
-      <c r="AO33" s="92"/>
-      <c r="AP33" s="92"/>
-      <c r="AQ33" s="92"/>
-      <c r="AR33" s="92"/>
-      <c r="AS33" s="92"/>
-      <c r="AT33" s="92"/>
-      <c r="AU33" s="92"/>
-      <c r="AV33" s="92"/>
-      <c r="AW33" s="92"/>
-      <c r="AX33" s="92"/>
-      <c r="AY33" s="92"/>
-      <c r="AZ33" s="93"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="89"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="88"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="88"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="88"/>
+      <c r="Y33" s="88"/>
+      <c r="Z33" s="88"/>
+      <c r="AA33" s="88"/>
+      <c r="AB33" s="88"/>
+      <c r="AC33" s="88"/>
+      <c r="AD33" s="88"/>
+      <c r="AE33" s="88"/>
+      <c r="AF33" s="88"/>
+      <c r="AG33" s="88"/>
+      <c r="AH33" s="88"/>
+      <c r="AI33" s="88"/>
+      <c r="AJ33" s="88"/>
+      <c r="AK33" s="88"/>
+      <c r="AL33" s="89"/>
+      <c r="AM33" s="87"/>
+      <c r="AN33" s="88"/>
+      <c r="AO33" s="88"/>
+      <c r="AP33" s="88"/>
+      <c r="AQ33" s="88"/>
+      <c r="AR33" s="88"/>
+      <c r="AS33" s="88"/>
+      <c r="AT33" s="88"/>
+      <c r="AU33" s="88"/>
+      <c r="AV33" s="88"/>
+      <c r="AW33" s="88"/>
+      <c r="AX33" s="88"/>
+      <c r="AY33" s="88"/>
+      <c r="AZ33" s="89"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="9" t="str">
@@ -4589,56 +4568,56 @@
         <v/>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="92"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="92"/>
-      <c r="S34" s="92"/>
-      <c r="T34" s="92"/>
-      <c r="U34" s="92"/>
-      <c r="V34" s="92"/>
-      <c r="W34" s="92"/>
-      <c r="X34" s="92"/>
-      <c r="Y34" s="92"/>
-      <c r="Z34" s="92"/>
-      <c r="AA34" s="92"/>
-      <c r="AB34" s="92"/>
-      <c r="AC34" s="92"/>
-      <c r="AD34" s="92"/>
-      <c r="AE34" s="92"/>
-      <c r="AF34" s="92"/>
-      <c r="AG34" s="92"/>
-      <c r="AH34" s="92"/>
-      <c r="AI34" s="92"/>
-      <c r="AJ34" s="92"/>
-      <c r="AK34" s="92"/>
-      <c r="AL34" s="93"/>
-      <c r="AM34" s="91"/>
-      <c r="AN34" s="92"/>
-      <c r="AO34" s="92"/>
-      <c r="AP34" s="92"/>
-      <c r="AQ34" s="92"/>
-      <c r="AR34" s="92"/>
-      <c r="AS34" s="92"/>
-      <c r="AT34" s="92"/>
-      <c r="AU34" s="92"/>
-      <c r="AV34" s="92"/>
-      <c r="AW34" s="92"/>
-      <c r="AX34" s="92"/>
-      <c r="AY34" s="92"/>
-      <c r="AZ34" s="93"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="88"/>
+      <c r="S34" s="88"/>
+      <c r="T34" s="88"/>
+      <c r="U34" s="88"/>
+      <c r="V34" s="88"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="88"/>
+      <c r="Y34" s="88"/>
+      <c r="Z34" s="88"/>
+      <c r="AA34" s="88"/>
+      <c r="AB34" s="88"/>
+      <c r="AC34" s="88"/>
+      <c r="AD34" s="88"/>
+      <c r="AE34" s="88"/>
+      <c r="AF34" s="88"/>
+      <c r="AG34" s="88"/>
+      <c r="AH34" s="88"/>
+      <c r="AI34" s="88"/>
+      <c r="AJ34" s="88"/>
+      <c r="AK34" s="88"/>
+      <c r="AL34" s="89"/>
+      <c r="AM34" s="87"/>
+      <c r="AN34" s="88"/>
+      <c r="AO34" s="88"/>
+      <c r="AP34" s="88"/>
+      <c r="AQ34" s="88"/>
+      <c r="AR34" s="88"/>
+      <c r="AS34" s="88"/>
+      <c r="AT34" s="88"/>
+      <c r="AU34" s="88"/>
+      <c r="AV34" s="88"/>
+      <c r="AW34" s="88"/>
+      <c r="AX34" s="88"/>
+      <c r="AY34" s="88"/>
+      <c r="AZ34" s="89"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="9" t="str">
@@ -4646,59 +4625,189 @@
         <v/>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="93"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="92"/>
-      <c r="S35" s="92"/>
-      <c r="T35" s="92"/>
-      <c r="U35" s="92"/>
-      <c r="V35" s="92"/>
-      <c r="W35" s="92"/>
-      <c r="X35" s="92"/>
-      <c r="Y35" s="92"/>
-      <c r="Z35" s="92"/>
-      <c r="AA35" s="92"/>
-      <c r="AB35" s="92"/>
-      <c r="AC35" s="92"/>
-      <c r="AD35" s="92"/>
-      <c r="AE35" s="92"/>
-      <c r="AF35" s="92"/>
-      <c r="AG35" s="92"/>
-      <c r="AH35" s="92"/>
-      <c r="AI35" s="92"/>
-      <c r="AJ35" s="92"/>
-      <c r="AK35" s="92"/>
-      <c r="AL35" s="93"/>
-      <c r="AM35" s="91"/>
-      <c r="AN35" s="92"/>
-      <c r="AO35" s="92"/>
-      <c r="AP35" s="92"/>
-      <c r="AQ35" s="92"/>
-      <c r="AR35" s="92"/>
-      <c r="AS35" s="92"/>
-      <c r="AT35" s="92"/>
-      <c r="AU35" s="92"/>
-      <c r="AV35" s="92"/>
-      <c r="AW35" s="92"/>
-      <c r="AX35" s="92"/>
-      <c r="AY35" s="92"/>
-      <c r="AZ35" s="93"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="89"/>
+      <c r="Q35" s="87"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="88"/>
+      <c r="T35" s="88"/>
+      <c r="U35" s="88"/>
+      <c r="V35" s="88"/>
+      <c r="W35" s="88"/>
+      <c r="X35" s="88"/>
+      <c r="Y35" s="88"/>
+      <c r="Z35" s="88"/>
+      <c r="AA35" s="88"/>
+      <c r="AB35" s="88"/>
+      <c r="AC35" s="88"/>
+      <c r="AD35" s="88"/>
+      <c r="AE35" s="88"/>
+      <c r="AF35" s="88"/>
+      <c r="AG35" s="88"/>
+      <c r="AH35" s="88"/>
+      <c r="AI35" s="88"/>
+      <c r="AJ35" s="88"/>
+      <c r="AK35" s="88"/>
+      <c r="AL35" s="89"/>
+      <c r="AM35" s="87"/>
+      <c r="AN35" s="88"/>
+      <c r="AO35" s="88"/>
+      <c r="AP35" s="88"/>
+      <c r="AQ35" s="88"/>
+      <c r="AR35" s="88"/>
+      <c r="AS35" s="88"/>
+      <c r="AT35" s="88"/>
+      <c r="AU35" s="88"/>
+      <c r="AV35" s="88"/>
+      <c r="AW35" s="88"/>
+      <c r="AX35" s="88"/>
+      <c r="AY35" s="88"/>
+      <c r="AZ35" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="Q34:AL34"/>
+    <mergeCell ref="AM34:AZ34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="Q35:AL35"/>
+    <mergeCell ref="AM35:AZ35"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:AL32"/>
+    <mergeCell ref="AM32:AZ32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Q33:AL33"/>
+    <mergeCell ref="AM33:AZ33"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:AL30"/>
+    <mergeCell ref="AM30:AZ30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:AL31"/>
+    <mergeCell ref="AM31:AZ31"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:AL28"/>
+    <mergeCell ref="AM28:AZ28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:AL29"/>
+    <mergeCell ref="AM29:AZ29"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:AL26"/>
+    <mergeCell ref="AM26:AZ26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:AL27"/>
+    <mergeCell ref="AM27:AZ27"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:AL24"/>
+    <mergeCell ref="AM24:AZ24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:AL25"/>
+    <mergeCell ref="AM25:AZ25"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:AL22"/>
+    <mergeCell ref="AM22:AZ22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:AL23"/>
+    <mergeCell ref="AM23:AZ23"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:AL21"/>
+    <mergeCell ref="AM21:AZ21"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:AL19"/>
+    <mergeCell ref="AM19:AZ19"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:AL17"/>
+    <mergeCell ref="AM17:AZ17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:AL14"/>
+    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AL15"/>
+    <mergeCell ref="AM15:AZ15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:AL12"/>
+    <mergeCell ref="AM12:AZ12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:AL13"/>
+    <mergeCell ref="AM13:AZ13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:AL10"/>
+    <mergeCell ref="AM10:AZ10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:AL11"/>
+    <mergeCell ref="AM11:AZ11"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:P8"/>
     <mergeCell ref="Q8:AL8"/>
@@ -4709,136 +4818,6 @@
     <mergeCell ref="L9:P9"/>
     <mergeCell ref="Q9:AL9"/>
     <mergeCell ref="AM9:AZ9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:AL11"/>
-    <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:AL12"/>
-    <mergeCell ref="AM12:AZ12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:AL13"/>
-    <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:AL15"/>
-    <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:AL19"/>
-    <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:AL21"/>
-    <mergeCell ref="AM21:AZ21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:AL22"/>
-    <mergeCell ref="AM22:AZ22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:AL23"/>
-    <mergeCell ref="AM23:AZ23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:AL24"/>
-    <mergeCell ref="AM24:AZ24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:AL25"/>
-    <mergeCell ref="AM25:AZ25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:AL26"/>
-    <mergeCell ref="AM26:AZ26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:AL27"/>
-    <mergeCell ref="AM27:AZ27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:AL28"/>
-    <mergeCell ref="AM28:AZ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:AL29"/>
-    <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:AL30"/>
-    <mergeCell ref="AM30:AZ30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:AL31"/>
-    <mergeCell ref="AM31:AZ31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:AL32"/>
-    <mergeCell ref="AM32:AZ32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Q33:AL33"/>
-    <mergeCell ref="AM33:AZ33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="Q34:AL34"/>
-    <mergeCell ref="AM34:AZ34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="Q35:AL35"/>
-    <mergeCell ref="AM35:AZ35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4850,7 +4829,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9307939-537D-9F44-B482-1E22BD0105F1}">
-  <dimension ref="A1:BG93"/>
+  <dimension ref="A1:BG90"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
@@ -5102,7 +5081,7 @@
     </row>
     <row r="6" spans="1:51" customFormat="1">
       <c r="A6" s="36" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
@@ -7555,47 +7534,47 @@
       <c r="O55" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="P55" s="56"/>
-      <c r="Q55" s="56"/>
-      <c r="R55" s="56"/>
-      <c r="S55" s="56"/>
-      <c r="T55" s="57"/>
+      <c r="P55" s="55"/>
+      <c r="Q55" s="55"/>
+      <c r="R55" s="55"/>
+      <c r="S55" s="55"/>
+      <c r="T55" s="56"/>
       <c r="U55" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="V55" s="56"/>
-      <c r="W55" s="56"/>
-      <c r="X55" s="56"/>
-      <c r="Y55" s="56"/>
-      <c r="Z55" s="56"/>
-      <c r="AA55" s="56"/>
-      <c r="AB55" s="56"/>
-      <c r="AC55" s="56"/>
-      <c r="AD55" s="57"/>
+      <c r="V55" s="55"/>
+      <c r="W55" s="55"/>
+      <c r="X55" s="55"/>
+      <c r="Y55" s="55"/>
+      <c r="Z55" s="55"/>
+      <c r="AA55" s="55"/>
+      <c r="AB55" s="55"/>
+      <c r="AC55" s="55"/>
+      <c r="AD55" s="56"/>
       <c r="AE55" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AF55" s="56"/>
-      <c r="AG55" s="56"/>
-      <c r="AH55" s="56"/>
-      <c r="AI55" s="57"/>
+      <c r="AF55" s="55"/>
+      <c r="AG55" s="55"/>
+      <c r="AH55" s="55"/>
+      <c r="AI55" s="56"/>
       <c r="AJ55" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AK55" s="56"/>
-      <c r="AL55" s="56"/>
-      <c r="AM55" s="56"/>
-      <c r="AN55" s="56"/>
-      <c r="AO55" s="56"/>
-      <c r="AP55" s="57"/>
+      <c r="AK55" s="55"/>
+      <c r="AL55" s="55"/>
+      <c r="AM55" s="55"/>
+      <c r="AN55" s="55"/>
+      <c r="AO55" s="55"/>
+      <c r="AP55" s="56"/>
       <c r="AQ55" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="AR55" s="56"/>
-      <c r="AS55" s="56"/>
-      <c r="AT55" s="56"/>
-      <c r="AU55" s="56"/>
-      <c r="AV55" s="56"/>
+      <c r="AR55" s="55"/>
+      <c r="AS55" s="55"/>
+      <c r="AT55" s="55"/>
+      <c r="AU55" s="55"/>
+      <c r="AV55" s="55"/>
       <c r="AW55" s="40"/>
     </row>
     <row r="56" spans="1:51">
@@ -7621,45 +7600,45 @@
       <c r="O56" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="P56" s="56"/>
-      <c r="Q56" s="56"/>
-      <c r="R56" s="56"/>
-      <c r="S56" s="56"/>
-      <c r="T56" s="57"/>
+      <c r="P56" s="55"/>
+      <c r="Q56" s="55"/>
+      <c r="R56" s="55"/>
+      <c r="S56" s="55"/>
+      <c r="T56" s="56"/>
       <c r="U56" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="V56" s="56"/>
-      <c r="W56" s="56"/>
-      <c r="X56" s="56"/>
-      <c r="Y56" s="56"/>
-      <c r="Z56" s="56"/>
-      <c r="AA56" s="56"/>
-      <c r="AB56" s="56"/>
-      <c r="AC56" s="56"/>
-      <c r="AD56" s="57"/>
+      <c r="V56" s="55"/>
+      <c r="W56" s="55"/>
+      <c r="X56" s="55"/>
+      <c r="Y56" s="55"/>
+      <c r="Z56" s="55"/>
+      <c r="AA56" s="55"/>
+      <c r="AB56" s="55"/>
+      <c r="AC56" s="55"/>
+      <c r="AD56" s="56"/>
       <c r="AE56" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AF56" s="56"/>
-      <c r="AG56" s="56"/>
-      <c r="AH56" s="56"/>
-      <c r="AI56" s="57"/>
+      <c r="AF56" s="55"/>
+      <c r="AG56" s="55"/>
+      <c r="AH56" s="55"/>
+      <c r="AI56" s="56"/>
       <c r="AJ56" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AK56" s="56"/>
-      <c r="AL56" s="56"/>
-      <c r="AM56" s="56"/>
-      <c r="AN56" s="56"/>
-      <c r="AO56" s="56"/>
-      <c r="AP56" s="57"/>
+      <c r="AK56" s="55"/>
+      <c r="AL56" s="55"/>
+      <c r="AM56" s="55"/>
+      <c r="AN56" s="55"/>
+      <c r="AO56" s="55"/>
+      <c r="AP56" s="56"/>
       <c r="AQ56" s="51"/>
-      <c r="AR56" s="56"/>
-      <c r="AS56" s="56"/>
-      <c r="AT56" s="56"/>
-      <c r="AU56" s="56"/>
-      <c r="AV56" s="56"/>
+      <c r="AR56" s="55"/>
+      <c r="AS56" s="55"/>
+      <c r="AT56" s="55"/>
+      <c r="AU56" s="55"/>
+      <c r="AV56" s="55"/>
       <c r="AW56" s="40"/>
     </row>
     <row r="57" spans="1:51">
@@ -7685,45 +7664,45 @@
       <c r="O57" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="P57" s="56"/>
-      <c r="Q57" s="56"/>
-      <c r="R57" s="56"/>
-      <c r="S57" s="56"/>
-      <c r="T57" s="57"/>
+      <c r="P57" s="55"/>
+      <c r="Q57" s="55"/>
+      <c r="R57" s="55"/>
+      <c r="S57" s="55"/>
+      <c r="T57" s="56"/>
       <c r="U57" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="V57" s="56"/>
-      <c r="W57" s="56"/>
-      <c r="X57" s="56"/>
-      <c r="Y57" s="56"/>
-      <c r="Z57" s="56"/>
-      <c r="AA57" s="56"/>
-      <c r="AB57" s="56"/>
-      <c r="AC57" s="56"/>
-      <c r="AD57" s="57"/>
+      <c r="V57" s="55"/>
+      <c r="W57" s="55"/>
+      <c r="X57" s="55"/>
+      <c r="Y57" s="55"/>
+      <c r="Z57" s="55"/>
+      <c r="AA57" s="55"/>
+      <c r="AB57" s="55"/>
+      <c r="AC57" s="55"/>
+      <c r="AD57" s="56"/>
       <c r="AE57" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AF57" s="56"/>
-      <c r="AG57" s="56"/>
-      <c r="AH57" s="56"/>
-      <c r="AI57" s="57"/>
+      <c r="AF57" s="55"/>
+      <c r="AG57" s="55"/>
+      <c r="AH57" s="55"/>
+      <c r="AI57" s="56"/>
       <c r="AJ57" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AK57" s="56"/>
-      <c r="AL57" s="56"/>
-      <c r="AM57" s="56"/>
-      <c r="AN57" s="56"/>
-      <c r="AO57" s="56"/>
-      <c r="AP57" s="57"/>
+      <c r="AK57" s="55"/>
+      <c r="AL57" s="55"/>
+      <c r="AM57" s="55"/>
+      <c r="AN57" s="55"/>
+      <c r="AO57" s="55"/>
+      <c r="AP57" s="56"/>
       <c r="AQ57" s="51"/>
-      <c r="AR57" s="56"/>
-      <c r="AS57" s="56"/>
-      <c r="AT57" s="56"/>
-      <c r="AU57" s="56"/>
-      <c r="AV57" s="56"/>
+      <c r="AR57" s="55"/>
+      <c r="AS57" s="55"/>
+      <c r="AT57" s="55"/>
+      <c r="AU57" s="55"/>
+      <c r="AV57" s="55"/>
       <c r="AW57" s="40"/>
     </row>
     <row r="58" spans="1:51">
@@ -7749,45 +7728,45 @@
       <c r="O58" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="P58" s="56"/>
-      <c r="Q58" s="56"/>
-      <c r="R58" s="56"/>
-      <c r="S58" s="56"/>
-      <c r="T58" s="57"/>
+      <c r="P58" s="55"/>
+      <c r="Q58" s="55"/>
+      <c r="R58" s="55"/>
+      <c r="S58" s="55"/>
+      <c r="T58" s="56"/>
       <c r="U58" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="V58" s="56"/>
-      <c r="W58" s="56"/>
-      <c r="X58" s="56"/>
-      <c r="Y58" s="56"/>
-      <c r="Z58" s="56"/>
-      <c r="AA58" s="56"/>
-      <c r="AB58" s="56"/>
-      <c r="AC58" s="56"/>
-      <c r="AD58" s="57"/>
+      <c r="V58" s="55"/>
+      <c r="W58" s="55"/>
+      <c r="X58" s="55"/>
+      <c r="Y58" s="55"/>
+      <c r="Z58" s="55"/>
+      <c r="AA58" s="55"/>
+      <c r="AB58" s="55"/>
+      <c r="AC58" s="55"/>
+      <c r="AD58" s="56"/>
       <c r="AE58" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AF58" s="56"/>
-      <c r="AG58" s="56"/>
-      <c r="AH58" s="56"/>
-      <c r="AI58" s="57"/>
+      <c r="AF58" s="55"/>
+      <c r="AG58" s="55"/>
+      <c r="AH58" s="55"/>
+      <c r="AI58" s="56"/>
       <c r="AJ58" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AK58" s="56"/>
-      <c r="AL58" s="56"/>
-      <c r="AM58" s="56"/>
-      <c r="AN58" s="56"/>
-      <c r="AO58" s="56"/>
-      <c r="AP58" s="57"/>
+      <c r="AK58" s="55"/>
+      <c r="AL58" s="55"/>
+      <c r="AM58" s="55"/>
+      <c r="AN58" s="55"/>
+      <c r="AO58" s="55"/>
+      <c r="AP58" s="56"/>
       <c r="AQ58" s="51"/>
-      <c r="AR58" s="56"/>
-      <c r="AS58" s="56"/>
-      <c r="AT58" s="56"/>
-      <c r="AU58" s="56"/>
-      <c r="AV58" s="56"/>
+      <c r="AR58" s="55"/>
+      <c r="AS58" s="55"/>
+      <c r="AT58" s="55"/>
+      <c r="AU58" s="55"/>
+      <c r="AV58" s="55"/>
       <c r="AW58" s="40"/>
     </row>
     <row r="59" spans="1:51">
@@ -7813,45 +7792,45 @@
       <c r="O59" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="P59" s="56"/>
-      <c r="Q59" s="56"/>
-      <c r="R59" s="56"/>
-      <c r="S59" s="56"/>
-      <c r="T59" s="57"/>
+      <c r="P59" s="55"/>
+      <c r="Q59" s="55"/>
+      <c r="R59" s="55"/>
+      <c r="S59" s="55"/>
+      <c r="T59" s="56"/>
       <c r="U59" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="V59" s="56"/>
-      <c r="W59" s="56"/>
-      <c r="X59" s="56"/>
-      <c r="Y59" s="56"/>
-      <c r="Z59" s="56"/>
-      <c r="AA59" s="56"/>
-      <c r="AB59" s="56"/>
-      <c r="AC59" s="56"/>
-      <c r="AD59" s="57"/>
+      <c r="V59" s="55"/>
+      <c r="W59" s="55"/>
+      <c r="X59" s="55"/>
+      <c r="Y59" s="55"/>
+      <c r="Z59" s="55"/>
+      <c r="AA59" s="55"/>
+      <c r="AB59" s="55"/>
+      <c r="AC59" s="55"/>
+      <c r="AD59" s="56"/>
       <c r="AE59" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AF59" s="56"/>
-      <c r="AG59" s="56"/>
-      <c r="AH59" s="56"/>
-      <c r="AI59" s="57"/>
+      <c r="AF59" s="55"/>
+      <c r="AG59" s="55"/>
+      <c r="AH59" s="55"/>
+      <c r="AI59" s="56"/>
       <c r="AJ59" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="AK59" s="56"/>
-      <c r="AL59" s="56"/>
-      <c r="AM59" s="56"/>
-      <c r="AN59" s="56"/>
-      <c r="AO59" s="56"/>
-      <c r="AP59" s="57"/>
+      <c r="AK59" s="55"/>
+      <c r="AL59" s="55"/>
+      <c r="AM59" s="55"/>
+      <c r="AN59" s="55"/>
+      <c r="AO59" s="55"/>
+      <c r="AP59" s="56"/>
       <c r="AQ59" s="51"/>
-      <c r="AR59" s="56"/>
-      <c r="AS59" s="56"/>
-      <c r="AT59" s="56"/>
-      <c r="AU59" s="56"/>
-      <c r="AV59" s="56"/>
+      <c r="AR59" s="55"/>
+      <c r="AS59" s="55"/>
+      <c r="AT59" s="55"/>
+      <c r="AU59" s="55"/>
+      <c r="AV59" s="55"/>
       <c r="AW59" s="40"/>
     </row>
     <row r="60" spans="1:51">
@@ -7877,45 +7856,45 @@
       <c r="O60" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="P60" s="56"/>
-      <c r="Q60" s="56"/>
-      <c r="R60" s="56"/>
-      <c r="S60" s="56"/>
-      <c r="T60" s="57"/>
+      <c r="P60" s="55"/>
+      <c r="Q60" s="55"/>
+      <c r="R60" s="55"/>
+      <c r="S60" s="55"/>
+      <c r="T60" s="56"/>
       <c r="U60" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="V60" s="56"/>
-      <c r="W60" s="56"/>
-      <c r="X60" s="56"/>
-      <c r="Y60" s="56"/>
-      <c r="Z60" s="56"/>
-      <c r="AA60" s="56"/>
-      <c r="AB60" s="56"/>
-      <c r="AC60" s="56"/>
-      <c r="AD60" s="57"/>
+      <c r="V60" s="55"/>
+      <c r="W60" s="55"/>
+      <c r="X60" s="55"/>
+      <c r="Y60" s="55"/>
+      <c r="Z60" s="55"/>
+      <c r="AA60" s="55"/>
+      <c r="AB60" s="55"/>
+      <c r="AC60" s="55"/>
+      <c r="AD60" s="56"/>
       <c r="AE60" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AF60" s="56"/>
-      <c r="AG60" s="56"/>
-      <c r="AH60" s="56"/>
-      <c r="AI60" s="57"/>
+      <c r="AF60" s="55"/>
+      <c r="AG60" s="55"/>
+      <c r="AH60" s="55"/>
+      <c r="AI60" s="56"/>
       <c r="AJ60" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AK60" s="56"/>
-      <c r="AL60" s="56"/>
-      <c r="AM60" s="56"/>
-      <c r="AN60" s="56"/>
-      <c r="AO60" s="56"/>
-      <c r="AP60" s="57"/>
+      <c r="AK60" s="55"/>
+      <c r="AL60" s="55"/>
+      <c r="AM60" s="55"/>
+      <c r="AN60" s="55"/>
+      <c r="AO60" s="55"/>
+      <c r="AP60" s="56"/>
       <c r="AQ60" s="51"/>
-      <c r="AR60" s="56"/>
-      <c r="AS60" s="56"/>
-      <c r="AT60" s="56"/>
-      <c r="AU60" s="56"/>
-      <c r="AV60" s="56"/>
+      <c r="AR60" s="55"/>
+      <c r="AS60" s="55"/>
+      <c r="AT60" s="55"/>
+      <c r="AU60" s="55"/>
+      <c r="AV60" s="55"/>
       <c r="AW60" s="40"/>
     </row>
     <row r="61" spans="1:51">
@@ -7941,45 +7920,45 @@
       <c r="O61" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="P61" s="56"/>
-      <c r="Q61" s="56"/>
-      <c r="R61" s="56"/>
-      <c r="S61" s="56"/>
-      <c r="T61" s="57"/>
+      <c r="P61" s="55"/>
+      <c r="Q61" s="55"/>
+      <c r="R61" s="55"/>
+      <c r="S61" s="55"/>
+      <c r="T61" s="56"/>
       <c r="U61" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="V61" s="56"/>
-      <c r="W61" s="56"/>
-      <c r="X61" s="56"/>
-      <c r="Y61" s="56"/>
-      <c r="Z61" s="56"/>
-      <c r="AA61" s="56"/>
-      <c r="AB61" s="56"/>
-      <c r="AC61" s="56"/>
-      <c r="AD61" s="57"/>
+      <c r="V61" s="55"/>
+      <c r="W61" s="55"/>
+      <c r="X61" s="55"/>
+      <c r="Y61" s="55"/>
+      <c r="Z61" s="55"/>
+      <c r="AA61" s="55"/>
+      <c r="AB61" s="55"/>
+      <c r="AC61" s="55"/>
+      <c r="AD61" s="56"/>
       <c r="AE61" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AF61" s="56"/>
-      <c r="AG61" s="56"/>
-      <c r="AH61" s="56"/>
-      <c r="AI61" s="57"/>
+      <c r="AF61" s="55"/>
+      <c r="AG61" s="55"/>
+      <c r="AH61" s="55"/>
+      <c r="AI61" s="56"/>
       <c r="AJ61" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="AK61" s="56"/>
-      <c r="AL61" s="56"/>
-      <c r="AM61" s="56"/>
-      <c r="AN61" s="56"/>
-      <c r="AO61" s="56"/>
-      <c r="AP61" s="57"/>
+      <c r="AK61" s="55"/>
+      <c r="AL61" s="55"/>
+      <c r="AM61" s="55"/>
+      <c r="AN61" s="55"/>
+      <c r="AO61" s="55"/>
+      <c r="AP61" s="56"/>
       <c r="AQ61" s="51"/>
-      <c r="AR61" s="56"/>
-      <c r="AS61" s="56"/>
-      <c r="AT61" s="56"/>
-      <c r="AU61" s="56"/>
-      <c r="AV61" s="56"/>
+      <c r="AR61" s="55"/>
+      <c r="AS61" s="55"/>
+      <c r="AT61" s="55"/>
+      <c r="AU61" s="55"/>
+      <c r="AV61" s="55"/>
       <c r="AW61" s="40"/>
     </row>
     <row r="62" spans="1:51">
@@ -8005,45 +7984,45 @@
       <c r="O62" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="P62" s="56"/>
-      <c r="Q62" s="56"/>
-      <c r="R62" s="56"/>
-      <c r="S62" s="56"/>
-      <c r="T62" s="57"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="55"/>
+      <c r="S62" s="55"/>
+      <c r="T62" s="56"/>
       <c r="U62" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="V62" s="56"/>
-      <c r="W62" s="56"/>
-      <c r="X62" s="56"/>
-      <c r="Y62" s="56"/>
-      <c r="Z62" s="56"/>
-      <c r="AA62" s="56"/>
-      <c r="AB62" s="56"/>
-      <c r="AC62" s="56"/>
-      <c r="AD62" s="57"/>
+      <c r="V62" s="55"/>
+      <c r="W62" s="55"/>
+      <c r="X62" s="55"/>
+      <c r="Y62" s="55"/>
+      <c r="Z62" s="55"/>
+      <c r="AA62" s="55"/>
+      <c r="AB62" s="55"/>
+      <c r="AC62" s="55"/>
+      <c r="AD62" s="56"/>
       <c r="AE62" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AF62" s="56"/>
-      <c r="AG62" s="56"/>
-      <c r="AH62" s="56"/>
-      <c r="AI62" s="57"/>
+      <c r="AF62" s="55"/>
+      <c r="AG62" s="55"/>
+      <c r="AH62" s="55"/>
+      <c r="AI62" s="56"/>
       <c r="AJ62" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AK62" s="56"/>
-      <c r="AL62" s="56"/>
-      <c r="AM62" s="56"/>
-      <c r="AN62" s="56"/>
-      <c r="AO62" s="56"/>
-      <c r="AP62" s="57"/>
+      <c r="AK62" s="55"/>
+      <c r="AL62" s="55"/>
+      <c r="AM62" s="55"/>
+      <c r="AN62" s="55"/>
+      <c r="AO62" s="55"/>
+      <c r="AP62" s="56"/>
       <c r="AQ62" s="51"/>
-      <c r="AR62" s="56"/>
-      <c r="AS62" s="56"/>
-      <c r="AT62" s="56"/>
-      <c r="AU62" s="56"/>
-      <c r="AV62" s="56"/>
+      <c r="AR62" s="55"/>
+      <c r="AS62" s="55"/>
+      <c r="AT62" s="55"/>
+      <c r="AU62" s="55"/>
+      <c r="AV62" s="55"/>
       <c r="AW62" s="40"/>
     </row>
     <row r="63" spans="1:51">
@@ -8069,45 +8048,45 @@
       <c r="O63" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="P63" s="56"/>
-      <c r="Q63" s="56"/>
-      <c r="R63" s="56"/>
-      <c r="S63" s="56"/>
-      <c r="T63" s="57"/>
+      <c r="P63" s="55"/>
+      <c r="Q63" s="55"/>
+      <c r="R63" s="55"/>
+      <c r="S63" s="55"/>
+      <c r="T63" s="56"/>
       <c r="U63" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="V63" s="56"/>
-      <c r="W63" s="56"/>
-      <c r="X63" s="56"/>
-      <c r="Y63" s="56"/>
-      <c r="Z63" s="56"/>
-      <c r="AA63" s="56"/>
-      <c r="AB63" s="56"/>
-      <c r="AC63" s="56"/>
-      <c r="AD63" s="57"/>
+      <c r="V63" s="55"/>
+      <c r="W63" s="55"/>
+      <c r="X63" s="55"/>
+      <c r="Y63" s="55"/>
+      <c r="Z63" s="55"/>
+      <c r="AA63" s="55"/>
+      <c r="AB63" s="55"/>
+      <c r="AC63" s="55"/>
+      <c r="AD63" s="56"/>
       <c r="AE63" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AF63" s="56"/>
-      <c r="AG63" s="56"/>
-      <c r="AH63" s="56"/>
-      <c r="AI63" s="57"/>
+      <c r="AF63" s="55"/>
+      <c r="AG63" s="55"/>
+      <c r="AH63" s="55"/>
+      <c r="AI63" s="56"/>
       <c r="AJ63" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AK63" s="56"/>
-      <c r="AL63" s="56"/>
-      <c r="AM63" s="56"/>
-      <c r="AN63" s="56"/>
-      <c r="AO63" s="56"/>
-      <c r="AP63" s="57"/>
+      <c r="AK63" s="55"/>
+      <c r="AL63" s="55"/>
+      <c r="AM63" s="55"/>
+      <c r="AN63" s="55"/>
+      <c r="AO63" s="55"/>
+      <c r="AP63" s="56"/>
       <c r="AQ63" s="51"/>
-      <c r="AR63" s="56"/>
-      <c r="AS63" s="56"/>
-      <c r="AT63" s="56"/>
-      <c r="AU63" s="56"/>
-      <c r="AV63" s="56"/>
+      <c r="AR63" s="55"/>
+      <c r="AS63" s="55"/>
+      <c r="AT63" s="55"/>
+      <c r="AU63" s="55"/>
+      <c r="AV63" s="55"/>
       <c r="AW63" s="40"/>
     </row>
     <row r="64" spans="1:51">
@@ -8133,402 +8112,401 @@
       <c r="O64" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="P64" s="56"/>
-      <c r="Q64" s="56"/>
-      <c r="R64" s="56"/>
-      <c r="S64" s="56"/>
-      <c r="T64" s="57"/>
+      <c r="P64" s="55"/>
+      <c r="Q64" s="55"/>
+      <c r="R64" s="55"/>
+      <c r="S64" s="55"/>
+      <c r="T64" s="56"/>
       <c r="U64" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="V64" s="56"/>
-      <c r="W64" s="56"/>
-      <c r="X64" s="56"/>
-      <c r="Y64" s="56"/>
-      <c r="Z64" s="56"/>
-      <c r="AA64" s="56"/>
-      <c r="AB64" s="56"/>
-      <c r="AC64" s="56"/>
-      <c r="AD64" s="57"/>
+      <c r="V64" s="55"/>
+      <c r="W64" s="55"/>
+      <c r="X64" s="55"/>
+      <c r="Y64" s="55"/>
+      <c r="Z64" s="55"/>
+      <c r="AA64" s="55"/>
+      <c r="AB64" s="55"/>
+      <c r="AC64" s="55"/>
+      <c r="AD64" s="56"/>
       <c r="AE64" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AF64" s="56"/>
-      <c r="AG64" s="56"/>
-      <c r="AH64" s="56"/>
-      <c r="AI64" s="57"/>
+      <c r="AF64" s="55"/>
+      <c r="AG64" s="55"/>
+      <c r="AH64" s="55"/>
+      <c r="AI64" s="56"/>
       <c r="AJ64" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="AK64" s="56"/>
-      <c r="AL64" s="56"/>
-      <c r="AM64" s="56"/>
-      <c r="AN64" s="56"/>
-      <c r="AO64" s="56"/>
-      <c r="AP64" s="57"/>
+      <c r="AK64" s="55"/>
+      <c r="AL64" s="55"/>
+      <c r="AM64" s="55"/>
+      <c r="AN64" s="55"/>
+      <c r="AO64" s="55"/>
+      <c r="AP64" s="56"/>
       <c r="AQ64" s="51"/>
-      <c r="AR64" s="56"/>
-      <c r="AS64" s="56"/>
-      <c r="AT64" s="56"/>
-      <c r="AU64" s="56"/>
-      <c r="AV64" s="56"/>
+      <c r="AR64" s="55"/>
+      <c r="AS64" s="55"/>
+      <c r="AT64" s="55"/>
+      <c r="AU64" s="55"/>
+      <c r="AV64" s="55"/>
       <c r="AW64" s="40"/>
     </row>
-    <row r="65" spans="1:59" s="27" customFormat="1">
+    <row r="65" spans="1:59">
       <c r="A65" s="36"/>
-      <c r="B65" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="53"/>
-      <c r="N65" s="53"/>
-      <c r="O65" s="53"/>
-      <c r="P65" s="55"/>
-      <c r="Q65" s="55"/>
-      <c r="R65" s="55"/>
-      <c r="S65" s="55"/>
-      <c r="T65" s="55"/>
-      <c r="U65" s="55"/>
-      <c r="V65" s="55"/>
-      <c r="W65" s="55"/>
-      <c r="X65" s="55"/>
-      <c r="Y65" s="55"/>
-      <c r="Z65" s="55"/>
-      <c r="AA65" s="55"/>
-      <c r="AB65" s="55"/>
-      <c r="AC65" s="55"/>
-      <c r="AD65" s="55"/>
-      <c r="AE65" s="55"/>
-      <c r="AF65" s="55"/>
-      <c r="AG65" s="55"/>
-      <c r="AH65" s="55"/>
-      <c r="AI65" s="55"/>
-      <c r="AJ65" s="55"/>
-      <c r="AK65" s="55"/>
-      <c r="AL65" s="55"/>
-      <c r="AM65" s="55"/>
-      <c r="AN65" s="55"/>
-      <c r="AO65" s="55"/>
-      <c r="AP65" s="55"/>
-      <c r="AQ65" s="55"/>
-      <c r="AR65" s="55"/>
-      <c r="AS65" s="55"/>
-      <c r="AT65" s="55"/>
-      <c r="AU65" s="55"/>
-      <c r="AV65" s="55"/>
-      <c r="AW65" s="54"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
+      <c r="U65" s="21"/>
+      <c r="V65" s="21"/>
+      <c r="W65" s="21"/>
+      <c r="X65" s="21"/>
+      <c r="Y65" s="21"/>
+      <c r="Z65" s="21"/>
+      <c r="AA65" s="21"/>
+      <c r="AB65" s="21"/>
+      <c r="AC65" s="21"/>
+      <c r="AD65" s="21"/>
+      <c r="AE65" s="21"/>
+      <c r="AF65" s="21"/>
+      <c r="AG65" s="21"/>
+      <c r="AH65" s="21"/>
+      <c r="AI65" s="21"/>
+      <c r="AJ65" s="21"/>
+      <c r="AK65" s="21"/>
+      <c r="AL65" s="21"/>
+      <c r="AM65" s="21"/>
+      <c r="AN65" s="21"/>
+      <c r="AO65" s="21"/>
+      <c r="AP65" s="21"/>
+      <c r="AQ65" s="21"/>
+      <c r="AR65" s="21"/>
+      <c r="AS65" s="21"/>
+      <c r="AT65" s="21"/>
     </row>
     <row r="66" spans="1:59">
       <c r="A66" s="36"/>
-      <c r="B66" s="41">
-        <f>ROW()-55</f>
-        <v>11</v>
-      </c>
-      <c r="C66" s="40"/>
-      <c r="D66" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="J66" s="39"/>
-      <c r="K66" s="39"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="39"/>
-      <c r="N66" s="40"/>
-      <c r="O66" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="P66" s="56"/>
-      <c r="Q66" s="56"/>
-      <c r="R66" s="56"/>
-      <c r="S66" s="56"/>
-      <c r="T66" s="57"/>
-      <c r="U66" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="V66" s="56"/>
-      <c r="W66" s="56"/>
-      <c r="X66" s="56"/>
-      <c r="Y66" s="56"/>
-      <c r="Z66" s="56"/>
-      <c r="AA66" s="56"/>
-      <c r="AB66" s="56"/>
-      <c r="AC66" s="56"/>
-      <c r="AD66" s="57"/>
-      <c r="AE66" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF66" s="56"/>
-      <c r="AG66" s="56"/>
-      <c r="AH66" s="56"/>
-      <c r="AI66" s="57"/>
-      <c r="AJ66" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK66" s="56"/>
-      <c r="AL66" s="56"/>
-      <c r="AM66" s="56"/>
-      <c r="AN66" s="56"/>
-      <c r="AO66" s="56"/>
-      <c r="AP66" s="57"/>
-      <c r="AQ66" s="51"/>
-      <c r="AR66" s="56"/>
-      <c r="AS66" s="56"/>
-      <c r="AT66" s="56"/>
-      <c r="AU66" s="56"/>
-      <c r="AV66" s="56"/>
-      <c r="AW66" s="40"/>
-    </row>
-    <row r="67" spans="1:59">
+      <c r="B66" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="21"/>
+      <c r="V66" s="21"/>
+      <c r="W66" s="21"/>
+      <c r="X66" s="21"/>
+      <c r="Y66" s="21"/>
+      <c r="Z66" s="21"/>
+      <c r="AA66" s="21"/>
+      <c r="AB66" s="21"/>
+      <c r="AC66" s="21"/>
+      <c r="AD66" s="21"/>
+      <c r="AE66" s="21"/>
+      <c r="AF66" s="21"/>
+      <c r="AG66" s="21"/>
+      <c r="AH66" s="21"/>
+      <c r="AI66" s="21"/>
+      <c r="AJ66" s="21"/>
+      <c r="AK66" s="21"/>
+      <c r="AL66" s="21"/>
+      <c r="AM66" s="21"/>
+      <c r="AN66" s="21"/>
+      <c r="AO66" s="21"/>
+      <c r="AP66" s="21"/>
+      <c r="AQ66" s="21"/>
+      <c r="AR66" s="21"/>
+      <c r="AS66" s="21"/>
+      <c r="AT66" s="21"/>
+      <c r="AU66" s="21"/>
+      <c r="AV66" s="21"/>
+      <c r="AW66" s="21"/>
+    </row>
+    <row r="67" spans="1:59" s="27" customFormat="1" ht="22.5" customHeight="1">
       <c r="A67" s="36"/>
-      <c r="B67" s="41">
-        <f>ROW()-55</f>
-        <v>12</v>
-      </c>
-      <c r="C67" s="40"/>
-      <c r="D67" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="J67" s="39"/>
-      <c r="K67" s="39"/>
-      <c r="L67" s="39"/>
-      <c r="M67" s="39"/>
-      <c r="N67" s="40"/>
-      <c r="O67" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="P67" s="56"/>
-      <c r="Q67" s="56"/>
-      <c r="R67" s="56"/>
-      <c r="S67" s="56"/>
-      <c r="T67" s="57"/>
-      <c r="U67" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="V67" s="56"/>
-      <c r="W67" s="56"/>
-      <c r="X67" s="56"/>
-      <c r="Y67" s="56"/>
-      <c r="Z67" s="56"/>
-      <c r="AA67" s="56"/>
-      <c r="AB67" s="56"/>
-      <c r="AC67" s="56"/>
-      <c r="AD67" s="57"/>
-      <c r="AE67" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF67" s="56"/>
-      <c r="AG67" s="56"/>
-      <c r="AH67" s="56"/>
-      <c r="AI67" s="57"/>
-      <c r="AJ67" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK67" s="56"/>
-      <c r="AL67" s="56"/>
-      <c r="AM67" s="56"/>
-      <c r="AN67" s="56"/>
-      <c r="AO67" s="56"/>
-      <c r="AP67" s="57"/>
-      <c r="AQ67" s="51"/>
-      <c r="AR67" s="56"/>
-      <c r="AS67" s="56"/>
-      <c r="AT67" s="56"/>
-      <c r="AU67" s="56"/>
-      <c r="AV67" s="56"/>
-      <c r="AW67" s="40"/>
+      <c r="B67" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="23"/>
+      <c r="D67" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="E67" s="94"/>
+      <c r="F67" s="95"/>
+      <c r="G67" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="96" t="s">
+        <v>30</v>
+      </c>
+      <c r="T67" s="97"/>
+      <c r="U67" s="97"/>
+      <c r="V67" s="97"/>
+      <c r="W67" s="97"/>
+      <c r="X67" s="97"/>
+      <c r="Y67" s="97"/>
+      <c r="Z67" s="98"/>
+      <c r="AA67" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB67" s="24"/>
+      <c r="AC67" s="24"/>
+      <c r="AD67" s="24"/>
+      <c r="AE67" s="24"/>
+      <c r="AF67" s="24"/>
+      <c r="AG67" s="24"/>
+      <c r="AH67" s="24"/>
+      <c r="AI67" s="24"/>
+      <c r="AJ67" s="26"/>
+      <c r="AK67" s="26"/>
+      <c r="AL67" s="26"/>
+      <c r="AM67" s="26"/>
+      <c r="AN67" s="26"/>
+      <c r="AO67" s="26"/>
+      <c r="AP67" s="26"/>
+      <c r="AQ67" s="26"/>
+      <c r="AR67" s="26"/>
+      <c r="AS67" s="23"/>
     </row>
     <row r="68" spans="1:59">
       <c r="A68" s="36"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="21"/>
-      <c r="S68" s="21"/>
-      <c r="T68" s="21"/>
-      <c r="U68" s="21"/>
-      <c r="V68" s="21"/>
-      <c r="W68" s="21"/>
-      <c r="X68" s="21"/>
-      <c r="Y68" s="21"/>
-      <c r="Z68" s="21"/>
-      <c r="AA68" s="21"/>
-      <c r="AB68" s="21"/>
-      <c r="AC68" s="21"/>
-      <c r="AD68" s="21"/>
-      <c r="AE68" s="21"/>
-      <c r="AF68" s="21"/>
-      <c r="AG68" s="21"/>
-      <c r="AH68" s="21"/>
-      <c r="AI68" s="21"/>
-      <c r="AJ68" s="21"/>
-      <c r="AK68" s="21"/>
-      <c r="AL68" s="21"/>
-      <c r="AM68" s="21"/>
-      <c r="AN68" s="21"/>
-      <c r="AO68" s="21"/>
-      <c r="AP68" s="21"/>
-      <c r="AQ68" s="21"/>
-      <c r="AR68" s="21"/>
-      <c r="AS68" s="21"/>
-      <c r="AT68" s="21"/>
+      <c r="B68" s="41">
+        <f>ROW()-67</f>
+        <v>1</v>
+      </c>
+      <c r="C68" s="40"/>
+      <c r="D68" s="41">
+        <f>$B$55</f>
+        <v>1</v>
+      </c>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="41" t="str">
+        <f>$D$55</f>
+        <v>ログアウト</v>
+      </c>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
+      <c r="O68" s="39"/>
+      <c r="P68" s="39"/>
+      <c r="Q68" s="39"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="T68" s="39"/>
+      <c r="U68" s="39"/>
+      <c r="V68" s="39"/>
+      <c r="W68" s="39"/>
+      <c r="X68" s="39"/>
+      <c r="Y68" s="39"/>
+      <c r="Z68" s="40"/>
+      <c r="AA68" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB68" s="39"/>
+      <c r="AC68" s="39"/>
+      <c r="AD68" s="39"/>
+      <c r="AE68" s="39"/>
+      <c r="AF68" s="39"/>
+      <c r="AG68" s="39"/>
+      <c r="AH68" s="39"/>
+      <c r="AI68" s="39"/>
+      <c r="AJ68" s="39"/>
+      <c r="AK68" s="39"/>
+      <c r="AL68" s="39"/>
+      <c r="AM68" s="39"/>
+      <c r="AN68" s="39"/>
+      <c r="AO68" s="39"/>
+      <c r="AP68" s="39"/>
+      <c r="AQ68" s="39"/>
+      <c r="AR68" s="39"/>
+      <c r="AS68" s="40"/>
     </row>
     <row r="69" spans="1:59">
       <c r="A69" s="36"/>
-      <c r="B69" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="21"/>
-      <c r="T69" s="21"/>
-      <c r="U69" s="21"/>
-      <c r="V69" s="21"/>
-      <c r="W69" s="21"/>
-      <c r="X69" s="21"/>
-      <c r="Y69" s="21"/>
-      <c r="Z69" s="21"/>
-      <c r="AA69" s="21"/>
-      <c r="AB69" s="21"/>
-      <c r="AC69" s="21"/>
-      <c r="AD69" s="21"/>
-      <c r="AE69" s="21"/>
-      <c r="AF69" s="21"/>
-      <c r="AG69" s="21"/>
-      <c r="AH69" s="21"/>
-      <c r="AI69" s="21"/>
-      <c r="AJ69" s="21"/>
-      <c r="AK69" s="21"/>
-      <c r="AL69" s="21"/>
-      <c r="AM69" s="21"/>
-      <c r="AN69" s="21"/>
-      <c r="AO69" s="21"/>
-      <c r="AP69" s="21"/>
-      <c r="AQ69" s="21"/>
-      <c r="AR69" s="21"/>
-      <c r="AS69" s="21"/>
-      <c r="AT69" s="21"/>
-      <c r="AU69" s="21"/>
-      <c r="AV69" s="21"/>
-      <c r="AW69" s="21"/>
-    </row>
-    <row r="70" spans="1:59" s="27" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B69" s="41">
+        <f t="shared" ref="B69:B72" si="1">ROW()-67</f>
+        <v>2</v>
+      </c>
+      <c r="C69" s="40"/>
+      <c r="D69" s="41">
+        <f>$B$60</f>
+        <v>6</v>
+      </c>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="41" t="str">
+        <f>$D$60</f>
+        <v>パスワード表示アイコン</v>
+      </c>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
+      <c r="O69" s="39"/>
+      <c r="P69" s="39"/>
+      <c r="Q69" s="39"/>
+      <c r="R69" s="40"/>
+      <c r="S69" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="T69" s="39"/>
+      <c r="U69" s="39"/>
+      <c r="V69" s="39"/>
+      <c r="W69" s="39"/>
+      <c r="X69" s="39"/>
+      <c r="Y69" s="39"/>
+      <c r="Z69" s="40"/>
+      <c r="AA69" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB69" s="39"/>
+      <c r="AC69" s="39"/>
+      <c r="AD69" s="39"/>
+      <c r="AE69" s="39"/>
+      <c r="AF69" s="39"/>
+      <c r="AG69" s="39"/>
+      <c r="AH69" s="39"/>
+      <c r="AI69" s="39"/>
+      <c r="AJ69" s="39"/>
+      <c r="AK69" s="39"/>
+      <c r="AL69" s="39"/>
+      <c r="AM69" s="39"/>
+      <c r="AN69" s="39"/>
+      <c r="AO69" s="39"/>
+      <c r="AP69" s="39"/>
+      <c r="AQ69" s="39"/>
+      <c r="AR69" s="39"/>
+      <c r="AS69" s="40"/>
+    </row>
+    <row r="70" spans="1:59">
       <c r="A70" s="36"/>
-      <c r="B70" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="23"/>
-      <c r="D70" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="E70" s="95"/>
-      <c r="F70" s="96"/>
-      <c r="G70" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="T70" s="98"/>
-      <c r="U70" s="98"/>
-      <c r="V70" s="98"/>
-      <c r="W70" s="98"/>
-      <c r="X70" s="98"/>
-      <c r="Y70" s="98"/>
-      <c r="Z70" s="99"/>
-      <c r="AA70" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB70" s="24"/>
-      <c r="AC70" s="24"/>
-      <c r="AD70" s="24"/>
-      <c r="AE70" s="24"/>
-      <c r="AF70" s="24"/>
-      <c r="AG70" s="24"/>
-      <c r="AH70" s="24"/>
-      <c r="AI70" s="24"/>
-      <c r="AJ70" s="26"/>
-      <c r="AK70" s="26"/>
-      <c r="AL70" s="26"/>
-      <c r="AM70" s="26"/>
-      <c r="AN70" s="26"/>
-      <c r="AO70" s="26"/>
-      <c r="AP70" s="26"/>
-      <c r="AQ70" s="26"/>
-      <c r="AR70" s="26"/>
-      <c r="AS70" s="23"/>
+      <c r="B70" s="41">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C70" s="40"/>
+      <c r="D70" s="41">
+        <f>$B$62</f>
+        <v>8</v>
+      </c>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="41" t="str">
+        <f>$D$62</f>
+        <v>パスワード表示アイコン(確認)</v>
+      </c>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
+      <c r="M70" s="39"/>
+      <c r="N70" s="39"/>
+      <c r="O70" s="39"/>
+      <c r="P70" s="39"/>
+      <c r="Q70" s="39"/>
+      <c r="R70" s="40"/>
+      <c r="S70" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="T70" s="39"/>
+      <c r="U70" s="39"/>
+      <c r="V70" s="39"/>
+      <c r="W70" s="39"/>
+      <c r="X70" s="39"/>
+      <c r="Y70" s="39"/>
+      <c r="Z70" s="40"/>
+      <c r="AA70" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB70" s="39"/>
+      <c r="AC70" s="39"/>
+      <c r="AD70" s="39"/>
+      <c r="AE70" s="39"/>
+      <c r="AF70" s="39"/>
+      <c r="AG70" s="39"/>
+      <c r="AH70" s="39"/>
+      <c r="AI70" s="39"/>
+      <c r="AJ70" s="39"/>
+      <c r="AK70" s="39"/>
+      <c r="AL70" s="39"/>
+      <c r="AM70" s="39"/>
+      <c r="AN70" s="39"/>
+      <c r="AO70" s="39"/>
+      <c r="AP70" s="39"/>
+      <c r="AQ70" s="39"/>
+      <c r="AR70" s="39"/>
+      <c r="AS70" s="40"/>
     </row>
     <row r="71" spans="1:59">
       <c r="A71" s="36"/>
       <c r="B71" s="41">
-        <f>ROW()-70</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="C71" s="40"/>
       <c r="D71" s="41">
-        <f>$B$55</f>
-        <v>1</v>
+        <f>$B$63</f>
+        <v>9</v>
       </c>
       <c r="E71" s="39"/>
       <c r="F71" s="39"/>
       <c r="G71" s="41" t="str">
-        <f>$D$55</f>
-        <v>ログアウト</v>
+        <f>$D$63</f>
+        <v>変更する</v>
       </c>
       <c r="H71" s="39"/>
       <c r="I71" s="39"/>
@@ -8552,7 +8530,7 @@
       <c r="Y71" s="39"/>
       <c r="Z71" s="40"/>
       <c r="AA71" s="50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AB71" s="39"/>
       <c r="AC71" s="39"/>
@@ -8576,19 +8554,19 @@
     <row r="72" spans="1:59">
       <c r="A72" s="36"/>
       <c r="B72" s="41">
-        <f t="shared" ref="B72:B75" si="1">ROW()-70</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="C72" s="40"/>
       <c r="D72" s="41">
-        <f>$B$60</f>
-        <v>6</v>
+        <f>$B$64</f>
+        <v>10</v>
       </c>
       <c r="E72" s="39"/>
       <c r="F72" s="39"/>
       <c r="G72" s="41" t="str">
-        <f>$D$60</f>
-        <v>パスワード表示アイコン</v>
+        <f>$D$64</f>
+        <v>メニューに戻る</v>
       </c>
       <c r="H72" s="39"/>
       <c r="I72" s="39"/>
@@ -8612,7 +8590,7 @@
       <c r="Y72" s="39"/>
       <c r="Z72" s="40"/>
       <c r="AA72" s="50" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AB72" s="39"/>
       <c r="AC72" s="39"/>
@@ -8635,420 +8613,451 @@
     </row>
     <row r="73" spans="1:59">
       <c r="A73" s="36"/>
-      <c r="B73" s="41">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C73" s="40"/>
-      <c r="D73" s="41">
-        <f>$B$62</f>
-        <v>8</v>
-      </c>
-      <c r="E73" s="39"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="41" t="str">
-        <f>$D$62</f>
-        <v>パスワード表示アイコン(確認)</v>
-      </c>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="39"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="39"/>
-      <c r="N73" s="39"/>
-      <c r="O73" s="39"/>
-      <c r="P73" s="39"/>
-      <c r="Q73" s="39"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="T73" s="39"/>
-      <c r="U73" s="39"/>
-      <c r="V73" s="39"/>
-      <c r="W73" s="39"/>
-      <c r="X73" s="39"/>
-      <c r="Y73" s="39"/>
-      <c r="Z73" s="40"/>
-      <c r="AA73" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB73" s="39"/>
-      <c r="AC73" s="39"/>
-      <c r="AD73" s="39"/>
-      <c r="AE73" s="39"/>
-      <c r="AF73" s="39"/>
-      <c r="AG73" s="39"/>
-      <c r="AH73" s="39"/>
-      <c r="AI73" s="39"/>
-      <c r="AJ73" s="39"/>
-      <c r="AK73" s="39"/>
-      <c r="AL73" s="39"/>
-      <c r="AM73" s="39"/>
-      <c r="AN73" s="39"/>
-      <c r="AO73" s="39"/>
-      <c r="AP73" s="39"/>
-      <c r="AQ73" s="39"/>
-      <c r="AR73" s="39"/>
-      <c r="AS73" s="40"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
+      <c r="U73" s="21"/>
+      <c r="V73" s="21"/>
+      <c r="W73" s="21"/>
+      <c r="X73" s="21"/>
+      <c r="Y73" s="21"/>
+      <c r="Z73" s="21"/>
+      <c r="AA73" s="21"/>
+      <c r="AB73" s="21"/>
+      <c r="AC73" s="21"/>
+      <c r="AD73" s="21"/>
+      <c r="AE73" s="21"/>
+      <c r="AF73" s="21"/>
+      <c r="AG73" s="21"/>
+      <c r="AH73" s="21"/>
+      <c r="AI73" s="21"/>
+      <c r="AJ73" s="21"/>
+      <c r="AK73" s="21"/>
+      <c r="AL73" s="21"/>
+      <c r="AM73" s="21"/>
+      <c r="AN73" s="21"/>
+      <c r="AO73" s="21"/>
+      <c r="AP73" s="21"/>
     </row>
     <row r="74" spans="1:59">
       <c r="A74" s="36"/>
-      <c r="B74" s="41">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C74" s="40"/>
-      <c r="D74" s="41">
-        <f>$B$63</f>
-        <v>9</v>
-      </c>
-      <c r="E74" s="39"/>
-      <c r="F74" s="39"/>
-      <c r="G74" s="41" t="str">
-        <f>$D$63</f>
-        <v>変更する</v>
-      </c>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
-      <c r="J74" s="39"/>
-      <c r="K74" s="39"/>
-      <c r="L74" s="39"/>
-      <c r="M74" s="39"/>
-      <c r="N74" s="39"/>
-      <c r="O74" s="39"/>
-      <c r="P74" s="39"/>
-      <c r="Q74" s="39"/>
-      <c r="R74" s="40"/>
-      <c r="S74" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="T74" s="39"/>
-      <c r="U74" s="39"/>
-      <c r="V74" s="39"/>
-      <c r="W74" s="39"/>
-      <c r="X74" s="39"/>
-      <c r="Y74" s="39"/>
-      <c r="Z74" s="40"/>
-      <c r="AA74" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB74" s="39"/>
-      <c r="AC74" s="39"/>
-      <c r="AD74" s="39"/>
-      <c r="AE74" s="39"/>
-      <c r="AF74" s="39"/>
-      <c r="AG74" s="39"/>
-      <c r="AH74" s="39"/>
-      <c r="AI74" s="39"/>
-      <c r="AJ74" s="39"/>
-      <c r="AK74" s="39"/>
-      <c r="AL74" s="39"/>
-      <c r="AM74" s="39"/>
-      <c r="AN74" s="39"/>
-      <c r="AO74" s="39"/>
-      <c r="AP74" s="39"/>
-      <c r="AQ74" s="39"/>
-      <c r="AR74" s="39"/>
-      <c r="AS74" s="40"/>
-    </row>
-    <row r="75" spans="1:59">
+      <c r="B74" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
+      <c r="U74" s="21"/>
+      <c r="V74" s="21"/>
+      <c r="W74" s="21"/>
+      <c r="X74" s="21"/>
+      <c r="Y74" s="21"/>
+      <c r="Z74" s="21"/>
+      <c r="AA74" s="21"/>
+      <c r="AB74" s="21"/>
+      <c r="AC74" s="21"/>
+      <c r="AD74" s="21"/>
+      <c r="AE74" s="21"/>
+      <c r="AF74" s="21"/>
+      <c r="AG74" s="21"/>
+      <c r="AH74" s="21"/>
+      <c r="AI74" s="21"/>
+      <c r="AJ74" s="21"/>
+      <c r="AK74" s="21"/>
+      <c r="AL74" s="21"/>
+      <c r="AM74" s="21"/>
+      <c r="AN74" s="21"/>
+      <c r="AO74" s="21"/>
+      <c r="AP74" s="21"/>
+      <c r="AQ74" s="21"/>
+      <c r="AR74" s="21"/>
+      <c r="AS74" s="21"/>
+      <c r="AT74" s="21"/>
+      <c r="AU74" s="21"/>
+      <c r="AV74" s="21"/>
+      <c r="AW74" s="21"/>
+      <c r="AX74" s="21"/>
+      <c r="AY74" s="21"/>
+      <c r="AZ74" s="21"/>
+      <c r="BA74" s="21"/>
+    </row>
+    <row r="75" spans="1:59" s="27" customFormat="1" ht="32.1" customHeight="1">
       <c r="A75" s="36"/>
-      <c r="B75" s="41">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C75" s="40"/>
-      <c r="D75" s="41">
-        <f>$B$64</f>
-        <v>10</v>
-      </c>
-      <c r="E75" s="39"/>
-      <c r="F75" s="39"/>
-      <c r="G75" s="41" t="str">
-        <f>$D$64</f>
-        <v>メニューに戻る</v>
-      </c>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="39"/>
-      <c r="L75" s="39"/>
-      <c r="M75" s="39"/>
-      <c r="N75" s="39"/>
-      <c r="O75" s="39"/>
-      <c r="P75" s="39"/>
-      <c r="Q75" s="39"/>
-      <c r="R75" s="40"/>
-      <c r="S75" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="T75" s="39"/>
-      <c r="U75" s="39"/>
-      <c r="V75" s="39"/>
-      <c r="W75" s="39"/>
-      <c r="X75" s="39"/>
-      <c r="Y75" s="39"/>
-      <c r="Z75" s="40"/>
-      <c r="AA75" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB75" s="39"/>
-      <c r="AC75" s="39"/>
-      <c r="AD75" s="39"/>
-      <c r="AE75" s="39"/>
-      <c r="AF75" s="39"/>
-      <c r="AG75" s="39"/>
-      <c r="AH75" s="39"/>
-      <c r="AI75" s="39"/>
-      <c r="AJ75" s="39"/>
-      <c r="AK75" s="39"/>
-      <c r="AL75" s="39"/>
-      <c r="AM75" s="39"/>
-      <c r="AN75" s="39"/>
-      <c r="AO75" s="39"/>
-      <c r="AP75" s="39"/>
-      <c r="AQ75" s="39"/>
-      <c r="AR75" s="39"/>
-      <c r="AS75" s="40"/>
+      <c r="B75" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="23"/>
+      <c r="D75" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75" s="94"/>
+      <c r="F75" s="95"/>
+      <c r="G75" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="15"/>
+      <c r="S75" s="15"/>
+      <c r="T75" s="16"/>
+      <c r="U75" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="V75" s="15"/>
+      <c r="W75" s="15"/>
+      <c r="X75" s="15"/>
+      <c r="Y75" s="15"/>
+      <c r="Z75" s="15"/>
+      <c r="AA75" s="15"/>
+      <c r="AB75" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC75" s="15"/>
+      <c r="AD75" s="15"/>
+      <c r="AE75" s="15"/>
+      <c r="AF75" s="15"/>
+      <c r="AG75" s="48"/>
+      <c r="AH75" s="48"/>
+      <c r="AI75" s="48"/>
+      <c r="AJ75" s="48"/>
+      <c r="AK75" s="48"/>
+      <c r="AL75" s="48"/>
+      <c r="AM75" s="48"/>
+      <c r="AN75" s="48"/>
+      <c r="AO75" s="48"/>
+      <c r="AP75" s="48"/>
+      <c r="AQ75" s="48"/>
+      <c r="AR75" s="48"/>
+      <c r="AS75" s="48"/>
+      <c r="AT75" s="48"/>
+      <c r="AU75" s="48"/>
+      <c r="AV75" s="49"/>
+      <c r="AW75" s="43"/>
+      <c r="AX75" s="43"/>
+      <c r="AY75" s="43"/>
+      <c r="AZ75" s="43"/>
+      <c r="BA75" s="43"/>
+      <c r="BB75" s="43"/>
+      <c r="BC75" s="43"/>
+      <c r="BD75" s="21"/>
+      <c r="BE75" s="21"/>
+      <c r="BF75" s="21"/>
+      <c r="BG75" s="13"/>
     </row>
     <row r="76" spans="1:59">
       <c r="A76" s="36"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-      <c r="N76" s="21"/>
-      <c r="O76" s="21"/>
-      <c r="P76" s="21"/>
-      <c r="Q76" s="21"/>
-      <c r="R76" s="21"/>
-      <c r="S76" s="21"/>
-      <c r="T76" s="21"/>
-      <c r="U76" s="21"/>
-      <c r="V76" s="21"/>
-      <c r="W76" s="21"/>
-      <c r="X76" s="21"/>
-      <c r="Y76" s="21"/>
-      <c r="Z76" s="21"/>
-      <c r="AA76" s="21"/>
-      <c r="AB76" s="21"/>
-      <c r="AC76" s="21"/>
-      <c r="AD76" s="21"/>
-      <c r="AE76" s="21"/>
-      <c r="AF76" s="21"/>
-      <c r="AG76" s="21"/>
-      <c r="AH76" s="21"/>
-      <c r="AI76" s="21"/>
-      <c r="AJ76" s="21"/>
-      <c r="AK76" s="21"/>
-      <c r="AL76" s="21"/>
-      <c r="AM76" s="21"/>
-      <c r="AN76" s="21"/>
-      <c r="AO76" s="21"/>
-      <c r="AP76" s="21"/>
+      <c r="B76" s="57">
+        <f>ROW()-75</f>
+        <v>1</v>
+      </c>
+      <c r="C76" s="58"/>
+      <c r="D76" s="57">
+        <v>4</v>
+      </c>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="H76" s="59"/>
+      <c r="I76" s="59"/>
+      <c r="J76" s="59"/>
+      <c r="K76" s="59"/>
+      <c r="L76" s="59"/>
+      <c r="M76" s="59"/>
+      <c r="N76" s="59"/>
+      <c r="O76" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="P76" s="59"/>
+      <c r="Q76" s="59"/>
+      <c r="R76" s="59"/>
+      <c r="S76" s="59"/>
+      <c r="T76" s="58"/>
+      <c r="U76" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="V76" s="59"/>
+      <c r="W76" s="59"/>
+      <c r="X76" s="59"/>
+      <c r="Y76" s="59"/>
+      <c r="Z76" s="59"/>
+      <c r="AA76" s="59"/>
+      <c r="AB76" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC76" s="55"/>
+      <c r="AD76" s="59"/>
+      <c r="AE76" s="59"/>
+      <c r="AF76" s="59"/>
+      <c r="AG76" s="59"/>
+      <c r="AH76" s="59"/>
+      <c r="AI76" s="59"/>
+      <c r="AJ76" s="59"/>
+      <c r="AK76" s="59"/>
+      <c r="AL76" s="59"/>
+      <c r="AM76" s="59"/>
+      <c r="AN76" s="59"/>
+      <c r="AO76" s="59"/>
+      <c r="AP76" s="59"/>
+      <c r="AQ76" s="59"/>
+      <c r="AR76" s="59"/>
+      <c r="AS76" s="59"/>
+      <c r="AT76" s="59"/>
+      <c r="AU76" s="59"/>
+      <c r="AV76" s="58"/>
+      <c r="AW76" s="37"/>
+      <c r="AX76" s="37"/>
+      <c r="AY76" s="37"/>
+      <c r="AZ76" s="37"/>
+      <c r="BA76" s="37"/>
+      <c r="BB76" s="37"/>
+      <c r="BC76" s="37"/>
+      <c r="BD76" s="17"/>
+      <c r="BE76" s="17"/>
+      <c r="BF76" s="17"/>
     </row>
     <row r="77" spans="1:59">
       <c r="A77" s="36"/>
-      <c r="B77" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-      <c r="O77" s="21"/>
-      <c r="P77" s="21"/>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="21"/>
-      <c r="S77" s="21"/>
-      <c r="T77" s="21"/>
-      <c r="U77" s="21"/>
-      <c r="V77" s="21"/>
-      <c r="W77" s="21"/>
-      <c r="X77" s="21"/>
-      <c r="Y77" s="21"/>
-      <c r="Z77" s="21"/>
-      <c r="AA77" s="21"/>
-      <c r="AB77" s="21"/>
-      <c r="AC77" s="21"/>
-      <c r="AD77" s="21"/>
-      <c r="AE77" s="21"/>
-      <c r="AF77" s="21"/>
-      <c r="AG77" s="21"/>
-      <c r="AH77" s="21"/>
-      <c r="AI77" s="21"/>
-      <c r="AJ77" s="21"/>
-      <c r="AK77" s="21"/>
-      <c r="AL77" s="21"/>
-      <c r="AM77" s="21"/>
-      <c r="AN77" s="21"/>
-      <c r="AO77" s="21"/>
-      <c r="AP77" s="21"/>
-      <c r="AQ77" s="21"/>
-      <c r="AR77" s="21"/>
-      <c r="AS77" s="21"/>
-      <c r="AT77" s="21"/>
-      <c r="AU77" s="21"/>
-      <c r="AV77" s="21"/>
-      <c r="AW77" s="21"/>
-      <c r="AX77" s="21"/>
-      <c r="AY77" s="21"/>
-      <c r="AZ77" s="21"/>
-      <c r="BA77" s="21"/>
-    </row>
-    <row r="78" spans="1:59" s="27" customFormat="1" ht="32.1" customHeight="1">
+      <c r="B77" s="57">
+        <f t="shared" ref="B77:B88" si="2">ROW()-75</f>
+        <v>2</v>
+      </c>
+      <c r="C77" s="58"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="59"/>
+      <c r="I77" s="59"/>
+      <c r="J77" s="59"/>
+      <c r="K77" s="59"/>
+      <c r="L77" s="59"/>
+      <c r="M77" s="59"/>
+      <c r="N77" s="59"/>
+      <c r="O77" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="P77" s="59"/>
+      <c r="Q77" s="59"/>
+      <c r="R77" s="59"/>
+      <c r="S77" s="59"/>
+      <c r="T77" s="58"/>
+      <c r="U77" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="V77" s="59"/>
+      <c r="W77" s="59"/>
+      <c r="X77" s="59"/>
+      <c r="Y77" s="59"/>
+      <c r="Z77" s="59"/>
+      <c r="AA77" s="59"/>
+      <c r="AB77" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC77" s="55"/>
+      <c r="AD77" s="59"/>
+      <c r="AE77" s="59"/>
+      <c r="AF77" s="59"/>
+      <c r="AG77" s="59"/>
+      <c r="AH77" s="59"/>
+      <c r="AI77" s="59"/>
+      <c r="AJ77" s="59"/>
+      <c r="AK77" s="59"/>
+      <c r="AL77" s="59"/>
+      <c r="AM77" s="59"/>
+      <c r="AN77" s="59"/>
+      <c r="AO77" s="59"/>
+      <c r="AP77" s="59"/>
+      <c r="AQ77" s="59"/>
+      <c r="AR77" s="59"/>
+      <c r="AS77" s="59"/>
+      <c r="AT77" s="59"/>
+      <c r="AU77" s="59"/>
+      <c r="AV77" s="58"/>
+      <c r="AW77" s="37"/>
+      <c r="AX77" s="37"/>
+      <c r="AY77" s="37"/>
+      <c r="AZ77" s="37"/>
+      <c r="BA77" s="37"/>
+      <c r="BB77" s="37"/>
+      <c r="BC77" s="37"/>
+      <c r="BD77" s="17"/>
+      <c r="BE77" s="17"/>
+      <c r="BF77" s="17"/>
+    </row>
+    <row r="78" spans="1:59">
       <c r="A78" s="36"/>
-      <c r="B78" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="23"/>
-      <c r="D78" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="E78" s="95"/>
-      <c r="F78" s="96"/>
-      <c r="G78" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="15"/>
-      <c r="S78" s="15"/>
-      <c r="T78" s="16"/>
-      <c r="U78" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="V78" s="15"/>
-      <c r="W78" s="15"/>
-      <c r="X78" s="15"/>
-      <c r="Y78" s="15"/>
-      <c r="Z78" s="15"/>
-      <c r="AA78" s="15"/>
-      <c r="AB78" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC78" s="15"/>
-      <c r="AD78" s="15"/>
-      <c r="AE78" s="15"/>
-      <c r="AF78" s="15"/>
-      <c r="AG78" s="48"/>
-      <c r="AH78" s="48"/>
-      <c r="AI78" s="48"/>
-      <c r="AJ78" s="48"/>
-      <c r="AK78" s="48"/>
-      <c r="AL78" s="48"/>
-      <c r="AM78" s="48"/>
-      <c r="AN78" s="48"/>
-      <c r="AO78" s="48"/>
-      <c r="AP78" s="48"/>
-      <c r="AQ78" s="48"/>
-      <c r="AR78" s="48"/>
-      <c r="AS78" s="48"/>
-      <c r="AT78" s="48"/>
-      <c r="AU78" s="48"/>
-      <c r="AV78" s="49"/>
-      <c r="AW78" s="43"/>
-      <c r="AX78" s="43"/>
-      <c r="AY78" s="43"/>
-      <c r="AZ78" s="43"/>
-      <c r="BA78" s="43"/>
-      <c r="BB78" s="43"/>
-      <c r="BC78" s="43"/>
-      <c r="BD78" s="21"/>
-      <c r="BE78" s="21"/>
-      <c r="BF78" s="21"/>
-      <c r="BG78" s="13"/>
+      <c r="B78" s="57">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="C78" s="58"/>
+      <c r="D78" s="57">
+        <v>5</v>
+      </c>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="H78" s="59"/>
+      <c r="I78" s="59"/>
+      <c r="J78" s="59"/>
+      <c r="K78" s="59"/>
+      <c r="L78" s="59"/>
+      <c r="M78" s="59"/>
+      <c r="N78" s="59"/>
+      <c r="O78" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="P78" s="59"/>
+      <c r="Q78" s="59"/>
+      <c r="R78" s="59"/>
+      <c r="S78" s="59"/>
+      <c r="T78" s="58"/>
+      <c r="U78" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="V78" s="59"/>
+      <c r="W78" s="59"/>
+      <c r="X78" s="59"/>
+      <c r="Y78" s="59"/>
+      <c r="Z78" s="59"/>
+      <c r="AA78" s="59"/>
+      <c r="AB78" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC78" s="55"/>
+      <c r="AD78" s="59"/>
+      <c r="AE78" s="59"/>
+      <c r="AF78" s="59"/>
+      <c r="AG78" s="59"/>
+      <c r="AH78" s="59"/>
+      <c r="AI78" s="59"/>
+      <c r="AJ78" s="59"/>
+      <c r="AK78" s="59"/>
+      <c r="AL78" s="59"/>
+      <c r="AM78" s="59"/>
+      <c r="AN78" s="59"/>
+      <c r="AO78" s="59"/>
+      <c r="AP78" s="59"/>
+      <c r="AQ78" s="59"/>
+      <c r="AR78" s="59"/>
+      <c r="AS78" s="59"/>
+      <c r="AT78" s="59"/>
+      <c r="AU78" s="59"/>
+      <c r="AV78" s="58"/>
+      <c r="AW78" s="37"/>
+      <c r="AX78" s="37"/>
+      <c r="AY78" s="37"/>
+      <c r="AZ78" s="37"/>
+      <c r="BA78" s="37"/>
+      <c r="BB78" s="37"/>
+      <c r="BC78" s="37"/>
+      <c r="BD78" s="17"/>
+      <c r="BE78" s="17"/>
+      <c r="BF78" s="17"/>
     </row>
     <row r="79" spans="1:59">
       <c r="A79" s="36"/>
-      <c r="B79" s="58">
-        <f>ROW()-75</f>
+      <c r="B79" s="57">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C79" s="59"/>
-      <c r="D79" s="58">
-        <v>4</v>
-      </c>
-      <c r="E79" s="60"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="60"/>
-      <c r="K79" s="60"/>
-      <c r="L79" s="60"/>
-      <c r="M79" s="60"/>
-      <c r="N79" s="60"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="59"/>
+      <c r="J79" s="59"/>
+      <c r="K79" s="59"/>
+      <c r="L79" s="59"/>
+      <c r="M79" s="59"/>
+      <c r="N79" s="59"/>
       <c r="O79" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="P79" s="60"/>
-      <c r="Q79" s="60"/>
-      <c r="R79" s="60"/>
-      <c r="S79" s="60"/>
-      <c r="T79" s="59"/>
+        <v>110</v>
+      </c>
+      <c r="P79" s="59"/>
+      <c r="Q79" s="59"/>
+      <c r="R79" s="59"/>
+      <c r="S79" s="59"/>
+      <c r="T79" s="58"/>
       <c r="U79" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="V79" s="60"/>
-      <c r="W79" s="60"/>
-      <c r="X79" s="60"/>
-      <c r="Y79" s="60"/>
-      <c r="Z79" s="60"/>
-      <c r="AA79" s="60"/>
-      <c r="AB79" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC79" s="56"/>
-      <c r="AD79" s="60"/>
-      <c r="AE79" s="60"/>
-      <c r="AF79" s="60"/>
-      <c r="AG79" s="60"/>
-      <c r="AH79" s="60"/>
-      <c r="AI79" s="60"/>
-      <c r="AJ79" s="60"/>
-      <c r="AK79" s="60"/>
-      <c r="AL79" s="60"/>
-      <c r="AM79" s="60"/>
-      <c r="AN79" s="60"/>
-      <c r="AO79" s="60"/>
-      <c r="AP79" s="60"/>
-      <c r="AQ79" s="60"/>
-      <c r="AR79" s="60"/>
-      <c r="AS79" s="60"/>
-      <c r="AT79" s="60"/>
-      <c r="AU79" s="60"/>
-      <c r="AV79" s="59"/>
+        <v>111</v>
+      </c>
+      <c r="V79" s="59"/>
+      <c r="W79" s="59"/>
+      <c r="X79" s="59"/>
+      <c r="Y79" s="59"/>
+      <c r="Z79" s="59"/>
+      <c r="AA79" s="59"/>
+      <c r="AB79" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC79" s="55"/>
+      <c r="AD79" s="59"/>
+      <c r="AE79" s="59"/>
+      <c r="AF79" s="59"/>
+      <c r="AG79" s="59"/>
+      <c r="AH79" s="59"/>
+      <c r="AI79" s="59"/>
+      <c r="AJ79" s="59"/>
+      <c r="AK79" s="59"/>
+      <c r="AL79" s="59"/>
+      <c r="AM79" s="59"/>
+      <c r="AN79" s="59"/>
+      <c r="AO79" s="59"/>
+      <c r="AP79" s="59"/>
+      <c r="AQ79" s="59"/>
+      <c r="AR79" s="59"/>
+      <c r="AS79" s="59"/>
+      <c r="AT79" s="59"/>
+      <c r="AU79" s="59"/>
+      <c r="AV79" s="58"/>
       <c r="AW79" s="37"/>
       <c r="AX79" s="37"/>
       <c r="AY79" s="37"/>
@@ -9062,62 +9071,62 @@
     </row>
     <row r="80" spans="1:59">
       <c r="A80" s="36"/>
-      <c r="B80" s="58">
-        <f t="shared" ref="B80:B91" si="2">ROW()-75</f>
+      <c r="B80" s="57">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C80" s="59"/>
-      <c r="D80" s="58"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="60"/>
-      <c r="G80" s="58"/>
-      <c r="H80" s="60"/>
-      <c r="I80" s="60"/>
-      <c r="J80" s="60"/>
-      <c r="K80" s="60"/>
-      <c r="L80" s="60"/>
-      <c r="M80" s="60"/>
-      <c r="N80" s="60"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="59"/>
+      <c r="K80" s="59"/>
+      <c r="L80" s="59"/>
+      <c r="M80" s="59"/>
+      <c r="N80" s="59"/>
       <c r="O80" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="P80" s="60"/>
-      <c r="Q80" s="60"/>
-      <c r="R80" s="60"/>
-      <c r="S80" s="60"/>
-      <c r="T80" s="59"/>
+        <v>128</v>
+      </c>
+      <c r="P80" s="59"/>
+      <c r="Q80" s="59"/>
+      <c r="R80" s="59"/>
+      <c r="S80" s="59"/>
+      <c r="T80" s="58"/>
       <c r="U80" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="V80" s="60"/>
-      <c r="W80" s="60"/>
-      <c r="X80" s="60"/>
-      <c r="Y80" s="60"/>
-      <c r="Z80" s="60"/>
-      <c r="AA80" s="60"/>
-      <c r="AB80" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC80" s="56"/>
-      <c r="AD80" s="60"/>
-      <c r="AE80" s="60"/>
-      <c r="AF80" s="60"/>
-      <c r="AG80" s="60"/>
-      <c r="AH80" s="60"/>
-      <c r="AI80" s="60"/>
-      <c r="AJ80" s="60"/>
-      <c r="AK80" s="60"/>
-      <c r="AL80" s="60"/>
-      <c r="AM80" s="60"/>
-      <c r="AN80" s="60"/>
-      <c r="AO80" s="60"/>
-      <c r="AP80" s="60"/>
-      <c r="AQ80" s="60"/>
-      <c r="AR80" s="60"/>
-      <c r="AS80" s="60"/>
-      <c r="AT80" s="60"/>
-      <c r="AU80" s="60"/>
-      <c r="AV80" s="59"/>
+        <v>125</v>
+      </c>
+      <c r="V80" s="59"/>
+      <c r="W80" s="59"/>
+      <c r="X80" s="59"/>
+      <c r="Y80" s="59"/>
+      <c r="Z80" s="59"/>
+      <c r="AA80" s="59"/>
+      <c r="AB80" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC80" s="55"/>
+      <c r="AD80" s="59"/>
+      <c r="AE80" s="59"/>
+      <c r="AF80" s="59"/>
+      <c r="AG80" s="59"/>
+      <c r="AH80" s="59"/>
+      <c r="AI80" s="59"/>
+      <c r="AJ80" s="59"/>
+      <c r="AK80" s="59"/>
+      <c r="AL80" s="59"/>
+      <c r="AM80" s="59"/>
+      <c r="AN80" s="59"/>
+      <c r="AO80" s="59"/>
+      <c r="AP80" s="59"/>
+      <c r="AQ80" s="59"/>
+      <c r="AR80" s="59"/>
+      <c r="AS80" s="59"/>
+      <c r="AT80" s="59"/>
+      <c r="AU80" s="59"/>
+      <c r="AV80" s="58"/>
       <c r="AW80" s="37"/>
       <c r="AX80" s="37"/>
       <c r="AY80" s="37"/>
@@ -9131,66 +9140,62 @@
     </row>
     <row r="81" spans="1:58">
       <c r="A81" s="36"/>
-      <c r="B81" s="58">
+      <c r="B81" s="57">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C81" s="59"/>
-      <c r="D81" s="58">
-        <v>5</v>
-      </c>
-      <c r="E81" s="60"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="60"/>
-      <c r="K81" s="60"/>
-      <c r="L81" s="60"/>
-      <c r="M81" s="60"/>
-      <c r="N81" s="60"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="59"/>
+      <c r="I81" s="59"/>
+      <c r="J81" s="59"/>
+      <c r="K81" s="59"/>
+      <c r="L81" s="59"/>
+      <c r="M81" s="59"/>
+      <c r="N81" s="59"/>
       <c r="O81" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="P81" s="60"/>
-      <c r="Q81" s="60"/>
-      <c r="R81" s="60"/>
-      <c r="S81" s="60"/>
-      <c r="T81" s="59"/>
+        <v>116</v>
+      </c>
+      <c r="P81" s="59"/>
+      <c r="Q81" s="59"/>
+      <c r="R81" s="59"/>
+      <c r="S81" s="59"/>
+      <c r="T81" s="58"/>
       <c r="U81" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="V81" s="60"/>
-      <c r="W81" s="60"/>
-      <c r="X81" s="60"/>
-      <c r="Y81" s="60"/>
-      <c r="Z81" s="60"/>
-      <c r="AA81" s="60"/>
-      <c r="AB81" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC81" s="56"/>
-      <c r="AD81" s="60"/>
-      <c r="AE81" s="60"/>
-      <c r="AF81" s="60"/>
-      <c r="AG81" s="60"/>
-      <c r="AH81" s="60"/>
-      <c r="AI81" s="60"/>
-      <c r="AJ81" s="60"/>
-      <c r="AK81" s="60"/>
-      <c r="AL81" s="60"/>
-      <c r="AM81" s="60"/>
-      <c r="AN81" s="60"/>
-      <c r="AO81" s="60"/>
-      <c r="AP81" s="60"/>
-      <c r="AQ81" s="60"/>
-      <c r="AR81" s="60"/>
-      <c r="AS81" s="60"/>
-      <c r="AT81" s="60"/>
-      <c r="AU81" s="60"/>
-      <c r="AV81" s="59"/>
+        <v>125</v>
+      </c>
+      <c r="V81" s="59"/>
+      <c r="W81" s="59"/>
+      <c r="X81" s="59"/>
+      <c r="Y81" s="59"/>
+      <c r="Z81" s="59"/>
+      <c r="AA81" s="59"/>
+      <c r="AB81" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC81" s="55"/>
+      <c r="AD81" s="59"/>
+      <c r="AE81" s="59"/>
+      <c r="AF81" s="59"/>
+      <c r="AG81" s="59"/>
+      <c r="AH81" s="59"/>
+      <c r="AI81" s="59"/>
+      <c r="AJ81" s="59"/>
+      <c r="AK81" s="59"/>
+      <c r="AL81" s="59"/>
+      <c r="AM81" s="59"/>
+      <c r="AN81" s="59"/>
+      <c r="AO81" s="59"/>
+      <c r="AP81" s="59"/>
+      <c r="AQ81" s="59"/>
+      <c r="AR81" s="59"/>
+      <c r="AS81" s="59"/>
+      <c r="AT81" s="59"/>
+      <c r="AU81" s="59"/>
+      <c r="AV81" s="58"/>
       <c r="AW81" s="37"/>
       <c r="AX81" s="37"/>
       <c r="AY81" s="37"/>
@@ -9204,62 +9209,62 @@
     </row>
     <row r="82" spans="1:58">
       <c r="A82" s="36"/>
-      <c r="B82" s="58">
+      <c r="B82" s="57">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C82" s="59"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="60"/>
-      <c r="F82" s="60"/>
-      <c r="G82" s="58"/>
-      <c r="H82" s="60"/>
-      <c r="I82" s="60"/>
-      <c r="J82" s="60"/>
-      <c r="K82" s="60"/>
-      <c r="L82" s="60"/>
-      <c r="M82" s="60"/>
-      <c r="N82" s="60"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="59"/>
+      <c r="I82" s="59"/>
+      <c r="J82" s="59"/>
+      <c r="K82" s="59"/>
+      <c r="L82" s="59"/>
+      <c r="M82" s="59"/>
+      <c r="N82" s="59"/>
       <c r="O82" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="P82" s="60"/>
-      <c r="Q82" s="60"/>
-      <c r="R82" s="60"/>
-      <c r="S82" s="60"/>
-      <c r="T82" s="59"/>
+        <v>129</v>
+      </c>
+      <c r="P82" s="59"/>
+      <c r="Q82" s="59"/>
+      <c r="R82" s="59"/>
+      <c r="S82" s="59"/>
+      <c r="T82" s="58"/>
       <c r="U82" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="V82" s="60"/>
-      <c r="W82" s="60"/>
-      <c r="X82" s="60"/>
-      <c r="Y82" s="60"/>
-      <c r="Z82" s="60"/>
-      <c r="AA82" s="60"/>
-      <c r="AB82" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC82" s="56"/>
-      <c r="AD82" s="60"/>
-      <c r="AE82" s="60"/>
-      <c r="AF82" s="60"/>
-      <c r="AG82" s="60"/>
-      <c r="AH82" s="60"/>
-      <c r="AI82" s="60"/>
-      <c r="AJ82" s="60"/>
-      <c r="AK82" s="60"/>
-      <c r="AL82" s="60"/>
-      <c r="AM82" s="60"/>
-      <c r="AN82" s="60"/>
-      <c r="AO82" s="60"/>
-      <c r="AP82" s="60"/>
-      <c r="AQ82" s="60"/>
-      <c r="AR82" s="60"/>
-      <c r="AS82" s="60"/>
-      <c r="AT82" s="60"/>
-      <c r="AU82" s="60"/>
-      <c r="AV82" s="59"/>
+        <v>126</v>
+      </c>
+      <c r="V82" s="59"/>
+      <c r="W82" s="59"/>
+      <c r="X82" s="59"/>
+      <c r="Y82" s="59"/>
+      <c r="Z82" s="59"/>
+      <c r="AA82" s="59"/>
+      <c r="AB82" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC82" s="55"/>
+      <c r="AD82" s="59"/>
+      <c r="AE82" s="59"/>
+      <c r="AF82" s="59"/>
+      <c r="AG82" s="59"/>
+      <c r="AH82" s="59"/>
+      <c r="AI82" s="59"/>
+      <c r="AJ82" s="59"/>
+      <c r="AK82" s="59"/>
+      <c r="AL82" s="59"/>
+      <c r="AM82" s="59"/>
+      <c r="AN82" s="59"/>
+      <c r="AO82" s="59"/>
+      <c r="AP82" s="59"/>
+      <c r="AQ82" s="59"/>
+      <c r="AR82" s="59"/>
+      <c r="AS82" s="59"/>
+      <c r="AT82" s="59"/>
+      <c r="AU82" s="59"/>
+      <c r="AV82" s="58"/>
       <c r="AW82" s="37"/>
       <c r="AX82" s="37"/>
       <c r="AY82" s="37"/>
@@ -9273,62 +9278,66 @@
     </row>
     <row r="83" spans="1:58">
       <c r="A83" s="36"/>
-      <c r="B83" s="58">
+      <c r="B83" s="57">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C83" s="59"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="60"/>
-      <c r="F83" s="60"/>
-      <c r="G83" s="58"/>
-      <c r="H83" s="60"/>
-      <c r="I83" s="60"/>
-      <c r="J83" s="60"/>
-      <c r="K83" s="60"/>
-      <c r="L83" s="60"/>
-      <c r="M83" s="60"/>
-      <c r="N83" s="60"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="57">
+        <v>6</v>
+      </c>
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="H83" s="59"/>
+      <c r="I83" s="59"/>
+      <c r="J83" s="59"/>
+      <c r="K83" s="59"/>
+      <c r="L83" s="59"/>
+      <c r="M83" s="59"/>
+      <c r="N83" s="59"/>
       <c r="O83" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="P83" s="60"/>
-      <c r="Q83" s="60"/>
-      <c r="R83" s="60"/>
-      <c r="S83" s="60"/>
-      <c r="T83" s="59"/>
+        <v>99</v>
+      </c>
+      <c r="P83" s="59"/>
+      <c r="Q83" s="59"/>
+      <c r="R83" s="59"/>
+      <c r="S83" s="59"/>
+      <c r="T83" s="58"/>
       <c r="U83" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="V83" s="60"/>
-      <c r="W83" s="60"/>
-      <c r="X83" s="60"/>
-      <c r="Y83" s="60"/>
-      <c r="Z83" s="60"/>
-      <c r="AA83" s="60"/>
-      <c r="AB83" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC83" s="56"/>
-      <c r="AD83" s="60"/>
-      <c r="AE83" s="60"/>
-      <c r="AF83" s="60"/>
-      <c r="AG83" s="60"/>
-      <c r="AH83" s="60"/>
-      <c r="AI83" s="60"/>
-      <c r="AJ83" s="60"/>
-      <c r="AK83" s="60"/>
-      <c r="AL83" s="60"/>
-      <c r="AM83" s="60"/>
-      <c r="AN83" s="60"/>
-      <c r="AO83" s="60"/>
-      <c r="AP83" s="60"/>
-      <c r="AQ83" s="60"/>
-      <c r="AR83" s="60"/>
-      <c r="AS83" s="60"/>
-      <c r="AT83" s="60"/>
-      <c r="AU83" s="60"/>
-      <c r="AV83" s="59"/>
+        <v>27</v>
+      </c>
+      <c r="V83" s="59"/>
+      <c r="W83" s="59"/>
+      <c r="X83" s="59"/>
+      <c r="Y83" s="59"/>
+      <c r="Z83" s="59"/>
+      <c r="AA83" s="59"/>
+      <c r="AB83" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC83" s="55"/>
+      <c r="AD83" s="59"/>
+      <c r="AE83" s="59"/>
+      <c r="AF83" s="59"/>
+      <c r="AG83" s="59"/>
+      <c r="AH83" s="59"/>
+      <c r="AI83" s="59"/>
+      <c r="AJ83" s="59"/>
+      <c r="AK83" s="59"/>
+      <c r="AL83" s="59"/>
+      <c r="AM83" s="59"/>
+      <c r="AN83" s="59"/>
+      <c r="AO83" s="59"/>
+      <c r="AP83" s="59"/>
+      <c r="AQ83" s="59"/>
+      <c r="AR83" s="59"/>
+      <c r="AS83" s="59"/>
+      <c r="AT83" s="59"/>
+      <c r="AU83" s="59"/>
+      <c r="AV83" s="58"/>
       <c r="AW83" s="37"/>
       <c r="AX83" s="37"/>
       <c r="AY83" s="37"/>
@@ -9342,62 +9351,62 @@
     </row>
     <row r="84" spans="1:58">
       <c r="A84" s="36"/>
-      <c r="B84" s="58">
+      <c r="B84" s="57">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C84" s="59"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="60"/>
-      <c r="I84" s="60"/>
-      <c r="J84" s="60"/>
-      <c r="K84" s="60"/>
-      <c r="L84" s="60"/>
-      <c r="M84" s="60"/>
-      <c r="N84" s="60"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="59"/>
+      <c r="J84" s="59"/>
+      <c r="K84" s="59"/>
+      <c r="L84" s="59"/>
+      <c r="M84" s="59"/>
+      <c r="N84" s="59"/>
       <c r="O84" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="P84" s="60"/>
-      <c r="Q84" s="60"/>
-      <c r="R84" s="60"/>
-      <c r="S84" s="60"/>
-      <c r="T84" s="59"/>
+        <v>110</v>
+      </c>
+      <c r="P84" s="59"/>
+      <c r="Q84" s="59"/>
+      <c r="R84" s="59"/>
+      <c r="S84" s="59"/>
+      <c r="T84" s="58"/>
       <c r="U84" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="V84" s="60"/>
-      <c r="W84" s="60"/>
-      <c r="X84" s="60"/>
-      <c r="Y84" s="60"/>
-      <c r="Z84" s="60"/>
-      <c r="AA84" s="60"/>
-      <c r="AB84" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC84" s="56"/>
-      <c r="AD84" s="60"/>
-      <c r="AE84" s="60"/>
-      <c r="AF84" s="60"/>
-      <c r="AG84" s="60"/>
-      <c r="AH84" s="60"/>
-      <c r="AI84" s="60"/>
-      <c r="AJ84" s="60"/>
-      <c r="AK84" s="60"/>
-      <c r="AL84" s="60"/>
-      <c r="AM84" s="60"/>
-      <c r="AN84" s="60"/>
-      <c r="AO84" s="60"/>
-      <c r="AP84" s="60"/>
-      <c r="AQ84" s="60"/>
-      <c r="AR84" s="60"/>
-      <c r="AS84" s="60"/>
-      <c r="AT84" s="60"/>
-      <c r="AU84" s="60"/>
-      <c r="AV84" s="59"/>
+        <v>111</v>
+      </c>
+      <c r="V84" s="59"/>
+      <c r="W84" s="59"/>
+      <c r="X84" s="59"/>
+      <c r="Y84" s="59"/>
+      <c r="Z84" s="59"/>
+      <c r="AA84" s="59"/>
+      <c r="AB84" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC84" s="55"/>
+      <c r="AD84" s="59"/>
+      <c r="AE84" s="59"/>
+      <c r="AF84" s="59"/>
+      <c r="AG84" s="59"/>
+      <c r="AH84" s="59"/>
+      <c r="AI84" s="59"/>
+      <c r="AJ84" s="59"/>
+      <c r="AK84" s="59"/>
+      <c r="AL84" s="59"/>
+      <c r="AM84" s="59"/>
+      <c r="AN84" s="59"/>
+      <c r="AO84" s="59"/>
+      <c r="AP84" s="59"/>
+      <c r="AQ84" s="59"/>
+      <c r="AR84" s="59"/>
+      <c r="AS84" s="59"/>
+      <c r="AT84" s="59"/>
+      <c r="AU84" s="59"/>
+      <c r="AV84" s="58"/>
       <c r="AW84" s="37"/>
       <c r="AX84" s="37"/>
       <c r="AY84" s="37"/>
@@ -9411,62 +9420,62 @@
     </row>
     <row r="85" spans="1:58">
       <c r="A85" s="36"/>
-      <c r="B85" s="58">
+      <c r="B85" s="57">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C85" s="59"/>
-      <c r="D85" s="58"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="60"/>
-      <c r="G85" s="58"/>
-      <c r="H85" s="60"/>
-      <c r="I85" s="60"/>
-      <c r="J85" s="60"/>
-      <c r="K85" s="60"/>
-      <c r="L85" s="60"/>
-      <c r="M85" s="60"/>
-      <c r="N85" s="60"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="59"/>
+      <c r="J85" s="59"/>
+      <c r="K85" s="59"/>
+      <c r="L85" s="59"/>
+      <c r="M85" s="59"/>
+      <c r="N85" s="59"/>
       <c r="O85" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="P85" s="60"/>
-      <c r="Q85" s="60"/>
-      <c r="R85" s="60"/>
-      <c r="S85" s="60"/>
-      <c r="T85" s="59"/>
+        <v>128</v>
+      </c>
+      <c r="P85" s="59"/>
+      <c r="Q85" s="59"/>
+      <c r="R85" s="59"/>
+      <c r="S85" s="59"/>
+      <c r="T85" s="58"/>
       <c r="U85" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="V85" s="60"/>
-      <c r="W85" s="60"/>
-      <c r="X85" s="60"/>
-      <c r="Y85" s="60"/>
-      <c r="Z85" s="60"/>
-      <c r="AA85" s="60"/>
-      <c r="AB85" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC85" s="56"/>
-      <c r="AD85" s="60"/>
-      <c r="AE85" s="60"/>
-      <c r="AF85" s="60"/>
-      <c r="AG85" s="60"/>
-      <c r="AH85" s="60"/>
-      <c r="AI85" s="60"/>
-      <c r="AJ85" s="60"/>
-      <c r="AK85" s="60"/>
-      <c r="AL85" s="60"/>
-      <c r="AM85" s="60"/>
-      <c r="AN85" s="60"/>
-      <c r="AO85" s="60"/>
-      <c r="AP85" s="60"/>
-      <c r="AQ85" s="60"/>
-      <c r="AR85" s="60"/>
-      <c r="AS85" s="60"/>
-      <c r="AT85" s="60"/>
-      <c r="AU85" s="60"/>
-      <c r="AV85" s="59"/>
+        <v>125</v>
+      </c>
+      <c r="V85" s="59"/>
+      <c r="W85" s="59"/>
+      <c r="X85" s="59"/>
+      <c r="Y85" s="59"/>
+      <c r="Z85" s="59"/>
+      <c r="AA85" s="59"/>
+      <c r="AB85" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC85" s="55"/>
+      <c r="AD85" s="59"/>
+      <c r="AE85" s="59"/>
+      <c r="AF85" s="59"/>
+      <c r="AG85" s="59"/>
+      <c r="AH85" s="59"/>
+      <c r="AI85" s="59"/>
+      <c r="AJ85" s="59"/>
+      <c r="AK85" s="59"/>
+      <c r="AL85" s="59"/>
+      <c r="AM85" s="59"/>
+      <c r="AN85" s="59"/>
+      <c r="AO85" s="59"/>
+      <c r="AP85" s="59"/>
+      <c r="AQ85" s="59"/>
+      <c r="AR85" s="59"/>
+      <c r="AS85" s="59"/>
+      <c r="AT85" s="59"/>
+      <c r="AU85" s="59"/>
+      <c r="AV85" s="58"/>
       <c r="AW85" s="37"/>
       <c r="AX85" s="37"/>
       <c r="AY85" s="37"/>
@@ -9480,66 +9489,62 @@
     </row>
     <row r="86" spans="1:58">
       <c r="A86" s="36"/>
-      <c r="B86" s="58">
+      <c r="B86" s="57">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C86" s="59"/>
-      <c r="D86" s="58">
-        <v>6</v>
-      </c>
-      <c r="E86" s="60"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="H86" s="60"/>
-      <c r="I86" s="60"/>
-      <c r="J86" s="60"/>
-      <c r="K86" s="60"/>
-      <c r="L86" s="60"/>
-      <c r="M86" s="60"/>
-      <c r="N86" s="60"/>
+      <c r="C86" s="58"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="59"/>
+      <c r="J86" s="59"/>
+      <c r="K86" s="59"/>
+      <c r="L86" s="59"/>
+      <c r="M86" s="59"/>
+      <c r="N86" s="59"/>
       <c r="O86" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="P86" s="60"/>
-      <c r="Q86" s="60"/>
-      <c r="R86" s="60"/>
-      <c r="S86" s="60"/>
-      <c r="T86" s="59"/>
+        <v>116</v>
+      </c>
+      <c r="P86" s="59"/>
+      <c r="Q86" s="59"/>
+      <c r="R86" s="59"/>
+      <c r="S86" s="59"/>
+      <c r="T86" s="58"/>
       <c r="U86" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="V86" s="60"/>
-      <c r="W86" s="60"/>
-      <c r="X86" s="60"/>
-      <c r="Y86" s="60"/>
-      <c r="Z86" s="60"/>
-      <c r="AA86" s="60"/>
-      <c r="AB86" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC86" s="56"/>
-      <c r="AD86" s="60"/>
-      <c r="AE86" s="60"/>
-      <c r="AF86" s="60"/>
-      <c r="AG86" s="60"/>
-      <c r="AH86" s="60"/>
-      <c r="AI86" s="60"/>
-      <c r="AJ86" s="60"/>
-      <c r="AK86" s="60"/>
-      <c r="AL86" s="60"/>
-      <c r="AM86" s="60"/>
-      <c r="AN86" s="60"/>
-      <c r="AO86" s="60"/>
-      <c r="AP86" s="60"/>
-      <c r="AQ86" s="60"/>
-      <c r="AR86" s="60"/>
-      <c r="AS86" s="60"/>
-      <c r="AT86" s="60"/>
-      <c r="AU86" s="60"/>
-      <c r="AV86" s="59"/>
+        <v>125</v>
+      </c>
+      <c r="V86" s="59"/>
+      <c r="W86" s="59"/>
+      <c r="X86" s="59"/>
+      <c r="Y86" s="59"/>
+      <c r="Z86" s="59"/>
+      <c r="AA86" s="59"/>
+      <c r="AB86" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC86" s="55"/>
+      <c r="AD86" s="59"/>
+      <c r="AE86" s="59"/>
+      <c r="AF86" s="59"/>
+      <c r="AG86" s="59"/>
+      <c r="AH86" s="59"/>
+      <c r="AI86" s="59"/>
+      <c r="AJ86" s="59"/>
+      <c r="AK86" s="59"/>
+      <c r="AL86" s="59"/>
+      <c r="AM86" s="59"/>
+      <c r="AN86" s="59"/>
+      <c r="AO86" s="59"/>
+      <c r="AP86" s="59"/>
+      <c r="AQ86" s="59"/>
+      <c r="AR86" s="59"/>
+      <c r="AS86" s="59"/>
+      <c r="AT86" s="59"/>
+      <c r="AU86" s="59"/>
+      <c r="AV86" s="58"/>
       <c r="AW86" s="37"/>
       <c r="AX86" s="37"/>
       <c r="AY86" s="37"/>
@@ -9553,62 +9558,62 @@
     </row>
     <row r="87" spans="1:58">
       <c r="A87" s="36"/>
-      <c r="B87" s="58">
+      <c r="B87" s="57">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C87" s="59"/>
-      <c r="D87" s="58"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="58"/>
-      <c r="H87" s="60"/>
-      <c r="I87" s="60"/>
-      <c r="J87" s="60"/>
-      <c r="K87" s="60"/>
-      <c r="L87" s="60"/>
-      <c r="M87" s="60"/>
-      <c r="N87" s="60"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="57"/>
+      <c r="H87" s="59"/>
+      <c r="I87" s="59"/>
+      <c r="J87" s="59"/>
+      <c r="K87" s="59"/>
+      <c r="L87" s="59"/>
+      <c r="M87" s="59"/>
+      <c r="N87" s="59"/>
       <c r="O87" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="P87" s="60"/>
-      <c r="Q87" s="60"/>
-      <c r="R87" s="60"/>
-      <c r="S87" s="60"/>
-      <c r="T87" s="59"/>
+        <v>129</v>
+      </c>
+      <c r="P87" s="59"/>
+      <c r="Q87" s="59"/>
+      <c r="R87" s="59"/>
+      <c r="S87" s="59"/>
+      <c r="T87" s="58"/>
       <c r="U87" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="V87" s="60"/>
-      <c r="W87" s="60"/>
-      <c r="X87" s="60"/>
-      <c r="Y87" s="60"/>
-      <c r="Z87" s="60"/>
-      <c r="AA87" s="60"/>
-      <c r="AB87" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC87" s="56"/>
-      <c r="AD87" s="60"/>
-      <c r="AE87" s="60"/>
-      <c r="AF87" s="60"/>
-      <c r="AG87" s="60"/>
-      <c r="AH87" s="60"/>
-      <c r="AI87" s="60"/>
-      <c r="AJ87" s="60"/>
-      <c r="AK87" s="60"/>
-      <c r="AL87" s="60"/>
-      <c r="AM87" s="60"/>
-      <c r="AN87" s="60"/>
-      <c r="AO87" s="60"/>
-      <c r="AP87" s="60"/>
-      <c r="AQ87" s="60"/>
-      <c r="AR87" s="60"/>
-      <c r="AS87" s="60"/>
-      <c r="AT87" s="60"/>
-      <c r="AU87" s="60"/>
-      <c r="AV87" s="59"/>
+        <v>126</v>
+      </c>
+      <c r="V87" s="59"/>
+      <c r="W87" s="59"/>
+      <c r="X87" s="59"/>
+      <c r="Y87" s="59"/>
+      <c r="Z87" s="59"/>
+      <c r="AA87" s="59"/>
+      <c r="AB87" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC87" s="55"/>
+      <c r="AD87" s="59"/>
+      <c r="AE87" s="59"/>
+      <c r="AF87" s="59"/>
+      <c r="AG87" s="59"/>
+      <c r="AH87" s="59"/>
+      <c r="AI87" s="59"/>
+      <c r="AJ87" s="59"/>
+      <c r="AK87" s="59"/>
+      <c r="AL87" s="59"/>
+      <c r="AM87" s="59"/>
+      <c r="AN87" s="59"/>
+      <c r="AO87" s="59"/>
+      <c r="AP87" s="59"/>
+      <c r="AQ87" s="59"/>
+      <c r="AR87" s="59"/>
+      <c r="AS87" s="59"/>
+      <c r="AT87" s="59"/>
+      <c r="AU87" s="59"/>
+      <c r="AV87" s="58"/>
       <c r="AW87" s="37"/>
       <c r="AX87" s="37"/>
       <c r="AY87" s="37"/>
@@ -9622,62 +9627,66 @@
     </row>
     <row r="88" spans="1:58">
       <c r="A88" s="36"/>
-      <c r="B88" s="58">
+      <c r="B88" s="57">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C88" s="59"/>
-      <c r="D88" s="58"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="58"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="60"/>
-      <c r="J88" s="60"/>
-      <c r="K88" s="60"/>
-      <c r="L88" s="60"/>
-      <c r="M88" s="60"/>
-      <c r="N88" s="60"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="E88" s="59"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="H88" s="59"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="59"/>
+      <c r="K88" s="59"/>
+      <c r="L88" s="59"/>
+      <c r="M88" s="59"/>
+      <c r="N88" s="59"/>
       <c r="O88" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="P88" s="60"/>
-      <c r="Q88" s="60"/>
-      <c r="R88" s="60"/>
-      <c r="S88" s="60"/>
-      <c r="T88" s="59"/>
+        <v>124</v>
+      </c>
+      <c r="P88" s="59"/>
+      <c r="Q88" s="59"/>
+      <c r="R88" s="59"/>
+      <c r="S88" s="59"/>
+      <c r="T88" s="58"/>
       <c r="U88" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="V88" s="60"/>
-      <c r="W88" s="60"/>
-      <c r="X88" s="60"/>
-      <c r="Y88" s="60"/>
-      <c r="Z88" s="60"/>
-      <c r="AA88" s="60"/>
-      <c r="AB88" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC88" s="56"/>
-      <c r="AD88" s="60"/>
-      <c r="AE88" s="60"/>
-      <c r="AF88" s="60"/>
-      <c r="AG88" s="60"/>
-      <c r="AH88" s="60"/>
-      <c r="AI88" s="60"/>
-      <c r="AJ88" s="60"/>
-      <c r="AK88" s="60"/>
-      <c r="AL88" s="60"/>
-      <c r="AM88" s="60"/>
-      <c r="AN88" s="60"/>
-      <c r="AO88" s="60"/>
-      <c r="AP88" s="60"/>
-      <c r="AQ88" s="60"/>
-      <c r="AR88" s="60"/>
-      <c r="AS88" s="60"/>
-      <c r="AT88" s="60"/>
-      <c r="AU88" s="60"/>
-      <c r="AV88" s="59"/>
+        <v>27</v>
+      </c>
+      <c r="V88" s="59"/>
+      <c r="W88" s="59"/>
+      <c r="X88" s="59"/>
+      <c r="Y88" s="59"/>
+      <c r="Z88" s="59"/>
+      <c r="AA88" s="59"/>
+      <c r="AB88" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC88" s="55"/>
+      <c r="AD88" s="59"/>
+      <c r="AE88" s="59"/>
+      <c r="AF88" s="59"/>
+      <c r="AG88" s="59"/>
+      <c r="AH88" s="59"/>
+      <c r="AI88" s="59"/>
+      <c r="AJ88" s="59"/>
+      <c r="AK88" s="59"/>
+      <c r="AL88" s="59"/>
+      <c r="AM88" s="59"/>
+      <c r="AN88" s="59"/>
+      <c r="AO88" s="59"/>
+      <c r="AP88" s="59"/>
+      <c r="AQ88" s="59"/>
+      <c r="AR88" s="59"/>
+      <c r="AS88" s="59"/>
+      <c r="AT88" s="59"/>
+      <c r="AU88" s="59"/>
+      <c r="AV88" s="58"/>
       <c r="AW88" s="37"/>
       <c r="AX88" s="37"/>
       <c r="AY88" s="37"/>
@@ -9689,232 +9698,21 @@
       <c r="BE88" s="17"/>
       <c r="BF88" s="17"/>
     </row>
-    <row r="89" spans="1:58">
-      <c r="A89" s="36"/>
-      <c r="B89" s="58">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="C89" s="59"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="60"/>
-      <c r="F89" s="60"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="60"/>
-      <c r="I89" s="60"/>
-      <c r="J89" s="60"/>
-      <c r="K89" s="60"/>
-      <c r="L89" s="60"/>
-      <c r="M89" s="60"/>
-      <c r="N89" s="60"/>
-      <c r="O89" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="P89" s="60"/>
-      <c r="Q89" s="60"/>
-      <c r="R89" s="60"/>
-      <c r="S89" s="60"/>
-      <c r="T89" s="59"/>
-      <c r="U89" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="V89" s="60"/>
-      <c r="W89" s="60"/>
-      <c r="X89" s="60"/>
-      <c r="Y89" s="60"/>
-      <c r="Z89" s="60"/>
-      <c r="AA89" s="60"/>
-      <c r="AB89" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC89" s="56"/>
-      <c r="AD89" s="60"/>
-      <c r="AE89" s="60"/>
-      <c r="AF89" s="60"/>
-      <c r="AG89" s="60"/>
-      <c r="AH89" s="60"/>
-      <c r="AI89" s="60"/>
-      <c r="AJ89" s="60"/>
-      <c r="AK89" s="60"/>
-      <c r="AL89" s="60"/>
-      <c r="AM89" s="60"/>
-      <c r="AN89" s="60"/>
-      <c r="AO89" s="60"/>
-      <c r="AP89" s="60"/>
-      <c r="AQ89" s="60"/>
-      <c r="AR89" s="60"/>
-      <c r="AS89" s="60"/>
-      <c r="AT89" s="60"/>
-      <c r="AU89" s="60"/>
-      <c r="AV89" s="59"/>
-      <c r="AW89" s="37"/>
-      <c r="AX89" s="37"/>
-      <c r="AY89" s="37"/>
-      <c r="AZ89" s="37"/>
-      <c r="BA89" s="37"/>
-      <c r="BB89" s="37"/>
-      <c r="BC89" s="37"/>
-      <c r="BD89" s="17"/>
-      <c r="BE89" s="17"/>
-      <c r="BF89" s="17"/>
-    </row>
-    <row r="90" spans="1:58">
-      <c r="A90" s="36"/>
-      <c r="B90" s="58">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="C90" s="59"/>
-      <c r="D90" s="58"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="60"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="60"/>
-      <c r="I90" s="60"/>
-      <c r="J90" s="60"/>
-      <c r="K90" s="60"/>
-      <c r="L90" s="60"/>
-      <c r="M90" s="60"/>
-      <c r="N90" s="60"/>
-      <c r="O90" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="P90" s="60"/>
-      <c r="Q90" s="60"/>
-      <c r="R90" s="60"/>
-      <c r="S90" s="60"/>
-      <c r="T90" s="59"/>
-      <c r="U90" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="V90" s="60"/>
-      <c r="W90" s="60"/>
-      <c r="X90" s="60"/>
-      <c r="Y90" s="60"/>
-      <c r="Z90" s="60"/>
-      <c r="AA90" s="60"/>
-      <c r="AB90" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC90" s="56"/>
-      <c r="AD90" s="60"/>
-      <c r="AE90" s="60"/>
-      <c r="AF90" s="60"/>
-      <c r="AG90" s="60"/>
-      <c r="AH90" s="60"/>
-      <c r="AI90" s="60"/>
-      <c r="AJ90" s="60"/>
-      <c r="AK90" s="60"/>
-      <c r="AL90" s="60"/>
-      <c r="AM90" s="60"/>
-      <c r="AN90" s="60"/>
-      <c r="AO90" s="60"/>
-      <c r="AP90" s="60"/>
-      <c r="AQ90" s="60"/>
-      <c r="AR90" s="60"/>
-      <c r="AS90" s="60"/>
-      <c r="AT90" s="60"/>
-      <c r="AU90" s="60"/>
-      <c r="AV90" s="59"/>
-      <c r="AW90" s="37"/>
-      <c r="AX90" s="37"/>
-      <c r="AY90" s="37"/>
-      <c r="AZ90" s="37"/>
-      <c r="BA90" s="37"/>
-      <c r="BB90" s="37"/>
-      <c r="BC90" s="37"/>
-      <c r="BD90" s="17"/>
-      <c r="BE90" s="17"/>
-      <c r="BF90" s="17"/>
-    </row>
-    <row r="91" spans="1:58">
-      <c r="A91" s="36"/>
-      <c r="B91" s="58">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="C91" s="59"/>
-      <c r="D91" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="E91" s="60"/>
-      <c r="F91" s="60"/>
-      <c r="G91" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="H91" s="60"/>
-      <c r="I91" s="60"/>
-      <c r="J91" s="60"/>
-      <c r="K91" s="60"/>
-      <c r="L91" s="60"/>
-      <c r="M91" s="60"/>
-      <c r="N91" s="60"/>
-      <c r="O91" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="P91" s="60"/>
-      <c r="Q91" s="60"/>
-      <c r="R91" s="60"/>
-      <c r="S91" s="60"/>
-      <c r="T91" s="59"/>
-      <c r="U91" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="V91" s="60"/>
-      <c r="W91" s="60"/>
-      <c r="X91" s="60"/>
-      <c r="Y91" s="60"/>
-      <c r="Z91" s="60"/>
-      <c r="AA91" s="60"/>
-      <c r="AB91" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC91" s="56"/>
-      <c r="AD91" s="60"/>
-      <c r="AE91" s="60"/>
-      <c r="AF91" s="60"/>
-      <c r="AG91" s="60"/>
-      <c r="AH91" s="60"/>
-      <c r="AI91" s="60"/>
-      <c r="AJ91" s="60"/>
-      <c r="AK91" s="60"/>
-      <c r="AL91" s="60"/>
-      <c r="AM91" s="60"/>
-      <c r="AN91" s="60"/>
-      <c r="AO91" s="60"/>
-      <c r="AP91" s="60"/>
-      <c r="AQ91" s="60"/>
-      <c r="AR91" s="60"/>
-      <c r="AS91" s="60"/>
-      <c r="AT91" s="60"/>
-      <c r="AU91" s="60"/>
-      <c r="AV91" s="59"/>
-      <c r="AW91" s="37"/>
-      <c r="AX91" s="37"/>
-      <c r="AY91" s="37"/>
-      <c r="AZ91" s="37"/>
-      <c r="BA91" s="37"/>
-      <c r="BB91" s="37"/>
-      <c r="BC91" s="37"/>
-      <c r="BD91" s="17"/>
-      <c r="BE91" s="17"/>
-      <c r="BF91" s="17"/>
-    </row>
-    <row r="92" spans="1:58" ht="14.25">
-      <c r="A92" s="28"/>
-      <c r="B92" s="30"/>
-      <c r="C92" s="29"/>
-    </row>
-    <row r="93" spans="1:58" ht="14.25">
-      <c r="A93" s="28"/>
-      <c r="B93" s="31"/>
-      <c r="C93" s="29"/>
+    <row r="89" spans="1:58" ht="14.25">
+      <c r="A89" s="28"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="29"/>
+    </row>
+    <row r="90" spans="1:58" ht="14.25">
+      <c r="A90" s="28"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="S70:Z70"/>
-    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="S67:Z67"/>
+    <mergeCell ref="D67:F67"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_ユーザ情報編集画面.xlsx
+++ b/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_ユーザ情報編集画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\growthTeamDocument\2021年_テトリス\02_基本設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303411D3-DC6C-43BB-AFBA-211790812CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73194823-E369-415F-A409-E0739A3B09C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-450" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
+    <workbookView xWindow="990" yWindow="-120" windowWidth="24330" windowHeight="15990" activeTab="2" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
@@ -898,7 +898,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1057,9 +1057,31 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="MeiryoUI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="MeiryoUI"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1235,7 +1257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1326,9 +1348,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1407,14 +1426,50 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1443,50 +1498,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1506,15 +1525,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1532,6 +1542,48 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1585,7 +1637,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3982"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3984"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1616,6 +1668,50 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>162100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4A4E449-5918-4CE2-A3B9-05AC5041FA4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="6419850"/>
+          <a:ext cx="10515775" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -1644,13 +1740,13 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2955"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2957"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -1673,22 +1769,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>134585</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>143634</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>201332</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>48403</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20">
+        <xdr:cNvPr id="20" name="図 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D446366A-803D-474B-9B19-850B383FFDD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A46AD6-8E0C-4684-8252-B9E96888EA3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1696,722 +1792,21 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect t="683"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228600" y="2495550"/>
-          <a:ext cx="8849960" cy="5439534"/>
+          <a:off x="219075" y="2476500"/>
+          <a:ext cx="9364382" cy="5534803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>85849</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C9899AD-769E-434C-9CB7-5D71F576618B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7267575" y="2819400"/>
-          <a:ext cx="885949" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>85875</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>41</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C1AEE72-9BDF-4D0C-B480-296AEEEB2B2C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4010025" y="3724275"/>
-          <a:ext cx="1076475" cy="295316"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9675</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>41</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F430449-8876-46FC-9009-7BB26C705D76}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="962025" y="3724275"/>
-          <a:ext cx="1076475" cy="295316"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>105089</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9C04F2-25B0-4F5D-9033-6A64813945F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6581775" y="7286625"/>
-          <a:ext cx="2248214" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>105089</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>57181</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B595503-EF9F-4A8D-99F8-824E851F4A83}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6581775" y="6924675"/>
-          <a:ext cx="2248214" cy="581056"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>105089</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38131</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30DBBBB6-0008-4E12-BA45-03F364EE644F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6581775" y="6181725"/>
-          <a:ext cx="2248214" cy="962056"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>105089</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>152431</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08BE457-ED1E-4CFA-88B9-744757E8A90F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6581775" y="5457825"/>
-          <a:ext cx="2248214" cy="943006"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>114616</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>28887</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F0059B-3907-4AC5-8711-7BA8A26E79A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6572250" y="5238750"/>
-          <a:ext cx="2267266" cy="2238687"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BACC835-397F-4E77-9953-ED51D5B8F017}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6438900" y="2809874"/>
-          <a:ext cx="800100" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="図 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6030ADAA-AAD7-4C0D-A37B-B15DB6926826}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3295650" y="2819399"/>
-          <a:ext cx="800100" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="図 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67160407-9E9D-45BB-BE64-A335DEECF850}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="342900" y="2838449"/>
-          <a:ext cx="800100" cy="295275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>158209</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B66B25F-540F-4537-BBCB-62845FC91860}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6677024" y="2752725"/>
-          <a:ext cx="1800225" cy="396334"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ユーザ情報編集</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>110584</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="角丸四角形 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14987AF6-53B0-405B-A73F-F10D49F7BC9E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="523875" y="3733800"/>
-          <a:ext cx="1800225" cy="396334"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ユーザ情報編集</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>139159</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="角丸四角形 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF2DDF6-12E6-4CCF-B419-490A7D931C94}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3514725" y="3762375"/>
-          <a:ext cx="1800225" cy="396334"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="34" charset="-128"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ユーザ情報編集</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2766,191 +2161,191 @@
   <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="12"/>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="69" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="69" t="s">
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="69" t="s">
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-      <c r="AI1" s="70"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="69" t="s">
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="71"/>
-      <c r="AP1" s="69" t="s">
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AQ1" s="70"/>
-      <c r="AR1" s="70"/>
-      <c r="AS1" s="70"/>
-      <c r="AT1" s="71"/>
-      <c r="AU1" s="69" t="s">
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="AV1" s="70"/>
-      <c r="AW1" s="70"/>
-      <c r="AX1" s="70"/>
-      <c r="AY1" s="71"/>
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="58"/>
       <c r="BB1" s="3"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="72" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="72" t="s">
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="78">
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="65">
         <v>44577</v>
       </c>
-      <c r="AG2" s="79"/>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="72" t="s">
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="73"/>
-      <c r="AN2" s="73"/>
-      <c r="AO2" s="74"/>
-      <c r="AP2" s="78">
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="60"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="65">
         <v>44619</v>
       </c>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="79"/>
-      <c r="AS2" s="79"/>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="72" t="s">
+      <c r="AQ2" s="66"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="66"/>
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="AV2" s="73"/>
-      <c r="AW2" s="73"/>
-      <c r="AX2" s="73"/>
-      <c r="AY2" s="74"/>
+      <c r="AV2" s="60"/>
+      <c r="AW2" s="60"/>
+      <c r="AX2" s="60"/>
+      <c r="AY2" s="61"/>
       <c r="BB2" s="3"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="77"/>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="82"/>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="83"/>
-      <c r="AK3" s="75"/>
-      <c r="AL3" s="76"/>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="76"/>
-      <c r="AO3" s="77"/>
-      <c r="AP3" s="81"/>
-      <c r="AQ3" s="82"/>
-      <c r="AR3" s="82"/>
-      <c r="AS3" s="82"/>
-      <c r="AT3" s="83"/>
-      <c r="AU3" s="75"/>
-      <c r="AV3" s="76"/>
-      <c r="AW3" s="76"/>
-      <c r="AX3" s="76"/>
-      <c r="AY3" s="77"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="69"/>
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="70"/>
+      <c r="AU3" s="62"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="63"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="64"/>
       <c r="BB3" s="3"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1">
@@ -2967,6 +2362,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="K2:AE3"/>
+    <mergeCell ref="F2:J3"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="AP1:AT1"/>
@@ -2975,11 +2375,6 @@
     <mergeCell ref="AP2:AT3"/>
     <mergeCell ref="AK2:AO3"/>
     <mergeCell ref="AF2:AJ3"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="K2:AE3"/>
-    <mergeCell ref="F2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3081,118 +2476,118 @@
         <v>1</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="84">
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="83">
         <v>44577</v>
       </c>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="87" t="s">
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="87" t="s">
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="88"/>
-      <c r="AD8" s="88"/>
-      <c r="AE8" s="88"/>
-      <c r="AF8" s="88"/>
-      <c r="AG8" s="88"/>
-      <c r="AH8" s="88"/>
-      <c r="AI8" s="88"/>
-      <c r="AJ8" s="88"/>
-      <c r="AK8" s="88"/>
-      <c r="AL8" s="89"/>
-      <c r="AM8" s="87"/>
-      <c r="AN8" s="88"/>
-      <c r="AO8" s="88"/>
-      <c r="AP8" s="88"/>
-      <c r="AQ8" s="88"/>
-      <c r="AR8" s="88"/>
-      <c r="AS8" s="88"/>
-      <c r="AT8" s="88"/>
-      <c r="AU8" s="88"/>
-      <c r="AV8" s="88"/>
-      <c r="AW8" s="88"/>
-      <c r="AX8" s="88"/>
-      <c r="AY8" s="88"/>
-      <c r="AZ8" s="89"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="87"/>
+      <c r="AC8" s="87"/>
+      <c r="AD8" s="87"/>
+      <c r="AE8" s="87"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="87"/>
+      <c r="AI8" s="87"/>
+      <c r="AJ8" s="87"/>
+      <c r="AK8" s="87"/>
+      <c r="AL8" s="88"/>
+      <c r="AM8" s="86"/>
+      <c r="AN8" s="87"/>
+      <c r="AO8" s="87"/>
+      <c r="AP8" s="87"/>
+      <c r="AQ8" s="87"/>
+      <c r="AR8" s="87"/>
+      <c r="AS8" s="87"/>
+      <c r="AT8" s="87"/>
+      <c r="AU8" s="87"/>
+      <c r="AV8" s="87"/>
+      <c r="AW8" s="87"/>
+      <c r="AX8" s="87"/>
+      <c r="AY8" s="87"/>
+      <c r="AZ8" s="88"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="88"/>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="88"/>
-      <c r="AA9" s="88"/>
-      <c r="AB9" s="88"/>
-      <c r="AC9" s="88"/>
-      <c r="AD9" s="88"/>
-      <c r="AE9" s="88"/>
-      <c r="AF9" s="88"/>
-      <c r="AG9" s="88"/>
-      <c r="AH9" s="88"/>
-      <c r="AI9" s="88"/>
-      <c r="AJ9" s="88"/>
-      <c r="AK9" s="88"/>
-      <c r="AL9" s="89"/>
-      <c r="AM9" s="87"/>
-      <c r="AN9" s="88"/>
-      <c r="AO9" s="88"/>
-      <c r="AP9" s="88"/>
-      <c r="AQ9" s="88"/>
-      <c r="AR9" s="88"/>
-      <c r="AS9" s="88"/>
-      <c r="AT9" s="88"/>
-      <c r="AU9" s="88"/>
-      <c r="AV9" s="88"/>
-      <c r="AW9" s="88"/>
-      <c r="AX9" s="88"/>
-      <c r="AY9" s="88"/>
-      <c r="AZ9" s="89"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="87"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="87"/>
+      <c r="AB9" s="87"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="87"/>
+      <c r="AE9" s="87"/>
+      <c r="AF9" s="87"/>
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="87"/>
+      <c r="AI9" s="87"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="88"/>
+      <c r="AM9" s="86"/>
+      <c r="AN9" s="87"/>
+      <c r="AO9" s="87"/>
+      <c r="AP9" s="87"/>
+      <c r="AQ9" s="87"/>
+      <c r="AR9" s="87"/>
+      <c r="AS9" s="87"/>
+      <c r="AT9" s="87"/>
+      <c r="AU9" s="87"/>
+      <c r="AV9" s="87"/>
+      <c r="AW9" s="87"/>
+      <c r="AX9" s="87"/>
+      <c r="AY9" s="87"/>
+      <c r="AZ9" s="88"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="9" t="str">
@@ -3200,56 +2595,56 @@
         <v/>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="88"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="88"/>
-      <c r="W10" s="88"/>
-      <c r="X10" s="88"/>
-      <c r="Y10" s="88"/>
-      <c r="Z10" s="88"/>
-      <c r="AA10" s="88"/>
-      <c r="AB10" s="88"/>
-      <c r="AC10" s="88"/>
-      <c r="AD10" s="88"/>
-      <c r="AE10" s="88"/>
-      <c r="AF10" s="88"/>
-      <c r="AG10" s="88"/>
-      <c r="AH10" s="88"/>
-      <c r="AI10" s="88"/>
-      <c r="AJ10" s="88"/>
-      <c r="AK10" s="88"/>
-      <c r="AL10" s="89"/>
-      <c r="AM10" s="87"/>
-      <c r="AN10" s="88"/>
-      <c r="AO10" s="88"/>
-      <c r="AP10" s="88"/>
-      <c r="AQ10" s="88"/>
-      <c r="AR10" s="88"/>
-      <c r="AS10" s="88"/>
-      <c r="AT10" s="88"/>
-      <c r="AU10" s="88"/>
-      <c r="AV10" s="88"/>
-      <c r="AW10" s="88"/>
-      <c r="AX10" s="88"/>
-      <c r="AY10" s="88"/>
-      <c r="AZ10" s="89"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="88"/>
+      <c r="AM10" s="86"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="87"/>
+      <c r="AS10" s="87"/>
+      <c r="AT10" s="87"/>
+      <c r="AU10" s="87"/>
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="87"/>
+      <c r="AX10" s="87"/>
+      <c r="AY10" s="87"/>
+      <c r="AZ10" s="88"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="9" t="str">
@@ -3257,56 +2652,56 @@
         <v/>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="88"/>
-      <c r="AA11" s="88"/>
-      <c r="AB11" s="88"/>
-      <c r="AC11" s="88"/>
-      <c r="AD11" s="88"/>
-      <c r="AE11" s="88"/>
-      <c r="AF11" s="88"/>
-      <c r="AG11" s="88"/>
-      <c r="AH11" s="88"/>
-      <c r="AI11" s="88"/>
-      <c r="AJ11" s="88"/>
-      <c r="AK11" s="88"/>
-      <c r="AL11" s="89"/>
-      <c r="AM11" s="87"/>
-      <c r="AN11" s="88"/>
-      <c r="AO11" s="88"/>
-      <c r="AP11" s="88"/>
-      <c r="AQ11" s="88"/>
-      <c r="AR11" s="88"/>
-      <c r="AS11" s="88"/>
-      <c r="AT11" s="88"/>
-      <c r="AU11" s="88"/>
-      <c r="AV11" s="88"/>
-      <c r="AW11" s="88"/>
-      <c r="AX11" s="88"/>
-      <c r="AY11" s="88"/>
-      <c r="AZ11" s="89"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="87"/>
+      <c r="AD11" s="87"/>
+      <c r="AE11" s="87"/>
+      <c r="AF11" s="87"/>
+      <c r="AG11" s="87"/>
+      <c r="AH11" s="87"/>
+      <c r="AI11" s="87"/>
+      <c r="AJ11" s="87"/>
+      <c r="AK11" s="87"/>
+      <c r="AL11" s="88"/>
+      <c r="AM11" s="86"/>
+      <c r="AN11" s="87"/>
+      <c r="AO11" s="87"/>
+      <c r="AP11" s="87"/>
+      <c r="AQ11" s="87"/>
+      <c r="AR11" s="87"/>
+      <c r="AS11" s="87"/>
+      <c r="AT11" s="87"/>
+      <c r="AU11" s="87"/>
+      <c r="AV11" s="87"/>
+      <c r="AW11" s="87"/>
+      <c r="AX11" s="87"/>
+      <c r="AY11" s="87"/>
+      <c r="AZ11" s="88"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="9" t="str">
@@ -3314,56 +2709,56 @@
         <v/>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="88"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="88"/>
-      <c r="Y12" s="88"/>
-      <c r="Z12" s="88"/>
-      <c r="AA12" s="88"/>
-      <c r="AB12" s="88"/>
-      <c r="AC12" s="88"/>
-      <c r="AD12" s="88"/>
-      <c r="AE12" s="88"/>
-      <c r="AF12" s="88"/>
-      <c r="AG12" s="88"/>
-      <c r="AH12" s="88"/>
-      <c r="AI12" s="88"/>
-      <c r="AJ12" s="88"/>
-      <c r="AK12" s="88"/>
-      <c r="AL12" s="89"/>
-      <c r="AM12" s="87"/>
-      <c r="AN12" s="88"/>
-      <c r="AO12" s="88"/>
-      <c r="AP12" s="88"/>
-      <c r="AQ12" s="88"/>
-      <c r="AR12" s="88"/>
-      <c r="AS12" s="88"/>
-      <c r="AT12" s="88"/>
-      <c r="AU12" s="88"/>
-      <c r="AV12" s="88"/>
-      <c r="AW12" s="88"/>
-      <c r="AX12" s="88"/>
-      <c r="AY12" s="88"/>
-      <c r="AZ12" s="89"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="87"/>
+      <c r="AC12" s="87"/>
+      <c r="AD12" s="87"/>
+      <c r="AE12" s="87"/>
+      <c r="AF12" s="87"/>
+      <c r="AG12" s="87"/>
+      <c r="AH12" s="87"/>
+      <c r="AI12" s="87"/>
+      <c r="AJ12" s="87"/>
+      <c r="AK12" s="87"/>
+      <c r="AL12" s="88"/>
+      <c r="AM12" s="86"/>
+      <c r="AN12" s="87"/>
+      <c r="AO12" s="87"/>
+      <c r="AP12" s="87"/>
+      <c r="AQ12" s="87"/>
+      <c r="AR12" s="87"/>
+      <c r="AS12" s="87"/>
+      <c r="AT12" s="87"/>
+      <c r="AU12" s="87"/>
+      <c r="AV12" s="87"/>
+      <c r="AW12" s="87"/>
+      <c r="AX12" s="87"/>
+      <c r="AY12" s="87"/>
+      <c r="AZ12" s="88"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="9" t="str">
@@ -3371,56 +2766,56 @@
         <v/>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="88"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="88"/>
-      <c r="Y13" s="88"/>
-      <c r="Z13" s="88"/>
-      <c r="AA13" s="88"/>
-      <c r="AB13" s="88"/>
-      <c r="AC13" s="88"/>
-      <c r="AD13" s="88"/>
-      <c r="AE13" s="88"/>
-      <c r="AF13" s="88"/>
-      <c r="AG13" s="88"/>
-      <c r="AH13" s="88"/>
-      <c r="AI13" s="88"/>
-      <c r="AJ13" s="88"/>
-      <c r="AK13" s="88"/>
-      <c r="AL13" s="89"/>
-      <c r="AM13" s="87"/>
-      <c r="AN13" s="88"/>
-      <c r="AO13" s="88"/>
-      <c r="AP13" s="88"/>
-      <c r="AQ13" s="88"/>
-      <c r="AR13" s="88"/>
-      <c r="AS13" s="88"/>
-      <c r="AT13" s="88"/>
-      <c r="AU13" s="88"/>
-      <c r="AV13" s="88"/>
-      <c r="AW13" s="88"/>
-      <c r="AX13" s="88"/>
-      <c r="AY13" s="88"/>
-      <c r="AZ13" s="89"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="87"/>
+      <c r="AC13" s="87"/>
+      <c r="AD13" s="87"/>
+      <c r="AE13" s="87"/>
+      <c r="AF13" s="87"/>
+      <c r="AG13" s="87"/>
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="87"/>
+      <c r="AJ13" s="87"/>
+      <c r="AK13" s="87"/>
+      <c r="AL13" s="88"/>
+      <c r="AM13" s="86"/>
+      <c r="AN13" s="87"/>
+      <c r="AO13" s="87"/>
+      <c r="AP13" s="87"/>
+      <c r="AQ13" s="87"/>
+      <c r="AR13" s="87"/>
+      <c r="AS13" s="87"/>
+      <c r="AT13" s="87"/>
+      <c r="AU13" s="87"/>
+      <c r="AV13" s="87"/>
+      <c r="AW13" s="87"/>
+      <c r="AX13" s="87"/>
+      <c r="AY13" s="87"/>
+      <c r="AZ13" s="88"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="9" t="str">
@@ -3428,56 +2823,56 @@
         <v/>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="88"/>
-      <c r="U14" s="88"/>
-      <c r="V14" s="88"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="88"/>
-      <c r="Y14" s="88"/>
-      <c r="Z14" s="88"/>
-      <c r="AA14" s="88"/>
-      <c r="AB14" s="88"/>
-      <c r="AC14" s="88"/>
-      <c r="AD14" s="88"/>
-      <c r="AE14" s="88"/>
-      <c r="AF14" s="88"/>
-      <c r="AG14" s="88"/>
-      <c r="AH14" s="88"/>
-      <c r="AI14" s="88"/>
-      <c r="AJ14" s="88"/>
-      <c r="AK14" s="88"/>
-      <c r="AL14" s="89"/>
-      <c r="AM14" s="87"/>
-      <c r="AN14" s="88"/>
-      <c r="AO14" s="88"/>
-      <c r="AP14" s="88"/>
-      <c r="AQ14" s="88"/>
-      <c r="AR14" s="88"/>
-      <c r="AS14" s="88"/>
-      <c r="AT14" s="88"/>
-      <c r="AU14" s="88"/>
-      <c r="AV14" s="88"/>
-      <c r="AW14" s="88"/>
-      <c r="AX14" s="88"/>
-      <c r="AY14" s="88"/>
-      <c r="AZ14" s="89"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="87"/>
+      <c r="Y14" s="87"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="87"/>
+      <c r="AB14" s="87"/>
+      <c r="AC14" s="87"/>
+      <c r="AD14" s="87"/>
+      <c r="AE14" s="87"/>
+      <c r="AF14" s="87"/>
+      <c r="AG14" s="87"/>
+      <c r="AH14" s="87"/>
+      <c r="AI14" s="87"/>
+      <c r="AJ14" s="87"/>
+      <c r="AK14" s="87"/>
+      <c r="AL14" s="88"/>
+      <c r="AM14" s="86"/>
+      <c r="AN14" s="87"/>
+      <c r="AO14" s="87"/>
+      <c r="AP14" s="87"/>
+      <c r="AQ14" s="87"/>
+      <c r="AR14" s="87"/>
+      <c r="AS14" s="87"/>
+      <c r="AT14" s="87"/>
+      <c r="AU14" s="87"/>
+      <c r="AV14" s="87"/>
+      <c r="AW14" s="87"/>
+      <c r="AX14" s="87"/>
+      <c r="AY14" s="87"/>
+      <c r="AZ14" s="88"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="9" t="str">
@@ -3485,56 +2880,56 @@
         <v/>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="88"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="88"/>
-      <c r="W15" s="88"/>
-      <c r="X15" s="88"/>
-      <c r="Y15" s="88"/>
-      <c r="Z15" s="88"/>
-      <c r="AA15" s="88"/>
-      <c r="AB15" s="88"/>
-      <c r="AC15" s="88"/>
-      <c r="AD15" s="88"/>
-      <c r="AE15" s="88"/>
-      <c r="AF15" s="88"/>
-      <c r="AG15" s="88"/>
-      <c r="AH15" s="88"/>
-      <c r="AI15" s="88"/>
-      <c r="AJ15" s="88"/>
-      <c r="AK15" s="88"/>
-      <c r="AL15" s="89"/>
-      <c r="AM15" s="87"/>
-      <c r="AN15" s="88"/>
-      <c r="AO15" s="88"/>
-      <c r="AP15" s="88"/>
-      <c r="AQ15" s="88"/>
-      <c r="AR15" s="88"/>
-      <c r="AS15" s="88"/>
-      <c r="AT15" s="88"/>
-      <c r="AU15" s="88"/>
-      <c r="AV15" s="88"/>
-      <c r="AW15" s="88"/>
-      <c r="AX15" s="88"/>
-      <c r="AY15" s="88"/>
-      <c r="AZ15" s="89"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="86"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="87"/>
+      <c r="AC15" s="87"/>
+      <c r="AD15" s="87"/>
+      <c r="AE15" s="87"/>
+      <c r="AF15" s="87"/>
+      <c r="AG15" s="87"/>
+      <c r="AH15" s="87"/>
+      <c r="AI15" s="87"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="87"/>
+      <c r="AL15" s="88"/>
+      <c r="AM15" s="86"/>
+      <c r="AN15" s="87"/>
+      <c r="AO15" s="87"/>
+      <c r="AP15" s="87"/>
+      <c r="AQ15" s="87"/>
+      <c r="AR15" s="87"/>
+      <c r="AS15" s="87"/>
+      <c r="AT15" s="87"/>
+      <c r="AU15" s="87"/>
+      <c r="AV15" s="87"/>
+      <c r="AW15" s="87"/>
+      <c r="AX15" s="87"/>
+      <c r="AY15" s="87"/>
+      <c r="AZ15" s="88"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="9" t="str">
@@ -3542,56 +2937,56 @@
         <v/>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="88"/>
-      <c r="U16" s="88"/>
-      <c r="V16" s="88"/>
-      <c r="W16" s="88"/>
-      <c r="X16" s="88"/>
-      <c r="Y16" s="88"/>
-      <c r="Z16" s="88"/>
-      <c r="AA16" s="88"/>
-      <c r="AB16" s="88"/>
-      <c r="AC16" s="88"/>
-      <c r="AD16" s="88"/>
-      <c r="AE16" s="88"/>
-      <c r="AF16" s="88"/>
-      <c r="AG16" s="88"/>
-      <c r="AH16" s="88"/>
-      <c r="AI16" s="88"/>
-      <c r="AJ16" s="88"/>
-      <c r="AK16" s="88"/>
-      <c r="AL16" s="89"/>
-      <c r="AM16" s="87"/>
-      <c r="AN16" s="88"/>
-      <c r="AO16" s="88"/>
-      <c r="AP16" s="88"/>
-      <c r="AQ16" s="88"/>
-      <c r="AR16" s="88"/>
-      <c r="AS16" s="88"/>
-      <c r="AT16" s="88"/>
-      <c r="AU16" s="88"/>
-      <c r="AV16" s="88"/>
-      <c r="AW16" s="88"/>
-      <c r="AX16" s="88"/>
-      <c r="AY16" s="88"/>
-      <c r="AZ16" s="89"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="86"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="87"/>
+      <c r="Y16" s="87"/>
+      <c r="Z16" s="87"/>
+      <c r="AA16" s="87"/>
+      <c r="AB16" s="87"/>
+      <c r="AC16" s="87"/>
+      <c r="AD16" s="87"/>
+      <c r="AE16" s="87"/>
+      <c r="AF16" s="87"/>
+      <c r="AG16" s="87"/>
+      <c r="AH16" s="87"/>
+      <c r="AI16" s="87"/>
+      <c r="AJ16" s="87"/>
+      <c r="AK16" s="87"/>
+      <c r="AL16" s="88"/>
+      <c r="AM16" s="86"/>
+      <c r="AN16" s="87"/>
+      <c r="AO16" s="87"/>
+      <c r="AP16" s="87"/>
+      <c r="AQ16" s="87"/>
+      <c r="AR16" s="87"/>
+      <c r="AS16" s="87"/>
+      <c r="AT16" s="87"/>
+      <c r="AU16" s="87"/>
+      <c r="AV16" s="87"/>
+      <c r="AW16" s="87"/>
+      <c r="AX16" s="87"/>
+      <c r="AY16" s="87"/>
+      <c r="AZ16" s="88"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="9" t="str">
@@ -3599,56 +2994,56 @@
         <v/>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="88"/>
-      <c r="S17" s="88"/>
-      <c r="T17" s="88"/>
-      <c r="U17" s="88"/>
-      <c r="V17" s="88"/>
-      <c r="W17" s="88"/>
-      <c r="X17" s="88"/>
-      <c r="Y17" s="88"/>
-      <c r="Z17" s="88"/>
-      <c r="AA17" s="88"/>
-      <c r="AB17" s="88"/>
-      <c r="AC17" s="88"/>
-      <c r="AD17" s="88"/>
-      <c r="AE17" s="88"/>
-      <c r="AF17" s="88"/>
-      <c r="AG17" s="88"/>
-      <c r="AH17" s="88"/>
-      <c r="AI17" s="88"/>
-      <c r="AJ17" s="88"/>
-      <c r="AK17" s="88"/>
-      <c r="AL17" s="89"/>
-      <c r="AM17" s="87"/>
-      <c r="AN17" s="88"/>
-      <c r="AO17" s="88"/>
-      <c r="AP17" s="88"/>
-      <c r="AQ17" s="88"/>
-      <c r="AR17" s="88"/>
-      <c r="AS17" s="88"/>
-      <c r="AT17" s="88"/>
-      <c r="AU17" s="88"/>
-      <c r="AV17" s="88"/>
-      <c r="AW17" s="88"/>
-      <c r="AX17" s="88"/>
-      <c r="AY17" s="88"/>
-      <c r="AZ17" s="89"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="87"/>
+      <c r="AB17" s="87"/>
+      <c r="AC17" s="87"/>
+      <c r="AD17" s="87"/>
+      <c r="AE17" s="87"/>
+      <c r="AF17" s="87"/>
+      <c r="AG17" s="87"/>
+      <c r="AH17" s="87"/>
+      <c r="AI17" s="87"/>
+      <c r="AJ17" s="87"/>
+      <c r="AK17" s="87"/>
+      <c r="AL17" s="88"/>
+      <c r="AM17" s="86"/>
+      <c r="AN17" s="87"/>
+      <c r="AO17" s="87"/>
+      <c r="AP17" s="87"/>
+      <c r="AQ17" s="87"/>
+      <c r="AR17" s="87"/>
+      <c r="AS17" s="87"/>
+      <c r="AT17" s="87"/>
+      <c r="AU17" s="87"/>
+      <c r="AV17" s="87"/>
+      <c r="AW17" s="87"/>
+      <c r="AX17" s="87"/>
+      <c r="AY17" s="87"/>
+      <c r="AZ17" s="88"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="9" t="str">
@@ -3656,56 +3051,56 @@
         <v/>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="88"/>
-      <c r="T18" s="88"/>
-      <c r="U18" s="88"/>
-      <c r="V18" s="88"/>
-      <c r="W18" s="88"/>
-      <c r="X18" s="88"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="88"/>
-      <c r="AA18" s="88"/>
-      <c r="AB18" s="88"/>
-      <c r="AC18" s="88"/>
-      <c r="AD18" s="88"/>
-      <c r="AE18" s="88"/>
-      <c r="AF18" s="88"/>
-      <c r="AG18" s="88"/>
-      <c r="AH18" s="88"/>
-      <c r="AI18" s="88"/>
-      <c r="AJ18" s="88"/>
-      <c r="AK18" s="88"/>
-      <c r="AL18" s="89"/>
-      <c r="AM18" s="87"/>
-      <c r="AN18" s="88"/>
-      <c r="AO18" s="88"/>
-      <c r="AP18" s="88"/>
-      <c r="AQ18" s="88"/>
-      <c r="AR18" s="88"/>
-      <c r="AS18" s="88"/>
-      <c r="AT18" s="88"/>
-      <c r="AU18" s="88"/>
-      <c r="AV18" s="88"/>
-      <c r="AW18" s="88"/>
-      <c r="AX18" s="88"/>
-      <c r="AY18" s="88"/>
-      <c r="AZ18" s="89"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="87"/>
+      <c r="X18" s="87"/>
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="87"/>
+      <c r="AA18" s="87"/>
+      <c r="AB18" s="87"/>
+      <c r="AC18" s="87"/>
+      <c r="AD18" s="87"/>
+      <c r="AE18" s="87"/>
+      <c r="AF18" s="87"/>
+      <c r="AG18" s="87"/>
+      <c r="AH18" s="87"/>
+      <c r="AI18" s="87"/>
+      <c r="AJ18" s="87"/>
+      <c r="AK18" s="87"/>
+      <c r="AL18" s="88"/>
+      <c r="AM18" s="86"/>
+      <c r="AN18" s="87"/>
+      <c r="AO18" s="87"/>
+      <c r="AP18" s="87"/>
+      <c r="AQ18" s="87"/>
+      <c r="AR18" s="87"/>
+      <c r="AS18" s="87"/>
+      <c r="AT18" s="87"/>
+      <c r="AU18" s="87"/>
+      <c r="AV18" s="87"/>
+      <c r="AW18" s="87"/>
+      <c r="AX18" s="87"/>
+      <c r="AY18" s="87"/>
+      <c r="AZ18" s="88"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="9" t="str">
@@ -3713,56 +3108,56 @@
         <v/>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="88"/>
-      <c r="U19" s="88"/>
-      <c r="V19" s="88"/>
-      <c r="W19" s="88"/>
-      <c r="X19" s="88"/>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="88"/>
-      <c r="AA19" s="88"/>
-      <c r="AB19" s="88"/>
-      <c r="AC19" s="88"/>
-      <c r="AD19" s="88"/>
-      <c r="AE19" s="88"/>
-      <c r="AF19" s="88"/>
-      <c r="AG19" s="88"/>
-      <c r="AH19" s="88"/>
-      <c r="AI19" s="88"/>
-      <c r="AJ19" s="88"/>
-      <c r="AK19" s="88"/>
-      <c r="AL19" s="89"/>
-      <c r="AM19" s="87"/>
-      <c r="AN19" s="88"/>
-      <c r="AO19" s="88"/>
-      <c r="AP19" s="88"/>
-      <c r="AQ19" s="88"/>
-      <c r="AR19" s="88"/>
-      <c r="AS19" s="88"/>
-      <c r="AT19" s="88"/>
-      <c r="AU19" s="88"/>
-      <c r="AV19" s="88"/>
-      <c r="AW19" s="88"/>
-      <c r="AX19" s="88"/>
-      <c r="AY19" s="88"/>
-      <c r="AZ19" s="89"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="86"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="87"/>
+      <c r="AA19" s="87"/>
+      <c r="AB19" s="87"/>
+      <c r="AC19" s="87"/>
+      <c r="AD19" s="87"/>
+      <c r="AE19" s="87"/>
+      <c r="AF19" s="87"/>
+      <c r="AG19" s="87"/>
+      <c r="AH19" s="87"/>
+      <c r="AI19" s="87"/>
+      <c r="AJ19" s="87"/>
+      <c r="AK19" s="87"/>
+      <c r="AL19" s="88"/>
+      <c r="AM19" s="86"/>
+      <c r="AN19" s="87"/>
+      <c r="AO19" s="87"/>
+      <c r="AP19" s="87"/>
+      <c r="AQ19" s="87"/>
+      <c r="AR19" s="87"/>
+      <c r="AS19" s="87"/>
+      <c r="AT19" s="87"/>
+      <c r="AU19" s="87"/>
+      <c r="AV19" s="87"/>
+      <c r="AW19" s="87"/>
+      <c r="AX19" s="87"/>
+      <c r="AY19" s="87"/>
+      <c r="AZ19" s="88"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="9" t="str">
@@ -3770,56 +3165,56 @@
         <v/>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="87"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="88"/>
-      <c r="U20" s="88"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="88"/>
-      <c r="X20" s="88"/>
-      <c r="Y20" s="88"/>
-      <c r="Z20" s="88"/>
-      <c r="AA20" s="88"/>
-      <c r="AB20" s="88"/>
-      <c r="AC20" s="88"/>
-      <c r="AD20" s="88"/>
-      <c r="AE20" s="88"/>
-      <c r="AF20" s="88"/>
-      <c r="AG20" s="88"/>
-      <c r="AH20" s="88"/>
-      <c r="AI20" s="88"/>
-      <c r="AJ20" s="88"/>
-      <c r="AK20" s="88"/>
-      <c r="AL20" s="89"/>
-      <c r="AM20" s="87"/>
-      <c r="AN20" s="88"/>
-      <c r="AO20" s="88"/>
-      <c r="AP20" s="88"/>
-      <c r="AQ20" s="88"/>
-      <c r="AR20" s="88"/>
-      <c r="AS20" s="88"/>
-      <c r="AT20" s="88"/>
-      <c r="AU20" s="88"/>
-      <c r="AV20" s="88"/>
-      <c r="AW20" s="88"/>
-      <c r="AX20" s="88"/>
-      <c r="AY20" s="88"/>
-      <c r="AZ20" s="89"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="87"/>
+      <c r="V20" s="87"/>
+      <c r="W20" s="87"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="87"/>
+      <c r="Z20" s="87"/>
+      <c r="AA20" s="87"/>
+      <c r="AB20" s="87"/>
+      <c r="AC20" s="87"/>
+      <c r="AD20" s="87"/>
+      <c r="AE20" s="87"/>
+      <c r="AF20" s="87"/>
+      <c r="AG20" s="87"/>
+      <c r="AH20" s="87"/>
+      <c r="AI20" s="87"/>
+      <c r="AJ20" s="87"/>
+      <c r="AK20" s="87"/>
+      <c r="AL20" s="88"/>
+      <c r="AM20" s="86"/>
+      <c r="AN20" s="87"/>
+      <c r="AO20" s="87"/>
+      <c r="AP20" s="87"/>
+      <c r="AQ20" s="87"/>
+      <c r="AR20" s="87"/>
+      <c r="AS20" s="87"/>
+      <c r="AT20" s="87"/>
+      <c r="AU20" s="87"/>
+      <c r="AV20" s="87"/>
+      <c r="AW20" s="87"/>
+      <c r="AX20" s="87"/>
+      <c r="AY20" s="87"/>
+      <c r="AZ20" s="88"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="9" t="str">
@@ -3827,56 +3222,56 @@
         <v/>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="88"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="88"/>
-      <c r="S21" s="88"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="88"/>
-      <c r="V21" s="88"/>
-      <c r="W21" s="88"/>
-      <c r="X21" s="88"/>
-      <c r="Y21" s="88"/>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="88"/>
-      <c r="AB21" s="88"/>
-      <c r="AC21" s="88"/>
-      <c r="AD21" s="88"/>
-      <c r="AE21" s="88"/>
-      <c r="AF21" s="88"/>
-      <c r="AG21" s="88"/>
-      <c r="AH21" s="88"/>
-      <c r="AI21" s="88"/>
-      <c r="AJ21" s="88"/>
-      <c r="AK21" s="88"/>
-      <c r="AL21" s="89"/>
-      <c r="AM21" s="87"/>
-      <c r="AN21" s="88"/>
-      <c r="AO21" s="88"/>
-      <c r="AP21" s="88"/>
-      <c r="AQ21" s="88"/>
-      <c r="AR21" s="88"/>
-      <c r="AS21" s="88"/>
-      <c r="AT21" s="88"/>
-      <c r="AU21" s="88"/>
-      <c r="AV21" s="88"/>
-      <c r="AW21" s="88"/>
-      <c r="AX21" s="88"/>
-      <c r="AY21" s="88"/>
-      <c r="AZ21" s="89"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="88"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="87"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="87"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="87"/>
+      <c r="AA21" s="87"/>
+      <c r="AB21" s="87"/>
+      <c r="AC21" s="87"/>
+      <c r="AD21" s="87"/>
+      <c r="AE21" s="87"/>
+      <c r="AF21" s="87"/>
+      <c r="AG21" s="87"/>
+      <c r="AH21" s="87"/>
+      <c r="AI21" s="87"/>
+      <c r="AJ21" s="87"/>
+      <c r="AK21" s="87"/>
+      <c r="AL21" s="88"/>
+      <c r="AM21" s="86"/>
+      <c r="AN21" s="87"/>
+      <c r="AO21" s="87"/>
+      <c r="AP21" s="87"/>
+      <c r="AQ21" s="87"/>
+      <c r="AR21" s="87"/>
+      <c r="AS21" s="87"/>
+      <c r="AT21" s="87"/>
+      <c r="AU21" s="87"/>
+      <c r="AV21" s="87"/>
+      <c r="AW21" s="87"/>
+      <c r="AX21" s="87"/>
+      <c r="AY21" s="87"/>
+      <c r="AZ21" s="88"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="9" t="str">
@@ -3884,56 +3279,56 @@
         <v/>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="88"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="88"/>
-      <c r="V22" s="88"/>
-      <c r="W22" s="88"/>
-      <c r="X22" s="88"/>
-      <c r="Y22" s="88"/>
-      <c r="Z22" s="88"/>
-      <c r="AA22" s="88"/>
-      <c r="AB22" s="88"/>
-      <c r="AC22" s="88"/>
-      <c r="AD22" s="88"/>
-      <c r="AE22" s="88"/>
-      <c r="AF22" s="88"/>
-      <c r="AG22" s="88"/>
-      <c r="AH22" s="88"/>
-      <c r="AI22" s="88"/>
-      <c r="AJ22" s="88"/>
-      <c r="AK22" s="88"/>
-      <c r="AL22" s="89"/>
-      <c r="AM22" s="87"/>
-      <c r="AN22" s="88"/>
-      <c r="AO22" s="88"/>
-      <c r="AP22" s="88"/>
-      <c r="AQ22" s="88"/>
-      <c r="AR22" s="88"/>
-      <c r="AS22" s="88"/>
-      <c r="AT22" s="88"/>
-      <c r="AU22" s="88"/>
-      <c r="AV22" s="88"/>
-      <c r="AW22" s="88"/>
-      <c r="AX22" s="88"/>
-      <c r="AY22" s="88"/>
-      <c r="AZ22" s="89"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="88"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="87"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="87"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="87"/>
+      <c r="AA22" s="87"/>
+      <c r="AB22" s="87"/>
+      <c r="AC22" s="87"/>
+      <c r="AD22" s="87"/>
+      <c r="AE22" s="87"/>
+      <c r="AF22" s="87"/>
+      <c r="AG22" s="87"/>
+      <c r="AH22" s="87"/>
+      <c r="AI22" s="87"/>
+      <c r="AJ22" s="87"/>
+      <c r="AK22" s="87"/>
+      <c r="AL22" s="88"/>
+      <c r="AM22" s="86"/>
+      <c r="AN22" s="87"/>
+      <c r="AO22" s="87"/>
+      <c r="AP22" s="87"/>
+      <c r="AQ22" s="87"/>
+      <c r="AR22" s="87"/>
+      <c r="AS22" s="87"/>
+      <c r="AT22" s="87"/>
+      <c r="AU22" s="87"/>
+      <c r="AV22" s="87"/>
+      <c r="AW22" s="87"/>
+      <c r="AX22" s="87"/>
+      <c r="AY22" s="87"/>
+      <c r="AZ22" s="88"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="9" t="str">
@@ -3941,56 +3336,56 @@
         <v/>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="88"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="88"/>
-      <c r="P23" s="89"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="88"/>
-      <c r="S23" s="88"/>
-      <c r="T23" s="88"/>
-      <c r="U23" s="88"/>
-      <c r="V23" s="88"/>
-      <c r="W23" s="88"/>
-      <c r="X23" s="88"/>
-      <c r="Y23" s="88"/>
-      <c r="Z23" s="88"/>
-      <c r="AA23" s="88"/>
-      <c r="AB23" s="88"/>
-      <c r="AC23" s="88"/>
-      <c r="AD23" s="88"/>
-      <c r="AE23" s="88"/>
-      <c r="AF23" s="88"/>
-      <c r="AG23" s="88"/>
-      <c r="AH23" s="88"/>
-      <c r="AI23" s="88"/>
-      <c r="AJ23" s="88"/>
-      <c r="AK23" s="88"/>
-      <c r="AL23" s="89"/>
-      <c r="AM23" s="87"/>
-      <c r="AN23" s="88"/>
-      <c r="AO23" s="88"/>
-      <c r="AP23" s="88"/>
-      <c r="AQ23" s="88"/>
-      <c r="AR23" s="88"/>
-      <c r="AS23" s="88"/>
-      <c r="AT23" s="88"/>
-      <c r="AU23" s="88"/>
-      <c r="AV23" s="88"/>
-      <c r="AW23" s="88"/>
-      <c r="AX23" s="88"/>
-      <c r="AY23" s="88"/>
-      <c r="AZ23" s="89"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="87"/>
+      <c r="S23" s="87"/>
+      <c r="T23" s="87"/>
+      <c r="U23" s="87"/>
+      <c r="V23" s="87"/>
+      <c r="W23" s="87"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="87"/>
+      <c r="Z23" s="87"/>
+      <c r="AA23" s="87"/>
+      <c r="AB23" s="87"/>
+      <c r="AC23" s="87"/>
+      <c r="AD23" s="87"/>
+      <c r="AE23" s="87"/>
+      <c r="AF23" s="87"/>
+      <c r="AG23" s="87"/>
+      <c r="AH23" s="87"/>
+      <c r="AI23" s="87"/>
+      <c r="AJ23" s="87"/>
+      <c r="AK23" s="87"/>
+      <c r="AL23" s="88"/>
+      <c r="AM23" s="86"/>
+      <c r="AN23" s="87"/>
+      <c r="AO23" s="87"/>
+      <c r="AP23" s="87"/>
+      <c r="AQ23" s="87"/>
+      <c r="AR23" s="87"/>
+      <c r="AS23" s="87"/>
+      <c r="AT23" s="87"/>
+      <c r="AU23" s="87"/>
+      <c r="AV23" s="87"/>
+      <c r="AW23" s="87"/>
+      <c r="AX23" s="87"/>
+      <c r="AY23" s="87"/>
+      <c r="AZ23" s="88"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="9" t="str">
@@ -3998,56 +3393,56 @@
         <v/>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="89"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="88"/>
-      <c r="S24" s="88"/>
-      <c r="T24" s="88"/>
-      <c r="U24" s="88"/>
-      <c r="V24" s="88"/>
-      <c r="W24" s="88"/>
-      <c r="X24" s="88"/>
-      <c r="Y24" s="88"/>
-      <c r="Z24" s="88"/>
-      <c r="AA24" s="88"/>
-      <c r="AB24" s="88"/>
-      <c r="AC24" s="88"/>
-      <c r="AD24" s="88"/>
-      <c r="AE24" s="88"/>
-      <c r="AF24" s="88"/>
-      <c r="AG24" s="88"/>
-      <c r="AH24" s="88"/>
-      <c r="AI24" s="88"/>
-      <c r="AJ24" s="88"/>
-      <c r="AK24" s="88"/>
-      <c r="AL24" s="89"/>
-      <c r="AM24" s="87"/>
-      <c r="AN24" s="88"/>
-      <c r="AO24" s="88"/>
-      <c r="AP24" s="88"/>
-      <c r="AQ24" s="88"/>
-      <c r="AR24" s="88"/>
-      <c r="AS24" s="88"/>
-      <c r="AT24" s="88"/>
-      <c r="AU24" s="88"/>
-      <c r="AV24" s="88"/>
-      <c r="AW24" s="88"/>
-      <c r="AX24" s="88"/>
-      <c r="AY24" s="88"/>
-      <c r="AZ24" s="89"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="87"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="87"/>
+      <c r="Z24" s="87"/>
+      <c r="AA24" s="87"/>
+      <c r="AB24" s="87"/>
+      <c r="AC24" s="87"/>
+      <c r="AD24" s="87"/>
+      <c r="AE24" s="87"/>
+      <c r="AF24" s="87"/>
+      <c r="AG24" s="87"/>
+      <c r="AH24" s="87"/>
+      <c r="AI24" s="87"/>
+      <c r="AJ24" s="87"/>
+      <c r="AK24" s="87"/>
+      <c r="AL24" s="88"/>
+      <c r="AM24" s="86"/>
+      <c r="AN24" s="87"/>
+      <c r="AO24" s="87"/>
+      <c r="AP24" s="87"/>
+      <c r="AQ24" s="87"/>
+      <c r="AR24" s="87"/>
+      <c r="AS24" s="87"/>
+      <c r="AT24" s="87"/>
+      <c r="AU24" s="87"/>
+      <c r="AV24" s="87"/>
+      <c r="AW24" s="87"/>
+      <c r="AX24" s="87"/>
+      <c r="AY24" s="87"/>
+      <c r="AZ24" s="88"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="9" t="str">
@@ -4055,56 +3450,56 @@
         <v/>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="87"/>
-      <c r="R25" s="88"/>
-      <c r="S25" s="88"/>
-      <c r="T25" s="88"/>
-      <c r="U25" s="88"/>
-      <c r="V25" s="88"/>
-      <c r="W25" s="88"/>
-      <c r="X25" s="88"/>
-      <c r="Y25" s="88"/>
-      <c r="Z25" s="88"/>
-      <c r="AA25" s="88"/>
-      <c r="AB25" s="88"/>
-      <c r="AC25" s="88"/>
-      <c r="AD25" s="88"/>
-      <c r="AE25" s="88"/>
-      <c r="AF25" s="88"/>
-      <c r="AG25" s="88"/>
-      <c r="AH25" s="88"/>
-      <c r="AI25" s="88"/>
-      <c r="AJ25" s="88"/>
-      <c r="AK25" s="88"/>
-      <c r="AL25" s="89"/>
-      <c r="AM25" s="87"/>
-      <c r="AN25" s="88"/>
-      <c r="AO25" s="88"/>
-      <c r="AP25" s="88"/>
-      <c r="AQ25" s="88"/>
-      <c r="AR25" s="88"/>
-      <c r="AS25" s="88"/>
-      <c r="AT25" s="88"/>
-      <c r="AU25" s="88"/>
-      <c r="AV25" s="88"/>
-      <c r="AW25" s="88"/>
-      <c r="AX25" s="88"/>
-      <c r="AY25" s="88"/>
-      <c r="AZ25" s="89"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="87"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="87"/>
+      <c r="Y25" s="87"/>
+      <c r="Z25" s="87"/>
+      <c r="AA25" s="87"/>
+      <c r="AB25" s="87"/>
+      <c r="AC25" s="87"/>
+      <c r="AD25" s="87"/>
+      <c r="AE25" s="87"/>
+      <c r="AF25" s="87"/>
+      <c r="AG25" s="87"/>
+      <c r="AH25" s="87"/>
+      <c r="AI25" s="87"/>
+      <c r="AJ25" s="87"/>
+      <c r="AK25" s="87"/>
+      <c r="AL25" s="88"/>
+      <c r="AM25" s="86"/>
+      <c r="AN25" s="87"/>
+      <c r="AO25" s="87"/>
+      <c r="AP25" s="87"/>
+      <c r="AQ25" s="87"/>
+      <c r="AR25" s="87"/>
+      <c r="AS25" s="87"/>
+      <c r="AT25" s="87"/>
+      <c r="AU25" s="87"/>
+      <c r="AV25" s="87"/>
+      <c r="AW25" s="87"/>
+      <c r="AX25" s="87"/>
+      <c r="AY25" s="87"/>
+      <c r="AZ25" s="88"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="9" t="str">
@@ -4112,56 +3507,56 @@
         <v/>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="89"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="88"/>
-      <c r="U26" s="88"/>
-      <c r="V26" s="88"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="88"/>
-      <c r="Y26" s="88"/>
-      <c r="Z26" s="88"/>
-      <c r="AA26" s="88"/>
-      <c r="AB26" s="88"/>
-      <c r="AC26" s="88"/>
-      <c r="AD26" s="88"/>
-      <c r="AE26" s="88"/>
-      <c r="AF26" s="88"/>
-      <c r="AG26" s="88"/>
-      <c r="AH26" s="88"/>
-      <c r="AI26" s="88"/>
-      <c r="AJ26" s="88"/>
-      <c r="AK26" s="88"/>
-      <c r="AL26" s="89"/>
-      <c r="AM26" s="87"/>
-      <c r="AN26" s="88"/>
-      <c r="AO26" s="88"/>
-      <c r="AP26" s="88"/>
-      <c r="AQ26" s="88"/>
-      <c r="AR26" s="88"/>
-      <c r="AS26" s="88"/>
-      <c r="AT26" s="88"/>
-      <c r="AU26" s="88"/>
-      <c r="AV26" s="88"/>
-      <c r="AW26" s="88"/>
-      <c r="AX26" s="88"/>
-      <c r="AY26" s="88"/>
-      <c r="AZ26" s="89"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="87"/>
+      <c r="AB26" s="87"/>
+      <c r="AC26" s="87"/>
+      <c r="AD26" s="87"/>
+      <c r="AE26" s="87"/>
+      <c r="AF26" s="87"/>
+      <c r="AG26" s="87"/>
+      <c r="AH26" s="87"/>
+      <c r="AI26" s="87"/>
+      <c r="AJ26" s="87"/>
+      <c r="AK26" s="87"/>
+      <c r="AL26" s="88"/>
+      <c r="AM26" s="86"/>
+      <c r="AN26" s="87"/>
+      <c r="AO26" s="87"/>
+      <c r="AP26" s="87"/>
+      <c r="AQ26" s="87"/>
+      <c r="AR26" s="87"/>
+      <c r="AS26" s="87"/>
+      <c r="AT26" s="87"/>
+      <c r="AU26" s="87"/>
+      <c r="AV26" s="87"/>
+      <c r="AW26" s="87"/>
+      <c r="AX26" s="87"/>
+      <c r="AY26" s="87"/>
+      <c r="AZ26" s="88"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="9" t="str">
@@ -4169,56 +3564,56 @@
         <v/>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="87"/>
-      <c r="R27" s="88"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="88"/>
-      <c r="U27" s="88"/>
-      <c r="V27" s="88"/>
-      <c r="W27" s="88"/>
-      <c r="X27" s="88"/>
-      <c r="Y27" s="88"/>
-      <c r="Z27" s="88"/>
-      <c r="AA27" s="88"/>
-      <c r="AB27" s="88"/>
-      <c r="AC27" s="88"/>
-      <c r="AD27" s="88"/>
-      <c r="AE27" s="88"/>
-      <c r="AF27" s="88"/>
-      <c r="AG27" s="88"/>
-      <c r="AH27" s="88"/>
-      <c r="AI27" s="88"/>
-      <c r="AJ27" s="88"/>
-      <c r="AK27" s="88"/>
-      <c r="AL27" s="89"/>
-      <c r="AM27" s="87"/>
-      <c r="AN27" s="88"/>
-      <c r="AO27" s="88"/>
-      <c r="AP27" s="88"/>
-      <c r="AQ27" s="88"/>
-      <c r="AR27" s="88"/>
-      <c r="AS27" s="88"/>
-      <c r="AT27" s="88"/>
-      <c r="AU27" s="88"/>
-      <c r="AV27" s="88"/>
-      <c r="AW27" s="88"/>
-      <c r="AX27" s="88"/>
-      <c r="AY27" s="88"/>
-      <c r="AZ27" s="89"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="87"/>
+      <c r="S27" s="87"/>
+      <c r="T27" s="87"/>
+      <c r="U27" s="87"/>
+      <c r="V27" s="87"/>
+      <c r="W27" s="87"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="87"/>
+      <c r="Z27" s="87"/>
+      <c r="AA27" s="87"/>
+      <c r="AB27" s="87"/>
+      <c r="AC27" s="87"/>
+      <c r="AD27" s="87"/>
+      <c r="AE27" s="87"/>
+      <c r="AF27" s="87"/>
+      <c r="AG27" s="87"/>
+      <c r="AH27" s="87"/>
+      <c r="AI27" s="87"/>
+      <c r="AJ27" s="87"/>
+      <c r="AK27" s="87"/>
+      <c r="AL27" s="88"/>
+      <c r="AM27" s="86"/>
+      <c r="AN27" s="87"/>
+      <c r="AO27" s="87"/>
+      <c r="AP27" s="87"/>
+      <c r="AQ27" s="87"/>
+      <c r="AR27" s="87"/>
+      <c r="AS27" s="87"/>
+      <c r="AT27" s="87"/>
+      <c r="AU27" s="87"/>
+      <c r="AV27" s="87"/>
+      <c r="AW27" s="87"/>
+      <c r="AX27" s="87"/>
+      <c r="AY27" s="87"/>
+      <c r="AZ27" s="88"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="9" t="str">
@@ -4226,56 +3621,56 @@
         <v/>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="89"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="88"/>
-      <c r="T28" s="88"/>
-      <c r="U28" s="88"/>
-      <c r="V28" s="88"/>
-      <c r="W28" s="88"/>
-      <c r="X28" s="88"/>
-      <c r="Y28" s="88"/>
-      <c r="Z28" s="88"/>
-      <c r="AA28" s="88"/>
-      <c r="AB28" s="88"/>
-      <c r="AC28" s="88"/>
-      <c r="AD28" s="88"/>
-      <c r="AE28" s="88"/>
-      <c r="AF28" s="88"/>
-      <c r="AG28" s="88"/>
-      <c r="AH28" s="88"/>
-      <c r="AI28" s="88"/>
-      <c r="AJ28" s="88"/>
-      <c r="AK28" s="88"/>
-      <c r="AL28" s="89"/>
-      <c r="AM28" s="87"/>
-      <c r="AN28" s="88"/>
-      <c r="AO28" s="88"/>
-      <c r="AP28" s="88"/>
-      <c r="AQ28" s="88"/>
-      <c r="AR28" s="88"/>
-      <c r="AS28" s="88"/>
-      <c r="AT28" s="88"/>
-      <c r="AU28" s="88"/>
-      <c r="AV28" s="88"/>
-      <c r="AW28" s="88"/>
-      <c r="AX28" s="88"/>
-      <c r="AY28" s="88"/>
-      <c r="AZ28" s="89"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="87"/>
+      <c r="S28" s="87"/>
+      <c r="T28" s="87"/>
+      <c r="U28" s="87"/>
+      <c r="V28" s="87"/>
+      <c r="W28" s="87"/>
+      <c r="X28" s="87"/>
+      <c r="Y28" s="87"/>
+      <c r="Z28" s="87"/>
+      <c r="AA28" s="87"/>
+      <c r="AB28" s="87"/>
+      <c r="AC28" s="87"/>
+      <c r="AD28" s="87"/>
+      <c r="AE28" s="87"/>
+      <c r="AF28" s="87"/>
+      <c r="AG28" s="87"/>
+      <c r="AH28" s="87"/>
+      <c r="AI28" s="87"/>
+      <c r="AJ28" s="87"/>
+      <c r="AK28" s="87"/>
+      <c r="AL28" s="88"/>
+      <c r="AM28" s="86"/>
+      <c r="AN28" s="87"/>
+      <c r="AO28" s="87"/>
+      <c r="AP28" s="87"/>
+      <c r="AQ28" s="87"/>
+      <c r="AR28" s="87"/>
+      <c r="AS28" s="87"/>
+      <c r="AT28" s="87"/>
+      <c r="AU28" s="87"/>
+      <c r="AV28" s="87"/>
+      <c r="AW28" s="87"/>
+      <c r="AX28" s="87"/>
+      <c r="AY28" s="87"/>
+      <c r="AZ28" s="88"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="9" t="str">
@@ -4283,56 +3678,56 @@
         <v/>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="89"/>
-      <c r="Q29" s="87"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="88"/>
-      <c r="U29" s="88"/>
-      <c r="V29" s="88"/>
-      <c r="W29" s="88"/>
-      <c r="X29" s="88"/>
-      <c r="Y29" s="88"/>
-      <c r="Z29" s="88"/>
-      <c r="AA29" s="88"/>
-      <c r="AB29" s="88"/>
-      <c r="AC29" s="88"/>
-      <c r="AD29" s="88"/>
-      <c r="AE29" s="88"/>
-      <c r="AF29" s="88"/>
-      <c r="AG29" s="88"/>
-      <c r="AH29" s="88"/>
-      <c r="AI29" s="88"/>
-      <c r="AJ29" s="88"/>
-      <c r="AK29" s="88"/>
-      <c r="AL29" s="89"/>
-      <c r="AM29" s="87"/>
-      <c r="AN29" s="88"/>
-      <c r="AO29" s="88"/>
-      <c r="AP29" s="88"/>
-      <c r="AQ29" s="88"/>
-      <c r="AR29" s="88"/>
-      <c r="AS29" s="88"/>
-      <c r="AT29" s="88"/>
-      <c r="AU29" s="88"/>
-      <c r="AV29" s="88"/>
-      <c r="AW29" s="88"/>
-      <c r="AX29" s="88"/>
-      <c r="AY29" s="88"/>
-      <c r="AZ29" s="89"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="87"/>
+      <c r="S29" s="87"/>
+      <c r="T29" s="87"/>
+      <c r="U29" s="87"/>
+      <c r="V29" s="87"/>
+      <c r="W29" s="87"/>
+      <c r="X29" s="87"/>
+      <c r="Y29" s="87"/>
+      <c r="Z29" s="87"/>
+      <c r="AA29" s="87"/>
+      <c r="AB29" s="87"/>
+      <c r="AC29" s="87"/>
+      <c r="AD29" s="87"/>
+      <c r="AE29" s="87"/>
+      <c r="AF29" s="87"/>
+      <c r="AG29" s="87"/>
+      <c r="AH29" s="87"/>
+      <c r="AI29" s="87"/>
+      <c r="AJ29" s="87"/>
+      <c r="AK29" s="87"/>
+      <c r="AL29" s="88"/>
+      <c r="AM29" s="86"/>
+      <c r="AN29" s="87"/>
+      <c r="AO29" s="87"/>
+      <c r="AP29" s="87"/>
+      <c r="AQ29" s="87"/>
+      <c r="AR29" s="87"/>
+      <c r="AS29" s="87"/>
+      <c r="AT29" s="87"/>
+      <c r="AU29" s="87"/>
+      <c r="AV29" s="87"/>
+      <c r="AW29" s="87"/>
+      <c r="AX29" s="87"/>
+      <c r="AY29" s="87"/>
+      <c r="AZ29" s="88"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="9" t="str">
@@ -4340,56 +3735,56 @@
         <v/>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="87"/>
-      <c r="R30" s="88"/>
-      <c r="S30" s="88"/>
-      <c r="T30" s="88"/>
-      <c r="U30" s="88"/>
-      <c r="V30" s="88"/>
-      <c r="W30" s="88"/>
-      <c r="X30" s="88"/>
-      <c r="Y30" s="88"/>
-      <c r="Z30" s="88"/>
-      <c r="AA30" s="88"/>
-      <c r="AB30" s="88"/>
-      <c r="AC30" s="88"/>
-      <c r="AD30" s="88"/>
-      <c r="AE30" s="88"/>
-      <c r="AF30" s="88"/>
-      <c r="AG30" s="88"/>
-      <c r="AH30" s="88"/>
-      <c r="AI30" s="88"/>
-      <c r="AJ30" s="88"/>
-      <c r="AK30" s="88"/>
-      <c r="AL30" s="89"/>
-      <c r="AM30" s="87"/>
-      <c r="AN30" s="88"/>
-      <c r="AO30" s="88"/>
-      <c r="AP30" s="88"/>
-      <c r="AQ30" s="88"/>
-      <c r="AR30" s="88"/>
-      <c r="AS30" s="88"/>
-      <c r="AT30" s="88"/>
-      <c r="AU30" s="88"/>
-      <c r="AV30" s="88"/>
-      <c r="AW30" s="88"/>
-      <c r="AX30" s="88"/>
-      <c r="AY30" s="88"/>
-      <c r="AZ30" s="89"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="86"/>
+      <c r="R30" s="87"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="87"/>
+      <c r="U30" s="87"/>
+      <c r="V30" s="87"/>
+      <c r="W30" s="87"/>
+      <c r="X30" s="87"/>
+      <c r="Y30" s="87"/>
+      <c r="Z30" s="87"/>
+      <c r="AA30" s="87"/>
+      <c r="AB30" s="87"/>
+      <c r="AC30" s="87"/>
+      <c r="AD30" s="87"/>
+      <c r="AE30" s="87"/>
+      <c r="AF30" s="87"/>
+      <c r="AG30" s="87"/>
+      <c r="AH30" s="87"/>
+      <c r="AI30" s="87"/>
+      <c r="AJ30" s="87"/>
+      <c r="AK30" s="87"/>
+      <c r="AL30" s="88"/>
+      <c r="AM30" s="86"/>
+      <c r="AN30" s="87"/>
+      <c r="AO30" s="87"/>
+      <c r="AP30" s="87"/>
+      <c r="AQ30" s="87"/>
+      <c r="AR30" s="87"/>
+      <c r="AS30" s="87"/>
+      <c r="AT30" s="87"/>
+      <c r="AU30" s="87"/>
+      <c r="AV30" s="87"/>
+      <c r="AW30" s="87"/>
+      <c r="AX30" s="87"/>
+      <c r="AY30" s="87"/>
+      <c r="AZ30" s="88"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="9" t="str">
@@ -4397,56 +3792,56 @@
         <v/>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="88"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="88"/>
-      <c r="S31" s="88"/>
-      <c r="T31" s="88"/>
-      <c r="U31" s="88"/>
-      <c r="V31" s="88"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="88"/>
-      <c r="Y31" s="88"/>
-      <c r="Z31" s="88"/>
-      <c r="AA31" s="88"/>
-      <c r="AB31" s="88"/>
-      <c r="AC31" s="88"/>
-      <c r="AD31" s="88"/>
-      <c r="AE31" s="88"/>
-      <c r="AF31" s="88"/>
-      <c r="AG31" s="88"/>
-      <c r="AH31" s="88"/>
-      <c r="AI31" s="88"/>
-      <c r="AJ31" s="88"/>
-      <c r="AK31" s="88"/>
-      <c r="AL31" s="89"/>
-      <c r="AM31" s="87"/>
-      <c r="AN31" s="88"/>
-      <c r="AO31" s="88"/>
-      <c r="AP31" s="88"/>
-      <c r="AQ31" s="88"/>
-      <c r="AR31" s="88"/>
-      <c r="AS31" s="88"/>
-      <c r="AT31" s="88"/>
-      <c r="AU31" s="88"/>
-      <c r="AV31" s="88"/>
-      <c r="AW31" s="88"/>
-      <c r="AX31" s="88"/>
-      <c r="AY31" s="88"/>
-      <c r="AZ31" s="89"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="87"/>
+      <c r="S31" s="87"/>
+      <c r="T31" s="87"/>
+      <c r="U31" s="87"/>
+      <c r="V31" s="87"/>
+      <c r="W31" s="87"/>
+      <c r="X31" s="87"/>
+      <c r="Y31" s="87"/>
+      <c r="Z31" s="87"/>
+      <c r="AA31" s="87"/>
+      <c r="AB31" s="87"/>
+      <c r="AC31" s="87"/>
+      <c r="AD31" s="87"/>
+      <c r="AE31" s="87"/>
+      <c r="AF31" s="87"/>
+      <c r="AG31" s="87"/>
+      <c r="AH31" s="87"/>
+      <c r="AI31" s="87"/>
+      <c r="AJ31" s="87"/>
+      <c r="AK31" s="87"/>
+      <c r="AL31" s="88"/>
+      <c r="AM31" s="86"/>
+      <c r="AN31" s="87"/>
+      <c r="AO31" s="87"/>
+      <c r="AP31" s="87"/>
+      <c r="AQ31" s="87"/>
+      <c r="AR31" s="87"/>
+      <c r="AS31" s="87"/>
+      <c r="AT31" s="87"/>
+      <c r="AU31" s="87"/>
+      <c r="AV31" s="87"/>
+      <c r="AW31" s="87"/>
+      <c r="AX31" s="87"/>
+      <c r="AY31" s="87"/>
+      <c r="AZ31" s="88"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="9" t="str">
@@ -4454,56 +3849,56 @@
         <v/>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="88"/>
-      <c r="N32" s="88"/>
-      <c r="O32" s="88"/>
-      <c r="P32" s="89"/>
-      <c r="Q32" s="87"/>
-      <c r="R32" s="88"/>
-      <c r="S32" s="88"/>
-      <c r="T32" s="88"/>
-      <c r="U32" s="88"/>
-      <c r="V32" s="88"/>
-      <c r="W32" s="88"/>
-      <c r="X32" s="88"/>
-      <c r="Y32" s="88"/>
-      <c r="Z32" s="88"/>
-      <c r="AA32" s="88"/>
-      <c r="AB32" s="88"/>
-      <c r="AC32" s="88"/>
-      <c r="AD32" s="88"/>
-      <c r="AE32" s="88"/>
-      <c r="AF32" s="88"/>
-      <c r="AG32" s="88"/>
-      <c r="AH32" s="88"/>
-      <c r="AI32" s="88"/>
-      <c r="AJ32" s="88"/>
-      <c r="AK32" s="88"/>
-      <c r="AL32" s="89"/>
-      <c r="AM32" s="87"/>
-      <c r="AN32" s="88"/>
-      <c r="AO32" s="88"/>
-      <c r="AP32" s="88"/>
-      <c r="AQ32" s="88"/>
-      <c r="AR32" s="88"/>
-      <c r="AS32" s="88"/>
-      <c r="AT32" s="88"/>
-      <c r="AU32" s="88"/>
-      <c r="AV32" s="88"/>
-      <c r="AW32" s="88"/>
-      <c r="AX32" s="88"/>
-      <c r="AY32" s="88"/>
-      <c r="AZ32" s="89"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="83"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="86"/>
+      <c r="R32" s="87"/>
+      <c r="S32" s="87"/>
+      <c r="T32" s="87"/>
+      <c r="U32" s="87"/>
+      <c r="V32" s="87"/>
+      <c r="W32" s="87"/>
+      <c r="X32" s="87"/>
+      <c r="Y32" s="87"/>
+      <c r="Z32" s="87"/>
+      <c r="AA32" s="87"/>
+      <c r="AB32" s="87"/>
+      <c r="AC32" s="87"/>
+      <c r="AD32" s="87"/>
+      <c r="AE32" s="87"/>
+      <c r="AF32" s="87"/>
+      <c r="AG32" s="87"/>
+      <c r="AH32" s="87"/>
+      <c r="AI32" s="87"/>
+      <c r="AJ32" s="87"/>
+      <c r="AK32" s="87"/>
+      <c r="AL32" s="88"/>
+      <c r="AM32" s="86"/>
+      <c r="AN32" s="87"/>
+      <c r="AO32" s="87"/>
+      <c r="AP32" s="87"/>
+      <c r="AQ32" s="87"/>
+      <c r="AR32" s="87"/>
+      <c r="AS32" s="87"/>
+      <c r="AT32" s="87"/>
+      <c r="AU32" s="87"/>
+      <c r="AV32" s="87"/>
+      <c r="AW32" s="87"/>
+      <c r="AX32" s="87"/>
+      <c r="AY32" s="87"/>
+      <c r="AZ32" s="88"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="9" t="str">
@@ -4511,56 +3906,56 @@
         <v/>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="89"/>
-      <c r="Q33" s="87"/>
-      <c r="R33" s="88"/>
-      <c r="S33" s="88"/>
-      <c r="T33" s="88"/>
-      <c r="U33" s="88"/>
-      <c r="V33" s="88"/>
-      <c r="W33" s="88"/>
-      <c r="X33" s="88"/>
-      <c r="Y33" s="88"/>
-      <c r="Z33" s="88"/>
-      <c r="AA33" s="88"/>
-      <c r="AB33" s="88"/>
-      <c r="AC33" s="88"/>
-      <c r="AD33" s="88"/>
-      <c r="AE33" s="88"/>
-      <c r="AF33" s="88"/>
-      <c r="AG33" s="88"/>
-      <c r="AH33" s="88"/>
-      <c r="AI33" s="88"/>
-      <c r="AJ33" s="88"/>
-      <c r="AK33" s="88"/>
-      <c r="AL33" s="89"/>
-      <c r="AM33" s="87"/>
-      <c r="AN33" s="88"/>
-      <c r="AO33" s="88"/>
-      <c r="AP33" s="88"/>
-      <c r="AQ33" s="88"/>
-      <c r="AR33" s="88"/>
-      <c r="AS33" s="88"/>
-      <c r="AT33" s="88"/>
-      <c r="AU33" s="88"/>
-      <c r="AV33" s="88"/>
-      <c r="AW33" s="88"/>
-      <c r="AX33" s="88"/>
-      <c r="AY33" s="88"/>
-      <c r="AZ33" s="89"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="86"/>
+      <c r="R33" s="87"/>
+      <c r="S33" s="87"/>
+      <c r="T33" s="87"/>
+      <c r="U33" s="87"/>
+      <c r="V33" s="87"/>
+      <c r="W33" s="87"/>
+      <c r="X33" s="87"/>
+      <c r="Y33" s="87"/>
+      <c r="Z33" s="87"/>
+      <c r="AA33" s="87"/>
+      <c r="AB33" s="87"/>
+      <c r="AC33" s="87"/>
+      <c r="AD33" s="87"/>
+      <c r="AE33" s="87"/>
+      <c r="AF33" s="87"/>
+      <c r="AG33" s="87"/>
+      <c r="AH33" s="87"/>
+      <c r="AI33" s="87"/>
+      <c r="AJ33" s="87"/>
+      <c r="AK33" s="87"/>
+      <c r="AL33" s="88"/>
+      <c r="AM33" s="86"/>
+      <c r="AN33" s="87"/>
+      <c r="AO33" s="87"/>
+      <c r="AP33" s="87"/>
+      <c r="AQ33" s="87"/>
+      <c r="AR33" s="87"/>
+      <c r="AS33" s="87"/>
+      <c r="AT33" s="87"/>
+      <c r="AU33" s="87"/>
+      <c r="AV33" s="87"/>
+      <c r="AW33" s="87"/>
+      <c r="AX33" s="87"/>
+      <c r="AY33" s="87"/>
+      <c r="AZ33" s="88"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="9" t="str">
@@ -4568,56 +3963,56 @@
         <v/>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="87"/>
-      <c r="R34" s="88"/>
-      <c r="S34" s="88"/>
-      <c r="T34" s="88"/>
-      <c r="U34" s="88"/>
-      <c r="V34" s="88"/>
-      <c r="W34" s="88"/>
-      <c r="X34" s="88"/>
-      <c r="Y34" s="88"/>
-      <c r="Z34" s="88"/>
-      <c r="AA34" s="88"/>
-      <c r="AB34" s="88"/>
-      <c r="AC34" s="88"/>
-      <c r="AD34" s="88"/>
-      <c r="AE34" s="88"/>
-      <c r="AF34" s="88"/>
-      <c r="AG34" s="88"/>
-      <c r="AH34" s="88"/>
-      <c r="AI34" s="88"/>
-      <c r="AJ34" s="88"/>
-      <c r="AK34" s="88"/>
-      <c r="AL34" s="89"/>
-      <c r="AM34" s="87"/>
-      <c r="AN34" s="88"/>
-      <c r="AO34" s="88"/>
-      <c r="AP34" s="88"/>
-      <c r="AQ34" s="88"/>
-      <c r="AR34" s="88"/>
-      <c r="AS34" s="88"/>
-      <c r="AT34" s="88"/>
-      <c r="AU34" s="88"/>
-      <c r="AV34" s="88"/>
-      <c r="AW34" s="88"/>
-      <c r="AX34" s="88"/>
-      <c r="AY34" s="88"/>
-      <c r="AZ34" s="89"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="88"/>
+      <c r="Q34" s="86"/>
+      <c r="R34" s="87"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="87"/>
+      <c r="W34" s="87"/>
+      <c r="X34" s="87"/>
+      <c r="Y34" s="87"/>
+      <c r="Z34" s="87"/>
+      <c r="AA34" s="87"/>
+      <c r="AB34" s="87"/>
+      <c r="AC34" s="87"/>
+      <c r="AD34" s="87"/>
+      <c r="AE34" s="87"/>
+      <c r="AF34" s="87"/>
+      <c r="AG34" s="87"/>
+      <c r="AH34" s="87"/>
+      <c r="AI34" s="87"/>
+      <c r="AJ34" s="87"/>
+      <c r="AK34" s="87"/>
+      <c r="AL34" s="88"/>
+      <c r="AM34" s="86"/>
+      <c r="AN34" s="87"/>
+      <c r="AO34" s="87"/>
+      <c r="AP34" s="87"/>
+      <c r="AQ34" s="87"/>
+      <c r="AR34" s="87"/>
+      <c r="AS34" s="87"/>
+      <c r="AT34" s="87"/>
+      <c r="AU34" s="87"/>
+      <c r="AV34" s="87"/>
+      <c r="AW34" s="87"/>
+      <c r="AX34" s="87"/>
+      <c r="AY34" s="87"/>
+      <c r="AZ34" s="88"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="9" t="str">
@@ -4625,59 +4020,189 @@
         <v/>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="89"/>
-      <c r="Q35" s="87"/>
-      <c r="R35" s="88"/>
-      <c r="S35" s="88"/>
-      <c r="T35" s="88"/>
-      <c r="U35" s="88"/>
-      <c r="V35" s="88"/>
-      <c r="W35" s="88"/>
-      <c r="X35" s="88"/>
-      <c r="Y35" s="88"/>
-      <c r="Z35" s="88"/>
-      <c r="AA35" s="88"/>
-      <c r="AB35" s="88"/>
-      <c r="AC35" s="88"/>
-      <c r="AD35" s="88"/>
-      <c r="AE35" s="88"/>
-      <c r="AF35" s="88"/>
-      <c r="AG35" s="88"/>
-      <c r="AH35" s="88"/>
-      <c r="AI35" s="88"/>
-      <c r="AJ35" s="88"/>
-      <c r="AK35" s="88"/>
-      <c r="AL35" s="89"/>
-      <c r="AM35" s="87"/>
-      <c r="AN35" s="88"/>
-      <c r="AO35" s="88"/>
-      <c r="AP35" s="88"/>
-      <c r="AQ35" s="88"/>
-      <c r="AR35" s="88"/>
-      <c r="AS35" s="88"/>
-      <c r="AT35" s="88"/>
-      <c r="AU35" s="88"/>
-      <c r="AV35" s="88"/>
-      <c r="AW35" s="88"/>
-      <c r="AX35" s="88"/>
-      <c r="AY35" s="88"/>
-      <c r="AZ35" s="89"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="86"/>
+      <c r="R35" s="87"/>
+      <c r="S35" s="87"/>
+      <c r="T35" s="87"/>
+      <c r="U35" s="87"/>
+      <c r="V35" s="87"/>
+      <c r="W35" s="87"/>
+      <c r="X35" s="87"/>
+      <c r="Y35" s="87"/>
+      <c r="Z35" s="87"/>
+      <c r="AA35" s="87"/>
+      <c r="AB35" s="87"/>
+      <c r="AC35" s="87"/>
+      <c r="AD35" s="87"/>
+      <c r="AE35" s="87"/>
+      <c r="AF35" s="87"/>
+      <c r="AG35" s="87"/>
+      <c r="AH35" s="87"/>
+      <c r="AI35" s="87"/>
+      <c r="AJ35" s="87"/>
+      <c r="AK35" s="87"/>
+      <c r="AL35" s="88"/>
+      <c r="AM35" s="86"/>
+      <c r="AN35" s="87"/>
+      <c r="AO35" s="87"/>
+      <c r="AP35" s="87"/>
+      <c r="AQ35" s="87"/>
+      <c r="AR35" s="87"/>
+      <c r="AS35" s="87"/>
+      <c r="AT35" s="87"/>
+      <c r="AU35" s="87"/>
+      <c r="AV35" s="87"/>
+      <c r="AW35" s="87"/>
+      <c r="AX35" s="87"/>
+      <c r="AY35" s="87"/>
+      <c r="AZ35" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="Q8:AL8"/>
+    <mergeCell ref="AM8:AZ8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="Q9:AL9"/>
+    <mergeCell ref="AM9:AZ9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:AL10"/>
+    <mergeCell ref="AM10:AZ10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:AL11"/>
+    <mergeCell ref="AM11:AZ11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:AL12"/>
+    <mergeCell ref="AM12:AZ12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:AL13"/>
+    <mergeCell ref="AM13:AZ13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:AL14"/>
+    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AL15"/>
+    <mergeCell ref="AM15:AZ15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:AL17"/>
+    <mergeCell ref="AM17:AZ17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:AL19"/>
+    <mergeCell ref="AM19:AZ19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:AL21"/>
+    <mergeCell ref="AM21:AZ21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:AL22"/>
+    <mergeCell ref="AM22:AZ22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:AL23"/>
+    <mergeCell ref="AM23:AZ23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:AL24"/>
+    <mergeCell ref="AM24:AZ24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:AL25"/>
+    <mergeCell ref="AM25:AZ25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:AL26"/>
+    <mergeCell ref="AM26:AZ26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:AL27"/>
+    <mergeCell ref="AM27:AZ27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:AL28"/>
+    <mergeCell ref="AM28:AZ28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:AL29"/>
+    <mergeCell ref="AM29:AZ29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:AL30"/>
+    <mergeCell ref="AM30:AZ30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:AL31"/>
+    <mergeCell ref="AM31:AZ31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:AL32"/>
+    <mergeCell ref="AM32:AZ32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Q33:AL33"/>
+    <mergeCell ref="AM33:AZ33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="G34:K34"/>
     <mergeCell ref="L34:P34"/>
@@ -4688,136 +4213,6 @@
     <mergeCell ref="L35:P35"/>
     <mergeCell ref="Q35:AL35"/>
     <mergeCell ref="AM35:AZ35"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:AL32"/>
-    <mergeCell ref="AM32:AZ32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Q33:AL33"/>
-    <mergeCell ref="AM33:AZ33"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:AL30"/>
-    <mergeCell ref="AM30:AZ30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:AL31"/>
-    <mergeCell ref="AM31:AZ31"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:AL28"/>
-    <mergeCell ref="AM28:AZ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:AL29"/>
-    <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:AL26"/>
-    <mergeCell ref="AM26:AZ26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:AL27"/>
-    <mergeCell ref="AM27:AZ27"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:AL24"/>
-    <mergeCell ref="AM24:AZ24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:AL25"/>
-    <mergeCell ref="AM25:AZ25"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:AL22"/>
-    <mergeCell ref="AM22:AZ22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:AL23"/>
-    <mergeCell ref="AM23:AZ23"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:AL21"/>
-    <mergeCell ref="AM21:AZ21"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:AL19"/>
-    <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:AL15"/>
-    <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:AL12"/>
-    <mergeCell ref="AM12:AZ12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:AL13"/>
-    <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:AL11"/>
-    <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="Q8:AL8"/>
-    <mergeCell ref="AM8:AZ8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="Q9:AL9"/>
-    <mergeCell ref="AM9:AZ9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4848,287 +4243,287 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" customFormat="1" ht="12">
-      <c r="A1" s="32"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
     </row>
     <row r="2" spans="1:51" customFormat="1" ht="12">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
+      <c r="AQ2" s="34"/>
+      <c r="AR2" s="34"/>
     </row>
     <row r="3" spans="1:51" customFormat="1" ht="12">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="35"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="34"/>
     </row>
     <row r="4" spans="1:51" customFormat="1" ht="12">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="34"/>
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="34"/>
     </row>
     <row r="5" spans="1:51" customFormat="1" ht="12">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="35"/>
-      <c r="AR5" s="35"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="34"/>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="34"/>
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="34"/>
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="34"/>
     </row>
     <row r="6" spans="1:51" customFormat="1">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="35"/>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="35"/>
-      <c r="AQ6" s="35"/>
-      <c r="AR6" s="35"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="34"/>
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="34"/>
+      <c r="AP6" s="34"/>
+      <c r="AQ6" s="34"/>
+      <c r="AR6" s="34"/>
     </row>
     <row r="7" spans="1:51">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="21"/>
@@ -5176,7 +4571,7 @@
       <c r="AR7" s="21"/>
     </row>
     <row r="8" spans="1:51">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="21"/>
@@ -5224,7 +4619,7 @@
       <c r="AR8" s="21"/>
     </row>
     <row r="9" spans="1:51">
-      <c r="A9" s="36"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -5270,7 +4665,7 @@
       <c r="AR9" s="21"/>
     </row>
     <row r="10" spans="1:51">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="21"/>
@@ -5318,7 +4713,7 @@
       <c r="AR10" s="21"/>
     </row>
     <row r="11" spans="1:51">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="21"/>
@@ -5366,7 +4761,7 @@
       <c r="AR11" s="21"/>
     </row>
     <row r="12" spans="1:51">
-      <c r="A12" s="36"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -5467,105 +4862,105 @@
       <c r="AY13" s="15"/>
     </row>
     <row r="14" spans="1:51">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="45"/>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="45"/>
-      <c r="AI14" s="45"/>
-      <c r="AJ14" s="45"/>
-      <c r="AK14" s="45"/>
-      <c r="AL14" s="45"/>
-      <c r="AM14" s="45"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="45"/>
-      <c r="AQ14" s="45"/>
-      <c r="AR14" s="45"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="44"/>
+      <c r="AB14" s="44"/>
+      <c r="AC14" s="44"/>
+      <c r="AD14" s="44"/>
+      <c r="AE14" s="44"/>
+      <c r="AF14" s="44"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="44"/>
+      <c r="AJ14" s="44"/>
+      <c r="AK14" s="44"/>
+      <c r="AL14" s="44"/>
+      <c r="AM14" s="44"/>
+      <c r="AN14" s="44"/>
+      <c r="AO14" s="44"/>
+      <c r="AP14" s="44"/>
+      <c r="AQ14" s="44"/>
+      <c r="AR14" s="44"/>
     </row>
     <row r="15" spans="1:51">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45" t="s">
+      <c r="A15" s="43"/>
+      <c r="B15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45" t="s">
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="45"/>
-      <c r="AB15" s="45"/>
-      <c r="AC15" s="45"/>
-      <c r="AD15" s="45" t="s">
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="AE15" s="45"/>
-      <c r="AF15" s="45"/>
-      <c r="AG15" s="45"/>
-      <c r="AH15" s="45"/>
-      <c r="AI15" s="45"/>
-      <c r="AJ15" s="45"/>
-      <c r="AK15" s="45"/>
-      <c r="AL15" s="45"/>
-      <c r="AM15" s="45"/>
-      <c r="AN15" s="45"/>
-      <c r="AO15" s="45"/>
-      <c r="AP15" s="45"/>
-      <c r="AQ15" s="45"/>
-      <c r="AR15" s="45"/>
-      <c r="AS15" s="45"/>
-      <c r="AT15" s="45"/>
-      <c r="AU15" s="45"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="44"/>
+      <c r="AK15" s="44"/>
+      <c r="AL15" s="44"/>
+      <c r="AM15" s="44"/>
+      <c r="AN15" s="44"/>
+      <c r="AO15" s="44"/>
+      <c r="AP15" s="44"/>
+      <c r="AQ15" s="44"/>
+      <c r="AR15" s="44"/>
+      <c r="AS15" s="44"/>
+      <c r="AT15" s="44"/>
+      <c r="AU15" s="44"/>
     </row>
     <row r="16" spans="1:51" s="19" customFormat="1">
       <c r="A16" s="20"/>
@@ -5598,26 +4993,26 @@
       <c r="AB16" s="18"/>
       <c r="AC16" s="18"/>
       <c r="AD16" s="18"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="37"/>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="37"/>
-      <c r="AM16" s="37"/>
-      <c r="AN16" s="37"/>
-      <c r="AO16" s="37"/>
-      <c r="AP16" s="37"/>
-      <c r="AQ16" s="37"/>
-      <c r="AR16" s="37"/>
-      <c r="AS16" s="37"/>
-      <c r="AT16" s="37"/>
-      <c r="AU16" s="37"/>
+      <c r="AE16" s="36"/>
+      <c r="AF16" s="36"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="36"/>
+      <c r="AI16" s="36"/>
+      <c r="AJ16" s="36"/>
+      <c r="AK16" s="36"/>
+      <c r="AL16" s="36"/>
+      <c r="AM16" s="36"/>
+      <c r="AN16" s="36"/>
+      <c r="AO16" s="36"/>
+      <c r="AP16" s="36"/>
+      <c r="AQ16" s="36"/>
+      <c r="AR16" s="36"/>
+      <c r="AS16" s="36"/>
+      <c r="AT16" s="36"/>
+      <c r="AU16" s="36"/>
     </row>
     <row r="17" spans="1:47">
-      <c r="A17" s="36"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -5666,7 +5061,7 @@
       <c r="AU17" s="21"/>
     </row>
     <row r="18" spans="1:47">
-      <c r="A18" s="36"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -5715,7 +5110,7 @@
       <c r="AU18" s="21"/>
     </row>
     <row r="19" spans="1:47">
-      <c r="A19" s="36"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -5764,7 +5159,7 @@
       <c r="AU19" s="21"/>
     </row>
     <row r="20" spans="1:47">
-      <c r="A20" s="36"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -5813,7 +5208,7 @@
       <c r="AU20" s="21"/>
     </row>
     <row r="21" spans="1:47">
-      <c r="A21" s="36"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -5862,7 +5257,7 @@
       <c r="AU21" s="21"/>
     </row>
     <row r="22" spans="1:47">
-      <c r="A22" s="36"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -5911,7 +5306,7 @@
       <c r="AU22" s="21"/>
     </row>
     <row r="23" spans="1:47">
-      <c r="A23" s="36"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -5960,7 +5355,7 @@
       <c r="AU23" s="21"/>
     </row>
     <row r="24" spans="1:47">
-      <c r="A24" s="36"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
@@ -6009,7 +5404,7 @@
       <c r="AU24" s="21"/>
     </row>
     <row r="25" spans="1:47">
-      <c r="A25" s="36"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="21"/>
@@ -6058,7 +5453,7 @@
       <c r="AU25" s="21"/>
     </row>
     <row r="26" spans="1:47">
-      <c r="A26" s="36"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -6107,7 +5502,7 @@
       <c r="AU26" s="21"/>
     </row>
     <row r="27" spans="1:47">
-      <c r="A27" s="36"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
@@ -6156,7 +5551,7 @@
       <c r="AU27" s="21"/>
     </row>
     <row r="28" spans="1:47">
-      <c r="A28" s="36"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
@@ -6205,7 +5600,7 @@
       <c r="AU28" s="21"/>
     </row>
     <row r="29" spans="1:47">
-      <c r="A29" s="36"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
@@ -6254,7 +5649,7 @@
       <c r="AU29" s="21"/>
     </row>
     <row r="30" spans="1:47">
-      <c r="A30" s="36"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
@@ -6303,7 +5698,7 @@
       <c r="AU30" s="21"/>
     </row>
     <row r="31" spans="1:47">
-      <c r="A31" s="36"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
@@ -6352,7 +5747,7 @@
       <c r="AU31" s="21"/>
     </row>
     <row r="32" spans="1:47">
-      <c r="A32" s="36"/>
+      <c r="A32" s="35"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
@@ -6401,7 +5796,7 @@
       <c r="AU32" s="21"/>
     </row>
     <row r="33" spans="1:57">
-      <c r="A33" s="36"/>
+      <c r="A33" s="35"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
@@ -6450,7 +5845,7 @@
       <c r="AU33" s="21"/>
     </row>
     <row r="34" spans="1:57">
-      <c r="A34" s="36"/>
+      <c r="A34" s="35"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -6499,7 +5894,7 @@
       <c r="AU34" s="21"/>
     </row>
     <row r="35" spans="1:57">
-      <c r="A35" s="36"/>
+      <c r="A35" s="35"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
@@ -6548,7 +5943,7 @@
       <c r="AU35" s="21"/>
     </row>
     <row r="36" spans="1:57">
-      <c r="A36" s="36"/>
+      <c r="A36" s="35"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
       <c r="D36" s="21"/>
@@ -6597,7 +5992,7 @@
       <c r="AU36" s="21"/>
     </row>
     <row r="37" spans="1:57">
-      <c r="A37" s="36"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
@@ -6646,7 +6041,7 @@
       <c r="AU37" s="21"/>
     </row>
     <row r="38" spans="1:57">
-      <c r="A38" s="36"/>
+      <c r="A38" s="35"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38" s="21"/>
@@ -6696,7 +6091,7 @@
       <c r="BE38"/>
     </row>
     <row r="39" spans="1:57">
-      <c r="A39" s="36"/>
+      <c r="A39" s="35"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
@@ -6745,7 +6140,7 @@
       <c r="AU39" s="21"/>
     </row>
     <row r="40" spans="1:57">
-      <c r="A40" s="36"/>
+      <c r="A40" s="35"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
@@ -6794,7 +6189,7 @@
       <c r="AU40" s="21"/>
     </row>
     <row r="41" spans="1:57">
-      <c r="A41" s="36"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="21"/>
@@ -6843,7 +6238,7 @@
       <c r="AU41" s="21"/>
     </row>
     <row r="42" spans="1:57">
-      <c r="A42" s="36"/>
+      <c r="A42" s="35"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
@@ -6892,7 +6287,7 @@
       <c r="AU42" s="21"/>
     </row>
     <row r="43" spans="1:57">
-      <c r="A43" s="36"/>
+      <c r="A43" s="35"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
@@ -6941,7 +6336,7 @@
       <c r="AU43" s="21"/>
     </row>
     <row r="44" spans="1:57">
-      <c r="A44" s="36"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
       <c r="D44" s="21"/>
@@ -6990,7 +6385,7 @@
       <c r="AU44" s="21"/>
     </row>
     <row r="45" spans="1:57">
-      <c r="A45" s="36"/>
+      <c r="A45" s="35"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
@@ -7039,7 +6434,7 @@
       <c r="AU45" s="21"/>
     </row>
     <row r="46" spans="1:57">
-      <c r="A46" s="36"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
@@ -7088,7 +6483,7 @@
       <c r="AU46" s="21"/>
     </row>
     <row r="47" spans="1:57">
-      <c r="A47" s="36"/>
+      <c r="A47" s="35"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
@@ -7137,7 +6532,7 @@
       <c r="AU47" s="21"/>
     </row>
     <row r="48" spans="1:57">
-      <c r="A48" s="36"/>
+      <c r="A48" s="35"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
       <c r="D48" s="21"/>
@@ -7186,7 +6581,7 @@
       <c r="AU48" s="21"/>
     </row>
     <row r="49" spans="1:51">
-      <c r="A49" s="36"/>
+      <c r="A49" s="35"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
@@ -7292,7 +6687,7 @@
       <c r="AY50" s="15"/>
     </row>
     <row r="51" spans="1:51">
-      <c r="A51" s="36"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
       <c r="D51" s="21"/>
@@ -7344,7 +6739,7 @@
       <c r="AX51" s="21"/>
     </row>
     <row r="52" spans="1:51">
-      <c r="A52" s="36"/>
+      <c r="A52" s="35"/>
       <c r="B52" s="21" t="s">
         <v>28</v>
       </c>
@@ -7394,7 +6789,7 @@
       <c r="AT52" s="21"/>
     </row>
     <row r="53" spans="1:51" s="27" customFormat="1">
-      <c r="A53" s="36"/>
+      <c r="A53" s="35"/>
       <c r="B53" s="22" t="s">
         <v>17</v>
       </c>
@@ -7432,7 +6827,7 @@
       <c r="AB53" s="24"/>
       <c r="AC53" s="24"/>
       <c r="AD53" s="23"/>
-      <c r="AE53" s="42" t="s">
+      <c r="AE53" s="41" t="s">
         <v>22</v>
       </c>
       <c r="AF53" s="26"/>
@@ -7459,703 +6854,703 @@
       <c r="AW53" s="25"/>
     </row>
     <row r="54" spans="1:51" s="27" customFormat="1">
-      <c r="A54" s="36"/>
-      <c r="B54" s="52" t="s">
+      <c r="A54" s="35"/>
+      <c r="B54" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53"/>
-      <c r="R54" s="53"/>
-      <c r="S54" s="53"/>
-      <c r="T54" s="53"/>
-      <c r="U54" s="53"/>
-      <c r="V54" s="53"/>
-      <c r="W54" s="53"/>
-      <c r="X54" s="53"/>
-      <c r="Y54" s="53"/>
-      <c r="Z54" s="53"/>
-      <c r="AA54" s="53"/>
-      <c r="AB54" s="53"/>
-      <c r="AC54" s="53"/>
-      <c r="AD54" s="53"/>
-      <c r="AE54" s="53"/>
-      <c r="AF54" s="53"/>
-      <c r="AG54" s="53"/>
-      <c r="AH54" s="53"/>
-      <c r="AI54" s="53"/>
-      <c r="AJ54" s="53"/>
-      <c r="AK54" s="53"/>
-      <c r="AL54" s="53"/>
-      <c r="AM54" s="53"/>
-      <c r="AN54" s="53"/>
-      <c r="AO54" s="53"/>
-      <c r="AP54" s="53"/>
-      <c r="AQ54" s="53"/>
-      <c r="AR54" s="53"/>
-      <c r="AS54" s="53"/>
-      <c r="AT54" s="53"/>
-      <c r="AU54" s="53"/>
-      <c r="AV54" s="53"/>
-      <c r="AW54" s="54"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="52"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="52"/>
+      <c r="T54" s="52"/>
+      <c r="U54" s="52"/>
+      <c r="V54" s="52"/>
+      <c r="W54" s="52"/>
+      <c r="X54" s="52"/>
+      <c r="Y54" s="52"/>
+      <c r="Z54" s="52"/>
+      <c r="AA54" s="52"/>
+      <c r="AB54" s="52"/>
+      <c r="AC54" s="52"/>
+      <c r="AD54" s="52"/>
+      <c r="AE54" s="52"/>
+      <c r="AF54" s="52"/>
+      <c r="AG54" s="52"/>
+      <c r="AH54" s="52"/>
+      <c r="AI54" s="52"/>
+      <c r="AJ54" s="52"/>
+      <c r="AK54" s="52"/>
+      <c r="AL54" s="52"/>
+      <c r="AM54" s="52"/>
+      <c r="AN54" s="52"/>
+      <c r="AO54" s="52"/>
+      <c r="AP54" s="52"/>
+      <c r="AQ54" s="52"/>
+      <c r="AR54" s="52"/>
+      <c r="AS54" s="52"/>
+      <c r="AT54" s="52"/>
+      <c r="AU54" s="52"/>
+      <c r="AV54" s="52"/>
+      <c r="AW54" s="53"/>
     </row>
     <row r="55" spans="1:51">
-      <c r="A55" s="36"/>
-      <c r="B55" s="41">
+      <c r="A55" s="35"/>
+      <c r="B55" s="40">
         <f>ROW()-54</f>
         <v>1</v>
       </c>
-      <c r="C55" s="40"/>
-      <c r="D55" s="38" t="s">
+      <c r="C55" s="39"/>
+      <c r="D55" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="40"/>
-      <c r="O55" s="51" t="s">
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="P55" s="55"/>
-      <c r="Q55" s="55"/>
-      <c r="R55" s="55"/>
-      <c r="S55" s="55"/>
-      <c r="T55" s="56"/>
-      <c r="U55" s="51" t="s">
+      <c r="P55" s="54"/>
+      <c r="Q55" s="54"/>
+      <c r="R55" s="54"/>
+      <c r="S55" s="54"/>
+      <c r="T55" s="55"/>
+      <c r="U55" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="V55" s="55"/>
-      <c r="W55" s="55"/>
-      <c r="X55" s="55"/>
-      <c r="Y55" s="55"/>
-      <c r="Z55" s="55"/>
-      <c r="AA55" s="55"/>
-      <c r="AB55" s="55"/>
-      <c r="AC55" s="55"/>
-      <c r="AD55" s="56"/>
-      <c r="AE55" s="51" t="s">
+      <c r="V55" s="54"/>
+      <c r="W55" s="54"/>
+      <c r="X55" s="54"/>
+      <c r="Y55" s="54"/>
+      <c r="Z55" s="54"/>
+      <c r="AA55" s="54"/>
+      <c r="AB55" s="54"/>
+      <c r="AC55" s="54"/>
+      <c r="AD55" s="55"/>
+      <c r="AE55" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AF55" s="55"/>
-      <c r="AG55" s="55"/>
-      <c r="AH55" s="55"/>
-      <c r="AI55" s="56"/>
-      <c r="AJ55" s="51" t="s">
+      <c r="AF55" s="54"/>
+      <c r="AG55" s="54"/>
+      <c r="AH55" s="54"/>
+      <c r="AI55" s="55"/>
+      <c r="AJ55" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AK55" s="55"/>
-      <c r="AL55" s="55"/>
-      <c r="AM55" s="55"/>
-      <c r="AN55" s="55"/>
-      <c r="AO55" s="55"/>
-      <c r="AP55" s="56"/>
-      <c r="AQ55" s="51" t="s">
+      <c r="AK55" s="54"/>
+      <c r="AL55" s="54"/>
+      <c r="AM55" s="54"/>
+      <c r="AN55" s="54"/>
+      <c r="AO55" s="54"/>
+      <c r="AP55" s="55"/>
+      <c r="AQ55" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="AR55" s="55"/>
-      <c r="AS55" s="55"/>
-      <c r="AT55" s="55"/>
-      <c r="AU55" s="55"/>
-      <c r="AV55" s="55"/>
-      <c r="AW55" s="40"/>
+      <c r="AR55" s="54"/>
+      <c r="AS55" s="54"/>
+      <c r="AT55" s="54"/>
+      <c r="AU55" s="54"/>
+      <c r="AV55" s="54"/>
+      <c r="AW55" s="39"/>
     </row>
     <row r="56" spans="1:51">
-      <c r="A56" s="36"/>
-      <c r="B56" s="41">
+      <c r="A56" s="35"/>
+      <c r="B56" s="40">
         <f t="shared" ref="B56:B64" si="0">ROW()-54</f>
         <v>2</v>
       </c>
-      <c r="C56" s="40"/>
-      <c r="D56" s="38" t="s">
+      <c r="C56" s="39"/>
+      <c r="D56" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="51" t="s">
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="39"/>
+      <c r="O56" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="55"/>
-      <c r="R56" s="55"/>
-      <c r="S56" s="55"/>
-      <c r="T56" s="56"/>
-      <c r="U56" s="51" t="s">
+      <c r="P56" s="54"/>
+      <c r="Q56" s="54"/>
+      <c r="R56" s="54"/>
+      <c r="S56" s="54"/>
+      <c r="T56" s="55"/>
+      <c r="U56" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="V56" s="55"/>
-      <c r="W56" s="55"/>
-      <c r="X56" s="55"/>
-      <c r="Y56" s="55"/>
-      <c r="Z56" s="55"/>
-      <c r="AA56" s="55"/>
-      <c r="AB56" s="55"/>
-      <c r="AC56" s="55"/>
-      <c r="AD56" s="56"/>
-      <c r="AE56" s="51" t="s">
+      <c r="V56" s="54"/>
+      <c r="W56" s="54"/>
+      <c r="X56" s="54"/>
+      <c r="Y56" s="54"/>
+      <c r="Z56" s="54"/>
+      <c r="AA56" s="54"/>
+      <c r="AB56" s="54"/>
+      <c r="AC56" s="54"/>
+      <c r="AD56" s="55"/>
+      <c r="AE56" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AF56" s="55"/>
-      <c r="AG56" s="55"/>
-      <c r="AH56" s="55"/>
-      <c r="AI56" s="56"/>
-      <c r="AJ56" s="51" t="s">
+      <c r="AF56" s="54"/>
+      <c r="AG56" s="54"/>
+      <c r="AH56" s="54"/>
+      <c r="AI56" s="55"/>
+      <c r="AJ56" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AK56" s="55"/>
-      <c r="AL56" s="55"/>
-      <c r="AM56" s="55"/>
-      <c r="AN56" s="55"/>
-      <c r="AO56" s="55"/>
-      <c r="AP56" s="56"/>
-      <c r="AQ56" s="51"/>
-      <c r="AR56" s="55"/>
-      <c r="AS56" s="55"/>
-      <c r="AT56" s="55"/>
-      <c r="AU56" s="55"/>
-      <c r="AV56" s="55"/>
-      <c r="AW56" s="40"/>
+      <c r="AK56" s="54"/>
+      <c r="AL56" s="54"/>
+      <c r="AM56" s="54"/>
+      <c r="AN56" s="54"/>
+      <c r="AO56" s="54"/>
+      <c r="AP56" s="55"/>
+      <c r="AQ56" s="50"/>
+      <c r="AR56" s="54"/>
+      <c r="AS56" s="54"/>
+      <c r="AT56" s="54"/>
+      <c r="AU56" s="54"/>
+      <c r="AV56" s="54"/>
+      <c r="AW56" s="39"/>
     </row>
     <row r="57" spans="1:51">
-      <c r="A57" s="36"/>
-      <c r="B57" s="41">
+      <c r="A57" s="35"/>
+      <c r="B57" s="40">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C57" s="40"/>
-      <c r="D57" s="38" t="s">
+      <c r="C57" s="39"/>
+      <c r="D57" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="40"/>
-      <c r="O57" s="51" t="s">
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="38"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="38"/>
+      <c r="M57" s="38"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="P57" s="55"/>
-      <c r="Q57" s="55"/>
-      <c r="R57" s="55"/>
-      <c r="S57" s="55"/>
-      <c r="T57" s="56"/>
-      <c r="U57" s="51" t="s">
+      <c r="P57" s="54"/>
+      <c r="Q57" s="54"/>
+      <c r="R57" s="54"/>
+      <c r="S57" s="54"/>
+      <c r="T57" s="55"/>
+      <c r="U57" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="V57" s="55"/>
-      <c r="W57" s="55"/>
-      <c r="X57" s="55"/>
-      <c r="Y57" s="55"/>
-      <c r="Z57" s="55"/>
-      <c r="AA57" s="55"/>
-      <c r="AB57" s="55"/>
-      <c r="AC57" s="55"/>
-      <c r="AD57" s="56"/>
-      <c r="AE57" s="51" t="s">
+      <c r="V57" s="54"/>
+      <c r="W57" s="54"/>
+      <c r="X57" s="54"/>
+      <c r="Y57" s="54"/>
+      <c r="Z57" s="54"/>
+      <c r="AA57" s="54"/>
+      <c r="AB57" s="54"/>
+      <c r="AC57" s="54"/>
+      <c r="AD57" s="55"/>
+      <c r="AE57" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AF57" s="55"/>
-      <c r="AG57" s="55"/>
-      <c r="AH57" s="55"/>
-      <c r="AI57" s="56"/>
-      <c r="AJ57" s="51" t="s">
+      <c r="AF57" s="54"/>
+      <c r="AG57" s="54"/>
+      <c r="AH57" s="54"/>
+      <c r="AI57" s="55"/>
+      <c r="AJ57" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AK57" s="55"/>
-      <c r="AL57" s="55"/>
-      <c r="AM57" s="55"/>
-      <c r="AN57" s="55"/>
-      <c r="AO57" s="55"/>
-      <c r="AP57" s="56"/>
-      <c r="AQ57" s="51"/>
-      <c r="AR57" s="55"/>
-      <c r="AS57" s="55"/>
-      <c r="AT57" s="55"/>
-      <c r="AU57" s="55"/>
-      <c r="AV57" s="55"/>
-      <c r="AW57" s="40"/>
+      <c r="AK57" s="54"/>
+      <c r="AL57" s="54"/>
+      <c r="AM57" s="54"/>
+      <c r="AN57" s="54"/>
+      <c r="AO57" s="54"/>
+      <c r="AP57" s="55"/>
+      <c r="AQ57" s="50"/>
+      <c r="AR57" s="54"/>
+      <c r="AS57" s="54"/>
+      <c r="AT57" s="54"/>
+      <c r="AU57" s="54"/>
+      <c r="AV57" s="54"/>
+      <c r="AW57" s="39"/>
     </row>
     <row r="58" spans="1:51">
-      <c r="A58" s="36"/>
-      <c r="B58" s="41">
+      <c r="A58" s="35"/>
+      <c r="B58" s="40">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C58" s="40"/>
-      <c r="D58" s="38" t="s">
+      <c r="C58" s="39"/>
+      <c r="D58" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="51" t="s">
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="P58" s="55"/>
-      <c r="Q58" s="55"/>
-      <c r="R58" s="55"/>
-      <c r="S58" s="55"/>
-      <c r="T58" s="56"/>
-      <c r="U58" s="51" t="s">
+      <c r="P58" s="54"/>
+      <c r="Q58" s="54"/>
+      <c r="R58" s="54"/>
+      <c r="S58" s="54"/>
+      <c r="T58" s="55"/>
+      <c r="U58" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="V58" s="55"/>
-      <c r="W58" s="55"/>
-      <c r="X58" s="55"/>
-      <c r="Y58" s="55"/>
-      <c r="Z58" s="55"/>
-      <c r="AA58" s="55"/>
-      <c r="AB58" s="55"/>
-      <c r="AC58" s="55"/>
-      <c r="AD58" s="56"/>
-      <c r="AE58" s="51" t="s">
+      <c r="V58" s="54"/>
+      <c r="W58" s="54"/>
+      <c r="X58" s="54"/>
+      <c r="Y58" s="54"/>
+      <c r="Z58" s="54"/>
+      <c r="AA58" s="54"/>
+      <c r="AB58" s="54"/>
+      <c r="AC58" s="54"/>
+      <c r="AD58" s="55"/>
+      <c r="AE58" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AF58" s="55"/>
-      <c r="AG58" s="55"/>
-      <c r="AH58" s="55"/>
-      <c r="AI58" s="56"/>
-      <c r="AJ58" s="51" t="s">
+      <c r="AF58" s="54"/>
+      <c r="AG58" s="54"/>
+      <c r="AH58" s="54"/>
+      <c r="AI58" s="55"/>
+      <c r="AJ58" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AK58" s="55"/>
-      <c r="AL58" s="55"/>
-      <c r="AM58" s="55"/>
-      <c r="AN58" s="55"/>
-      <c r="AO58" s="55"/>
-      <c r="AP58" s="56"/>
-      <c r="AQ58" s="51"/>
-      <c r="AR58" s="55"/>
-      <c r="AS58" s="55"/>
-      <c r="AT58" s="55"/>
-      <c r="AU58" s="55"/>
-      <c r="AV58" s="55"/>
-      <c r="AW58" s="40"/>
+      <c r="AK58" s="54"/>
+      <c r="AL58" s="54"/>
+      <c r="AM58" s="54"/>
+      <c r="AN58" s="54"/>
+      <c r="AO58" s="54"/>
+      <c r="AP58" s="55"/>
+      <c r="AQ58" s="50"/>
+      <c r="AR58" s="54"/>
+      <c r="AS58" s="54"/>
+      <c r="AT58" s="54"/>
+      <c r="AU58" s="54"/>
+      <c r="AV58" s="54"/>
+      <c r="AW58" s="39"/>
     </row>
     <row r="59" spans="1:51">
-      <c r="A59" s="36"/>
-      <c r="B59" s="41">
+      <c r="A59" s="35"/>
+      <c r="B59" s="40">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C59" s="40"/>
-      <c r="D59" s="38" t="s">
+      <c r="C59" s="39"/>
+      <c r="D59" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="51" t="s">
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="39"/>
+      <c r="O59" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="P59" s="55"/>
-      <c r="Q59" s="55"/>
-      <c r="R59" s="55"/>
-      <c r="S59" s="55"/>
-      <c r="T59" s="56"/>
-      <c r="U59" s="51" t="s">
+      <c r="P59" s="54"/>
+      <c r="Q59" s="54"/>
+      <c r="R59" s="54"/>
+      <c r="S59" s="54"/>
+      <c r="T59" s="55"/>
+      <c r="U59" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="V59" s="55"/>
-      <c r="W59" s="55"/>
-      <c r="X59" s="55"/>
-      <c r="Y59" s="55"/>
-      <c r="Z59" s="55"/>
-      <c r="AA59" s="55"/>
-      <c r="AB59" s="55"/>
-      <c r="AC59" s="55"/>
-      <c r="AD59" s="56"/>
-      <c r="AE59" s="51" t="s">
+      <c r="V59" s="54"/>
+      <c r="W59" s="54"/>
+      <c r="X59" s="54"/>
+      <c r="Y59" s="54"/>
+      <c r="Z59" s="54"/>
+      <c r="AA59" s="54"/>
+      <c r="AB59" s="54"/>
+      <c r="AC59" s="54"/>
+      <c r="AD59" s="55"/>
+      <c r="AE59" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AF59" s="55"/>
-      <c r="AG59" s="55"/>
-      <c r="AH59" s="55"/>
-      <c r="AI59" s="56"/>
-      <c r="AJ59" s="51" t="s">
+      <c r="AF59" s="54"/>
+      <c r="AG59" s="54"/>
+      <c r="AH59" s="54"/>
+      <c r="AI59" s="55"/>
+      <c r="AJ59" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="AK59" s="55"/>
-      <c r="AL59" s="55"/>
-      <c r="AM59" s="55"/>
-      <c r="AN59" s="55"/>
-      <c r="AO59" s="55"/>
-      <c r="AP59" s="56"/>
-      <c r="AQ59" s="51"/>
-      <c r="AR59" s="55"/>
-      <c r="AS59" s="55"/>
-      <c r="AT59" s="55"/>
-      <c r="AU59" s="55"/>
-      <c r="AV59" s="55"/>
-      <c r="AW59" s="40"/>
+      <c r="AK59" s="54"/>
+      <c r="AL59" s="54"/>
+      <c r="AM59" s="54"/>
+      <c r="AN59" s="54"/>
+      <c r="AO59" s="54"/>
+      <c r="AP59" s="55"/>
+      <c r="AQ59" s="50"/>
+      <c r="AR59" s="54"/>
+      <c r="AS59" s="54"/>
+      <c r="AT59" s="54"/>
+      <c r="AU59" s="54"/>
+      <c r="AV59" s="54"/>
+      <c r="AW59" s="39"/>
     </row>
     <row r="60" spans="1:51">
-      <c r="A60" s="36"/>
-      <c r="B60" s="41">
+      <c r="A60" s="35"/>
+      <c r="B60" s="40">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C60" s="40"/>
-      <c r="D60" s="38" t="s">
+      <c r="C60" s="39"/>
+      <c r="D60" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="51" t="s">
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="55"/>
-      <c r="S60" s="55"/>
-      <c r="T60" s="56"/>
-      <c r="U60" s="51" t="s">
+      <c r="P60" s="54"/>
+      <c r="Q60" s="54"/>
+      <c r="R60" s="54"/>
+      <c r="S60" s="54"/>
+      <c r="T60" s="55"/>
+      <c r="U60" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="V60" s="55"/>
-      <c r="W60" s="55"/>
-      <c r="X60" s="55"/>
-      <c r="Y60" s="55"/>
-      <c r="Z60" s="55"/>
-      <c r="AA60" s="55"/>
-      <c r="AB60" s="55"/>
-      <c r="AC60" s="55"/>
-      <c r="AD60" s="56"/>
-      <c r="AE60" s="51" t="s">
+      <c r="V60" s="54"/>
+      <c r="W60" s="54"/>
+      <c r="X60" s="54"/>
+      <c r="Y60" s="54"/>
+      <c r="Z60" s="54"/>
+      <c r="AA60" s="54"/>
+      <c r="AB60" s="54"/>
+      <c r="AC60" s="54"/>
+      <c r="AD60" s="55"/>
+      <c r="AE60" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AF60" s="55"/>
-      <c r="AG60" s="55"/>
-      <c r="AH60" s="55"/>
-      <c r="AI60" s="56"/>
-      <c r="AJ60" s="51" t="s">
+      <c r="AF60" s="54"/>
+      <c r="AG60" s="54"/>
+      <c r="AH60" s="54"/>
+      <c r="AI60" s="55"/>
+      <c r="AJ60" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AK60" s="55"/>
-      <c r="AL60" s="55"/>
-      <c r="AM60" s="55"/>
-      <c r="AN60" s="55"/>
-      <c r="AO60" s="55"/>
-      <c r="AP60" s="56"/>
-      <c r="AQ60" s="51"/>
-      <c r="AR60" s="55"/>
-      <c r="AS60" s="55"/>
-      <c r="AT60" s="55"/>
-      <c r="AU60" s="55"/>
-      <c r="AV60" s="55"/>
-      <c r="AW60" s="40"/>
+      <c r="AK60" s="54"/>
+      <c r="AL60" s="54"/>
+      <c r="AM60" s="54"/>
+      <c r="AN60" s="54"/>
+      <c r="AO60" s="54"/>
+      <c r="AP60" s="55"/>
+      <c r="AQ60" s="50"/>
+      <c r="AR60" s="54"/>
+      <c r="AS60" s="54"/>
+      <c r="AT60" s="54"/>
+      <c r="AU60" s="54"/>
+      <c r="AV60" s="54"/>
+      <c r="AW60" s="39"/>
     </row>
     <row r="61" spans="1:51">
-      <c r="A61" s="36"/>
-      <c r="B61" s="41">
+      <c r="A61" s="35"/>
+      <c r="B61" s="40">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C61" s="40"/>
-      <c r="D61" s="38" t="s">
+      <c r="C61" s="39"/>
+      <c r="D61" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="J61" s="39"/>
-      <c r="K61" s="39"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="51" t="s">
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="P61" s="55"/>
-      <c r="Q61" s="55"/>
-      <c r="R61" s="55"/>
-      <c r="S61" s="55"/>
-      <c r="T61" s="56"/>
-      <c r="U61" s="51" t="s">
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="54"/>
+      <c r="T61" s="55"/>
+      <c r="U61" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="V61" s="55"/>
-      <c r="W61" s="55"/>
-      <c r="X61" s="55"/>
-      <c r="Y61" s="55"/>
-      <c r="Z61" s="55"/>
-      <c r="AA61" s="55"/>
-      <c r="AB61" s="55"/>
-      <c r="AC61" s="55"/>
-      <c r="AD61" s="56"/>
-      <c r="AE61" s="51" t="s">
+      <c r="V61" s="54"/>
+      <c r="W61" s="54"/>
+      <c r="X61" s="54"/>
+      <c r="Y61" s="54"/>
+      <c r="Z61" s="54"/>
+      <c r="AA61" s="54"/>
+      <c r="AB61" s="54"/>
+      <c r="AC61" s="54"/>
+      <c r="AD61" s="55"/>
+      <c r="AE61" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AF61" s="55"/>
-      <c r="AG61" s="55"/>
-      <c r="AH61" s="55"/>
-      <c r="AI61" s="56"/>
-      <c r="AJ61" s="51" t="s">
+      <c r="AF61" s="54"/>
+      <c r="AG61" s="54"/>
+      <c r="AH61" s="54"/>
+      <c r="AI61" s="55"/>
+      <c r="AJ61" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="AK61" s="55"/>
-      <c r="AL61" s="55"/>
-      <c r="AM61" s="55"/>
-      <c r="AN61" s="55"/>
-      <c r="AO61" s="55"/>
-      <c r="AP61" s="56"/>
-      <c r="AQ61" s="51"/>
-      <c r="AR61" s="55"/>
-      <c r="AS61" s="55"/>
-      <c r="AT61" s="55"/>
-      <c r="AU61" s="55"/>
-      <c r="AV61" s="55"/>
-      <c r="AW61" s="40"/>
+      <c r="AK61" s="54"/>
+      <c r="AL61" s="54"/>
+      <c r="AM61" s="54"/>
+      <c r="AN61" s="54"/>
+      <c r="AO61" s="54"/>
+      <c r="AP61" s="55"/>
+      <c r="AQ61" s="50"/>
+      <c r="AR61" s="54"/>
+      <c r="AS61" s="54"/>
+      <c r="AT61" s="54"/>
+      <c r="AU61" s="54"/>
+      <c r="AV61" s="54"/>
+      <c r="AW61" s="39"/>
     </row>
     <row r="62" spans="1:51">
-      <c r="A62" s="36"/>
-      <c r="B62" s="41">
+      <c r="A62" s="35"/>
+      <c r="B62" s="40">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C62" s="40"/>
-      <c r="D62" s="38" t="s">
+      <c r="C62" s="39"/>
+      <c r="D62" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="J62" s="39"/>
-      <c r="K62" s="39"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="51" t="s">
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="55"/>
-      <c r="S62" s="55"/>
-      <c r="T62" s="56"/>
-      <c r="U62" s="51" t="s">
+      <c r="P62" s="54"/>
+      <c r="Q62" s="54"/>
+      <c r="R62" s="54"/>
+      <c r="S62" s="54"/>
+      <c r="T62" s="55"/>
+      <c r="U62" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="V62" s="55"/>
-      <c r="W62" s="55"/>
-      <c r="X62" s="55"/>
-      <c r="Y62" s="55"/>
-      <c r="Z62" s="55"/>
-      <c r="AA62" s="55"/>
-      <c r="AB62" s="55"/>
-      <c r="AC62" s="55"/>
-      <c r="AD62" s="56"/>
-      <c r="AE62" s="51" t="s">
+      <c r="V62" s="54"/>
+      <c r="W62" s="54"/>
+      <c r="X62" s="54"/>
+      <c r="Y62" s="54"/>
+      <c r="Z62" s="54"/>
+      <c r="AA62" s="54"/>
+      <c r="AB62" s="54"/>
+      <c r="AC62" s="54"/>
+      <c r="AD62" s="55"/>
+      <c r="AE62" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AF62" s="55"/>
-      <c r="AG62" s="55"/>
-      <c r="AH62" s="55"/>
-      <c r="AI62" s="56"/>
-      <c r="AJ62" s="51" t="s">
+      <c r="AF62" s="54"/>
+      <c r="AG62" s="54"/>
+      <c r="AH62" s="54"/>
+      <c r="AI62" s="55"/>
+      <c r="AJ62" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AK62" s="55"/>
-      <c r="AL62" s="55"/>
-      <c r="AM62" s="55"/>
-      <c r="AN62" s="55"/>
-      <c r="AO62" s="55"/>
-      <c r="AP62" s="56"/>
-      <c r="AQ62" s="51"/>
-      <c r="AR62" s="55"/>
-      <c r="AS62" s="55"/>
-      <c r="AT62" s="55"/>
-      <c r="AU62" s="55"/>
-      <c r="AV62" s="55"/>
-      <c r="AW62" s="40"/>
+      <c r="AK62" s="54"/>
+      <c r="AL62" s="54"/>
+      <c r="AM62" s="54"/>
+      <c r="AN62" s="54"/>
+      <c r="AO62" s="54"/>
+      <c r="AP62" s="55"/>
+      <c r="AQ62" s="50"/>
+      <c r="AR62" s="54"/>
+      <c r="AS62" s="54"/>
+      <c r="AT62" s="54"/>
+      <c r="AU62" s="54"/>
+      <c r="AV62" s="54"/>
+      <c r="AW62" s="39"/>
     </row>
     <row r="63" spans="1:51">
-      <c r="A63" s="36"/>
-      <c r="B63" s="41">
+      <c r="A63" s="35"/>
+      <c r="B63" s="40">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C63" s="40"/>
-      <c r="D63" s="38" t="s">
+      <c r="C63" s="39"/>
+      <c r="D63" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="39"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="51" t="s">
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="P63" s="55"/>
-      <c r="Q63" s="55"/>
-      <c r="R63" s="55"/>
-      <c r="S63" s="55"/>
-      <c r="T63" s="56"/>
-      <c r="U63" s="51" t="s">
+      <c r="P63" s="54"/>
+      <c r="Q63" s="54"/>
+      <c r="R63" s="54"/>
+      <c r="S63" s="54"/>
+      <c r="T63" s="55"/>
+      <c r="U63" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="V63" s="55"/>
-      <c r="W63" s="55"/>
-      <c r="X63" s="55"/>
-      <c r="Y63" s="55"/>
-      <c r="Z63" s="55"/>
-      <c r="AA63" s="55"/>
-      <c r="AB63" s="55"/>
-      <c r="AC63" s="55"/>
-      <c r="AD63" s="56"/>
-      <c r="AE63" s="51" t="s">
+      <c r="V63" s="54"/>
+      <c r="W63" s="54"/>
+      <c r="X63" s="54"/>
+      <c r="Y63" s="54"/>
+      <c r="Z63" s="54"/>
+      <c r="AA63" s="54"/>
+      <c r="AB63" s="54"/>
+      <c r="AC63" s="54"/>
+      <c r="AD63" s="55"/>
+      <c r="AE63" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AF63" s="55"/>
-      <c r="AG63" s="55"/>
-      <c r="AH63" s="55"/>
-      <c r="AI63" s="56"/>
-      <c r="AJ63" s="51" t="s">
+      <c r="AF63" s="54"/>
+      <c r="AG63" s="54"/>
+      <c r="AH63" s="54"/>
+      <c r="AI63" s="55"/>
+      <c r="AJ63" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AK63" s="55"/>
-      <c r="AL63" s="55"/>
-      <c r="AM63" s="55"/>
-      <c r="AN63" s="55"/>
-      <c r="AO63" s="55"/>
-      <c r="AP63" s="56"/>
-      <c r="AQ63" s="51"/>
-      <c r="AR63" s="55"/>
-      <c r="AS63" s="55"/>
-      <c r="AT63" s="55"/>
-      <c r="AU63" s="55"/>
-      <c r="AV63" s="55"/>
-      <c r="AW63" s="40"/>
+      <c r="AK63" s="54"/>
+      <c r="AL63" s="54"/>
+      <c r="AM63" s="54"/>
+      <c r="AN63" s="54"/>
+      <c r="AO63" s="54"/>
+      <c r="AP63" s="55"/>
+      <c r="AQ63" s="50"/>
+      <c r="AR63" s="54"/>
+      <c r="AS63" s="54"/>
+      <c r="AT63" s="54"/>
+      <c r="AU63" s="54"/>
+      <c r="AV63" s="54"/>
+      <c r="AW63" s="39"/>
     </row>
     <row r="64" spans="1:51">
-      <c r="A64" s="36"/>
-      <c r="B64" s="41">
+      <c r="A64" s="35"/>
+      <c r="B64" s="40">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C64" s="40"/>
-      <c r="D64" s="38" t="s">
+      <c r="C64" s="39"/>
+      <c r="D64" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="J64" s="39"/>
-      <c r="K64" s="39"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
-      <c r="N64" s="40"/>
-      <c r="O64" s="51" t="s">
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="P64" s="55"/>
-      <c r="Q64" s="55"/>
-      <c r="R64" s="55"/>
-      <c r="S64" s="55"/>
-      <c r="T64" s="56"/>
-      <c r="U64" s="51" t="s">
+      <c r="P64" s="54"/>
+      <c r="Q64" s="54"/>
+      <c r="R64" s="54"/>
+      <c r="S64" s="54"/>
+      <c r="T64" s="55"/>
+      <c r="U64" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="V64" s="55"/>
-      <c r="W64" s="55"/>
-      <c r="X64" s="55"/>
-      <c r="Y64" s="55"/>
-      <c r="Z64" s="55"/>
-      <c r="AA64" s="55"/>
-      <c r="AB64" s="55"/>
-      <c r="AC64" s="55"/>
-      <c r="AD64" s="56"/>
-      <c r="AE64" s="51" t="s">
+      <c r="V64" s="54"/>
+      <c r="W64" s="54"/>
+      <c r="X64" s="54"/>
+      <c r="Y64" s="54"/>
+      <c r="Z64" s="54"/>
+      <c r="AA64" s="54"/>
+      <c r="AB64" s="54"/>
+      <c r="AC64" s="54"/>
+      <c r="AD64" s="55"/>
+      <c r="AE64" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AF64" s="55"/>
-      <c r="AG64" s="55"/>
-      <c r="AH64" s="55"/>
-      <c r="AI64" s="56"/>
-      <c r="AJ64" s="51" t="s">
+      <c r="AF64" s="54"/>
+      <c r="AG64" s="54"/>
+      <c r="AH64" s="54"/>
+      <c r="AI64" s="55"/>
+      <c r="AJ64" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AK64" s="55"/>
-      <c r="AL64" s="55"/>
-      <c r="AM64" s="55"/>
-      <c r="AN64" s="55"/>
-      <c r="AO64" s="55"/>
-      <c r="AP64" s="56"/>
-      <c r="AQ64" s="51"/>
-      <c r="AR64" s="55"/>
-      <c r="AS64" s="55"/>
-      <c r="AT64" s="55"/>
-      <c r="AU64" s="55"/>
-      <c r="AV64" s="55"/>
-      <c r="AW64" s="40"/>
+      <c r="AK64" s="54"/>
+      <c r="AL64" s="54"/>
+      <c r="AM64" s="54"/>
+      <c r="AN64" s="54"/>
+      <c r="AO64" s="54"/>
+      <c r="AP64" s="55"/>
+      <c r="AQ64" s="50"/>
+      <c r="AR64" s="54"/>
+      <c r="AS64" s="54"/>
+      <c r="AT64" s="54"/>
+      <c r="AU64" s="54"/>
+      <c r="AV64" s="54"/>
+      <c r="AW64" s="39"/>
     </row>
     <row r="65" spans="1:59">
-      <c r="A65" s="36"/>
-      <c r="B65" s="35"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="34"/>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
@@ -8202,8 +7597,8 @@
       <c r="AT65" s="21"/>
     </row>
     <row r="66" spans="1:59">
-      <c r="A66" s="36"/>
-      <c r="B66" s="35" t="s">
+      <c r="A66" s="35"/>
+      <c r="B66" s="34" t="s">
         <v>32</v>
       </c>
       <c r="C66" s="21"/>
@@ -8255,16 +7650,16 @@
       <c r="AW66" s="21"/>
     </row>
     <row r="67" spans="1:59" s="27" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A67" s="36"/>
+      <c r="A67" s="35"/>
       <c r="B67" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C67" s="23"/>
-      <c r="D67" s="93" t="s">
+      <c r="D67" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="E67" s="94"/>
-      <c r="F67" s="95"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="91"/>
       <c r="G67" s="14" t="s">
         <v>19</v>
       </c>
@@ -8279,16 +7674,16 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
       <c r="R67" s="16"/>
-      <c r="S67" s="96" t="s">
+      <c r="S67" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="T67" s="97"/>
-      <c r="U67" s="97"/>
-      <c r="V67" s="97"/>
-      <c r="W67" s="97"/>
-      <c r="X67" s="97"/>
-      <c r="Y67" s="97"/>
-      <c r="Z67" s="98"/>
+      <c r="T67" s="93"/>
+      <c r="U67" s="93"/>
+      <c r="V67" s="93"/>
+      <c r="W67" s="93"/>
+      <c r="X67" s="93"/>
+      <c r="Y67" s="93"/>
+      <c r="Z67" s="94"/>
       <c r="AA67" s="22" t="s">
         <v>29</v>
       </c>
@@ -8312,308 +7707,308 @@
       <c r="AS67" s="23"/>
     </row>
     <row r="68" spans="1:59">
-      <c r="A68" s="36"/>
-      <c r="B68" s="41">
+      <c r="A68" s="35"/>
+      <c r="B68" s="40">
         <f>ROW()-67</f>
         <v>1</v>
       </c>
-      <c r="C68" s="40"/>
-      <c r="D68" s="41">
+      <c r="C68" s="39"/>
+      <c r="D68" s="40">
         <f>$B$55</f>
         <v>1</v>
       </c>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="41" t="str">
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="40" t="str">
         <f>$D$55</f>
         <v>ログアウト</v>
       </c>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="39"/>
-      <c r="O68" s="39"/>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="40"/>
-      <c r="S68" s="38" t="s">
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="38"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
+      <c r="Q68" s="38"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="T68" s="39"/>
-      <c r="U68" s="39"/>
-      <c r="V68" s="39"/>
-      <c r="W68" s="39"/>
-      <c r="X68" s="39"/>
-      <c r="Y68" s="39"/>
-      <c r="Z68" s="40"/>
-      <c r="AA68" s="50" t="s">
+      <c r="T68" s="38"/>
+      <c r="U68" s="38"/>
+      <c r="V68" s="38"/>
+      <c r="W68" s="38"/>
+      <c r="X68" s="38"/>
+      <c r="Y68" s="38"/>
+      <c r="Z68" s="39"/>
+      <c r="AA68" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="AB68" s="39"/>
-      <c r="AC68" s="39"/>
-      <c r="AD68" s="39"/>
-      <c r="AE68" s="39"/>
-      <c r="AF68" s="39"/>
-      <c r="AG68" s="39"/>
-      <c r="AH68" s="39"/>
-      <c r="AI68" s="39"/>
-      <c r="AJ68" s="39"/>
-      <c r="AK68" s="39"/>
-      <c r="AL68" s="39"/>
-      <c r="AM68" s="39"/>
-      <c r="AN68" s="39"/>
-      <c r="AO68" s="39"/>
-      <c r="AP68" s="39"/>
-      <c r="AQ68" s="39"/>
-      <c r="AR68" s="39"/>
-      <c r="AS68" s="40"/>
+      <c r="AB68" s="38"/>
+      <c r="AC68" s="38"/>
+      <c r="AD68" s="38"/>
+      <c r="AE68" s="38"/>
+      <c r="AF68" s="38"/>
+      <c r="AG68" s="38"/>
+      <c r="AH68" s="38"/>
+      <c r="AI68" s="38"/>
+      <c r="AJ68" s="38"/>
+      <c r="AK68" s="38"/>
+      <c r="AL68" s="38"/>
+      <c r="AM68" s="38"/>
+      <c r="AN68" s="38"/>
+      <c r="AO68" s="38"/>
+      <c r="AP68" s="38"/>
+      <c r="AQ68" s="38"/>
+      <c r="AR68" s="38"/>
+      <c r="AS68" s="39"/>
     </row>
     <row r="69" spans="1:59">
-      <c r="A69" s="36"/>
-      <c r="B69" s="41">
+      <c r="A69" s="35"/>
+      <c r="B69" s="40">
         <f t="shared" ref="B69:B72" si="1">ROW()-67</f>
         <v>2</v>
       </c>
-      <c r="C69" s="40"/>
-      <c r="D69" s="41">
+      <c r="C69" s="39"/>
+      <c r="D69" s="40">
         <f>$B$60</f>
         <v>6</v>
       </c>
-      <c r="E69" s="39"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="41" t="str">
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="40" t="str">
         <f>$D$60</f>
         <v>パスワード表示アイコン</v>
       </c>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="39"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="39"/>
-      <c r="N69" s="39"/>
-      <c r="O69" s="39"/>
-      <c r="P69" s="39"/>
-      <c r="Q69" s="39"/>
-      <c r="R69" s="40"/>
-      <c r="S69" s="38" t="s">
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
+      <c r="Q69" s="38"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="T69" s="39"/>
-      <c r="U69" s="39"/>
-      <c r="V69" s="39"/>
-      <c r="W69" s="39"/>
-      <c r="X69" s="39"/>
-      <c r="Y69" s="39"/>
-      <c r="Z69" s="40"/>
-      <c r="AA69" s="50" t="s">
+      <c r="T69" s="38"/>
+      <c r="U69" s="38"/>
+      <c r="V69" s="38"/>
+      <c r="W69" s="38"/>
+      <c r="X69" s="38"/>
+      <c r="Y69" s="38"/>
+      <c r="Z69" s="39"/>
+      <c r="AA69" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="AB69" s="39"/>
-      <c r="AC69" s="39"/>
-      <c r="AD69" s="39"/>
-      <c r="AE69" s="39"/>
-      <c r="AF69" s="39"/>
-      <c r="AG69" s="39"/>
-      <c r="AH69" s="39"/>
-      <c r="AI69" s="39"/>
-      <c r="AJ69" s="39"/>
-      <c r="AK69" s="39"/>
-      <c r="AL69" s="39"/>
-      <c r="AM69" s="39"/>
-      <c r="AN69" s="39"/>
-      <c r="AO69" s="39"/>
-      <c r="AP69" s="39"/>
-      <c r="AQ69" s="39"/>
-      <c r="AR69" s="39"/>
-      <c r="AS69" s="40"/>
+      <c r="AB69" s="38"/>
+      <c r="AC69" s="38"/>
+      <c r="AD69" s="38"/>
+      <c r="AE69" s="38"/>
+      <c r="AF69" s="38"/>
+      <c r="AG69" s="38"/>
+      <c r="AH69" s="38"/>
+      <c r="AI69" s="38"/>
+      <c r="AJ69" s="38"/>
+      <c r="AK69" s="38"/>
+      <c r="AL69" s="38"/>
+      <c r="AM69" s="38"/>
+      <c r="AN69" s="38"/>
+      <c r="AO69" s="38"/>
+      <c r="AP69" s="38"/>
+      <c r="AQ69" s="38"/>
+      <c r="AR69" s="38"/>
+      <c r="AS69" s="39"/>
     </row>
     <row r="70" spans="1:59">
-      <c r="A70" s="36"/>
-      <c r="B70" s="41">
+      <c r="A70" s="35"/>
+      <c r="B70" s="40">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C70" s="40"/>
-      <c r="D70" s="41">
+      <c r="C70" s="39"/>
+      <c r="D70" s="40">
         <f>$B$62</f>
         <v>8</v>
       </c>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="41" t="str">
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="40" t="str">
         <f>$D$62</f>
         <v>パスワード表示アイコン(確認)</v>
       </c>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-      <c r="J70" s="39"/>
-      <c r="K70" s="39"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="39"/>
-      <c r="N70" s="39"/>
-      <c r="O70" s="39"/>
-      <c r="P70" s="39"/>
-      <c r="Q70" s="39"/>
-      <c r="R70" s="40"/>
-      <c r="S70" s="38" t="s">
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="38"/>
+      <c r="M70" s="38"/>
+      <c r="N70" s="38"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
+      <c r="Q70" s="38"/>
+      <c r="R70" s="39"/>
+      <c r="S70" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="T70" s="39"/>
-      <c r="U70" s="39"/>
-      <c r="V70" s="39"/>
-      <c r="W70" s="39"/>
-      <c r="X70" s="39"/>
-      <c r="Y70" s="39"/>
-      <c r="Z70" s="40"/>
-      <c r="AA70" s="50" t="s">
+      <c r="T70" s="38"/>
+      <c r="U70" s="38"/>
+      <c r="V70" s="38"/>
+      <c r="W70" s="38"/>
+      <c r="X70" s="38"/>
+      <c r="Y70" s="38"/>
+      <c r="Z70" s="39"/>
+      <c r="AA70" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="AB70" s="39"/>
-      <c r="AC70" s="39"/>
-      <c r="AD70" s="39"/>
-      <c r="AE70" s="39"/>
-      <c r="AF70" s="39"/>
-      <c r="AG70" s="39"/>
-      <c r="AH70" s="39"/>
-      <c r="AI70" s="39"/>
-      <c r="AJ70" s="39"/>
-      <c r="AK70" s="39"/>
-      <c r="AL70" s="39"/>
-      <c r="AM70" s="39"/>
-      <c r="AN70" s="39"/>
-      <c r="AO70" s="39"/>
-      <c r="AP70" s="39"/>
-      <c r="AQ70" s="39"/>
-      <c r="AR70" s="39"/>
-      <c r="AS70" s="40"/>
+      <c r="AB70" s="38"/>
+      <c r="AC70" s="38"/>
+      <c r="AD70" s="38"/>
+      <c r="AE70" s="38"/>
+      <c r="AF70" s="38"/>
+      <c r="AG70" s="38"/>
+      <c r="AH70" s="38"/>
+      <c r="AI70" s="38"/>
+      <c r="AJ70" s="38"/>
+      <c r="AK70" s="38"/>
+      <c r="AL70" s="38"/>
+      <c r="AM70" s="38"/>
+      <c r="AN70" s="38"/>
+      <c r="AO70" s="38"/>
+      <c r="AP70" s="38"/>
+      <c r="AQ70" s="38"/>
+      <c r="AR70" s="38"/>
+      <c r="AS70" s="39"/>
     </row>
     <row r="71" spans="1:59">
-      <c r="A71" s="36"/>
-      <c r="B71" s="41">
+      <c r="A71" s="35"/>
+      <c r="B71" s="40">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C71" s="40"/>
-      <c r="D71" s="41">
+      <c r="C71" s="39"/>
+      <c r="D71" s="40">
         <f>$B$63</f>
         <v>9</v>
       </c>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="41" t="str">
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="40" t="str">
         <f>$D$63</f>
         <v>変更する</v>
       </c>
-      <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
-      <c r="J71" s="39"/>
-      <c r="K71" s="39"/>
-      <c r="L71" s="39"/>
-      <c r="M71" s="39"/>
-      <c r="N71" s="39"/>
-      <c r="O71" s="39"/>
-      <c r="P71" s="39"/>
-      <c r="Q71" s="39"/>
-      <c r="R71" s="40"/>
-      <c r="S71" s="38" t="s">
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="38"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="38"/>
+      <c r="M71" s="38"/>
+      <c r="N71" s="38"/>
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
+      <c r="Q71" s="38"/>
+      <c r="R71" s="39"/>
+      <c r="S71" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="T71" s="39"/>
-      <c r="U71" s="39"/>
-      <c r="V71" s="39"/>
-      <c r="W71" s="39"/>
-      <c r="X71" s="39"/>
-      <c r="Y71" s="39"/>
-      <c r="Z71" s="40"/>
-      <c r="AA71" s="50" t="s">
+      <c r="T71" s="38"/>
+      <c r="U71" s="38"/>
+      <c r="V71" s="38"/>
+      <c r="W71" s="38"/>
+      <c r="X71" s="38"/>
+      <c r="Y71" s="38"/>
+      <c r="Z71" s="39"/>
+      <c r="AA71" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="AB71" s="39"/>
-      <c r="AC71" s="39"/>
-      <c r="AD71" s="39"/>
-      <c r="AE71" s="39"/>
-      <c r="AF71" s="39"/>
-      <c r="AG71" s="39"/>
-      <c r="AH71" s="39"/>
-      <c r="AI71" s="39"/>
-      <c r="AJ71" s="39"/>
-      <c r="AK71" s="39"/>
-      <c r="AL71" s="39"/>
-      <c r="AM71" s="39"/>
-      <c r="AN71" s="39"/>
-      <c r="AO71" s="39"/>
-      <c r="AP71" s="39"/>
-      <c r="AQ71" s="39"/>
-      <c r="AR71" s="39"/>
-      <c r="AS71" s="40"/>
+      <c r="AB71" s="38"/>
+      <c r="AC71" s="38"/>
+      <c r="AD71" s="38"/>
+      <c r="AE71" s="38"/>
+      <c r="AF71" s="38"/>
+      <c r="AG71" s="38"/>
+      <c r="AH71" s="38"/>
+      <c r="AI71" s="38"/>
+      <c r="AJ71" s="38"/>
+      <c r="AK71" s="38"/>
+      <c r="AL71" s="38"/>
+      <c r="AM71" s="38"/>
+      <c r="AN71" s="38"/>
+      <c r="AO71" s="38"/>
+      <c r="AP71" s="38"/>
+      <c r="AQ71" s="38"/>
+      <c r="AR71" s="38"/>
+      <c r="AS71" s="39"/>
     </row>
     <row r="72" spans="1:59">
-      <c r="A72" s="36"/>
-      <c r="B72" s="41">
+      <c r="A72" s="35"/>
+      <c r="B72" s="40">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C72" s="40"/>
-      <c r="D72" s="41">
+      <c r="C72" s="39"/>
+      <c r="D72" s="40">
         <f>$B$64</f>
         <v>10</v>
       </c>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="41" t="str">
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="40" t="str">
         <f>$D$64</f>
         <v>メニューに戻る</v>
       </c>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="J72" s="39"/>
-      <c r="K72" s="39"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="39"/>
-      <c r="O72" s="39"/>
-      <c r="P72" s="39"/>
-      <c r="Q72" s="39"/>
-      <c r="R72" s="40"/>
-      <c r="S72" s="38" t="s">
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="38"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
+      <c r="Q72" s="38"/>
+      <c r="R72" s="39"/>
+      <c r="S72" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="T72" s="39"/>
-      <c r="U72" s="39"/>
-      <c r="V72" s="39"/>
-      <c r="W72" s="39"/>
-      <c r="X72" s="39"/>
-      <c r="Y72" s="39"/>
-      <c r="Z72" s="40"/>
-      <c r="AA72" s="50" t="s">
+      <c r="T72" s="38"/>
+      <c r="U72" s="38"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="38"/>
+      <c r="X72" s="38"/>
+      <c r="Y72" s="38"/>
+      <c r="Z72" s="39"/>
+      <c r="AA72" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="AB72" s="39"/>
-      <c r="AC72" s="39"/>
-      <c r="AD72" s="39"/>
-      <c r="AE72" s="39"/>
-      <c r="AF72" s="39"/>
-      <c r="AG72" s="39"/>
-      <c r="AH72" s="39"/>
-      <c r="AI72" s="39"/>
-      <c r="AJ72" s="39"/>
-      <c r="AK72" s="39"/>
-      <c r="AL72" s="39"/>
-      <c r="AM72" s="39"/>
-      <c r="AN72" s="39"/>
-      <c r="AO72" s="39"/>
-      <c r="AP72" s="39"/>
-      <c r="AQ72" s="39"/>
-      <c r="AR72" s="39"/>
-      <c r="AS72" s="40"/>
+      <c r="AB72" s="38"/>
+      <c r="AC72" s="38"/>
+      <c r="AD72" s="38"/>
+      <c r="AE72" s="38"/>
+      <c r="AF72" s="38"/>
+      <c r="AG72" s="38"/>
+      <c r="AH72" s="38"/>
+      <c r="AI72" s="38"/>
+      <c r="AJ72" s="38"/>
+      <c r="AK72" s="38"/>
+      <c r="AL72" s="38"/>
+      <c r="AM72" s="38"/>
+      <c r="AN72" s="38"/>
+      <c r="AO72" s="38"/>
+      <c r="AP72" s="38"/>
+      <c r="AQ72" s="38"/>
+      <c r="AR72" s="38"/>
+      <c r="AS72" s="39"/>
     </row>
     <row r="73" spans="1:59">
-      <c r="A73" s="36"/>
-      <c r="B73" s="35"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="34"/>
       <c r="C73" s="21"/>
       <c r="D73" s="21"/>
       <c r="E73" s="21"/>
@@ -8656,22 +8051,22 @@
       <c r="AP73" s="21"/>
     </row>
     <row r="74" spans="1:59">
-      <c r="A74" s="36"/>
-      <c r="B74" s="35" t="s">
+      <c r="A74" s="35"/>
+      <c r="B74" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
+      <c r="C74" s="99"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="99"/>
+      <c r="I74" s="99"/>
+      <c r="J74" s="99"/>
+      <c r="K74" s="99"/>
+      <c r="L74" s="99"/>
+      <c r="M74" s="99"/>
+      <c r="N74" s="99"/>
       <c r="O74" s="21"/>
       <c r="P74" s="21"/>
       <c r="Q74" s="21"/>
@@ -8713,26 +8108,26 @@
       <c r="BA74" s="21"/>
     </row>
     <row r="75" spans="1:59" s="27" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A75" s="36"/>
-      <c r="B75" s="22" t="s">
+      <c r="A75" s="35"/>
+      <c r="B75" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="93" t="s">
+      <c r="C75" s="101"/>
+      <c r="D75" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="E75" s="94"/>
-      <c r="F75" s="95"/>
-      <c r="G75" s="14" t="s">
+      <c r="E75" s="96"/>
+      <c r="F75" s="97"/>
+      <c r="G75" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
+      <c r="H75" s="103"/>
+      <c r="I75" s="103"/>
+      <c r="J75" s="103"/>
+      <c r="K75" s="103"/>
+      <c r="L75" s="103"/>
+      <c r="M75" s="103"/>
+      <c r="N75" s="103"/>
       <c r="O75" s="14" t="s">
         <v>97</v>
       </c>
@@ -8757,955 +8152,966 @@
       <c r="AD75" s="15"/>
       <c r="AE75" s="15"/>
       <c r="AF75" s="15"/>
-      <c r="AG75" s="48"/>
-      <c r="AH75" s="48"/>
-      <c r="AI75" s="48"/>
-      <c r="AJ75" s="48"/>
-      <c r="AK75" s="48"/>
-      <c r="AL75" s="48"/>
-      <c r="AM75" s="48"/>
-      <c r="AN75" s="48"/>
-      <c r="AO75" s="48"/>
-      <c r="AP75" s="48"/>
-      <c r="AQ75" s="48"/>
-      <c r="AR75" s="48"/>
-      <c r="AS75" s="48"/>
-      <c r="AT75" s="48"/>
-      <c r="AU75" s="48"/>
-      <c r="AV75" s="49"/>
-      <c r="AW75" s="43"/>
-      <c r="AX75" s="43"/>
-      <c r="AY75" s="43"/>
-      <c r="AZ75" s="43"/>
-      <c r="BA75" s="43"/>
-      <c r="BB75" s="43"/>
-      <c r="BC75" s="43"/>
+      <c r="AG75" s="47"/>
+      <c r="AH75" s="47"/>
+      <c r="AI75" s="47"/>
+      <c r="AJ75" s="47"/>
+      <c r="AK75" s="47"/>
+      <c r="AL75" s="47"/>
+      <c r="AM75" s="47"/>
+      <c r="AN75" s="47"/>
+      <c r="AO75" s="47"/>
+      <c r="AP75" s="47"/>
+      <c r="AQ75" s="47"/>
+      <c r="AR75" s="47"/>
+      <c r="AS75" s="47"/>
+      <c r="AT75" s="47"/>
+      <c r="AU75" s="47"/>
+      <c r="AV75" s="48"/>
+      <c r="AW75" s="42"/>
+      <c r="AX75" s="42"/>
+      <c r="AY75" s="42"/>
+      <c r="AZ75" s="42"/>
+      <c r="BA75" s="42"/>
+      <c r="BB75" s="42"/>
+      <c r="BC75" s="42"/>
       <c r="BD75" s="21"/>
       <c r="BE75" s="21"/>
       <c r="BF75" s="21"/>
       <c r="BG75" s="13"/>
     </row>
     <row r="76" spans="1:59">
-      <c r="A76" s="36"/>
-      <c r="B76" s="57">
+      <c r="A76" s="35"/>
+      <c r="B76" s="49">
         <f>ROW()-75</f>
         <v>1</v>
       </c>
-      <c r="C76" s="58"/>
-      <c r="D76" s="57">
+      <c r="C76" s="104"/>
+      <c r="D76" s="49">
         <v>4</v>
       </c>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="57" t="s">
+      <c r="E76" s="105"/>
+      <c r="F76" s="105"/>
+      <c r="G76" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="H76" s="59"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="59"/>
-      <c r="L76" s="59"/>
-      <c r="M76" s="59"/>
-      <c r="N76" s="59"/>
-      <c r="O76" s="51" t="s">
+      <c r="H76" s="105"/>
+      <c r="I76" s="105"/>
+      <c r="J76" s="105"/>
+      <c r="K76" s="105"/>
+      <c r="L76" s="105"/>
+      <c r="M76" s="105"/>
+      <c r="N76" s="105"/>
+      <c r="O76" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="P76" s="59"/>
-      <c r="Q76" s="59"/>
-      <c r="R76" s="59"/>
-      <c r="S76" s="59"/>
-      <c r="T76" s="58"/>
-      <c r="U76" s="51" t="s">
+      <c r="P76" s="54"/>
+      <c r="Q76" s="54"/>
+      <c r="R76" s="54"/>
+      <c r="S76" s="54"/>
+      <c r="T76" s="55"/>
+      <c r="U76" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="V76" s="59"/>
-      <c r="W76" s="59"/>
-      <c r="X76" s="59"/>
-      <c r="Y76" s="59"/>
-      <c r="Z76" s="59"/>
-      <c r="AA76" s="59"/>
-      <c r="AB76" s="57" t="s">
+      <c r="V76" s="54"/>
+      <c r="W76" s="54"/>
+      <c r="X76" s="54"/>
+      <c r="Y76" s="54"/>
+      <c r="Z76" s="54"/>
+      <c r="AA76" s="54"/>
+      <c r="AB76" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="AC76" s="55"/>
-      <c r="AD76" s="59"/>
-      <c r="AE76" s="59"/>
-      <c r="AF76" s="59"/>
-      <c r="AG76" s="59"/>
-      <c r="AH76" s="59"/>
-      <c r="AI76" s="59"/>
-      <c r="AJ76" s="59"/>
-      <c r="AK76" s="59"/>
-      <c r="AL76" s="59"/>
-      <c r="AM76" s="59"/>
-      <c r="AN76" s="59"/>
-      <c r="AO76" s="59"/>
-      <c r="AP76" s="59"/>
-      <c r="AQ76" s="59"/>
-      <c r="AR76" s="59"/>
-      <c r="AS76" s="59"/>
-      <c r="AT76" s="59"/>
-      <c r="AU76" s="59"/>
-      <c r="AV76" s="58"/>
-      <c r="AW76" s="37"/>
-      <c r="AX76" s="37"/>
-      <c r="AY76" s="37"/>
-      <c r="AZ76" s="37"/>
-      <c r="BA76" s="37"/>
-      <c r="BB76" s="37"/>
-      <c r="BC76" s="37"/>
+      <c r="AC76" s="54"/>
+      <c r="AD76" s="54"/>
+      <c r="AE76" s="54"/>
+      <c r="AF76" s="54"/>
+      <c r="AG76" s="54"/>
+      <c r="AH76" s="54"/>
+      <c r="AI76" s="54"/>
+      <c r="AJ76" s="54"/>
+      <c r="AK76" s="54"/>
+      <c r="AL76" s="54"/>
+      <c r="AM76" s="54"/>
+      <c r="AN76" s="54"/>
+      <c r="AO76" s="54"/>
+      <c r="AP76" s="54"/>
+      <c r="AQ76" s="54"/>
+      <c r="AR76" s="54"/>
+      <c r="AS76" s="54"/>
+      <c r="AT76" s="54"/>
+      <c r="AU76" s="54"/>
+      <c r="AV76" s="55"/>
+      <c r="AW76" s="36"/>
+      <c r="AX76" s="36"/>
+      <c r="AY76" s="36"/>
+      <c r="AZ76" s="36"/>
+      <c r="BA76" s="36"/>
+      <c r="BB76" s="36"/>
+      <c r="BC76" s="36"/>
       <c r="BD76" s="17"/>
       <c r="BE76" s="17"/>
       <c r="BF76" s="17"/>
     </row>
     <row r="77" spans="1:59">
-      <c r="A77" s="36"/>
-      <c r="B77" s="57">
+      <c r="A77" s="35"/>
+      <c r="B77" s="49">
         <f t="shared" ref="B77:B88" si="2">ROW()-75</f>
         <v>2</v>
       </c>
-      <c r="C77" s="58"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="59"/>
-      <c r="K77" s="59"/>
-      <c r="L77" s="59"/>
-      <c r="M77" s="59"/>
-      <c r="N77" s="59"/>
-      <c r="O77" s="51" t="s">
+      <c r="C77" s="104"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="105"/>
+      <c r="F77" s="105"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="105"/>
+      <c r="I77" s="105"/>
+      <c r="J77" s="105"/>
+      <c r="K77" s="105"/>
+      <c r="L77" s="105"/>
+      <c r="M77" s="105"/>
+      <c r="N77" s="105"/>
+      <c r="O77" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="P77" s="59"/>
-      <c r="Q77" s="59"/>
-      <c r="R77" s="59"/>
-      <c r="S77" s="59"/>
-      <c r="T77" s="58"/>
-      <c r="U77" s="51" t="s">
+      <c r="P77" s="54"/>
+      <c r="Q77" s="54"/>
+      <c r="R77" s="54"/>
+      <c r="S77" s="54"/>
+      <c r="T77" s="55"/>
+      <c r="U77" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="V77" s="59"/>
-      <c r="W77" s="59"/>
-      <c r="X77" s="59"/>
-      <c r="Y77" s="59"/>
-      <c r="Z77" s="59"/>
-      <c r="AA77" s="59"/>
-      <c r="AB77" s="57" t="s">
+      <c r="V77" s="54"/>
+      <c r="W77" s="54"/>
+      <c r="X77" s="54"/>
+      <c r="Y77" s="54"/>
+      <c r="Z77" s="54"/>
+      <c r="AA77" s="54"/>
+      <c r="AB77" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="AC77" s="55"/>
-      <c r="AD77" s="59"/>
-      <c r="AE77" s="59"/>
-      <c r="AF77" s="59"/>
-      <c r="AG77" s="59"/>
-      <c r="AH77" s="59"/>
-      <c r="AI77" s="59"/>
-      <c r="AJ77" s="59"/>
-      <c r="AK77" s="59"/>
-      <c r="AL77" s="59"/>
-      <c r="AM77" s="59"/>
-      <c r="AN77" s="59"/>
-      <c r="AO77" s="59"/>
-      <c r="AP77" s="59"/>
-      <c r="AQ77" s="59"/>
-      <c r="AR77" s="59"/>
-      <c r="AS77" s="59"/>
-      <c r="AT77" s="59"/>
-      <c r="AU77" s="59"/>
-      <c r="AV77" s="58"/>
-      <c r="AW77" s="37"/>
-      <c r="AX77" s="37"/>
-      <c r="AY77" s="37"/>
-      <c r="AZ77" s="37"/>
-      <c r="BA77" s="37"/>
-      <c r="BB77" s="37"/>
-      <c r="BC77" s="37"/>
+      <c r="AC77" s="54"/>
+      <c r="AD77" s="54"/>
+      <c r="AE77" s="54"/>
+      <c r="AF77" s="54"/>
+      <c r="AG77" s="54"/>
+      <c r="AH77" s="54"/>
+      <c r="AI77" s="54"/>
+      <c r="AJ77" s="54"/>
+      <c r="AK77" s="54"/>
+      <c r="AL77" s="54"/>
+      <c r="AM77" s="54"/>
+      <c r="AN77" s="54"/>
+      <c r="AO77" s="54"/>
+      <c r="AP77" s="54"/>
+      <c r="AQ77" s="54"/>
+      <c r="AR77" s="54"/>
+      <c r="AS77" s="54"/>
+      <c r="AT77" s="54"/>
+      <c r="AU77" s="54"/>
+      <c r="AV77" s="55"/>
+      <c r="AW77" s="36"/>
+      <c r="AX77" s="36"/>
+      <c r="AY77" s="36"/>
+      <c r="AZ77" s="36"/>
+      <c r="BA77" s="36"/>
+      <c r="BB77" s="36"/>
+      <c r="BC77" s="36"/>
       <c r="BD77" s="17"/>
       <c r="BE77" s="17"/>
       <c r="BF77" s="17"/>
     </row>
     <row r="78" spans="1:59">
-      <c r="A78" s="36"/>
-      <c r="B78" s="57">
+      <c r="A78" s="35"/>
+      <c r="B78" s="49">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C78" s="58"/>
-      <c r="D78" s="57">
+      <c r="C78" s="104"/>
+      <c r="D78" s="49">
         <v>5</v>
       </c>
-      <c r="E78" s="59"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="57" t="s">
+      <c r="E78" s="105"/>
+      <c r="F78" s="105"/>
+      <c r="G78" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="H78" s="59"/>
-      <c r="I78" s="59"/>
-      <c r="J78" s="59"/>
-      <c r="K78" s="59"/>
-      <c r="L78" s="59"/>
-      <c r="M78" s="59"/>
-      <c r="N78" s="59"/>
-      <c r="O78" s="51" t="s">
+      <c r="H78" s="105"/>
+      <c r="I78" s="105"/>
+      <c r="J78" s="105"/>
+      <c r="K78" s="105"/>
+      <c r="L78" s="105"/>
+      <c r="M78" s="105"/>
+      <c r="N78" s="105"/>
+      <c r="O78" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="P78" s="59"/>
-      <c r="Q78" s="59"/>
-      <c r="R78" s="59"/>
-      <c r="S78" s="59"/>
-      <c r="T78" s="58"/>
-      <c r="U78" s="51" t="s">
+      <c r="P78" s="54"/>
+      <c r="Q78" s="54"/>
+      <c r="R78" s="54"/>
+      <c r="S78" s="54"/>
+      <c r="T78" s="55"/>
+      <c r="U78" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="V78" s="59"/>
-      <c r="W78" s="59"/>
-      <c r="X78" s="59"/>
-      <c r="Y78" s="59"/>
-      <c r="Z78" s="59"/>
-      <c r="AA78" s="59"/>
-      <c r="AB78" s="57" t="s">
+      <c r="V78" s="54"/>
+      <c r="W78" s="54"/>
+      <c r="X78" s="54"/>
+      <c r="Y78" s="54"/>
+      <c r="Z78" s="54"/>
+      <c r="AA78" s="54"/>
+      <c r="AB78" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="AC78" s="55"/>
-      <c r="AD78" s="59"/>
-      <c r="AE78" s="59"/>
-      <c r="AF78" s="59"/>
-      <c r="AG78" s="59"/>
-      <c r="AH78" s="59"/>
-      <c r="AI78" s="59"/>
-      <c r="AJ78" s="59"/>
-      <c r="AK78" s="59"/>
-      <c r="AL78" s="59"/>
-      <c r="AM78" s="59"/>
-      <c r="AN78" s="59"/>
-      <c r="AO78" s="59"/>
-      <c r="AP78" s="59"/>
-      <c r="AQ78" s="59"/>
-      <c r="AR78" s="59"/>
-      <c r="AS78" s="59"/>
-      <c r="AT78" s="59"/>
-      <c r="AU78" s="59"/>
-      <c r="AV78" s="58"/>
-      <c r="AW78" s="37"/>
-      <c r="AX78" s="37"/>
-      <c r="AY78" s="37"/>
-      <c r="AZ78" s="37"/>
-      <c r="BA78" s="37"/>
-      <c r="BB78" s="37"/>
-      <c r="BC78" s="37"/>
+      <c r="AC78" s="54"/>
+      <c r="AD78" s="54"/>
+      <c r="AE78" s="54"/>
+      <c r="AF78" s="54"/>
+      <c r="AG78" s="54"/>
+      <c r="AH78" s="54"/>
+      <c r="AI78" s="54"/>
+      <c r="AJ78" s="54"/>
+      <c r="AK78" s="54"/>
+      <c r="AL78" s="54"/>
+      <c r="AM78" s="54"/>
+      <c r="AN78" s="54"/>
+      <c r="AO78" s="54"/>
+      <c r="AP78" s="54"/>
+      <c r="AQ78" s="54"/>
+      <c r="AR78" s="54"/>
+      <c r="AS78" s="54"/>
+      <c r="AT78" s="54"/>
+      <c r="AU78" s="54"/>
+      <c r="AV78" s="55"/>
+      <c r="AW78" s="36"/>
+      <c r="AX78" s="36"/>
+      <c r="AY78" s="36"/>
+      <c r="AZ78" s="36"/>
+      <c r="BA78" s="36"/>
+      <c r="BB78" s="36"/>
+      <c r="BC78" s="36"/>
       <c r="BD78" s="17"/>
       <c r="BE78" s="17"/>
       <c r="BF78" s="17"/>
     </row>
     <row r="79" spans="1:59">
-      <c r="A79" s="36"/>
-      <c r="B79" s="57">
+      <c r="A79" s="35"/>
+      <c r="B79" s="49">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C79" s="58"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="59"/>
-      <c r="J79" s="59"/>
-      <c r="K79" s="59"/>
-      <c r="L79" s="59"/>
-      <c r="M79" s="59"/>
-      <c r="N79" s="59"/>
-      <c r="O79" s="51" t="s">
+      <c r="C79" s="104"/>
+      <c r="D79" s="49"/>
+      <c r="E79" s="105"/>
+      <c r="F79" s="105"/>
+      <c r="G79" s="49"/>
+      <c r="H79" s="105"/>
+      <c r="I79" s="105"/>
+      <c r="J79" s="105"/>
+      <c r="K79" s="105"/>
+      <c r="L79" s="105"/>
+      <c r="M79" s="105"/>
+      <c r="N79" s="105"/>
+      <c r="O79" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="P79" s="59"/>
-      <c r="Q79" s="59"/>
-      <c r="R79" s="59"/>
-      <c r="S79" s="59"/>
-      <c r="T79" s="58"/>
-      <c r="U79" s="51" t="s">
+      <c r="P79" s="54"/>
+      <c r="Q79" s="54"/>
+      <c r="R79" s="54"/>
+      <c r="S79" s="54"/>
+      <c r="T79" s="55"/>
+      <c r="U79" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="V79" s="59"/>
-      <c r="W79" s="59"/>
-      <c r="X79" s="59"/>
-      <c r="Y79" s="59"/>
-      <c r="Z79" s="59"/>
-      <c r="AA79" s="59"/>
-      <c r="AB79" s="57" t="s">
+      <c r="V79" s="54"/>
+      <c r="W79" s="54"/>
+      <c r="X79" s="54"/>
+      <c r="Y79" s="54"/>
+      <c r="Z79" s="54"/>
+      <c r="AA79" s="54"/>
+      <c r="AB79" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="AC79" s="55"/>
-      <c r="AD79" s="59"/>
-      <c r="AE79" s="59"/>
-      <c r="AF79" s="59"/>
-      <c r="AG79" s="59"/>
-      <c r="AH79" s="59"/>
-      <c r="AI79" s="59"/>
-      <c r="AJ79" s="59"/>
-      <c r="AK79" s="59"/>
-      <c r="AL79" s="59"/>
-      <c r="AM79" s="59"/>
-      <c r="AN79" s="59"/>
-      <c r="AO79" s="59"/>
-      <c r="AP79" s="59"/>
-      <c r="AQ79" s="59"/>
-      <c r="AR79" s="59"/>
-      <c r="AS79" s="59"/>
-      <c r="AT79" s="59"/>
-      <c r="AU79" s="59"/>
-      <c r="AV79" s="58"/>
-      <c r="AW79" s="37"/>
-      <c r="AX79" s="37"/>
-      <c r="AY79" s="37"/>
-      <c r="AZ79" s="37"/>
-      <c r="BA79" s="37"/>
-      <c r="BB79" s="37"/>
-      <c r="BC79" s="37"/>
+      <c r="AC79" s="54"/>
+      <c r="AD79" s="54"/>
+      <c r="AE79" s="54"/>
+      <c r="AF79" s="54"/>
+      <c r="AG79" s="54"/>
+      <c r="AH79" s="54"/>
+      <c r="AI79" s="54"/>
+      <c r="AJ79" s="54"/>
+      <c r="AK79" s="54"/>
+      <c r="AL79" s="54"/>
+      <c r="AM79" s="54"/>
+      <c r="AN79" s="54"/>
+      <c r="AO79" s="54"/>
+      <c r="AP79" s="54"/>
+      <c r="AQ79" s="54"/>
+      <c r="AR79" s="54"/>
+      <c r="AS79" s="54"/>
+      <c r="AT79" s="54"/>
+      <c r="AU79" s="54"/>
+      <c r="AV79" s="55"/>
+      <c r="AW79" s="36"/>
+      <c r="AX79" s="36"/>
+      <c r="AY79" s="36"/>
+      <c r="AZ79" s="36"/>
+      <c r="BA79" s="36"/>
+      <c r="BB79" s="36"/>
+      <c r="BC79" s="36"/>
       <c r="BD79" s="17"/>
       <c r="BE79" s="17"/>
       <c r="BF79" s="17"/>
     </row>
     <row r="80" spans="1:59">
-      <c r="A80" s="36"/>
-      <c r="B80" s="57">
+      <c r="A80" s="35"/>
+      <c r="B80" s="49">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C80" s="58"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="57"/>
-      <c r="H80" s="59"/>
-      <c r="I80" s="59"/>
-      <c r="J80" s="59"/>
-      <c r="K80" s="59"/>
-      <c r="L80" s="59"/>
-      <c r="M80" s="59"/>
-      <c r="N80" s="59"/>
-      <c r="O80" s="51" t="s">
+      <c r="C80" s="104"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="105"/>
+      <c r="F80" s="105"/>
+      <c r="G80" s="49"/>
+      <c r="H80" s="105"/>
+      <c r="I80" s="105"/>
+      <c r="J80" s="105"/>
+      <c r="K80" s="105"/>
+      <c r="L80" s="105"/>
+      <c r="M80" s="105"/>
+      <c r="N80" s="105"/>
+      <c r="O80" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="P80" s="59"/>
-      <c r="Q80" s="59"/>
-      <c r="R80" s="59"/>
-      <c r="S80" s="59"/>
-      <c r="T80" s="58"/>
-      <c r="U80" s="51" t="s">
+      <c r="P80" s="54"/>
+      <c r="Q80" s="54"/>
+      <c r="R80" s="54"/>
+      <c r="S80" s="54"/>
+      <c r="T80" s="55"/>
+      <c r="U80" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="V80" s="59"/>
-      <c r="W80" s="59"/>
-      <c r="X80" s="59"/>
-      <c r="Y80" s="59"/>
-      <c r="Z80" s="59"/>
-      <c r="AA80" s="59"/>
-      <c r="AB80" s="57" t="s">
+      <c r="V80" s="54"/>
+      <c r="W80" s="54"/>
+      <c r="X80" s="54"/>
+      <c r="Y80" s="54"/>
+      <c r="Z80" s="54"/>
+      <c r="AA80" s="54"/>
+      <c r="AB80" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="AC80" s="55"/>
-      <c r="AD80" s="59"/>
-      <c r="AE80" s="59"/>
-      <c r="AF80" s="59"/>
-      <c r="AG80" s="59"/>
-      <c r="AH80" s="59"/>
-      <c r="AI80" s="59"/>
-      <c r="AJ80" s="59"/>
-      <c r="AK80" s="59"/>
-      <c r="AL80" s="59"/>
-      <c r="AM80" s="59"/>
-      <c r="AN80" s="59"/>
-      <c r="AO80" s="59"/>
-      <c r="AP80" s="59"/>
-      <c r="AQ80" s="59"/>
-      <c r="AR80" s="59"/>
-      <c r="AS80" s="59"/>
-      <c r="AT80" s="59"/>
-      <c r="AU80" s="59"/>
-      <c r="AV80" s="58"/>
-      <c r="AW80" s="37"/>
-      <c r="AX80" s="37"/>
-      <c r="AY80" s="37"/>
-      <c r="AZ80" s="37"/>
-      <c r="BA80" s="37"/>
-      <c r="BB80" s="37"/>
-      <c r="BC80" s="37"/>
+      <c r="AC80" s="54"/>
+      <c r="AD80" s="54"/>
+      <c r="AE80" s="54"/>
+      <c r="AF80" s="54"/>
+      <c r="AG80" s="54"/>
+      <c r="AH80" s="54"/>
+      <c r="AI80" s="54"/>
+      <c r="AJ80" s="54"/>
+      <c r="AK80" s="54"/>
+      <c r="AL80" s="54"/>
+      <c r="AM80" s="54"/>
+      <c r="AN80" s="54"/>
+      <c r="AO80" s="54"/>
+      <c r="AP80" s="54"/>
+      <c r="AQ80" s="54"/>
+      <c r="AR80" s="54"/>
+      <c r="AS80" s="54"/>
+      <c r="AT80" s="54"/>
+      <c r="AU80" s="54"/>
+      <c r="AV80" s="55"/>
+      <c r="AW80" s="36"/>
+      <c r="AX80" s="36"/>
+      <c r="AY80" s="36"/>
+      <c r="AZ80" s="36"/>
+      <c r="BA80" s="36"/>
+      <c r="BB80" s="36"/>
+      <c r="BC80" s="36"/>
       <c r="BD80" s="17"/>
       <c r="BE80" s="17"/>
       <c r="BF80" s="17"/>
     </row>
     <row r="81" spans="1:58">
-      <c r="A81" s="36"/>
-      <c r="B81" s="57">
+      <c r="A81" s="35"/>
+      <c r="B81" s="49">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C81" s="58"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="57"/>
-      <c r="H81" s="59"/>
-      <c r="I81" s="59"/>
-      <c r="J81" s="59"/>
-      <c r="K81" s="59"/>
-      <c r="L81" s="59"/>
-      <c r="M81" s="59"/>
-      <c r="N81" s="59"/>
-      <c r="O81" s="51" t="s">
+      <c r="C81" s="104"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="105"/>
+      <c r="F81" s="105"/>
+      <c r="G81" s="49"/>
+      <c r="H81" s="105"/>
+      <c r="I81" s="105"/>
+      <c r="J81" s="105"/>
+      <c r="K81" s="105"/>
+      <c r="L81" s="105"/>
+      <c r="M81" s="105"/>
+      <c r="N81" s="105"/>
+      <c r="O81" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="P81" s="59"/>
-      <c r="Q81" s="59"/>
-      <c r="R81" s="59"/>
-      <c r="S81" s="59"/>
-      <c r="T81" s="58"/>
-      <c r="U81" s="51" t="s">
+      <c r="P81" s="54"/>
+      <c r="Q81" s="54"/>
+      <c r="R81" s="54"/>
+      <c r="S81" s="54"/>
+      <c r="T81" s="55"/>
+      <c r="U81" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="V81" s="59"/>
-      <c r="W81" s="59"/>
-      <c r="X81" s="59"/>
-      <c r="Y81" s="59"/>
-      <c r="Z81" s="59"/>
-      <c r="AA81" s="59"/>
-      <c r="AB81" s="57" t="s">
+      <c r="V81" s="54"/>
+      <c r="W81" s="54"/>
+      <c r="X81" s="54"/>
+      <c r="Y81" s="54"/>
+      <c r="Z81" s="54"/>
+      <c r="AA81" s="54"/>
+      <c r="AB81" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="AC81" s="55"/>
-      <c r="AD81" s="59"/>
-      <c r="AE81" s="59"/>
-      <c r="AF81" s="59"/>
-      <c r="AG81" s="59"/>
-      <c r="AH81" s="59"/>
-      <c r="AI81" s="59"/>
-      <c r="AJ81" s="59"/>
-      <c r="AK81" s="59"/>
-      <c r="AL81" s="59"/>
-      <c r="AM81" s="59"/>
-      <c r="AN81" s="59"/>
-      <c r="AO81" s="59"/>
-      <c r="AP81" s="59"/>
-      <c r="AQ81" s="59"/>
-      <c r="AR81" s="59"/>
-      <c r="AS81" s="59"/>
-      <c r="AT81" s="59"/>
-      <c r="AU81" s="59"/>
-      <c r="AV81" s="58"/>
-      <c r="AW81" s="37"/>
-      <c r="AX81" s="37"/>
-      <c r="AY81" s="37"/>
-      <c r="AZ81" s="37"/>
-      <c r="BA81" s="37"/>
-      <c r="BB81" s="37"/>
-      <c r="BC81" s="37"/>
+      <c r="AC81" s="54"/>
+      <c r="AD81" s="54"/>
+      <c r="AE81" s="54"/>
+      <c r="AF81" s="54"/>
+      <c r="AG81" s="54"/>
+      <c r="AH81" s="54"/>
+      <c r="AI81" s="54"/>
+      <c r="AJ81" s="54"/>
+      <c r="AK81" s="54"/>
+      <c r="AL81" s="54"/>
+      <c r="AM81" s="54"/>
+      <c r="AN81" s="54"/>
+      <c r="AO81" s="54"/>
+      <c r="AP81" s="54"/>
+      <c r="AQ81" s="54"/>
+      <c r="AR81" s="54"/>
+      <c r="AS81" s="54"/>
+      <c r="AT81" s="54"/>
+      <c r="AU81" s="54"/>
+      <c r="AV81" s="55"/>
+      <c r="AW81" s="36"/>
+      <c r="AX81" s="36"/>
+      <c r="AY81" s="36"/>
+      <c r="AZ81" s="36"/>
+      <c r="BA81" s="36"/>
+      <c r="BB81" s="36"/>
+      <c r="BC81" s="36"/>
       <c r="BD81" s="17"/>
       <c r="BE81" s="17"/>
       <c r="BF81" s="17"/>
     </row>
     <row r="82" spans="1:58">
-      <c r="A82" s="36"/>
-      <c r="B82" s="57">
+      <c r="A82" s="35"/>
+      <c r="B82" s="49">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C82" s="58"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="57"/>
-      <c r="H82" s="59"/>
-      <c r="I82" s="59"/>
-      <c r="J82" s="59"/>
-      <c r="K82" s="59"/>
-      <c r="L82" s="59"/>
-      <c r="M82" s="59"/>
-      <c r="N82" s="59"/>
-      <c r="O82" s="51" t="s">
+      <c r="C82" s="104"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="105"/>
+      <c r="F82" s="105"/>
+      <c r="G82" s="49"/>
+      <c r="H82" s="105"/>
+      <c r="I82" s="105"/>
+      <c r="J82" s="105"/>
+      <c r="K82" s="105"/>
+      <c r="L82" s="105"/>
+      <c r="M82" s="105"/>
+      <c r="N82" s="105"/>
+      <c r="O82" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="P82" s="59"/>
-      <c r="Q82" s="59"/>
-      <c r="R82" s="59"/>
-      <c r="S82" s="59"/>
-      <c r="T82" s="58"/>
-      <c r="U82" s="51" t="s">
+      <c r="P82" s="54"/>
+      <c r="Q82" s="54"/>
+      <c r="R82" s="54"/>
+      <c r="S82" s="54"/>
+      <c r="T82" s="55"/>
+      <c r="U82" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="V82" s="59"/>
-      <c r="W82" s="59"/>
-      <c r="X82" s="59"/>
-      <c r="Y82" s="59"/>
-      <c r="Z82" s="59"/>
-      <c r="AA82" s="59"/>
-      <c r="AB82" s="57" t="s">
+      <c r="V82" s="54"/>
+      <c r="W82" s="54"/>
+      <c r="X82" s="54"/>
+      <c r="Y82" s="54"/>
+      <c r="Z82" s="54"/>
+      <c r="AA82" s="54"/>
+      <c r="AB82" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="AC82" s="55"/>
-      <c r="AD82" s="59"/>
-      <c r="AE82" s="59"/>
-      <c r="AF82" s="59"/>
-      <c r="AG82" s="59"/>
-      <c r="AH82" s="59"/>
-      <c r="AI82" s="59"/>
-      <c r="AJ82" s="59"/>
-      <c r="AK82" s="59"/>
-      <c r="AL82" s="59"/>
-      <c r="AM82" s="59"/>
-      <c r="AN82" s="59"/>
-      <c r="AO82" s="59"/>
-      <c r="AP82" s="59"/>
-      <c r="AQ82" s="59"/>
-      <c r="AR82" s="59"/>
-      <c r="AS82" s="59"/>
-      <c r="AT82" s="59"/>
-      <c r="AU82" s="59"/>
-      <c r="AV82" s="58"/>
-      <c r="AW82" s="37"/>
-      <c r="AX82" s="37"/>
-      <c r="AY82" s="37"/>
-      <c r="AZ82" s="37"/>
-      <c r="BA82" s="37"/>
-      <c r="BB82" s="37"/>
-      <c r="BC82" s="37"/>
+      <c r="AC82" s="54"/>
+      <c r="AD82" s="54"/>
+      <c r="AE82" s="54"/>
+      <c r="AF82" s="54"/>
+      <c r="AG82" s="54"/>
+      <c r="AH82" s="54"/>
+      <c r="AI82" s="54"/>
+      <c r="AJ82" s="54"/>
+      <c r="AK82" s="54"/>
+      <c r="AL82" s="54"/>
+      <c r="AM82" s="54"/>
+      <c r="AN82" s="54"/>
+      <c r="AO82" s="54"/>
+      <c r="AP82" s="54"/>
+      <c r="AQ82" s="54"/>
+      <c r="AR82" s="54"/>
+      <c r="AS82" s="54"/>
+      <c r="AT82" s="54"/>
+      <c r="AU82" s="54"/>
+      <c r="AV82" s="55"/>
+      <c r="AW82" s="36"/>
+      <c r="AX82" s="36"/>
+      <c r="AY82" s="36"/>
+      <c r="AZ82" s="36"/>
+      <c r="BA82" s="36"/>
+      <c r="BB82" s="36"/>
+      <c r="BC82" s="36"/>
       <c r="BD82" s="17"/>
       <c r="BE82" s="17"/>
       <c r="BF82" s="17"/>
     </row>
     <row r="83" spans="1:58">
-      <c r="A83" s="36"/>
-      <c r="B83" s="57">
+      <c r="A83" s="35"/>
+      <c r="B83" s="49">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C83" s="58"/>
-      <c r="D83" s="57">
+      <c r="C83" s="104"/>
+      <c r="D83" s="49">
         <v>6</v>
       </c>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="57" t="s">
+      <c r="E83" s="105"/>
+      <c r="F83" s="105"/>
+      <c r="G83" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="H83" s="59"/>
-      <c r="I83" s="59"/>
-      <c r="J83" s="59"/>
-      <c r="K83" s="59"/>
-      <c r="L83" s="59"/>
-      <c r="M83" s="59"/>
-      <c r="N83" s="59"/>
-      <c r="O83" s="51" t="s">
+      <c r="H83" s="105"/>
+      <c r="I83" s="105"/>
+      <c r="J83" s="105"/>
+      <c r="K83" s="105"/>
+      <c r="L83" s="105"/>
+      <c r="M83" s="105"/>
+      <c r="N83" s="105"/>
+      <c r="O83" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="P83" s="59"/>
-      <c r="Q83" s="59"/>
-      <c r="R83" s="59"/>
-      <c r="S83" s="59"/>
-      <c r="T83" s="58"/>
-      <c r="U83" s="51" t="s">
+      <c r="P83" s="54"/>
+      <c r="Q83" s="54"/>
+      <c r="R83" s="54"/>
+      <c r="S83" s="54"/>
+      <c r="T83" s="55"/>
+      <c r="U83" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="V83" s="59"/>
-      <c r="W83" s="59"/>
-      <c r="X83" s="59"/>
-      <c r="Y83" s="59"/>
-      <c r="Z83" s="59"/>
-      <c r="AA83" s="59"/>
-      <c r="AB83" s="57" t="s">
+      <c r="V83" s="54"/>
+      <c r="W83" s="54"/>
+      <c r="X83" s="54"/>
+      <c r="Y83" s="54"/>
+      <c r="Z83" s="54"/>
+      <c r="AA83" s="54"/>
+      <c r="AB83" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="AC83" s="55"/>
-      <c r="AD83" s="59"/>
-      <c r="AE83" s="59"/>
-      <c r="AF83" s="59"/>
-      <c r="AG83" s="59"/>
-      <c r="AH83" s="59"/>
-      <c r="AI83" s="59"/>
-      <c r="AJ83" s="59"/>
-      <c r="AK83" s="59"/>
-      <c r="AL83" s="59"/>
-      <c r="AM83" s="59"/>
-      <c r="AN83" s="59"/>
-      <c r="AO83" s="59"/>
-      <c r="AP83" s="59"/>
-      <c r="AQ83" s="59"/>
-      <c r="AR83" s="59"/>
-      <c r="AS83" s="59"/>
-      <c r="AT83" s="59"/>
-      <c r="AU83" s="59"/>
-      <c r="AV83" s="58"/>
-      <c r="AW83" s="37"/>
-      <c r="AX83" s="37"/>
-      <c r="AY83" s="37"/>
-      <c r="AZ83" s="37"/>
-      <c r="BA83" s="37"/>
-      <c r="BB83" s="37"/>
-      <c r="BC83" s="37"/>
+      <c r="AC83" s="54"/>
+      <c r="AD83" s="54"/>
+      <c r="AE83" s="54"/>
+      <c r="AF83" s="54"/>
+      <c r="AG83" s="54"/>
+      <c r="AH83" s="54"/>
+      <c r="AI83" s="54"/>
+      <c r="AJ83" s="54"/>
+      <c r="AK83" s="54"/>
+      <c r="AL83" s="54"/>
+      <c r="AM83" s="54"/>
+      <c r="AN83" s="54"/>
+      <c r="AO83" s="54"/>
+      <c r="AP83" s="54"/>
+      <c r="AQ83" s="54"/>
+      <c r="AR83" s="54"/>
+      <c r="AS83" s="54"/>
+      <c r="AT83" s="54"/>
+      <c r="AU83" s="54"/>
+      <c r="AV83" s="55"/>
+      <c r="AW83" s="36"/>
+      <c r="AX83" s="36"/>
+      <c r="AY83" s="36"/>
+      <c r="AZ83" s="36"/>
+      <c r="BA83" s="36"/>
+      <c r="BB83" s="36"/>
+      <c r="BC83" s="36"/>
       <c r="BD83" s="17"/>
       <c r="BE83" s="17"/>
       <c r="BF83" s="17"/>
     </row>
     <row r="84" spans="1:58">
-      <c r="A84" s="36"/>
-      <c r="B84" s="57">
+      <c r="A84" s="35"/>
+      <c r="B84" s="49">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C84" s="58"/>
-      <c r="D84" s="57"/>
-      <c r="E84" s="59"/>
-      <c r="F84" s="59"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="59"/>
-      <c r="I84" s="59"/>
-      <c r="J84" s="59"/>
-      <c r="K84" s="59"/>
-      <c r="L84" s="59"/>
-      <c r="M84" s="59"/>
-      <c r="N84" s="59"/>
-      <c r="O84" s="51" t="s">
+      <c r="C84" s="104"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="105"/>
+      <c r="F84" s="105"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="105"/>
+      <c r="I84" s="105"/>
+      <c r="J84" s="105"/>
+      <c r="K84" s="105"/>
+      <c r="L84" s="105"/>
+      <c r="M84" s="105"/>
+      <c r="N84" s="105"/>
+      <c r="O84" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="P84" s="59"/>
-      <c r="Q84" s="59"/>
-      <c r="R84" s="59"/>
-      <c r="S84" s="59"/>
-      <c r="T84" s="58"/>
-      <c r="U84" s="51" t="s">
+      <c r="P84" s="54"/>
+      <c r="Q84" s="54"/>
+      <c r="R84" s="54"/>
+      <c r="S84" s="54"/>
+      <c r="T84" s="55"/>
+      <c r="U84" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="V84" s="59"/>
-      <c r="W84" s="59"/>
-      <c r="X84" s="59"/>
-      <c r="Y84" s="59"/>
-      <c r="Z84" s="59"/>
-      <c r="AA84" s="59"/>
-      <c r="AB84" s="57" t="s">
+      <c r="V84" s="54"/>
+      <c r="W84" s="54"/>
+      <c r="X84" s="54"/>
+      <c r="Y84" s="54"/>
+      <c r="Z84" s="54"/>
+      <c r="AA84" s="54"/>
+      <c r="AB84" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="AC84" s="55"/>
-      <c r="AD84" s="59"/>
-      <c r="AE84" s="59"/>
-      <c r="AF84" s="59"/>
-      <c r="AG84" s="59"/>
-      <c r="AH84" s="59"/>
-      <c r="AI84" s="59"/>
-      <c r="AJ84" s="59"/>
-      <c r="AK84" s="59"/>
-      <c r="AL84" s="59"/>
-      <c r="AM84" s="59"/>
-      <c r="AN84" s="59"/>
-      <c r="AO84" s="59"/>
-      <c r="AP84" s="59"/>
-      <c r="AQ84" s="59"/>
-      <c r="AR84" s="59"/>
-      <c r="AS84" s="59"/>
-      <c r="AT84" s="59"/>
-      <c r="AU84" s="59"/>
-      <c r="AV84" s="58"/>
-      <c r="AW84" s="37"/>
-      <c r="AX84" s="37"/>
-      <c r="AY84" s="37"/>
-      <c r="AZ84" s="37"/>
-      <c r="BA84" s="37"/>
-      <c r="BB84" s="37"/>
-      <c r="BC84" s="37"/>
+      <c r="AC84" s="54"/>
+      <c r="AD84" s="54"/>
+      <c r="AE84" s="54"/>
+      <c r="AF84" s="54"/>
+      <c r="AG84" s="54"/>
+      <c r="AH84" s="54"/>
+      <c r="AI84" s="54"/>
+      <c r="AJ84" s="54"/>
+      <c r="AK84" s="54"/>
+      <c r="AL84" s="54"/>
+      <c r="AM84" s="54"/>
+      <c r="AN84" s="54"/>
+      <c r="AO84" s="54"/>
+      <c r="AP84" s="54"/>
+      <c r="AQ84" s="54"/>
+      <c r="AR84" s="54"/>
+      <c r="AS84" s="54"/>
+      <c r="AT84" s="54"/>
+      <c r="AU84" s="54"/>
+      <c r="AV84" s="55"/>
+      <c r="AW84" s="36"/>
+      <c r="AX84" s="36"/>
+      <c r="AY84" s="36"/>
+      <c r="AZ84" s="36"/>
+      <c r="BA84" s="36"/>
+      <c r="BB84" s="36"/>
+      <c r="BC84" s="36"/>
       <c r="BD84" s="17"/>
       <c r="BE84" s="17"/>
       <c r="BF84" s="17"/>
     </row>
     <row r="85" spans="1:58">
-      <c r="A85" s="36"/>
-      <c r="B85" s="57">
+      <c r="A85" s="35"/>
+      <c r="B85" s="49">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C85" s="58"/>
-      <c r="D85" s="57"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="57"/>
-      <c r="H85" s="59"/>
-      <c r="I85" s="59"/>
-      <c r="J85" s="59"/>
-      <c r="K85" s="59"/>
-      <c r="L85" s="59"/>
-      <c r="M85" s="59"/>
-      <c r="N85" s="59"/>
-      <c r="O85" s="51" t="s">
+      <c r="C85" s="104"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="105"/>
+      <c r="F85" s="105"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="105"/>
+      <c r="I85" s="105"/>
+      <c r="J85" s="105"/>
+      <c r="K85" s="105"/>
+      <c r="L85" s="105"/>
+      <c r="M85" s="105"/>
+      <c r="N85" s="105"/>
+      <c r="O85" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="P85" s="59"/>
-      <c r="Q85" s="59"/>
-      <c r="R85" s="59"/>
-      <c r="S85" s="59"/>
-      <c r="T85" s="58"/>
-      <c r="U85" s="51" t="s">
+      <c r="P85" s="54"/>
+      <c r="Q85" s="54"/>
+      <c r="R85" s="54"/>
+      <c r="S85" s="54"/>
+      <c r="T85" s="55"/>
+      <c r="U85" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="V85" s="59"/>
-      <c r="W85" s="59"/>
-      <c r="X85" s="59"/>
-      <c r="Y85" s="59"/>
-      <c r="Z85" s="59"/>
-      <c r="AA85" s="59"/>
-      <c r="AB85" s="57" t="s">
+      <c r="V85" s="54"/>
+      <c r="W85" s="54"/>
+      <c r="X85" s="54"/>
+      <c r="Y85" s="54"/>
+      <c r="Z85" s="54"/>
+      <c r="AA85" s="54"/>
+      <c r="AB85" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="AC85" s="55"/>
-      <c r="AD85" s="59"/>
-      <c r="AE85" s="59"/>
-      <c r="AF85" s="59"/>
-      <c r="AG85" s="59"/>
-      <c r="AH85" s="59"/>
-      <c r="AI85" s="59"/>
-      <c r="AJ85" s="59"/>
-      <c r="AK85" s="59"/>
-      <c r="AL85" s="59"/>
-      <c r="AM85" s="59"/>
-      <c r="AN85" s="59"/>
-      <c r="AO85" s="59"/>
-      <c r="AP85" s="59"/>
-      <c r="AQ85" s="59"/>
-      <c r="AR85" s="59"/>
-      <c r="AS85" s="59"/>
-      <c r="AT85" s="59"/>
-      <c r="AU85" s="59"/>
-      <c r="AV85" s="58"/>
-      <c r="AW85" s="37"/>
-      <c r="AX85" s="37"/>
-      <c r="AY85" s="37"/>
-      <c r="AZ85" s="37"/>
-      <c r="BA85" s="37"/>
-      <c r="BB85" s="37"/>
-      <c r="BC85" s="37"/>
+      <c r="AC85" s="54"/>
+      <c r="AD85" s="54"/>
+      <c r="AE85" s="54"/>
+      <c r="AF85" s="54"/>
+      <c r="AG85" s="54"/>
+      <c r="AH85" s="54"/>
+      <c r="AI85" s="54"/>
+      <c r="AJ85" s="54"/>
+      <c r="AK85" s="54"/>
+      <c r="AL85" s="54"/>
+      <c r="AM85" s="54"/>
+      <c r="AN85" s="54"/>
+      <c r="AO85" s="54"/>
+      <c r="AP85" s="54"/>
+      <c r="AQ85" s="54"/>
+      <c r="AR85" s="54"/>
+      <c r="AS85" s="54"/>
+      <c r="AT85" s="54"/>
+      <c r="AU85" s="54"/>
+      <c r="AV85" s="55"/>
+      <c r="AW85" s="36"/>
+      <c r="AX85" s="36"/>
+      <c r="AY85" s="36"/>
+      <c r="AZ85" s="36"/>
+      <c r="BA85" s="36"/>
+      <c r="BB85" s="36"/>
+      <c r="BC85" s="36"/>
       <c r="BD85" s="17"/>
       <c r="BE85" s="17"/>
       <c r="BF85" s="17"/>
     </row>
     <row r="86" spans="1:58">
-      <c r="A86" s="36"/>
-      <c r="B86" s="57">
+      <c r="A86" s="35"/>
+      <c r="B86" s="49">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C86" s="58"/>
-      <c r="D86" s="57"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="57"/>
-      <c r="H86" s="59"/>
-      <c r="I86" s="59"/>
-      <c r="J86" s="59"/>
-      <c r="K86" s="59"/>
-      <c r="L86" s="59"/>
-      <c r="M86" s="59"/>
-      <c r="N86" s="59"/>
-      <c r="O86" s="51" t="s">
+      <c r="C86" s="104"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="105"/>
+      <c r="F86" s="105"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="105"/>
+      <c r="I86" s="105"/>
+      <c r="J86" s="105"/>
+      <c r="K86" s="105"/>
+      <c r="L86" s="105"/>
+      <c r="M86" s="105"/>
+      <c r="N86" s="105"/>
+      <c r="O86" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="P86" s="59"/>
-      <c r="Q86" s="59"/>
-      <c r="R86" s="59"/>
-      <c r="S86" s="59"/>
-      <c r="T86" s="58"/>
-      <c r="U86" s="51" t="s">
+      <c r="P86" s="54"/>
+      <c r="Q86" s="54"/>
+      <c r="R86" s="54"/>
+      <c r="S86" s="54"/>
+      <c r="T86" s="55"/>
+      <c r="U86" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="V86" s="59"/>
-      <c r="W86" s="59"/>
-      <c r="X86" s="59"/>
-      <c r="Y86" s="59"/>
-      <c r="Z86" s="59"/>
-      <c r="AA86" s="59"/>
-      <c r="AB86" s="57" t="s">
+      <c r="V86" s="54"/>
+      <c r="W86" s="54"/>
+      <c r="X86" s="54"/>
+      <c r="Y86" s="54"/>
+      <c r="Z86" s="54"/>
+      <c r="AA86" s="54"/>
+      <c r="AB86" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="AC86" s="55"/>
-      <c r="AD86" s="59"/>
-      <c r="AE86" s="59"/>
-      <c r="AF86" s="59"/>
-      <c r="AG86" s="59"/>
-      <c r="AH86" s="59"/>
-      <c r="AI86" s="59"/>
-      <c r="AJ86" s="59"/>
-      <c r="AK86" s="59"/>
-      <c r="AL86" s="59"/>
-      <c r="AM86" s="59"/>
-      <c r="AN86" s="59"/>
-      <c r="AO86" s="59"/>
-      <c r="AP86" s="59"/>
-      <c r="AQ86" s="59"/>
-      <c r="AR86" s="59"/>
-      <c r="AS86" s="59"/>
-      <c r="AT86" s="59"/>
-      <c r="AU86" s="59"/>
-      <c r="AV86" s="58"/>
-      <c r="AW86" s="37"/>
-      <c r="AX86" s="37"/>
-      <c r="AY86" s="37"/>
-      <c r="AZ86" s="37"/>
-      <c r="BA86" s="37"/>
-      <c r="BB86" s="37"/>
-      <c r="BC86" s="37"/>
+      <c r="AC86" s="54"/>
+      <c r="AD86" s="54"/>
+      <c r="AE86" s="54"/>
+      <c r="AF86" s="54"/>
+      <c r="AG86" s="54"/>
+      <c r="AH86" s="54"/>
+      <c r="AI86" s="54"/>
+      <c r="AJ86" s="54"/>
+      <c r="AK86" s="54"/>
+      <c r="AL86" s="54"/>
+      <c r="AM86" s="54"/>
+      <c r="AN86" s="54"/>
+      <c r="AO86" s="54"/>
+      <c r="AP86" s="54"/>
+      <c r="AQ86" s="54"/>
+      <c r="AR86" s="54"/>
+      <c r="AS86" s="54"/>
+      <c r="AT86" s="54"/>
+      <c r="AU86" s="54"/>
+      <c r="AV86" s="55"/>
+      <c r="AW86" s="36"/>
+      <c r="AX86" s="36"/>
+      <c r="AY86" s="36"/>
+      <c r="AZ86" s="36"/>
+      <c r="BA86" s="36"/>
+      <c r="BB86" s="36"/>
+      <c r="BC86" s="36"/>
       <c r="BD86" s="17"/>
       <c r="BE86" s="17"/>
       <c r="BF86" s="17"/>
     </row>
     <row r="87" spans="1:58">
-      <c r="A87" s="36"/>
-      <c r="B87" s="57">
+      <c r="A87" s="35"/>
+      <c r="B87" s="49">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C87" s="58"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
-      <c r="G87" s="57"/>
-      <c r="H87" s="59"/>
-      <c r="I87" s="59"/>
-      <c r="J87" s="59"/>
-      <c r="K87" s="59"/>
-      <c r="L87" s="59"/>
-      <c r="M87" s="59"/>
-      <c r="N87" s="59"/>
-      <c r="O87" s="51" t="s">
+      <c r="C87" s="104"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="105"/>
+      <c r="F87" s="105"/>
+      <c r="G87" s="49"/>
+      <c r="H87" s="105"/>
+      <c r="I87" s="105"/>
+      <c r="J87" s="105"/>
+      <c r="K87" s="105"/>
+      <c r="L87" s="105"/>
+      <c r="M87" s="105"/>
+      <c r="N87" s="105"/>
+      <c r="O87" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="P87" s="59"/>
-      <c r="Q87" s="59"/>
-      <c r="R87" s="59"/>
-      <c r="S87" s="59"/>
-      <c r="T87" s="58"/>
-      <c r="U87" s="51" t="s">
+      <c r="P87" s="54"/>
+      <c r="Q87" s="54"/>
+      <c r="R87" s="54"/>
+      <c r="S87" s="54"/>
+      <c r="T87" s="55"/>
+      <c r="U87" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="V87" s="59"/>
-      <c r="W87" s="59"/>
-      <c r="X87" s="59"/>
-      <c r="Y87" s="59"/>
-      <c r="Z87" s="59"/>
-      <c r="AA87" s="59"/>
-      <c r="AB87" s="57" t="s">
+      <c r="V87" s="54"/>
+      <c r="W87" s="54"/>
+      <c r="X87" s="54"/>
+      <c r="Y87" s="54"/>
+      <c r="Z87" s="54"/>
+      <c r="AA87" s="54"/>
+      <c r="AB87" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="AC87" s="55"/>
-      <c r="AD87" s="59"/>
-      <c r="AE87" s="59"/>
-      <c r="AF87" s="59"/>
-      <c r="AG87" s="59"/>
-      <c r="AH87" s="59"/>
-      <c r="AI87" s="59"/>
-      <c r="AJ87" s="59"/>
-      <c r="AK87" s="59"/>
-      <c r="AL87" s="59"/>
-      <c r="AM87" s="59"/>
-      <c r="AN87" s="59"/>
-      <c r="AO87" s="59"/>
-      <c r="AP87" s="59"/>
-      <c r="AQ87" s="59"/>
-      <c r="AR87" s="59"/>
-      <c r="AS87" s="59"/>
-      <c r="AT87" s="59"/>
-      <c r="AU87" s="59"/>
-      <c r="AV87" s="58"/>
-      <c r="AW87" s="37"/>
-      <c r="AX87" s="37"/>
-      <c r="AY87" s="37"/>
-      <c r="AZ87" s="37"/>
-      <c r="BA87" s="37"/>
-      <c r="BB87" s="37"/>
-      <c r="BC87" s="37"/>
+      <c r="AC87" s="54"/>
+      <c r="AD87" s="54"/>
+      <c r="AE87" s="54"/>
+      <c r="AF87" s="54"/>
+      <c r="AG87" s="54"/>
+      <c r="AH87" s="54"/>
+      <c r="AI87" s="54"/>
+      <c r="AJ87" s="54"/>
+      <c r="AK87" s="54"/>
+      <c r="AL87" s="54"/>
+      <c r="AM87" s="54"/>
+      <c r="AN87" s="54"/>
+      <c r="AO87" s="54"/>
+      <c r="AP87" s="54"/>
+      <c r="AQ87" s="54"/>
+      <c r="AR87" s="54"/>
+      <c r="AS87" s="54"/>
+      <c r="AT87" s="54"/>
+      <c r="AU87" s="54"/>
+      <c r="AV87" s="55"/>
+      <c r="AW87" s="36"/>
+      <c r="AX87" s="36"/>
+      <c r="AY87" s="36"/>
+      <c r="AZ87" s="36"/>
+      <c r="BA87" s="36"/>
+      <c r="BB87" s="36"/>
+      <c r="BC87" s="36"/>
       <c r="BD87" s="17"/>
       <c r="BE87" s="17"/>
       <c r="BF87" s="17"/>
     </row>
     <row r="88" spans="1:58">
-      <c r="A88" s="36"/>
-      <c r="B88" s="57">
+      <c r="A88" s="35"/>
+      <c r="B88" s="49">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C88" s="58"/>
-      <c r="D88" s="57" t="s">
+      <c r="C88" s="104"/>
+      <c r="D88" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="E88" s="59"/>
-      <c r="F88" s="59"/>
-      <c r="G88" s="57" t="s">
+      <c r="E88" s="105"/>
+      <c r="F88" s="105"/>
+      <c r="G88" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="H88" s="59"/>
-      <c r="I88" s="59"/>
-      <c r="J88" s="59"/>
-      <c r="K88" s="59"/>
-      <c r="L88" s="59"/>
-      <c r="M88" s="59"/>
-      <c r="N88" s="59"/>
-      <c r="O88" s="51" t="s">
+      <c r="H88" s="105"/>
+      <c r="I88" s="105"/>
+      <c r="J88" s="105"/>
+      <c r="K88" s="105"/>
+      <c r="L88" s="105"/>
+      <c r="M88" s="105"/>
+      <c r="N88" s="105"/>
+      <c r="O88" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="P88" s="59"/>
-      <c r="Q88" s="59"/>
-      <c r="R88" s="59"/>
-      <c r="S88" s="59"/>
-      <c r="T88" s="58"/>
-      <c r="U88" s="51" t="s">
+      <c r="P88" s="54"/>
+      <c r="Q88" s="54"/>
+      <c r="R88" s="54"/>
+      <c r="S88" s="54"/>
+      <c r="T88" s="55"/>
+      <c r="U88" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="V88" s="59"/>
-      <c r="W88" s="59"/>
-      <c r="X88" s="59"/>
-      <c r="Y88" s="59"/>
-      <c r="Z88" s="59"/>
-      <c r="AA88" s="59"/>
-      <c r="AB88" s="57" t="s">
+      <c r="V88" s="54"/>
+      <c r="W88" s="54"/>
+      <c r="X88" s="54"/>
+      <c r="Y88" s="54"/>
+      <c r="Z88" s="54"/>
+      <c r="AA88" s="54"/>
+      <c r="AB88" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="AC88" s="55"/>
-      <c r="AD88" s="59"/>
-      <c r="AE88" s="59"/>
-      <c r="AF88" s="59"/>
-      <c r="AG88" s="59"/>
-      <c r="AH88" s="59"/>
-      <c r="AI88" s="59"/>
-      <c r="AJ88" s="59"/>
-      <c r="AK88" s="59"/>
-      <c r="AL88" s="59"/>
-      <c r="AM88" s="59"/>
-      <c r="AN88" s="59"/>
-      <c r="AO88" s="59"/>
-      <c r="AP88" s="59"/>
-      <c r="AQ88" s="59"/>
-      <c r="AR88" s="59"/>
-      <c r="AS88" s="59"/>
-      <c r="AT88" s="59"/>
-      <c r="AU88" s="59"/>
-      <c r="AV88" s="58"/>
-      <c r="AW88" s="37"/>
-      <c r="AX88" s="37"/>
-      <c r="AY88" s="37"/>
-      <c r="AZ88" s="37"/>
-      <c r="BA88" s="37"/>
-      <c r="BB88" s="37"/>
-      <c r="BC88" s="37"/>
+      <c r="AC88" s="54"/>
+      <c r="AD88" s="54"/>
+      <c r="AE88" s="54"/>
+      <c r="AF88" s="54"/>
+      <c r="AG88" s="54"/>
+      <c r="AH88" s="54"/>
+      <c r="AI88" s="54"/>
+      <c r="AJ88" s="54"/>
+      <c r="AK88" s="54"/>
+      <c r="AL88" s="54"/>
+      <c r="AM88" s="54"/>
+      <c r="AN88" s="54"/>
+      <c r="AO88" s="54"/>
+      <c r="AP88" s="54"/>
+      <c r="AQ88" s="54"/>
+      <c r="AR88" s="54"/>
+      <c r="AS88" s="54"/>
+      <c r="AT88" s="54"/>
+      <c r="AU88" s="54"/>
+      <c r="AV88" s="55"/>
+      <c r="AW88" s="36"/>
+      <c r="AX88" s="36"/>
+      <c r="AY88" s="36"/>
+      <c r="AZ88" s="36"/>
+      <c r="BA88" s="36"/>
+      <c r="BB88" s="36"/>
+      <c r="BC88" s="36"/>
       <c r="BD88" s="17"/>
       <c r="BE88" s="17"/>
       <c r="BF88" s="17"/>
     </row>
     <row r="89" spans="1:58" ht="14.25">
       <c r="A89" s="28"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="29"/>
+      <c r="B89" s="106"/>
+      <c r="C89" s="107"/>
+      <c r="D89" s="108"/>
+      <c r="E89" s="108"/>
+      <c r="F89" s="108"/>
+      <c r="G89" s="108"/>
+      <c r="H89" s="108"/>
+      <c r="I89" s="108"/>
+      <c r="J89" s="108"/>
+      <c r="K89" s="108"/>
+      <c r="L89" s="108"/>
+      <c r="M89" s="108"/>
+      <c r="N89" s="108"/>
     </row>
     <row r="90" spans="1:58" ht="14.25">
       <c r="A90" s="28"/>
-      <c r="B90" s="31"/>
+      <c r="B90" s="30"/>
       <c r="C90" s="29"/>
     </row>
   </sheetData>
@@ -9740,178 +9146,178 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="46" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="18">
-      <c r="B3" s="46">
+      <c r="B3" s="45">
         <v>1</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="45" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="18">
-      <c r="B4" s="46">
+      <c r="B4" s="45">
         <v>2</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="18">
-      <c r="B5" s="46">
+      <c r="B5" s="45">
         <v>3</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="45" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="18">
-      <c r="B6" s="46">
+      <c r="B6" s="45">
         <v>4</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="45" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="18">
-      <c r="B7" s="46">
+      <c r="B7" s="45">
         <v>5</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="45" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="18">
-      <c r="B8" s="46">
+      <c r="B8" s="45">
         <v>6</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="45" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="18">
-      <c r="B9" s="46">
+      <c r="B9" s="45">
         <v>7</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="45" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="18">
-      <c r="B10" s="46">
+      <c r="B10" s="45">
         <v>8</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="45" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="18">
-      <c r="B11" s="46">
+      <c r="B11" s="45">
         <v>9</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="45" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="18">
-      <c r="B12" s="46">
+      <c r="B12" s="45">
         <v>10</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="45" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="18">
-      <c r="B13" s="46">
+      <c r="B13" s="45">
         <v>11</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="45" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="18">
-      <c r="B14" s="46">
+      <c r="B14" s="45">
         <v>12</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="45" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="18">
-      <c r="B15" s="46">
+      <c r="B15" s="45">
         <v>13</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="45" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="18">
-      <c r="B16" s="46">
+      <c r="B16" s="45">
         <v>14</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="45" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="18">
-      <c r="B17" s="46">
+      <c r="B17" s="45">
         <v>15</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="45" t="s">
         <v>70</v>
       </c>
     </row>

--- a/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_ユーザ情報編集画面.xlsx
+++ b/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_ユーザ情報編集画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\growthTeamDocument\2021年_テトリス\02_基本設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beaming-boy/growth/テトリス/ドキュメント共有フォルダ/2021年_テトリス/02_基本設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73194823-E369-415F-A409-E0739A3B09C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454CF5F5-38E3-4640-ACE1-5D0DC530C248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="-120" windowWidth="24330" windowHeight="15990" activeTab="2" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
@@ -1426,6 +1426,66 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1471,32 +1531,23 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1507,22 +1558,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1533,57 +1584,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1637,7 +1637,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3984"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3992"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1740,7 +1740,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2957"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2965"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1766,7 +1766,7 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -1779,34 +1779,141 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>48403</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A46AD6-8E0C-4684-8252-B9E96888EA3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{387E9C6A-65F5-614D-A31E-095F1F0E176C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect t="683"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="219075" y="2476500"/>
-          <a:ext cx="9364382" cy="5534803"/>
+          <a:off x="254000" y="2984500"/>
+          <a:ext cx="10805832" cy="6550803"/>
+          <a:chOff x="254000" y="2984500"/>
+          <a:chExt cx="10805832" cy="6550803"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="20" name="図 19">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A46AD6-8E0C-4684-8252-B9E96888EA3B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:srcRect t="683"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="254000" y="2984500"/>
+            <a:ext cx="10805832" cy="6550803"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="図 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{836AABDB-6A70-0E4E-A8BC-9E169FCA0AB0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9563100" y="3378200"/>
+            <a:ext cx="558800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="図 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED288D93-1F13-924F-8E01-27537EE4AB35}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6032500" y="3378200"/>
+            <a:ext cx="558800" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="図 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE86DAC3-AF7D-3546-8F2A-948530A315BB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2628900" y="3454400"/>
+            <a:ext cx="558800" cy="342900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2158,194 +2265,194 @@
       <selection activeCell="AF25" sqref="AF25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="56" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="56" t="s">
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="56" t="s">
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="78"/>
+      <c r="AF1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="56" t="s">
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="78"/>
+      <c r="AK1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="56" t="s">
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="78"/>
+      <c r="AP1" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="56" t="s">
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="78"/>
+      <c r="AU1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="58"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="78"/>
       <c r="BB1" s="3"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="59" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="59" t="s">
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
-      <c r="S2" s="60"/>
-      <c r="T2" s="60"/>
-      <c r="U2" s="60"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="60"/>
-      <c r="X2" s="60"/>
-      <c r="Y2" s="60"/>
-      <c r="Z2" s="60"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="60"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="65">
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="85">
         <v>44577</v>
       </c>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="59" t="s">
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="61"/>
-      <c r="AP2" s="65">
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="81"/>
+      <c r="AP2" s="85">
         <v>44619</v>
       </c>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="67"/>
-      <c r="AU2" s="59" t="s">
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="87"/>
+      <c r="AU2" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="AV2" s="60"/>
-      <c r="AW2" s="60"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="61"/>
+      <c r="AV2" s="80"/>
+      <c r="AW2" s="80"/>
+      <c r="AX2" s="80"/>
+      <c r="AY2" s="81"/>
       <c r="BB2" s="3"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="64"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="69"/>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="70"/>
-      <c r="AU3" s="62"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="64"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="89"/>
+      <c r="AH3" s="89"/>
+      <c r="AI3" s="89"/>
+      <c r="AJ3" s="90"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="83"/>
+      <c r="AO3" s="84"/>
+      <c r="AP3" s="88"/>
+      <c r="AQ3" s="89"/>
+      <c r="AR3" s="89"/>
+      <c r="AS3" s="89"/>
+      <c r="AT3" s="90"/>
+      <c r="AU3" s="82"/>
+      <c r="AV3" s="83"/>
+      <c r="AW3" s="83"/>
+      <c r="AX3" s="83"/>
+      <c r="AY3" s="84"/>
       <c r="BB3" s="3"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1">
@@ -2362,11 +2469,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="K2:AE3"/>
-    <mergeCell ref="F2:J3"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="AP1:AT1"/>
@@ -2375,6 +2477,11 @@
     <mergeCell ref="AP2:AT3"/>
     <mergeCell ref="AK2:AO3"/>
     <mergeCell ref="AF2:AJ3"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="K2:AE3"/>
+    <mergeCell ref="F2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2390,21 +2497,21 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="6" width="3.28515625" style="3"/>
-    <col min="7" max="7" width="3.28515625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="3.28515625" style="3"/>
+    <col min="1" max="6" width="3.33203125" style="3"/>
+    <col min="7" max="7" width="3.33203125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="3.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" customFormat="1" ht="12">
+    <row r="1" spans="1:52" customFormat="1" ht="15">
       <c r="A1" s="12"/>
     </row>
-    <row r="2" spans="1:52" customFormat="1" ht="12"/>
-    <row r="3" spans="1:52" customFormat="1" ht="12"/>
-    <row r="4" spans="1:52" customFormat="1" ht="12"/>
-    <row r="5" spans="1:52" customFormat="1" ht="12"/>
-    <row r="7" spans="1:52" ht="14.25">
+    <row r="2" spans="1:52" customFormat="1" ht="15"/>
+    <row r="3" spans="1:52" customFormat="1" ht="15"/>
+    <row r="4" spans="1:52" customFormat="1" ht="15"/>
+    <row r="5" spans="1:52" customFormat="1" ht="15"/>
+    <row r="7" spans="1:52" ht="18">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -2476,118 +2583,118 @@
         <v>1</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="83">
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="91">
         <v>44577</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="86" t="s">
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="86" t="s">
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="87"/>
-      <c r="AD8" s="87"/>
-      <c r="AE8" s="87"/>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="87"/>
-      <c r="AI8" s="87"/>
-      <c r="AJ8" s="87"/>
-      <c r="AK8" s="87"/>
-      <c r="AL8" s="88"/>
-      <c r="AM8" s="86"/>
-      <c r="AN8" s="87"/>
-      <c r="AO8" s="87"/>
-      <c r="AP8" s="87"/>
-      <c r="AQ8" s="87"/>
-      <c r="AR8" s="87"/>
-      <c r="AS8" s="87"/>
-      <c r="AT8" s="87"/>
-      <c r="AU8" s="87"/>
-      <c r="AV8" s="87"/>
-      <c r="AW8" s="87"/>
-      <c r="AX8" s="87"/>
-      <c r="AY8" s="87"/>
-      <c r="AZ8" s="88"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="95"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="95"/>
+      <c r="W8" s="95"/>
+      <c r="X8" s="95"/>
+      <c r="Y8" s="95"/>
+      <c r="Z8" s="95"/>
+      <c r="AA8" s="95"/>
+      <c r="AB8" s="95"/>
+      <c r="AC8" s="95"/>
+      <c r="AD8" s="95"/>
+      <c r="AE8" s="95"/>
+      <c r="AF8" s="95"/>
+      <c r="AG8" s="95"/>
+      <c r="AH8" s="95"/>
+      <c r="AI8" s="95"/>
+      <c r="AJ8" s="95"/>
+      <c r="AK8" s="95"/>
+      <c r="AL8" s="96"/>
+      <c r="AM8" s="94"/>
+      <c r="AN8" s="95"/>
+      <c r="AO8" s="95"/>
+      <c r="AP8" s="95"/>
+      <c r="AQ8" s="95"/>
+      <c r="AR8" s="95"/>
+      <c r="AS8" s="95"/>
+      <c r="AT8" s="95"/>
+      <c r="AU8" s="95"/>
+      <c r="AV8" s="95"/>
+      <c r="AW8" s="95"/>
+      <c r="AX8" s="95"/>
+      <c r="AY8" s="95"/>
+      <c r="AZ8" s="96"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="87"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="87"/>
-      <c r="AE9" s="87"/>
-      <c r="AF9" s="87"/>
-      <c r="AG9" s="87"/>
-      <c r="AH9" s="87"/>
-      <c r="AI9" s="87"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="87"/>
-      <c r="AL9" s="88"/>
-      <c r="AM9" s="86"/>
-      <c r="AN9" s="87"/>
-      <c r="AO9" s="87"/>
-      <c r="AP9" s="87"/>
-      <c r="AQ9" s="87"/>
-      <c r="AR9" s="87"/>
-      <c r="AS9" s="87"/>
-      <c r="AT9" s="87"/>
-      <c r="AU9" s="87"/>
-      <c r="AV9" s="87"/>
-      <c r="AW9" s="87"/>
-      <c r="AX9" s="87"/>
-      <c r="AY9" s="87"/>
-      <c r="AZ9" s="88"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="95"/>
+      <c r="AA9" s="95"/>
+      <c r="AB9" s="95"/>
+      <c r="AC9" s="95"/>
+      <c r="AD9" s="95"/>
+      <c r="AE9" s="95"/>
+      <c r="AF9" s="95"/>
+      <c r="AG9" s="95"/>
+      <c r="AH9" s="95"/>
+      <c r="AI9" s="95"/>
+      <c r="AJ9" s="95"/>
+      <c r="AK9" s="95"/>
+      <c r="AL9" s="96"/>
+      <c r="AM9" s="94"/>
+      <c r="AN9" s="95"/>
+      <c r="AO9" s="95"/>
+      <c r="AP9" s="95"/>
+      <c r="AQ9" s="95"/>
+      <c r="AR9" s="95"/>
+      <c r="AS9" s="95"/>
+      <c r="AT9" s="95"/>
+      <c r="AU9" s="95"/>
+      <c r="AV9" s="95"/>
+      <c r="AW9" s="95"/>
+      <c r="AX9" s="95"/>
+      <c r="AY9" s="95"/>
+      <c r="AZ9" s="96"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="9" t="str">
@@ -2595,56 +2702,56 @@
         <v/>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="87"/>
-      <c r="AD10" s="87"/>
-      <c r="AE10" s="87"/>
-      <c r="AF10" s="87"/>
-      <c r="AG10" s="87"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="87"/>
-      <c r="AJ10" s="87"/>
-      <c r="AK10" s="87"/>
-      <c r="AL10" s="88"/>
-      <c r="AM10" s="86"/>
-      <c r="AN10" s="87"/>
-      <c r="AO10" s="87"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="87"/>
-      <c r="AR10" s="87"/>
-      <c r="AS10" s="87"/>
-      <c r="AT10" s="87"/>
-      <c r="AU10" s="87"/>
-      <c r="AV10" s="87"/>
-      <c r="AW10" s="87"/>
-      <c r="AX10" s="87"/>
-      <c r="AY10" s="87"/>
-      <c r="AZ10" s="88"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="95"/>
+      <c r="Y10" s="95"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="95"/>
+      <c r="AB10" s="95"/>
+      <c r="AC10" s="95"/>
+      <c r="AD10" s="95"/>
+      <c r="AE10" s="95"/>
+      <c r="AF10" s="95"/>
+      <c r="AG10" s="95"/>
+      <c r="AH10" s="95"/>
+      <c r="AI10" s="95"/>
+      <c r="AJ10" s="95"/>
+      <c r="AK10" s="95"/>
+      <c r="AL10" s="96"/>
+      <c r="AM10" s="94"/>
+      <c r="AN10" s="95"/>
+      <c r="AO10" s="95"/>
+      <c r="AP10" s="95"/>
+      <c r="AQ10" s="95"/>
+      <c r="AR10" s="95"/>
+      <c r="AS10" s="95"/>
+      <c r="AT10" s="95"/>
+      <c r="AU10" s="95"/>
+      <c r="AV10" s="95"/>
+      <c r="AW10" s="95"/>
+      <c r="AX10" s="95"/>
+      <c r="AY10" s="95"/>
+      <c r="AZ10" s="96"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="9" t="str">
@@ -2652,56 +2759,56 @@
         <v/>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="87"/>
-      <c r="AD11" s="87"/>
-      <c r="AE11" s="87"/>
-      <c r="AF11" s="87"/>
-      <c r="AG11" s="87"/>
-      <c r="AH11" s="87"/>
-      <c r="AI11" s="87"/>
-      <c r="AJ11" s="87"/>
-      <c r="AK11" s="87"/>
-      <c r="AL11" s="88"/>
-      <c r="AM11" s="86"/>
-      <c r="AN11" s="87"/>
-      <c r="AO11" s="87"/>
-      <c r="AP11" s="87"/>
-      <c r="AQ11" s="87"/>
-      <c r="AR11" s="87"/>
-      <c r="AS11" s="87"/>
-      <c r="AT11" s="87"/>
-      <c r="AU11" s="87"/>
-      <c r="AV11" s="87"/>
-      <c r="AW11" s="87"/>
-      <c r="AX11" s="87"/>
-      <c r="AY11" s="87"/>
-      <c r="AZ11" s="88"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="95"/>
+      <c r="AB11" s="95"/>
+      <c r="AC11" s="95"/>
+      <c r="AD11" s="95"/>
+      <c r="AE11" s="95"/>
+      <c r="AF11" s="95"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="95"/>
+      <c r="AI11" s="95"/>
+      <c r="AJ11" s="95"/>
+      <c r="AK11" s="95"/>
+      <c r="AL11" s="96"/>
+      <c r="AM11" s="94"/>
+      <c r="AN11" s="95"/>
+      <c r="AO11" s="95"/>
+      <c r="AP11" s="95"/>
+      <c r="AQ11" s="95"/>
+      <c r="AR11" s="95"/>
+      <c r="AS11" s="95"/>
+      <c r="AT11" s="95"/>
+      <c r="AU11" s="95"/>
+      <c r="AV11" s="95"/>
+      <c r="AW11" s="95"/>
+      <c r="AX11" s="95"/>
+      <c r="AY11" s="95"/>
+      <c r="AZ11" s="96"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="9" t="str">
@@ -2709,56 +2816,56 @@
         <v/>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="87"/>
-      <c r="AA12" s="87"/>
-      <c r="AB12" s="87"/>
-      <c r="AC12" s="87"/>
-      <c r="AD12" s="87"/>
-      <c r="AE12" s="87"/>
-      <c r="AF12" s="87"/>
-      <c r="AG12" s="87"/>
-      <c r="AH12" s="87"/>
-      <c r="AI12" s="87"/>
-      <c r="AJ12" s="87"/>
-      <c r="AK12" s="87"/>
-      <c r="AL12" s="88"/>
-      <c r="AM12" s="86"/>
-      <c r="AN12" s="87"/>
-      <c r="AO12" s="87"/>
-      <c r="AP12" s="87"/>
-      <c r="AQ12" s="87"/>
-      <c r="AR12" s="87"/>
-      <c r="AS12" s="87"/>
-      <c r="AT12" s="87"/>
-      <c r="AU12" s="87"/>
-      <c r="AV12" s="87"/>
-      <c r="AW12" s="87"/>
-      <c r="AX12" s="87"/>
-      <c r="AY12" s="87"/>
-      <c r="AZ12" s="88"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="95"/>
+      <c r="AF12" s="95"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="95"/>
+      <c r="AJ12" s="95"/>
+      <c r="AK12" s="95"/>
+      <c r="AL12" s="96"/>
+      <c r="AM12" s="94"/>
+      <c r="AN12" s="95"/>
+      <c r="AO12" s="95"/>
+      <c r="AP12" s="95"/>
+      <c r="AQ12" s="95"/>
+      <c r="AR12" s="95"/>
+      <c r="AS12" s="95"/>
+      <c r="AT12" s="95"/>
+      <c r="AU12" s="95"/>
+      <c r="AV12" s="95"/>
+      <c r="AW12" s="95"/>
+      <c r="AX12" s="95"/>
+      <c r="AY12" s="95"/>
+      <c r="AZ12" s="96"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="9" t="str">
@@ -2766,56 +2873,56 @@
         <v/>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
-      <c r="AB13" s="87"/>
-      <c r="AC13" s="87"/>
-      <c r="AD13" s="87"/>
-      <c r="AE13" s="87"/>
-      <c r="AF13" s="87"/>
-      <c r="AG13" s="87"/>
-      <c r="AH13" s="87"/>
-      <c r="AI13" s="87"/>
-      <c r="AJ13" s="87"/>
-      <c r="AK13" s="87"/>
-      <c r="AL13" s="88"/>
-      <c r="AM13" s="86"/>
-      <c r="AN13" s="87"/>
-      <c r="AO13" s="87"/>
-      <c r="AP13" s="87"/>
-      <c r="AQ13" s="87"/>
-      <c r="AR13" s="87"/>
-      <c r="AS13" s="87"/>
-      <c r="AT13" s="87"/>
-      <c r="AU13" s="87"/>
-      <c r="AV13" s="87"/>
-      <c r="AW13" s="87"/>
-      <c r="AX13" s="87"/>
-      <c r="AY13" s="87"/>
-      <c r="AZ13" s="88"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="94"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="95"/>
+      <c r="AF13" s="95"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="95"/>
+      <c r="AI13" s="95"/>
+      <c r="AJ13" s="95"/>
+      <c r="AK13" s="95"/>
+      <c r="AL13" s="96"/>
+      <c r="AM13" s="94"/>
+      <c r="AN13" s="95"/>
+      <c r="AO13" s="95"/>
+      <c r="AP13" s="95"/>
+      <c r="AQ13" s="95"/>
+      <c r="AR13" s="95"/>
+      <c r="AS13" s="95"/>
+      <c r="AT13" s="95"/>
+      <c r="AU13" s="95"/>
+      <c r="AV13" s="95"/>
+      <c r="AW13" s="95"/>
+      <c r="AX13" s="95"/>
+      <c r="AY13" s="95"/>
+      <c r="AZ13" s="96"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="9" t="str">
@@ -2823,56 +2930,56 @@
         <v/>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="87"/>
-      <c r="Y14" s="87"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="87"/>
-      <c r="AB14" s="87"/>
-      <c r="AC14" s="87"/>
-      <c r="AD14" s="87"/>
-      <c r="AE14" s="87"/>
-      <c r="AF14" s="87"/>
-      <c r="AG14" s="87"/>
-      <c r="AH14" s="87"/>
-      <c r="AI14" s="87"/>
-      <c r="AJ14" s="87"/>
-      <c r="AK14" s="87"/>
-      <c r="AL14" s="88"/>
-      <c r="AM14" s="86"/>
-      <c r="AN14" s="87"/>
-      <c r="AO14" s="87"/>
-      <c r="AP14" s="87"/>
-      <c r="AQ14" s="87"/>
-      <c r="AR14" s="87"/>
-      <c r="AS14" s="87"/>
-      <c r="AT14" s="87"/>
-      <c r="AU14" s="87"/>
-      <c r="AV14" s="87"/>
-      <c r="AW14" s="87"/>
-      <c r="AX14" s="87"/>
-      <c r="AY14" s="87"/>
-      <c r="AZ14" s="88"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="94"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="95"/>
+      <c r="AF14" s="95"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="95"/>
+      <c r="AJ14" s="95"/>
+      <c r="AK14" s="95"/>
+      <c r="AL14" s="96"/>
+      <c r="AM14" s="94"/>
+      <c r="AN14" s="95"/>
+      <c r="AO14" s="95"/>
+      <c r="AP14" s="95"/>
+      <c r="AQ14" s="95"/>
+      <c r="AR14" s="95"/>
+      <c r="AS14" s="95"/>
+      <c r="AT14" s="95"/>
+      <c r="AU14" s="95"/>
+      <c r="AV14" s="95"/>
+      <c r="AW14" s="95"/>
+      <c r="AX14" s="95"/>
+      <c r="AY14" s="95"/>
+      <c r="AZ14" s="96"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="9" t="str">
@@ -2880,56 +2987,56 @@
         <v/>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="87"/>
-      <c r="AC15" s="87"/>
-      <c r="AD15" s="87"/>
-      <c r="AE15" s="87"/>
-      <c r="AF15" s="87"/>
-      <c r="AG15" s="87"/>
-      <c r="AH15" s="87"/>
-      <c r="AI15" s="87"/>
-      <c r="AJ15" s="87"/>
-      <c r="AK15" s="87"/>
-      <c r="AL15" s="88"/>
-      <c r="AM15" s="86"/>
-      <c r="AN15" s="87"/>
-      <c r="AO15" s="87"/>
-      <c r="AP15" s="87"/>
-      <c r="AQ15" s="87"/>
-      <c r="AR15" s="87"/>
-      <c r="AS15" s="87"/>
-      <c r="AT15" s="87"/>
-      <c r="AU15" s="87"/>
-      <c r="AV15" s="87"/>
-      <c r="AW15" s="87"/>
-      <c r="AX15" s="87"/>
-      <c r="AY15" s="87"/>
-      <c r="AZ15" s="88"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="95"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="95"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="95"/>
+      <c r="AF15" s="95"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="95"/>
+      <c r="AI15" s="95"/>
+      <c r="AJ15" s="95"/>
+      <c r="AK15" s="95"/>
+      <c r="AL15" s="96"/>
+      <c r="AM15" s="94"/>
+      <c r="AN15" s="95"/>
+      <c r="AO15" s="95"/>
+      <c r="AP15" s="95"/>
+      <c r="AQ15" s="95"/>
+      <c r="AR15" s="95"/>
+      <c r="AS15" s="95"/>
+      <c r="AT15" s="95"/>
+      <c r="AU15" s="95"/>
+      <c r="AV15" s="95"/>
+      <c r="AW15" s="95"/>
+      <c r="AX15" s="95"/>
+      <c r="AY15" s="95"/>
+      <c r="AZ15" s="96"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="9" t="str">
@@ -2937,56 +3044,56 @@
         <v/>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="87"/>
-      <c r="AA16" s="87"/>
-      <c r="AB16" s="87"/>
-      <c r="AC16" s="87"/>
-      <c r="AD16" s="87"/>
-      <c r="AE16" s="87"/>
-      <c r="AF16" s="87"/>
-      <c r="AG16" s="87"/>
-      <c r="AH16" s="87"/>
-      <c r="AI16" s="87"/>
-      <c r="AJ16" s="87"/>
-      <c r="AK16" s="87"/>
-      <c r="AL16" s="88"/>
-      <c r="AM16" s="86"/>
-      <c r="AN16" s="87"/>
-      <c r="AO16" s="87"/>
-      <c r="AP16" s="87"/>
-      <c r="AQ16" s="87"/>
-      <c r="AR16" s="87"/>
-      <c r="AS16" s="87"/>
-      <c r="AT16" s="87"/>
-      <c r="AU16" s="87"/>
-      <c r="AV16" s="87"/>
-      <c r="AW16" s="87"/>
-      <c r="AX16" s="87"/>
-      <c r="AY16" s="87"/>
-      <c r="AZ16" s="88"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="94"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="95"/>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="95"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="95"/>
+      <c r="AF16" s="95"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="95"/>
+      <c r="AJ16" s="95"/>
+      <c r="AK16" s="95"/>
+      <c r="AL16" s="96"/>
+      <c r="AM16" s="94"/>
+      <c r="AN16" s="95"/>
+      <c r="AO16" s="95"/>
+      <c r="AP16" s="95"/>
+      <c r="AQ16" s="95"/>
+      <c r="AR16" s="95"/>
+      <c r="AS16" s="95"/>
+      <c r="AT16" s="95"/>
+      <c r="AU16" s="95"/>
+      <c r="AV16" s="95"/>
+      <c r="AW16" s="95"/>
+      <c r="AX16" s="95"/>
+      <c r="AY16" s="95"/>
+      <c r="AZ16" s="96"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="9" t="str">
@@ -2994,56 +3101,56 @@
         <v/>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="87"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="87"/>
-      <c r="AB17" s="87"/>
-      <c r="AC17" s="87"/>
-      <c r="AD17" s="87"/>
-      <c r="AE17" s="87"/>
-      <c r="AF17" s="87"/>
-      <c r="AG17" s="87"/>
-      <c r="AH17" s="87"/>
-      <c r="AI17" s="87"/>
-      <c r="AJ17" s="87"/>
-      <c r="AK17" s="87"/>
-      <c r="AL17" s="88"/>
-      <c r="AM17" s="86"/>
-      <c r="AN17" s="87"/>
-      <c r="AO17" s="87"/>
-      <c r="AP17" s="87"/>
-      <c r="AQ17" s="87"/>
-      <c r="AR17" s="87"/>
-      <c r="AS17" s="87"/>
-      <c r="AT17" s="87"/>
-      <c r="AU17" s="87"/>
-      <c r="AV17" s="87"/>
-      <c r="AW17" s="87"/>
-      <c r="AX17" s="87"/>
-      <c r="AY17" s="87"/>
-      <c r="AZ17" s="88"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="94"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="95"/>
+      <c r="AB17" s="95"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="95"/>
+      <c r="AF17" s="95"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="95"/>
+      <c r="AJ17" s="95"/>
+      <c r="AK17" s="95"/>
+      <c r="AL17" s="96"/>
+      <c r="AM17" s="94"/>
+      <c r="AN17" s="95"/>
+      <c r="AO17" s="95"/>
+      <c r="AP17" s="95"/>
+      <c r="AQ17" s="95"/>
+      <c r="AR17" s="95"/>
+      <c r="AS17" s="95"/>
+      <c r="AT17" s="95"/>
+      <c r="AU17" s="95"/>
+      <c r="AV17" s="95"/>
+      <c r="AW17" s="95"/>
+      <c r="AX17" s="95"/>
+      <c r="AY17" s="95"/>
+      <c r="AZ17" s="96"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="9" t="str">
@@ -3051,56 +3158,56 @@
         <v/>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="87"/>
-      <c r="X18" s="87"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="87"/>
-      <c r="AC18" s="87"/>
-      <c r="AD18" s="87"/>
-      <c r="AE18" s="87"/>
-      <c r="AF18" s="87"/>
-      <c r="AG18" s="87"/>
-      <c r="AH18" s="87"/>
-      <c r="AI18" s="87"/>
-      <c r="AJ18" s="87"/>
-      <c r="AK18" s="87"/>
-      <c r="AL18" s="88"/>
-      <c r="AM18" s="86"/>
-      <c r="AN18" s="87"/>
-      <c r="AO18" s="87"/>
-      <c r="AP18" s="87"/>
-      <c r="AQ18" s="87"/>
-      <c r="AR18" s="87"/>
-      <c r="AS18" s="87"/>
-      <c r="AT18" s="87"/>
-      <c r="AU18" s="87"/>
-      <c r="AV18" s="87"/>
-      <c r="AW18" s="87"/>
-      <c r="AX18" s="87"/>
-      <c r="AY18" s="87"/>
-      <c r="AZ18" s="88"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="95"/>
+      <c r="AA18" s="95"/>
+      <c r="AB18" s="95"/>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="95"/>
+      <c r="AF18" s="95"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="95"/>
+      <c r="AJ18" s="95"/>
+      <c r="AK18" s="95"/>
+      <c r="AL18" s="96"/>
+      <c r="AM18" s="94"/>
+      <c r="AN18" s="95"/>
+      <c r="AO18" s="95"/>
+      <c r="AP18" s="95"/>
+      <c r="AQ18" s="95"/>
+      <c r="AR18" s="95"/>
+      <c r="AS18" s="95"/>
+      <c r="AT18" s="95"/>
+      <c r="AU18" s="95"/>
+      <c r="AV18" s="95"/>
+      <c r="AW18" s="95"/>
+      <c r="AX18" s="95"/>
+      <c r="AY18" s="95"/>
+      <c r="AZ18" s="96"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="9" t="str">
@@ -3108,56 +3215,56 @@
         <v/>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="87"/>
-      <c r="W19" s="87"/>
-      <c r="X19" s="87"/>
-      <c r="Y19" s="87"/>
-      <c r="Z19" s="87"/>
-      <c r="AA19" s="87"/>
-      <c r="AB19" s="87"/>
-      <c r="AC19" s="87"/>
-      <c r="AD19" s="87"/>
-      <c r="AE19" s="87"/>
-      <c r="AF19" s="87"/>
-      <c r="AG19" s="87"/>
-      <c r="AH19" s="87"/>
-      <c r="AI19" s="87"/>
-      <c r="AJ19" s="87"/>
-      <c r="AK19" s="87"/>
-      <c r="AL19" s="88"/>
-      <c r="AM19" s="86"/>
-      <c r="AN19" s="87"/>
-      <c r="AO19" s="87"/>
-      <c r="AP19" s="87"/>
-      <c r="AQ19" s="87"/>
-      <c r="AR19" s="87"/>
-      <c r="AS19" s="87"/>
-      <c r="AT19" s="87"/>
-      <c r="AU19" s="87"/>
-      <c r="AV19" s="87"/>
-      <c r="AW19" s="87"/>
-      <c r="AX19" s="87"/>
-      <c r="AY19" s="87"/>
-      <c r="AZ19" s="88"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="95"/>
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="95"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="95"/>
+      <c r="AF19" s="95"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="95"/>
+      <c r="AJ19" s="95"/>
+      <c r="AK19" s="95"/>
+      <c r="AL19" s="96"/>
+      <c r="AM19" s="94"/>
+      <c r="AN19" s="95"/>
+      <c r="AO19" s="95"/>
+      <c r="AP19" s="95"/>
+      <c r="AQ19" s="95"/>
+      <c r="AR19" s="95"/>
+      <c r="AS19" s="95"/>
+      <c r="AT19" s="95"/>
+      <c r="AU19" s="95"/>
+      <c r="AV19" s="95"/>
+      <c r="AW19" s="95"/>
+      <c r="AX19" s="95"/>
+      <c r="AY19" s="95"/>
+      <c r="AZ19" s="96"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="9" t="str">
@@ -3165,56 +3272,56 @@
         <v/>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="87"/>
-      <c r="T20" s="87"/>
-      <c r="U20" s="87"/>
-      <c r="V20" s="87"/>
-      <c r="W20" s="87"/>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="87"/>
-      <c r="AA20" s="87"/>
-      <c r="AB20" s="87"/>
-      <c r="AC20" s="87"/>
-      <c r="AD20" s="87"/>
-      <c r="AE20" s="87"/>
-      <c r="AF20" s="87"/>
-      <c r="AG20" s="87"/>
-      <c r="AH20" s="87"/>
-      <c r="AI20" s="87"/>
-      <c r="AJ20" s="87"/>
-      <c r="AK20" s="87"/>
-      <c r="AL20" s="88"/>
-      <c r="AM20" s="86"/>
-      <c r="AN20" s="87"/>
-      <c r="AO20" s="87"/>
-      <c r="AP20" s="87"/>
-      <c r="AQ20" s="87"/>
-      <c r="AR20" s="87"/>
-      <c r="AS20" s="87"/>
-      <c r="AT20" s="87"/>
-      <c r="AU20" s="87"/>
-      <c r="AV20" s="87"/>
-      <c r="AW20" s="87"/>
-      <c r="AX20" s="87"/>
-      <c r="AY20" s="87"/>
-      <c r="AZ20" s="88"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="94"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="95"/>
+      <c r="AB20" s="95"/>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="95"/>
+      <c r="AF20" s="95"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="95"/>
+      <c r="AJ20" s="95"/>
+      <c r="AK20" s="95"/>
+      <c r="AL20" s="96"/>
+      <c r="AM20" s="94"/>
+      <c r="AN20" s="95"/>
+      <c r="AO20" s="95"/>
+      <c r="AP20" s="95"/>
+      <c r="AQ20" s="95"/>
+      <c r="AR20" s="95"/>
+      <c r="AS20" s="95"/>
+      <c r="AT20" s="95"/>
+      <c r="AU20" s="95"/>
+      <c r="AV20" s="95"/>
+      <c r="AW20" s="95"/>
+      <c r="AX20" s="95"/>
+      <c r="AY20" s="95"/>
+      <c r="AZ20" s="96"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="9" t="str">
@@ -3222,56 +3329,56 @@
         <v/>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="87"/>
-      <c r="U21" s="87"/>
-      <c r="V21" s="87"/>
-      <c r="W21" s="87"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="87"/>
-      <c r="AA21" s="87"/>
-      <c r="AB21" s="87"/>
-      <c r="AC21" s="87"/>
-      <c r="AD21" s="87"/>
-      <c r="AE21" s="87"/>
-      <c r="AF21" s="87"/>
-      <c r="AG21" s="87"/>
-      <c r="AH21" s="87"/>
-      <c r="AI21" s="87"/>
-      <c r="AJ21" s="87"/>
-      <c r="AK21" s="87"/>
-      <c r="AL21" s="88"/>
-      <c r="AM21" s="86"/>
-      <c r="AN21" s="87"/>
-      <c r="AO21" s="87"/>
-      <c r="AP21" s="87"/>
-      <c r="AQ21" s="87"/>
-      <c r="AR21" s="87"/>
-      <c r="AS21" s="87"/>
-      <c r="AT21" s="87"/>
-      <c r="AU21" s="87"/>
-      <c r="AV21" s="87"/>
-      <c r="AW21" s="87"/>
-      <c r="AX21" s="87"/>
-      <c r="AY21" s="87"/>
-      <c r="AZ21" s="88"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="95"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="95"/>
+      <c r="AJ21" s="95"/>
+      <c r="AK21" s="95"/>
+      <c r="AL21" s="96"/>
+      <c r="AM21" s="94"/>
+      <c r="AN21" s="95"/>
+      <c r="AO21" s="95"/>
+      <c r="AP21" s="95"/>
+      <c r="AQ21" s="95"/>
+      <c r="AR21" s="95"/>
+      <c r="AS21" s="95"/>
+      <c r="AT21" s="95"/>
+      <c r="AU21" s="95"/>
+      <c r="AV21" s="95"/>
+      <c r="AW21" s="95"/>
+      <c r="AX21" s="95"/>
+      <c r="AY21" s="95"/>
+      <c r="AZ21" s="96"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="9" t="str">
@@ -3279,56 +3386,56 @@
         <v/>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="87"/>
-      <c r="U22" s="87"/>
-      <c r="V22" s="87"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="87"/>
-      <c r="Y22" s="87"/>
-      <c r="Z22" s="87"/>
-      <c r="AA22" s="87"/>
-      <c r="AB22" s="87"/>
-      <c r="AC22" s="87"/>
-      <c r="AD22" s="87"/>
-      <c r="AE22" s="87"/>
-      <c r="AF22" s="87"/>
-      <c r="AG22" s="87"/>
-      <c r="AH22" s="87"/>
-      <c r="AI22" s="87"/>
-      <c r="AJ22" s="87"/>
-      <c r="AK22" s="87"/>
-      <c r="AL22" s="88"/>
-      <c r="AM22" s="86"/>
-      <c r="AN22" s="87"/>
-      <c r="AO22" s="87"/>
-      <c r="AP22" s="87"/>
-      <c r="AQ22" s="87"/>
-      <c r="AR22" s="87"/>
-      <c r="AS22" s="87"/>
-      <c r="AT22" s="87"/>
-      <c r="AU22" s="87"/>
-      <c r="AV22" s="87"/>
-      <c r="AW22" s="87"/>
-      <c r="AX22" s="87"/>
-      <c r="AY22" s="87"/>
-      <c r="AZ22" s="88"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="95"/>
+      <c r="AB22" s="95"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="95"/>
+      <c r="AF22" s="95"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="95"/>
+      <c r="AJ22" s="95"/>
+      <c r="AK22" s="95"/>
+      <c r="AL22" s="96"/>
+      <c r="AM22" s="94"/>
+      <c r="AN22" s="95"/>
+      <c r="AO22" s="95"/>
+      <c r="AP22" s="95"/>
+      <c r="AQ22" s="95"/>
+      <c r="AR22" s="95"/>
+      <c r="AS22" s="95"/>
+      <c r="AT22" s="95"/>
+      <c r="AU22" s="95"/>
+      <c r="AV22" s="95"/>
+      <c r="AW22" s="95"/>
+      <c r="AX22" s="95"/>
+      <c r="AY22" s="95"/>
+      <c r="AZ22" s="96"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="9" t="str">
@@ -3336,56 +3443,56 @@
         <v/>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="87"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="87"/>
-      <c r="U23" s="87"/>
-      <c r="V23" s="87"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="87"/>
-      <c r="Y23" s="87"/>
-      <c r="Z23" s="87"/>
-      <c r="AA23" s="87"/>
-      <c r="AB23" s="87"/>
-      <c r="AC23" s="87"/>
-      <c r="AD23" s="87"/>
-      <c r="AE23" s="87"/>
-      <c r="AF23" s="87"/>
-      <c r="AG23" s="87"/>
-      <c r="AH23" s="87"/>
-      <c r="AI23" s="87"/>
-      <c r="AJ23" s="87"/>
-      <c r="AK23" s="87"/>
-      <c r="AL23" s="88"/>
-      <c r="AM23" s="86"/>
-      <c r="AN23" s="87"/>
-      <c r="AO23" s="87"/>
-      <c r="AP23" s="87"/>
-      <c r="AQ23" s="87"/>
-      <c r="AR23" s="87"/>
-      <c r="AS23" s="87"/>
-      <c r="AT23" s="87"/>
-      <c r="AU23" s="87"/>
-      <c r="AV23" s="87"/>
-      <c r="AW23" s="87"/>
-      <c r="AX23" s="87"/>
-      <c r="AY23" s="87"/>
-      <c r="AZ23" s="88"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="93"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="95"/>
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="95"/>
+      <c r="AF23" s="95"/>
+      <c r="AG23" s="95"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="95"/>
+      <c r="AJ23" s="95"/>
+      <c r="AK23" s="95"/>
+      <c r="AL23" s="96"/>
+      <c r="AM23" s="94"/>
+      <c r="AN23" s="95"/>
+      <c r="AO23" s="95"/>
+      <c r="AP23" s="95"/>
+      <c r="AQ23" s="95"/>
+      <c r="AR23" s="95"/>
+      <c r="AS23" s="95"/>
+      <c r="AT23" s="95"/>
+      <c r="AU23" s="95"/>
+      <c r="AV23" s="95"/>
+      <c r="AW23" s="95"/>
+      <c r="AX23" s="95"/>
+      <c r="AY23" s="95"/>
+      <c r="AZ23" s="96"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="9" t="str">
@@ -3393,56 +3500,56 @@
         <v/>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="87"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="87"/>
-      <c r="AA24" s="87"/>
-      <c r="AB24" s="87"/>
-      <c r="AC24" s="87"/>
-      <c r="AD24" s="87"/>
-      <c r="AE24" s="87"/>
-      <c r="AF24" s="87"/>
-      <c r="AG24" s="87"/>
-      <c r="AH24" s="87"/>
-      <c r="AI24" s="87"/>
-      <c r="AJ24" s="87"/>
-      <c r="AK24" s="87"/>
-      <c r="AL24" s="88"/>
-      <c r="AM24" s="86"/>
-      <c r="AN24" s="87"/>
-      <c r="AO24" s="87"/>
-      <c r="AP24" s="87"/>
-      <c r="AQ24" s="87"/>
-      <c r="AR24" s="87"/>
-      <c r="AS24" s="87"/>
-      <c r="AT24" s="87"/>
-      <c r="AU24" s="87"/>
-      <c r="AV24" s="87"/>
-      <c r="AW24" s="87"/>
-      <c r="AX24" s="87"/>
-      <c r="AY24" s="87"/>
-      <c r="AZ24" s="88"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="93"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="95"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="95"/>
+      <c r="AF24" s="95"/>
+      <c r="AG24" s="95"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="95"/>
+      <c r="AJ24" s="95"/>
+      <c r="AK24" s="95"/>
+      <c r="AL24" s="96"/>
+      <c r="AM24" s="94"/>
+      <c r="AN24" s="95"/>
+      <c r="AO24" s="95"/>
+      <c r="AP24" s="95"/>
+      <c r="AQ24" s="95"/>
+      <c r="AR24" s="95"/>
+      <c r="AS24" s="95"/>
+      <c r="AT24" s="95"/>
+      <c r="AU24" s="95"/>
+      <c r="AV24" s="95"/>
+      <c r="AW24" s="95"/>
+      <c r="AX24" s="95"/>
+      <c r="AY24" s="95"/>
+      <c r="AZ24" s="96"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="9" t="str">
@@ -3450,56 +3557,56 @@
         <v/>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="87"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="87"/>
-      <c r="Y25" s="87"/>
-      <c r="Z25" s="87"/>
-      <c r="AA25" s="87"/>
-      <c r="AB25" s="87"/>
-      <c r="AC25" s="87"/>
-      <c r="AD25" s="87"/>
-      <c r="AE25" s="87"/>
-      <c r="AF25" s="87"/>
-      <c r="AG25" s="87"/>
-      <c r="AH25" s="87"/>
-      <c r="AI25" s="87"/>
-      <c r="AJ25" s="87"/>
-      <c r="AK25" s="87"/>
-      <c r="AL25" s="88"/>
-      <c r="AM25" s="86"/>
-      <c r="AN25" s="87"/>
-      <c r="AO25" s="87"/>
-      <c r="AP25" s="87"/>
-      <c r="AQ25" s="87"/>
-      <c r="AR25" s="87"/>
-      <c r="AS25" s="87"/>
-      <c r="AT25" s="87"/>
-      <c r="AU25" s="87"/>
-      <c r="AV25" s="87"/>
-      <c r="AW25" s="87"/>
-      <c r="AX25" s="87"/>
-      <c r="AY25" s="87"/>
-      <c r="AZ25" s="88"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="93"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="95"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="95"/>
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="95"/>
+      <c r="AF25" s="95"/>
+      <c r="AG25" s="95"/>
+      <c r="AH25" s="95"/>
+      <c r="AI25" s="95"/>
+      <c r="AJ25" s="95"/>
+      <c r="AK25" s="95"/>
+      <c r="AL25" s="96"/>
+      <c r="AM25" s="94"/>
+      <c r="AN25" s="95"/>
+      <c r="AO25" s="95"/>
+      <c r="AP25" s="95"/>
+      <c r="AQ25" s="95"/>
+      <c r="AR25" s="95"/>
+      <c r="AS25" s="95"/>
+      <c r="AT25" s="95"/>
+      <c r="AU25" s="95"/>
+      <c r="AV25" s="95"/>
+      <c r="AW25" s="95"/>
+      <c r="AX25" s="95"/>
+      <c r="AY25" s="95"/>
+      <c r="AZ25" s="96"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="9" t="str">
@@ -3507,56 +3614,56 @@
         <v/>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="87"/>
-      <c r="AA26" s="87"/>
-      <c r="AB26" s="87"/>
-      <c r="AC26" s="87"/>
-      <c r="AD26" s="87"/>
-      <c r="AE26" s="87"/>
-      <c r="AF26" s="87"/>
-      <c r="AG26" s="87"/>
-      <c r="AH26" s="87"/>
-      <c r="AI26" s="87"/>
-      <c r="AJ26" s="87"/>
-      <c r="AK26" s="87"/>
-      <c r="AL26" s="88"/>
-      <c r="AM26" s="86"/>
-      <c r="AN26" s="87"/>
-      <c r="AO26" s="87"/>
-      <c r="AP26" s="87"/>
-      <c r="AQ26" s="87"/>
-      <c r="AR26" s="87"/>
-      <c r="AS26" s="87"/>
-      <c r="AT26" s="87"/>
-      <c r="AU26" s="87"/>
-      <c r="AV26" s="87"/>
-      <c r="AW26" s="87"/>
-      <c r="AX26" s="87"/>
-      <c r="AY26" s="87"/>
-      <c r="AZ26" s="88"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="94"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="95"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="95"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="95"/>
+      <c r="AF26" s="95"/>
+      <c r="AG26" s="95"/>
+      <c r="AH26" s="95"/>
+      <c r="AI26" s="95"/>
+      <c r="AJ26" s="95"/>
+      <c r="AK26" s="95"/>
+      <c r="AL26" s="96"/>
+      <c r="AM26" s="94"/>
+      <c r="AN26" s="95"/>
+      <c r="AO26" s="95"/>
+      <c r="AP26" s="95"/>
+      <c r="AQ26" s="95"/>
+      <c r="AR26" s="95"/>
+      <c r="AS26" s="95"/>
+      <c r="AT26" s="95"/>
+      <c r="AU26" s="95"/>
+      <c r="AV26" s="95"/>
+      <c r="AW26" s="95"/>
+      <c r="AX26" s="95"/>
+      <c r="AY26" s="95"/>
+      <c r="AZ26" s="96"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="9" t="str">
@@ -3564,56 +3671,56 @@
         <v/>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="87"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="87"/>
-      <c r="U27" s="87"/>
-      <c r="V27" s="87"/>
-      <c r="W27" s="87"/>
-      <c r="X27" s="87"/>
-      <c r="Y27" s="87"/>
-      <c r="Z27" s="87"/>
-      <c r="AA27" s="87"/>
-      <c r="AB27" s="87"/>
-      <c r="AC27" s="87"/>
-      <c r="AD27" s="87"/>
-      <c r="AE27" s="87"/>
-      <c r="AF27" s="87"/>
-      <c r="AG27" s="87"/>
-      <c r="AH27" s="87"/>
-      <c r="AI27" s="87"/>
-      <c r="AJ27" s="87"/>
-      <c r="AK27" s="87"/>
-      <c r="AL27" s="88"/>
-      <c r="AM27" s="86"/>
-      <c r="AN27" s="87"/>
-      <c r="AO27" s="87"/>
-      <c r="AP27" s="87"/>
-      <c r="AQ27" s="87"/>
-      <c r="AR27" s="87"/>
-      <c r="AS27" s="87"/>
-      <c r="AT27" s="87"/>
-      <c r="AU27" s="87"/>
-      <c r="AV27" s="87"/>
-      <c r="AW27" s="87"/>
-      <c r="AX27" s="87"/>
-      <c r="AY27" s="87"/>
-      <c r="AZ27" s="88"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="95"/>
+      <c r="V27" s="95"/>
+      <c r="W27" s="95"/>
+      <c r="X27" s="95"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="95"/>
+      <c r="AB27" s="95"/>
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="95"/>
+      <c r="AE27" s="95"/>
+      <c r="AF27" s="95"/>
+      <c r="AG27" s="95"/>
+      <c r="AH27" s="95"/>
+      <c r="AI27" s="95"/>
+      <c r="AJ27" s="95"/>
+      <c r="AK27" s="95"/>
+      <c r="AL27" s="96"/>
+      <c r="AM27" s="94"/>
+      <c r="AN27" s="95"/>
+      <c r="AO27" s="95"/>
+      <c r="AP27" s="95"/>
+      <c r="AQ27" s="95"/>
+      <c r="AR27" s="95"/>
+      <c r="AS27" s="95"/>
+      <c r="AT27" s="95"/>
+      <c r="AU27" s="95"/>
+      <c r="AV27" s="95"/>
+      <c r="AW27" s="95"/>
+      <c r="AX27" s="95"/>
+      <c r="AY27" s="95"/>
+      <c r="AZ27" s="96"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="9" t="str">
@@ -3621,56 +3728,56 @@
         <v/>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="87"/>
-      <c r="S28" s="87"/>
-      <c r="T28" s="87"/>
-      <c r="U28" s="87"/>
-      <c r="V28" s="87"/>
-      <c r="W28" s="87"/>
-      <c r="X28" s="87"/>
-      <c r="Y28" s="87"/>
-      <c r="Z28" s="87"/>
-      <c r="AA28" s="87"/>
-      <c r="AB28" s="87"/>
-      <c r="AC28" s="87"/>
-      <c r="AD28" s="87"/>
-      <c r="AE28" s="87"/>
-      <c r="AF28" s="87"/>
-      <c r="AG28" s="87"/>
-      <c r="AH28" s="87"/>
-      <c r="AI28" s="87"/>
-      <c r="AJ28" s="87"/>
-      <c r="AK28" s="87"/>
-      <c r="AL28" s="88"/>
-      <c r="AM28" s="86"/>
-      <c r="AN28" s="87"/>
-      <c r="AO28" s="87"/>
-      <c r="AP28" s="87"/>
-      <c r="AQ28" s="87"/>
-      <c r="AR28" s="87"/>
-      <c r="AS28" s="87"/>
-      <c r="AT28" s="87"/>
-      <c r="AU28" s="87"/>
-      <c r="AV28" s="87"/>
-      <c r="AW28" s="87"/>
-      <c r="AX28" s="87"/>
-      <c r="AY28" s="87"/>
-      <c r="AZ28" s="88"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="95"/>
+      <c r="W28" s="95"/>
+      <c r="X28" s="95"/>
+      <c r="Y28" s="95"/>
+      <c r="Z28" s="95"/>
+      <c r="AA28" s="95"/>
+      <c r="AB28" s="95"/>
+      <c r="AC28" s="95"/>
+      <c r="AD28" s="95"/>
+      <c r="AE28" s="95"/>
+      <c r="AF28" s="95"/>
+      <c r="AG28" s="95"/>
+      <c r="AH28" s="95"/>
+      <c r="AI28" s="95"/>
+      <c r="AJ28" s="95"/>
+      <c r="AK28" s="95"/>
+      <c r="AL28" s="96"/>
+      <c r="AM28" s="94"/>
+      <c r="AN28" s="95"/>
+      <c r="AO28" s="95"/>
+      <c r="AP28" s="95"/>
+      <c r="AQ28" s="95"/>
+      <c r="AR28" s="95"/>
+      <c r="AS28" s="95"/>
+      <c r="AT28" s="95"/>
+      <c r="AU28" s="95"/>
+      <c r="AV28" s="95"/>
+      <c r="AW28" s="95"/>
+      <c r="AX28" s="95"/>
+      <c r="AY28" s="95"/>
+      <c r="AZ28" s="96"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="9" t="str">
@@ -3678,56 +3785,56 @@
         <v/>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="87"/>
-      <c r="S29" s="87"/>
-      <c r="T29" s="87"/>
-      <c r="U29" s="87"/>
-      <c r="V29" s="87"/>
-      <c r="W29" s="87"/>
-      <c r="X29" s="87"/>
-      <c r="Y29" s="87"/>
-      <c r="Z29" s="87"/>
-      <c r="AA29" s="87"/>
-      <c r="AB29" s="87"/>
-      <c r="AC29" s="87"/>
-      <c r="AD29" s="87"/>
-      <c r="AE29" s="87"/>
-      <c r="AF29" s="87"/>
-      <c r="AG29" s="87"/>
-      <c r="AH29" s="87"/>
-      <c r="AI29" s="87"/>
-      <c r="AJ29" s="87"/>
-      <c r="AK29" s="87"/>
-      <c r="AL29" s="88"/>
-      <c r="AM29" s="86"/>
-      <c r="AN29" s="87"/>
-      <c r="AO29" s="87"/>
-      <c r="AP29" s="87"/>
-      <c r="AQ29" s="87"/>
-      <c r="AR29" s="87"/>
-      <c r="AS29" s="87"/>
-      <c r="AT29" s="87"/>
-      <c r="AU29" s="87"/>
-      <c r="AV29" s="87"/>
-      <c r="AW29" s="87"/>
-      <c r="AX29" s="87"/>
-      <c r="AY29" s="87"/>
-      <c r="AZ29" s="88"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="95"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="95"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="95"/>
+      <c r="AA29" s="95"/>
+      <c r="AB29" s="95"/>
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="95"/>
+      <c r="AE29" s="95"/>
+      <c r="AF29" s="95"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="95"/>
+      <c r="AI29" s="95"/>
+      <c r="AJ29" s="95"/>
+      <c r="AK29" s="95"/>
+      <c r="AL29" s="96"/>
+      <c r="AM29" s="94"/>
+      <c r="AN29" s="95"/>
+      <c r="AO29" s="95"/>
+      <c r="AP29" s="95"/>
+      <c r="AQ29" s="95"/>
+      <c r="AR29" s="95"/>
+      <c r="AS29" s="95"/>
+      <c r="AT29" s="95"/>
+      <c r="AU29" s="95"/>
+      <c r="AV29" s="95"/>
+      <c r="AW29" s="95"/>
+      <c r="AX29" s="95"/>
+      <c r="AY29" s="95"/>
+      <c r="AZ29" s="96"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="9" t="str">
@@ -3735,56 +3842,56 @@
         <v/>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="87"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="86"/>
-      <c r="R30" s="87"/>
-      <c r="S30" s="87"/>
-      <c r="T30" s="87"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="87"/>
-      <c r="W30" s="87"/>
-      <c r="X30" s="87"/>
-      <c r="Y30" s="87"/>
-      <c r="Z30" s="87"/>
-      <c r="AA30" s="87"/>
-      <c r="AB30" s="87"/>
-      <c r="AC30" s="87"/>
-      <c r="AD30" s="87"/>
-      <c r="AE30" s="87"/>
-      <c r="AF30" s="87"/>
-      <c r="AG30" s="87"/>
-      <c r="AH30" s="87"/>
-      <c r="AI30" s="87"/>
-      <c r="AJ30" s="87"/>
-      <c r="AK30" s="87"/>
-      <c r="AL30" s="88"/>
-      <c r="AM30" s="86"/>
-      <c r="AN30" s="87"/>
-      <c r="AO30" s="87"/>
-      <c r="AP30" s="87"/>
-      <c r="AQ30" s="87"/>
-      <c r="AR30" s="87"/>
-      <c r="AS30" s="87"/>
-      <c r="AT30" s="87"/>
-      <c r="AU30" s="87"/>
-      <c r="AV30" s="87"/>
-      <c r="AW30" s="87"/>
-      <c r="AX30" s="87"/>
-      <c r="AY30" s="87"/>
-      <c r="AZ30" s="88"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="95"/>
+      <c r="U30" s="95"/>
+      <c r="V30" s="95"/>
+      <c r="W30" s="95"/>
+      <c r="X30" s="95"/>
+      <c r="Y30" s="95"/>
+      <c r="Z30" s="95"/>
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="95"/>
+      <c r="AC30" s="95"/>
+      <c r="AD30" s="95"/>
+      <c r="AE30" s="95"/>
+      <c r="AF30" s="95"/>
+      <c r="AG30" s="95"/>
+      <c r="AH30" s="95"/>
+      <c r="AI30" s="95"/>
+      <c r="AJ30" s="95"/>
+      <c r="AK30" s="95"/>
+      <c r="AL30" s="96"/>
+      <c r="AM30" s="94"/>
+      <c r="AN30" s="95"/>
+      <c r="AO30" s="95"/>
+      <c r="AP30" s="95"/>
+      <c r="AQ30" s="95"/>
+      <c r="AR30" s="95"/>
+      <c r="AS30" s="95"/>
+      <c r="AT30" s="95"/>
+      <c r="AU30" s="95"/>
+      <c r="AV30" s="95"/>
+      <c r="AW30" s="95"/>
+      <c r="AX30" s="95"/>
+      <c r="AY30" s="95"/>
+      <c r="AZ30" s="96"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="9" t="str">
@@ -3792,56 +3899,56 @@
         <v/>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="86"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="87"/>
-      <c r="T31" s="87"/>
-      <c r="U31" s="87"/>
-      <c r="V31" s="87"/>
-      <c r="W31" s="87"/>
-      <c r="X31" s="87"/>
-      <c r="Y31" s="87"/>
-      <c r="Z31" s="87"/>
-      <c r="AA31" s="87"/>
-      <c r="AB31" s="87"/>
-      <c r="AC31" s="87"/>
-      <c r="AD31" s="87"/>
-      <c r="AE31" s="87"/>
-      <c r="AF31" s="87"/>
-      <c r="AG31" s="87"/>
-      <c r="AH31" s="87"/>
-      <c r="AI31" s="87"/>
-      <c r="AJ31" s="87"/>
-      <c r="AK31" s="87"/>
-      <c r="AL31" s="88"/>
-      <c r="AM31" s="86"/>
-      <c r="AN31" s="87"/>
-      <c r="AO31" s="87"/>
-      <c r="AP31" s="87"/>
-      <c r="AQ31" s="87"/>
-      <c r="AR31" s="87"/>
-      <c r="AS31" s="87"/>
-      <c r="AT31" s="87"/>
-      <c r="AU31" s="87"/>
-      <c r="AV31" s="87"/>
-      <c r="AW31" s="87"/>
-      <c r="AX31" s="87"/>
-      <c r="AY31" s="87"/>
-      <c r="AZ31" s="88"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="95"/>
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="95"/>
+      <c r="AF31" s="95"/>
+      <c r="AG31" s="95"/>
+      <c r="AH31" s="95"/>
+      <c r="AI31" s="95"/>
+      <c r="AJ31" s="95"/>
+      <c r="AK31" s="95"/>
+      <c r="AL31" s="96"/>
+      <c r="AM31" s="94"/>
+      <c r="AN31" s="95"/>
+      <c r="AO31" s="95"/>
+      <c r="AP31" s="95"/>
+      <c r="AQ31" s="95"/>
+      <c r="AR31" s="95"/>
+      <c r="AS31" s="95"/>
+      <c r="AT31" s="95"/>
+      <c r="AU31" s="95"/>
+      <c r="AV31" s="95"/>
+      <c r="AW31" s="95"/>
+      <c r="AX31" s="95"/>
+      <c r="AY31" s="95"/>
+      <c r="AZ31" s="96"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="9" t="str">
@@ -3849,56 +3956,56 @@
         <v/>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="86"/>
-      <c r="R32" s="87"/>
-      <c r="S32" s="87"/>
-      <c r="T32" s="87"/>
-      <c r="U32" s="87"/>
-      <c r="V32" s="87"/>
-      <c r="W32" s="87"/>
-      <c r="X32" s="87"/>
-      <c r="Y32" s="87"/>
-      <c r="Z32" s="87"/>
-      <c r="AA32" s="87"/>
-      <c r="AB32" s="87"/>
-      <c r="AC32" s="87"/>
-      <c r="AD32" s="87"/>
-      <c r="AE32" s="87"/>
-      <c r="AF32" s="87"/>
-      <c r="AG32" s="87"/>
-      <c r="AH32" s="87"/>
-      <c r="AI32" s="87"/>
-      <c r="AJ32" s="87"/>
-      <c r="AK32" s="87"/>
-      <c r="AL32" s="88"/>
-      <c r="AM32" s="86"/>
-      <c r="AN32" s="87"/>
-      <c r="AO32" s="87"/>
-      <c r="AP32" s="87"/>
-      <c r="AQ32" s="87"/>
-      <c r="AR32" s="87"/>
-      <c r="AS32" s="87"/>
-      <c r="AT32" s="87"/>
-      <c r="AU32" s="87"/>
-      <c r="AV32" s="87"/>
-      <c r="AW32" s="87"/>
-      <c r="AX32" s="87"/>
-      <c r="AY32" s="87"/>
-      <c r="AZ32" s="88"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="95"/>
+      <c r="W32" s="95"/>
+      <c r="X32" s="95"/>
+      <c r="Y32" s="95"/>
+      <c r="Z32" s="95"/>
+      <c r="AA32" s="95"/>
+      <c r="AB32" s="95"/>
+      <c r="AC32" s="95"/>
+      <c r="AD32" s="95"/>
+      <c r="AE32" s="95"/>
+      <c r="AF32" s="95"/>
+      <c r="AG32" s="95"/>
+      <c r="AH32" s="95"/>
+      <c r="AI32" s="95"/>
+      <c r="AJ32" s="95"/>
+      <c r="AK32" s="95"/>
+      <c r="AL32" s="96"/>
+      <c r="AM32" s="94"/>
+      <c r="AN32" s="95"/>
+      <c r="AO32" s="95"/>
+      <c r="AP32" s="95"/>
+      <c r="AQ32" s="95"/>
+      <c r="AR32" s="95"/>
+      <c r="AS32" s="95"/>
+      <c r="AT32" s="95"/>
+      <c r="AU32" s="95"/>
+      <c r="AV32" s="95"/>
+      <c r="AW32" s="95"/>
+      <c r="AX32" s="95"/>
+      <c r="AY32" s="95"/>
+      <c r="AZ32" s="96"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="9" t="str">
@@ -3906,56 +4013,56 @@
         <v/>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="86"/>
-      <c r="R33" s="87"/>
-      <c r="S33" s="87"/>
-      <c r="T33" s="87"/>
-      <c r="U33" s="87"/>
-      <c r="V33" s="87"/>
-      <c r="W33" s="87"/>
-      <c r="X33" s="87"/>
-      <c r="Y33" s="87"/>
-      <c r="Z33" s="87"/>
-      <c r="AA33" s="87"/>
-      <c r="AB33" s="87"/>
-      <c r="AC33" s="87"/>
-      <c r="AD33" s="87"/>
-      <c r="AE33" s="87"/>
-      <c r="AF33" s="87"/>
-      <c r="AG33" s="87"/>
-      <c r="AH33" s="87"/>
-      <c r="AI33" s="87"/>
-      <c r="AJ33" s="87"/>
-      <c r="AK33" s="87"/>
-      <c r="AL33" s="88"/>
-      <c r="AM33" s="86"/>
-      <c r="AN33" s="87"/>
-      <c r="AO33" s="87"/>
-      <c r="AP33" s="87"/>
-      <c r="AQ33" s="87"/>
-      <c r="AR33" s="87"/>
-      <c r="AS33" s="87"/>
-      <c r="AT33" s="87"/>
-      <c r="AU33" s="87"/>
-      <c r="AV33" s="87"/>
-      <c r="AW33" s="87"/>
-      <c r="AX33" s="87"/>
-      <c r="AY33" s="87"/>
-      <c r="AZ33" s="88"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="95"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="95"/>
+      <c r="AA33" s="95"/>
+      <c r="AB33" s="95"/>
+      <c r="AC33" s="95"/>
+      <c r="AD33" s="95"/>
+      <c r="AE33" s="95"/>
+      <c r="AF33" s="95"/>
+      <c r="AG33" s="95"/>
+      <c r="AH33" s="95"/>
+      <c r="AI33" s="95"/>
+      <c r="AJ33" s="95"/>
+      <c r="AK33" s="95"/>
+      <c r="AL33" s="96"/>
+      <c r="AM33" s="94"/>
+      <c r="AN33" s="95"/>
+      <c r="AO33" s="95"/>
+      <c r="AP33" s="95"/>
+      <c r="AQ33" s="95"/>
+      <c r="AR33" s="95"/>
+      <c r="AS33" s="95"/>
+      <c r="AT33" s="95"/>
+      <c r="AU33" s="95"/>
+      <c r="AV33" s="95"/>
+      <c r="AW33" s="95"/>
+      <c r="AX33" s="95"/>
+      <c r="AY33" s="95"/>
+      <c r="AZ33" s="96"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="9" t="str">
@@ -3963,56 +4070,56 @@
         <v/>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="86"/>
-      <c r="R34" s="87"/>
-      <c r="S34" s="87"/>
-      <c r="T34" s="87"/>
-      <c r="U34" s="87"/>
-      <c r="V34" s="87"/>
-      <c r="W34" s="87"/>
-      <c r="X34" s="87"/>
-      <c r="Y34" s="87"/>
-      <c r="Z34" s="87"/>
-      <c r="AA34" s="87"/>
-      <c r="AB34" s="87"/>
-      <c r="AC34" s="87"/>
-      <c r="AD34" s="87"/>
-      <c r="AE34" s="87"/>
-      <c r="AF34" s="87"/>
-      <c r="AG34" s="87"/>
-      <c r="AH34" s="87"/>
-      <c r="AI34" s="87"/>
-      <c r="AJ34" s="87"/>
-      <c r="AK34" s="87"/>
-      <c r="AL34" s="88"/>
-      <c r="AM34" s="86"/>
-      <c r="AN34" s="87"/>
-      <c r="AO34" s="87"/>
-      <c r="AP34" s="87"/>
-      <c r="AQ34" s="87"/>
-      <c r="AR34" s="87"/>
-      <c r="AS34" s="87"/>
-      <c r="AT34" s="87"/>
-      <c r="AU34" s="87"/>
-      <c r="AV34" s="87"/>
-      <c r="AW34" s="87"/>
-      <c r="AX34" s="87"/>
-      <c r="AY34" s="87"/>
-      <c r="AZ34" s="88"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="96"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="95"/>
+      <c r="U34" s="95"/>
+      <c r="V34" s="95"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="95"/>
+      <c r="Y34" s="95"/>
+      <c r="Z34" s="95"/>
+      <c r="AA34" s="95"/>
+      <c r="AB34" s="95"/>
+      <c r="AC34" s="95"/>
+      <c r="AD34" s="95"/>
+      <c r="AE34" s="95"/>
+      <c r="AF34" s="95"/>
+      <c r="AG34" s="95"/>
+      <c r="AH34" s="95"/>
+      <c r="AI34" s="95"/>
+      <c r="AJ34" s="95"/>
+      <c r="AK34" s="95"/>
+      <c r="AL34" s="96"/>
+      <c r="AM34" s="94"/>
+      <c r="AN34" s="95"/>
+      <c r="AO34" s="95"/>
+      <c r="AP34" s="95"/>
+      <c r="AQ34" s="95"/>
+      <c r="AR34" s="95"/>
+      <c r="AS34" s="95"/>
+      <c r="AT34" s="95"/>
+      <c r="AU34" s="95"/>
+      <c r="AV34" s="95"/>
+      <c r="AW34" s="95"/>
+      <c r="AX34" s="95"/>
+      <c r="AY34" s="95"/>
+      <c r="AZ34" s="96"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="9" t="str">
@@ -4020,59 +4127,189 @@
         <v/>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="86"/>
-      <c r="R35" s="87"/>
-      <c r="S35" s="87"/>
-      <c r="T35" s="87"/>
-      <c r="U35" s="87"/>
-      <c r="V35" s="87"/>
-      <c r="W35" s="87"/>
-      <c r="X35" s="87"/>
-      <c r="Y35" s="87"/>
-      <c r="Z35" s="87"/>
-      <c r="AA35" s="87"/>
-      <c r="AB35" s="87"/>
-      <c r="AC35" s="87"/>
-      <c r="AD35" s="87"/>
-      <c r="AE35" s="87"/>
-      <c r="AF35" s="87"/>
-      <c r="AG35" s="87"/>
-      <c r="AH35" s="87"/>
-      <c r="AI35" s="87"/>
-      <c r="AJ35" s="87"/>
-      <c r="AK35" s="87"/>
-      <c r="AL35" s="88"/>
-      <c r="AM35" s="86"/>
-      <c r="AN35" s="87"/>
-      <c r="AO35" s="87"/>
-      <c r="AP35" s="87"/>
-      <c r="AQ35" s="87"/>
-      <c r="AR35" s="87"/>
-      <c r="AS35" s="87"/>
-      <c r="AT35" s="87"/>
-      <c r="AU35" s="87"/>
-      <c r="AV35" s="87"/>
-      <c r="AW35" s="87"/>
-      <c r="AX35" s="87"/>
-      <c r="AY35" s="87"/>
-      <c r="AZ35" s="88"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="96"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="95"/>
+      <c r="S35" s="95"/>
+      <c r="T35" s="95"/>
+      <c r="U35" s="95"/>
+      <c r="V35" s="95"/>
+      <c r="W35" s="95"/>
+      <c r="X35" s="95"/>
+      <c r="Y35" s="95"/>
+      <c r="Z35" s="95"/>
+      <c r="AA35" s="95"/>
+      <c r="AB35" s="95"/>
+      <c r="AC35" s="95"/>
+      <c r="AD35" s="95"/>
+      <c r="AE35" s="95"/>
+      <c r="AF35" s="95"/>
+      <c r="AG35" s="95"/>
+      <c r="AH35" s="95"/>
+      <c r="AI35" s="95"/>
+      <c r="AJ35" s="95"/>
+      <c r="AK35" s="95"/>
+      <c r="AL35" s="96"/>
+      <c r="AM35" s="94"/>
+      <c r="AN35" s="95"/>
+      <c r="AO35" s="95"/>
+      <c r="AP35" s="95"/>
+      <c r="AQ35" s="95"/>
+      <c r="AR35" s="95"/>
+      <c r="AS35" s="95"/>
+      <c r="AT35" s="95"/>
+      <c r="AU35" s="95"/>
+      <c r="AV35" s="95"/>
+      <c r="AW35" s="95"/>
+      <c r="AX35" s="95"/>
+      <c r="AY35" s="95"/>
+      <c r="AZ35" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="Q34:AL34"/>
+    <mergeCell ref="AM34:AZ34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="Q35:AL35"/>
+    <mergeCell ref="AM35:AZ35"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:AL32"/>
+    <mergeCell ref="AM32:AZ32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Q33:AL33"/>
+    <mergeCell ref="AM33:AZ33"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:AL30"/>
+    <mergeCell ref="AM30:AZ30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:AL31"/>
+    <mergeCell ref="AM31:AZ31"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:AL28"/>
+    <mergeCell ref="AM28:AZ28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:AL29"/>
+    <mergeCell ref="AM29:AZ29"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:AL26"/>
+    <mergeCell ref="AM26:AZ26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:AL27"/>
+    <mergeCell ref="AM27:AZ27"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:AL24"/>
+    <mergeCell ref="AM24:AZ24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:AL25"/>
+    <mergeCell ref="AM25:AZ25"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:AL22"/>
+    <mergeCell ref="AM22:AZ22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:AL23"/>
+    <mergeCell ref="AM23:AZ23"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:AL21"/>
+    <mergeCell ref="AM21:AZ21"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:AL19"/>
+    <mergeCell ref="AM19:AZ19"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:AL17"/>
+    <mergeCell ref="AM17:AZ17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:AL14"/>
+    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AL15"/>
+    <mergeCell ref="AM15:AZ15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:AL12"/>
+    <mergeCell ref="AM12:AZ12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:AL13"/>
+    <mergeCell ref="AM13:AZ13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:AL10"/>
+    <mergeCell ref="AM10:AZ10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:AL11"/>
+    <mergeCell ref="AM11:AZ11"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:P8"/>
     <mergeCell ref="Q8:AL8"/>
@@ -4083,136 +4320,6 @@
     <mergeCell ref="L9:P9"/>
     <mergeCell ref="Q9:AL9"/>
     <mergeCell ref="AM9:AZ9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:AL11"/>
-    <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:AL12"/>
-    <mergeCell ref="AM12:AZ12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:AL13"/>
-    <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:AL15"/>
-    <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:AL19"/>
-    <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:AL21"/>
-    <mergeCell ref="AM21:AZ21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:AL22"/>
-    <mergeCell ref="AM22:AZ22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:AL23"/>
-    <mergeCell ref="AM23:AZ23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:AL24"/>
-    <mergeCell ref="AM24:AZ24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:AL25"/>
-    <mergeCell ref="AM25:AZ25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:AL26"/>
-    <mergeCell ref="AM26:AZ26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:AL27"/>
-    <mergeCell ref="AM27:AZ27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:AL28"/>
-    <mergeCell ref="AM28:AZ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:AL29"/>
-    <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:AL30"/>
-    <mergeCell ref="AM30:AZ30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:AL31"/>
-    <mergeCell ref="AM31:AZ31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:AL32"/>
-    <mergeCell ref="AM32:AZ32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Q33:AL33"/>
-    <mergeCell ref="AM33:AZ33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="Q34:AL34"/>
-    <mergeCell ref="AM34:AZ34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="Q35:AL35"/>
-    <mergeCell ref="AM35:AZ35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4226,23 +4333,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9307939-537D-9F44-B482-1E22BD0105F1}">
   <dimension ref="A1:BG90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="BG26" sqref="BG26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="13"/>
-    <col min="2" max="2" width="3.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" style="13"/>
-    <col min="4" max="4" width="3.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="3.28515625" style="13"/>
-    <col min="10" max="10" width="2.42578125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="13" customWidth="1"/>
-    <col min="12" max="34" width="3.28515625" style="13"/>
-    <col min="35" max="35" width="3.28515625" style="13" customWidth="1"/>
-    <col min="36" max="16384" width="3.28515625" style="13"/>
+    <col min="1" max="1" width="3.33203125" style="13"/>
+    <col min="2" max="2" width="3.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="13"/>
+    <col min="4" max="4" width="3.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="3.33203125" style="13"/>
+    <col min="10" max="10" width="2.5" style="13" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="13" customWidth="1"/>
+    <col min="12" max="34" width="3.33203125" style="13"/>
+    <col min="35" max="35" width="3.33203125" style="13" customWidth="1"/>
+    <col min="36" max="16384" width="3.33203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" customFormat="1" ht="12">
+    <row r="1" spans="1:51" customFormat="1" ht="15">
       <c r="A1" s="31"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -4288,7 +4397,7 @@
       <c r="AQ1" s="32"/>
       <c r="AR1" s="32"/>
     </row>
-    <row r="2" spans="1:51" customFormat="1" ht="12">
+    <row r="2" spans="1:51" customFormat="1" ht="15">
       <c r="A2" s="33"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -4334,7 +4443,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
     </row>
-    <row r="3" spans="1:51" customFormat="1" ht="12">
+    <row r="3" spans="1:51" customFormat="1" ht="15">
       <c r="A3" s="33"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
@@ -4380,7 +4489,7 @@
       <c r="AQ3" s="34"/>
       <c r="AR3" s="34"/>
     </row>
-    <row r="4" spans="1:51" customFormat="1" ht="12">
+    <row r="4" spans="1:51" customFormat="1" ht="15">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -4426,7 +4535,7 @@
       <c r="AQ4" s="34"/>
       <c r="AR4" s="34"/>
     </row>
-    <row r="5" spans="1:51" customFormat="1" ht="12">
+    <row r="5" spans="1:51" customFormat="1" ht="15">
       <c r="A5" s="33" t="s">
         <v>15</v>
       </c>
@@ -7655,11 +7764,11 @@
         <v>17</v>
       </c>
       <c r="C67" s="23"/>
-      <c r="D67" s="89" t="s">
+      <c r="D67" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="E67" s="90"/>
-      <c r="F67" s="91"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="108"/>
       <c r="G67" s="14" t="s">
         <v>19</v>
       </c>
@@ -7674,16 +7783,16 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
       <c r="R67" s="16"/>
-      <c r="S67" s="92" t="s">
+      <c r="S67" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="T67" s="93"/>
-      <c r="U67" s="93"/>
-      <c r="V67" s="93"/>
-      <c r="W67" s="93"/>
-      <c r="X67" s="93"/>
-      <c r="Y67" s="93"/>
-      <c r="Z67" s="94"/>
+      <c r="T67" s="104"/>
+      <c r="U67" s="104"/>
+      <c r="V67" s="104"/>
+      <c r="W67" s="104"/>
+      <c r="X67" s="104"/>
+      <c r="Y67" s="104"/>
+      <c r="Z67" s="105"/>
       <c r="AA67" s="22" t="s">
         <v>29</v>
       </c>
@@ -8052,21 +8161,21 @@
     </row>
     <row r="74" spans="1:59">
       <c r="A74" s="35"/>
-      <c r="B74" s="98" t="s">
+      <c r="B74" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C74" s="99"/>
-      <c r="D74" s="99"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="99"/>
-      <c r="H74" s="99"/>
-      <c r="I74" s="99"/>
-      <c r="J74" s="99"/>
-      <c r="K74" s="99"/>
-      <c r="L74" s="99"/>
-      <c r="M74" s="99"/>
-      <c r="N74" s="99"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="57"/>
+      <c r="K74" s="57"/>
+      <c r="L74" s="57"/>
+      <c r="M74" s="57"/>
+      <c r="N74" s="57"/>
       <c r="O74" s="21"/>
       <c r="P74" s="21"/>
       <c r="Q74" s="21"/>
@@ -8107,27 +8216,27 @@
       <c r="AZ74" s="21"/>
       <c r="BA74" s="21"/>
     </row>
-    <row r="75" spans="1:59" s="27" customFormat="1" ht="32.1" customHeight="1">
+    <row r="75" spans="1:59" s="27" customFormat="1" ht="32" customHeight="1">
       <c r="A75" s="35"/>
-      <c r="B75" s="100" t="s">
+      <c r="B75" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C75" s="101"/>
-      <c r="D75" s="95" t="s">
+      <c r="C75" s="59"/>
+      <c r="D75" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="E75" s="96"/>
-      <c r="F75" s="97"/>
-      <c r="G75" s="102" t="s">
+      <c r="E75" s="101"/>
+      <c r="F75" s="102"/>
+      <c r="G75" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="H75" s="103"/>
-      <c r="I75" s="103"/>
-      <c r="J75" s="103"/>
-      <c r="K75" s="103"/>
-      <c r="L75" s="103"/>
-      <c r="M75" s="103"/>
-      <c r="N75" s="103"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="61"/>
+      <c r="K75" s="61"/>
+      <c r="L75" s="61"/>
+      <c r="M75" s="61"/>
+      <c r="N75" s="61"/>
       <c r="O75" s="14" t="s">
         <v>97</v>
       </c>
@@ -8186,22 +8295,22 @@
         <f>ROW()-75</f>
         <v>1</v>
       </c>
-      <c r="C76" s="104"/>
+      <c r="C76" s="62"/>
       <c r="D76" s="49">
         <v>4</v>
       </c>
-      <c r="E76" s="105"/>
-      <c r="F76" s="105"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
       <c r="G76" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="H76" s="105"/>
-      <c r="I76" s="105"/>
-      <c r="J76" s="105"/>
-      <c r="K76" s="105"/>
-      <c r="L76" s="105"/>
-      <c r="M76" s="105"/>
-      <c r="N76" s="105"/>
+      <c r="H76" s="63"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="63"/>
+      <c r="K76" s="63"/>
+      <c r="L76" s="63"/>
+      <c r="M76" s="63"/>
+      <c r="N76" s="63"/>
       <c r="O76" s="50" t="s">
         <v>99</v>
       </c>
@@ -8259,18 +8368,18 @@
         <f t="shared" ref="B77:B88" si="2">ROW()-75</f>
         <v>2</v>
       </c>
-      <c r="C77" s="104"/>
+      <c r="C77" s="62"/>
       <c r="D77" s="49"/>
-      <c r="E77" s="105"/>
-      <c r="F77" s="105"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
       <c r="G77" s="49"/>
-      <c r="H77" s="105"/>
-      <c r="I77" s="105"/>
-      <c r="J77" s="105"/>
-      <c r="K77" s="105"/>
-      <c r="L77" s="105"/>
-      <c r="M77" s="105"/>
-      <c r="N77" s="105"/>
+      <c r="H77" s="63"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="63"/>
+      <c r="L77" s="63"/>
+      <c r="M77" s="63"/>
+      <c r="N77" s="63"/>
       <c r="O77" s="50" t="s">
         <v>105</v>
       </c>
@@ -8328,22 +8437,22 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C78" s="104"/>
+      <c r="C78" s="62"/>
       <c r="D78" s="49">
         <v>5</v>
       </c>
-      <c r="E78" s="105"/>
-      <c r="F78" s="105"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="63"/>
       <c r="G78" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="H78" s="105"/>
-      <c r="I78" s="105"/>
-      <c r="J78" s="105"/>
-      <c r="K78" s="105"/>
-      <c r="L78" s="105"/>
-      <c r="M78" s="105"/>
-      <c r="N78" s="105"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="63"/>
+      <c r="K78" s="63"/>
+      <c r="L78" s="63"/>
+      <c r="M78" s="63"/>
+      <c r="N78" s="63"/>
       <c r="O78" s="50" t="s">
         <v>99</v>
       </c>
@@ -8401,18 +8510,18 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C79" s="104"/>
+      <c r="C79" s="62"/>
       <c r="D79" s="49"/>
-      <c r="E79" s="105"/>
-      <c r="F79" s="105"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
       <c r="G79" s="49"/>
-      <c r="H79" s="105"/>
-      <c r="I79" s="105"/>
-      <c r="J79" s="105"/>
-      <c r="K79" s="105"/>
-      <c r="L79" s="105"/>
-      <c r="M79" s="105"/>
-      <c r="N79" s="105"/>
+      <c r="H79" s="63"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="63"/>
+      <c r="M79" s="63"/>
+      <c r="N79" s="63"/>
       <c r="O79" s="50" t="s">
         <v>110</v>
       </c>
@@ -8470,18 +8579,18 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C80" s="104"/>
+      <c r="C80" s="62"/>
       <c r="D80" s="49"/>
-      <c r="E80" s="105"/>
-      <c r="F80" s="105"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="63"/>
       <c r="G80" s="49"/>
-      <c r="H80" s="105"/>
-      <c r="I80" s="105"/>
-      <c r="J80" s="105"/>
-      <c r="K80" s="105"/>
-      <c r="L80" s="105"/>
-      <c r="M80" s="105"/>
-      <c r="N80" s="105"/>
+      <c r="H80" s="63"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="63"/>
+      <c r="K80" s="63"/>
+      <c r="L80" s="63"/>
+      <c r="M80" s="63"/>
+      <c r="N80" s="63"/>
       <c r="O80" s="50" t="s">
         <v>128</v>
       </c>
@@ -8539,18 +8648,18 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C81" s="104"/>
+      <c r="C81" s="62"/>
       <c r="D81" s="49"/>
-      <c r="E81" s="105"/>
-      <c r="F81" s="105"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
       <c r="G81" s="49"/>
-      <c r="H81" s="105"/>
-      <c r="I81" s="105"/>
-      <c r="J81" s="105"/>
-      <c r="K81" s="105"/>
-      <c r="L81" s="105"/>
-      <c r="M81" s="105"/>
-      <c r="N81" s="105"/>
+      <c r="H81" s="63"/>
+      <c r="I81" s="63"/>
+      <c r="J81" s="63"/>
+      <c r="K81" s="63"/>
+      <c r="L81" s="63"/>
+      <c r="M81" s="63"/>
+      <c r="N81" s="63"/>
       <c r="O81" s="50" t="s">
         <v>116</v>
       </c>
@@ -8608,18 +8717,18 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C82" s="104"/>
+      <c r="C82" s="62"/>
       <c r="D82" s="49"/>
-      <c r="E82" s="105"/>
-      <c r="F82" s="105"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="63"/>
       <c r="G82" s="49"/>
-      <c r="H82" s="105"/>
-      <c r="I82" s="105"/>
-      <c r="J82" s="105"/>
-      <c r="K82" s="105"/>
-      <c r="L82" s="105"/>
-      <c r="M82" s="105"/>
-      <c r="N82" s="105"/>
+      <c r="H82" s="63"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="63"/>
+      <c r="K82" s="63"/>
+      <c r="L82" s="63"/>
+      <c r="M82" s="63"/>
+      <c r="N82" s="63"/>
       <c r="O82" s="50" t="s">
         <v>129</v>
       </c>
@@ -8677,22 +8786,22 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C83" s="104"/>
+      <c r="C83" s="62"/>
       <c r="D83" s="49">
         <v>6</v>
       </c>
-      <c r="E83" s="105"/>
-      <c r="F83" s="105"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
       <c r="G83" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="H83" s="105"/>
-      <c r="I83" s="105"/>
-      <c r="J83" s="105"/>
-      <c r="K83" s="105"/>
-      <c r="L83" s="105"/>
-      <c r="M83" s="105"/>
-      <c r="N83" s="105"/>
+      <c r="H83" s="63"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="63"/>
+      <c r="K83" s="63"/>
+      <c r="L83" s="63"/>
+      <c r="M83" s="63"/>
+      <c r="N83" s="63"/>
       <c r="O83" s="50" t="s">
         <v>99</v>
       </c>
@@ -8750,18 +8859,18 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C84" s="104"/>
+      <c r="C84" s="62"/>
       <c r="D84" s="49"/>
-      <c r="E84" s="105"/>
-      <c r="F84" s="105"/>
+      <c r="E84" s="63"/>
+      <c r="F84" s="63"/>
       <c r="G84" s="49"/>
-      <c r="H84" s="105"/>
-      <c r="I84" s="105"/>
-      <c r="J84" s="105"/>
-      <c r="K84" s="105"/>
-      <c r="L84" s="105"/>
-      <c r="M84" s="105"/>
-      <c r="N84" s="105"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="63"/>
+      <c r="K84" s="63"/>
+      <c r="L84" s="63"/>
+      <c r="M84" s="63"/>
+      <c r="N84" s="63"/>
       <c r="O84" s="50" t="s">
         <v>110</v>
       </c>
@@ -8819,18 +8928,18 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C85" s="104"/>
+      <c r="C85" s="62"/>
       <c r="D85" s="49"/>
-      <c r="E85" s="105"/>
-      <c r="F85" s="105"/>
+      <c r="E85" s="63"/>
+      <c r="F85" s="63"/>
       <c r="G85" s="49"/>
-      <c r="H85" s="105"/>
-      <c r="I85" s="105"/>
-      <c r="J85" s="105"/>
-      <c r="K85" s="105"/>
-      <c r="L85" s="105"/>
-      <c r="M85" s="105"/>
-      <c r="N85" s="105"/>
+      <c r="H85" s="63"/>
+      <c r="I85" s="63"/>
+      <c r="J85" s="63"/>
+      <c r="K85" s="63"/>
+      <c r="L85" s="63"/>
+      <c r="M85" s="63"/>
+      <c r="N85" s="63"/>
       <c r="O85" s="50" t="s">
         <v>128</v>
       </c>
@@ -8888,18 +8997,18 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C86" s="104"/>
+      <c r="C86" s="62"/>
       <c r="D86" s="49"/>
-      <c r="E86" s="105"/>
-      <c r="F86" s="105"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
       <c r="G86" s="49"/>
-      <c r="H86" s="105"/>
-      <c r="I86" s="105"/>
-      <c r="J86" s="105"/>
-      <c r="K86" s="105"/>
-      <c r="L86" s="105"/>
-      <c r="M86" s="105"/>
-      <c r="N86" s="105"/>
+      <c r="H86" s="63"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="63"/>
+      <c r="K86" s="63"/>
+      <c r="L86" s="63"/>
+      <c r="M86" s="63"/>
+      <c r="N86" s="63"/>
       <c r="O86" s="50" t="s">
         <v>116</v>
       </c>
@@ -8957,18 +9066,18 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C87" s="104"/>
+      <c r="C87" s="62"/>
       <c r="D87" s="49"/>
-      <c r="E87" s="105"/>
-      <c r="F87" s="105"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="63"/>
       <c r="G87" s="49"/>
-      <c r="H87" s="105"/>
-      <c r="I87" s="105"/>
-      <c r="J87" s="105"/>
-      <c r="K87" s="105"/>
-      <c r="L87" s="105"/>
-      <c r="M87" s="105"/>
-      <c r="N87" s="105"/>
+      <c r="H87" s="63"/>
+      <c r="I87" s="63"/>
+      <c r="J87" s="63"/>
+      <c r="K87" s="63"/>
+      <c r="L87" s="63"/>
+      <c r="M87" s="63"/>
+      <c r="N87" s="63"/>
       <c r="O87" s="50" t="s">
         <v>129</v>
       </c>
@@ -9026,22 +9135,22 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C88" s="104"/>
+      <c r="C88" s="62"/>
       <c r="D88" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="E88" s="105"/>
-      <c r="F88" s="105"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="63"/>
       <c r="G88" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="H88" s="105"/>
-      <c r="I88" s="105"/>
-      <c r="J88" s="105"/>
-      <c r="K88" s="105"/>
-      <c r="L88" s="105"/>
-      <c r="M88" s="105"/>
-      <c r="N88" s="105"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="63"/>
+      <c r="K88" s="63"/>
+      <c r="L88" s="63"/>
+      <c r="M88" s="63"/>
+      <c r="N88" s="63"/>
       <c r="O88" s="50" t="s">
         <v>124</v>
       </c>
@@ -9093,23 +9202,23 @@
       <c r="BE88" s="17"/>
       <c r="BF88" s="17"/>
     </row>
-    <row r="89" spans="1:58" ht="14.25">
+    <row r="89" spans="1:58">
       <c r="A89" s="28"/>
-      <c r="B89" s="106"/>
-      <c r="C89" s="107"/>
-      <c r="D89" s="108"/>
-      <c r="E89" s="108"/>
-      <c r="F89" s="108"/>
-      <c r="G89" s="108"/>
-      <c r="H89" s="108"/>
-      <c r="I89" s="108"/>
-      <c r="J89" s="108"/>
-      <c r="K89" s="108"/>
-      <c r="L89" s="108"/>
-      <c r="M89" s="108"/>
-      <c r="N89" s="108"/>
-    </row>
-    <row r="90" spans="1:58" ht="14.25">
+      <c r="B89" s="64"/>
+      <c r="C89" s="65"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="66"/>
+      <c r="I89" s="66"/>
+      <c r="J89" s="66"/>
+      <c r="K89" s="66"/>
+      <c r="L89" s="66"/>
+      <c r="M89" s="66"/>
+      <c r="N89" s="66"/>
+    </row>
+    <row r="90" spans="1:58">
       <c r="A90" s="28"/>
       <c r="B90" s="30"/>
       <c r="C90" s="29"/>
@@ -9139,10 +9248,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="4" max="4" width="50.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="18">

--- a/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_ユーザ情報編集画面.xlsx
+++ b/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_ユーザ情報編集画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beaming-boy/growth/テトリス/ドキュメント共有フォルダ/2021年_テトリス/02_基本設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454CF5F5-38E3-4640-ACE1-5D0DC530C248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907B0776-51AB-504B-B0CB-90A16C360070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20920" activeTab="2" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
@@ -32,11 +32,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -581,16 +578,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>各項目のバリデーションを行いニックネームとパスワードを更新する</t>
-    <rPh sb="0" eb="3">
-      <t>カクコウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウシｎン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>編集内容を破棄して、ログイン後メニュー画面へ遷移する</t>
     <rPh sb="0" eb="4">
       <t>ヘンシュウ</t>
@@ -890,6 +877,25 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各項目のバリデーションを行いニックネームとパスワードを更新する、完了後、完了メッセージをメッセージエリアに表示する。</t>
+    <rPh sb="0" eb="3">
+      <t>カクコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウシｎン</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>カンリョウグ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カンリョウム</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1257,7 +1263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1459,6 +1465,51 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1486,50 +1537,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1549,15 +1564,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1584,6 +1590,12 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1637,7 +1649,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3992"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s4003"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1740,7 +1752,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2965"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2976"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2268,191 +2280,191 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="76" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="76" t="s">
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="76" t="s">
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="78"/>
-      <c r="AK1" s="76" t="s">
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="77"/>
-      <c r="AN1" s="77"/>
-      <c r="AO1" s="78"/>
-      <c r="AP1" s="76" t="s">
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="AQ1" s="77"/>
-      <c r="AR1" s="77"/>
-      <c r="AS1" s="77"/>
-      <c r="AT1" s="78"/>
-      <c r="AU1" s="76" t="s">
+      <c r="AQ1" s="68"/>
+      <c r="AR1" s="68"/>
+      <c r="AS1" s="68"/>
+      <c r="AT1" s="69"/>
+      <c r="AU1" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="AV1" s="77"/>
-      <c r="AW1" s="77"/>
-      <c r="AX1" s="77"/>
-      <c r="AY1" s="78"/>
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="68"/>
+      <c r="AX1" s="68"/>
+      <c r="AY1" s="69"/>
       <c r="BB1" s="3"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="79" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="79" t="s">
-        <v>133</v>
-      </c>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="85">
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="76">
         <v>44577</v>
       </c>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="87"/>
-      <c r="AK2" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL2" s="80"/>
-      <c r="AM2" s="80"/>
-      <c r="AN2" s="80"/>
-      <c r="AO2" s="81"/>
-      <c r="AP2" s="85">
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="72"/>
+      <c r="AP2" s="76">
         <v>44619</v>
       </c>
-      <c r="AQ2" s="86"/>
-      <c r="AR2" s="86"/>
-      <c r="AS2" s="86"/>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="79" t="s">
-        <v>130</v>
-      </c>
-      <c r="AV2" s="80"/>
-      <c r="AW2" s="80"/>
-      <c r="AX2" s="80"/>
-      <c r="AY2" s="81"/>
+      <c r="AQ2" s="77"/>
+      <c r="AR2" s="77"/>
+      <c r="AS2" s="77"/>
+      <c r="AT2" s="78"/>
+      <c r="AU2" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="72"/>
       <c r="BB2" s="3"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="83"/>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="83"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="88"/>
-      <c r="AG3" s="89"/>
-      <c r="AH3" s="89"/>
-      <c r="AI3" s="89"/>
-      <c r="AJ3" s="90"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="83"/>
-      <c r="AM3" s="83"/>
-      <c r="AN3" s="83"/>
-      <c r="AO3" s="84"/>
-      <c r="AP3" s="88"/>
-      <c r="AQ3" s="89"/>
-      <c r="AR3" s="89"/>
-      <c r="AS3" s="89"/>
-      <c r="AT3" s="90"/>
-      <c r="AU3" s="82"/>
-      <c r="AV3" s="83"/>
-      <c r="AW3" s="83"/>
-      <c r="AX3" s="83"/>
-      <c r="AY3" s="84"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="81"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="74"/>
+      <c r="AM3" s="74"/>
+      <c r="AN3" s="74"/>
+      <c r="AO3" s="75"/>
+      <c r="AP3" s="79"/>
+      <c r="AQ3" s="80"/>
+      <c r="AR3" s="80"/>
+      <c r="AS3" s="80"/>
+      <c r="AT3" s="81"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="74"/>
+      <c r="AW3" s="74"/>
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="75"/>
       <c r="BB3" s="3"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1">
@@ -2469,6 +2481,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="K2:AE3"/>
+    <mergeCell ref="F2:J3"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="AP1:AT1"/>
@@ -2477,11 +2494,6 @@
     <mergeCell ref="AP2:AT3"/>
     <mergeCell ref="AK2:AO3"/>
     <mergeCell ref="AF2:AJ3"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="K2:AE3"/>
-    <mergeCell ref="F2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2583,118 +2595,118 @@
         <v>1</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="91">
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="94">
         <v>44577</v>
       </c>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="94" t="s">
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" s="98"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="98"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="95"/>
-      <c r="S8" s="95"/>
-      <c r="T8" s="95"/>
-      <c r="U8" s="95"/>
-      <c r="V8" s="95"/>
-      <c r="W8" s="95"/>
-      <c r="X8" s="95"/>
-      <c r="Y8" s="95"/>
-      <c r="Z8" s="95"/>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="95"/>
-      <c r="AE8" s="95"/>
-      <c r="AF8" s="95"/>
-      <c r="AG8" s="95"/>
-      <c r="AH8" s="95"/>
-      <c r="AI8" s="95"/>
-      <c r="AJ8" s="95"/>
-      <c r="AK8" s="95"/>
-      <c r="AL8" s="96"/>
-      <c r="AM8" s="94"/>
-      <c r="AN8" s="95"/>
-      <c r="AO8" s="95"/>
-      <c r="AP8" s="95"/>
-      <c r="AQ8" s="95"/>
-      <c r="AR8" s="95"/>
-      <c r="AS8" s="95"/>
-      <c r="AT8" s="95"/>
-      <c r="AU8" s="95"/>
-      <c r="AV8" s="95"/>
-      <c r="AW8" s="95"/>
-      <c r="AX8" s="95"/>
-      <c r="AY8" s="95"/>
-      <c r="AZ8" s="96"/>
+      <c r="R8" s="98"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="98"/>
+      <c r="U8" s="98"/>
+      <c r="V8" s="98"/>
+      <c r="W8" s="98"/>
+      <c r="X8" s="98"/>
+      <c r="Y8" s="98"/>
+      <c r="Z8" s="98"/>
+      <c r="AA8" s="98"/>
+      <c r="AB8" s="98"/>
+      <c r="AC8" s="98"/>
+      <c r="AD8" s="98"/>
+      <c r="AE8" s="98"/>
+      <c r="AF8" s="98"/>
+      <c r="AG8" s="98"/>
+      <c r="AH8" s="98"/>
+      <c r="AI8" s="98"/>
+      <c r="AJ8" s="98"/>
+      <c r="AK8" s="98"/>
+      <c r="AL8" s="99"/>
+      <c r="AM8" s="97"/>
+      <c r="AN8" s="98"/>
+      <c r="AO8" s="98"/>
+      <c r="AP8" s="98"/>
+      <c r="AQ8" s="98"/>
+      <c r="AR8" s="98"/>
+      <c r="AS8" s="98"/>
+      <c r="AT8" s="98"/>
+      <c r="AU8" s="98"/>
+      <c r="AV8" s="98"/>
+      <c r="AW8" s="98"/>
+      <c r="AX8" s="98"/>
+      <c r="AY8" s="98"/>
+      <c r="AZ8" s="99"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="95"/>
-      <c r="U9" s="95"/>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="95"/>
-      <c r="AA9" s="95"/>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="95"/>
-      <c r="AD9" s="95"/>
-      <c r="AE9" s="95"/>
-      <c r="AF9" s="95"/>
-      <c r="AG9" s="95"/>
-      <c r="AH9" s="95"/>
-      <c r="AI9" s="95"/>
-      <c r="AJ9" s="95"/>
-      <c r="AK9" s="95"/>
-      <c r="AL9" s="96"/>
-      <c r="AM9" s="94"/>
-      <c r="AN9" s="95"/>
-      <c r="AO9" s="95"/>
-      <c r="AP9" s="95"/>
-      <c r="AQ9" s="95"/>
-      <c r="AR9" s="95"/>
-      <c r="AS9" s="95"/>
-      <c r="AT9" s="95"/>
-      <c r="AU9" s="95"/>
-      <c r="AV9" s="95"/>
-      <c r="AW9" s="95"/>
-      <c r="AX9" s="95"/>
-      <c r="AY9" s="95"/>
-      <c r="AZ9" s="96"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="98"/>
+      <c r="AF9" s="98"/>
+      <c r="AG9" s="98"/>
+      <c r="AH9" s="98"/>
+      <c r="AI9" s="98"/>
+      <c r="AJ9" s="98"/>
+      <c r="AK9" s="98"/>
+      <c r="AL9" s="99"/>
+      <c r="AM9" s="97"/>
+      <c r="AN9" s="98"/>
+      <c r="AO9" s="98"/>
+      <c r="AP9" s="98"/>
+      <c r="AQ9" s="98"/>
+      <c r="AR9" s="98"/>
+      <c r="AS9" s="98"/>
+      <c r="AT9" s="98"/>
+      <c r="AU9" s="98"/>
+      <c r="AV9" s="98"/>
+      <c r="AW9" s="98"/>
+      <c r="AX9" s="98"/>
+      <c r="AY9" s="98"/>
+      <c r="AZ9" s="99"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="9" t="str">
@@ -2702,56 +2714,56 @@
         <v/>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="95"/>
-      <c r="V10" s="95"/>
-      <c r="W10" s="95"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="95"/>
-      <c r="AA10" s="95"/>
-      <c r="AB10" s="95"/>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="95"/>
-      <c r="AE10" s="95"/>
-      <c r="AF10" s="95"/>
-      <c r="AG10" s="95"/>
-      <c r="AH10" s="95"/>
-      <c r="AI10" s="95"/>
-      <c r="AJ10" s="95"/>
-      <c r="AK10" s="95"/>
-      <c r="AL10" s="96"/>
-      <c r="AM10" s="94"/>
-      <c r="AN10" s="95"/>
-      <c r="AO10" s="95"/>
-      <c r="AP10" s="95"/>
-      <c r="AQ10" s="95"/>
-      <c r="AR10" s="95"/>
-      <c r="AS10" s="95"/>
-      <c r="AT10" s="95"/>
-      <c r="AU10" s="95"/>
-      <c r="AV10" s="95"/>
-      <c r="AW10" s="95"/>
-      <c r="AX10" s="95"/>
-      <c r="AY10" s="95"/>
-      <c r="AZ10" s="96"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="98"/>
+      <c r="AF10" s="98"/>
+      <c r="AG10" s="98"/>
+      <c r="AH10" s="98"/>
+      <c r="AI10" s="98"/>
+      <c r="AJ10" s="98"/>
+      <c r="AK10" s="98"/>
+      <c r="AL10" s="99"/>
+      <c r="AM10" s="97"/>
+      <c r="AN10" s="98"/>
+      <c r="AO10" s="98"/>
+      <c r="AP10" s="98"/>
+      <c r="AQ10" s="98"/>
+      <c r="AR10" s="98"/>
+      <c r="AS10" s="98"/>
+      <c r="AT10" s="98"/>
+      <c r="AU10" s="98"/>
+      <c r="AV10" s="98"/>
+      <c r="AW10" s="98"/>
+      <c r="AX10" s="98"/>
+      <c r="AY10" s="98"/>
+      <c r="AZ10" s="99"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="9" t="str">
@@ -2759,56 +2771,56 @@
         <v/>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="95"/>
-      <c r="W11" s="95"/>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="95"/>
-      <c r="AD11" s="95"/>
-      <c r="AE11" s="95"/>
-      <c r="AF11" s="95"/>
-      <c r="AG11" s="95"/>
-      <c r="AH11" s="95"/>
-      <c r="AI11" s="95"/>
-      <c r="AJ11" s="95"/>
-      <c r="AK11" s="95"/>
-      <c r="AL11" s="96"/>
-      <c r="AM11" s="94"/>
-      <c r="AN11" s="95"/>
-      <c r="AO11" s="95"/>
-      <c r="AP11" s="95"/>
-      <c r="AQ11" s="95"/>
-      <c r="AR11" s="95"/>
-      <c r="AS11" s="95"/>
-      <c r="AT11" s="95"/>
-      <c r="AU11" s="95"/>
-      <c r="AV11" s="95"/>
-      <c r="AW11" s="95"/>
-      <c r="AX11" s="95"/>
-      <c r="AY11" s="95"/>
-      <c r="AZ11" s="96"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="98"/>
+      <c r="AF11" s="98"/>
+      <c r="AG11" s="98"/>
+      <c r="AH11" s="98"/>
+      <c r="AI11" s="98"/>
+      <c r="AJ11" s="98"/>
+      <c r="AK11" s="98"/>
+      <c r="AL11" s="99"/>
+      <c r="AM11" s="97"/>
+      <c r="AN11" s="98"/>
+      <c r="AO11" s="98"/>
+      <c r="AP11" s="98"/>
+      <c r="AQ11" s="98"/>
+      <c r="AR11" s="98"/>
+      <c r="AS11" s="98"/>
+      <c r="AT11" s="98"/>
+      <c r="AU11" s="98"/>
+      <c r="AV11" s="98"/>
+      <c r="AW11" s="98"/>
+      <c r="AX11" s="98"/>
+      <c r="AY11" s="98"/>
+      <c r="AZ11" s="99"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="9" t="str">
@@ -2816,56 +2828,56 @@
         <v/>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="95"/>
-      <c r="AF12" s="95"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="95"/>
-      <c r="AI12" s="95"/>
-      <c r="AJ12" s="95"/>
-      <c r="AK12" s="95"/>
-      <c r="AL12" s="96"/>
-      <c r="AM12" s="94"/>
-      <c r="AN12" s="95"/>
-      <c r="AO12" s="95"/>
-      <c r="AP12" s="95"/>
-      <c r="AQ12" s="95"/>
-      <c r="AR12" s="95"/>
-      <c r="AS12" s="95"/>
-      <c r="AT12" s="95"/>
-      <c r="AU12" s="95"/>
-      <c r="AV12" s="95"/>
-      <c r="AW12" s="95"/>
-      <c r="AX12" s="95"/>
-      <c r="AY12" s="95"/>
-      <c r="AZ12" s="96"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="98"/>
+      <c r="AF12" s="98"/>
+      <c r="AG12" s="98"/>
+      <c r="AH12" s="98"/>
+      <c r="AI12" s="98"/>
+      <c r="AJ12" s="98"/>
+      <c r="AK12" s="98"/>
+      <c r="AL12" s="99"/>
+      <c r="AM12" s="97"/>
+      <c r="AN12" s="98"/>
+      <c r="AO12" s="98"/>
+      <c r="AP12" s="98"/>
+      <c r="AQ12" s="98"/>
+      <c r="AR12" s="98"/>
+      <c r="AS12" s="98"/>
+      <c r="AT12" s="98"/>
+      <c r="AU12" s="98"/>
+      <c r="AV12" s="98"/>
+      <c r="AW12" s="98"/>
+      <c r="AX12" s="98"/>
+      <c r="AY12" s="98"/>
+      <c r="AZ12" s="99"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="9" t="str">
@@ -2873,56 +2885,56 @@
         <v/>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="95"/>
-      <c r="AF13" s="95"/>
-      <c r="AG13" s="95"/>
-      <c r="AH13" s="95"/>
-      <c r="AI13" s="95"/>
-      <c r="AJ13" s="95"/>
-      <c r="AK13" s="95"/>
-      <c r="AL13" s="96"/>
-      <c r="AM13" s="94"/>
-      <c r="AN13" s="95"/>
-      <c r="AO13" s="95"/>
-      <c r="AP13" s="95"/>
-      <c r="AQ13" s="95"/>
-      <c r="AR13" s="95"/>
-      <c r="AS13" s="95"/>
-      <c r="AT13" s="95"/>
-      <c r="AU13" s="95"/>
-      <c r="AV13" s="95"/>
-      <c r="AW13" s="95"/>
-      <c r="AX13" s="95"/>
-      <c r="AY13" s="95"/>
-      <c r="AZ13" s="96"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="98"/>
+      <c r="AF13" s="98"/>
+      <c r="AG13" s="98"/>
+      <c r="AH13" s="98"/>
+      <c r="AI13" s="98"/>
+      <c r="AJ13" s="98"/>
+      <c r="AK13" s="98"/>
+      <c r="AL13" s="99"/>
+      <c r="AM13" s="97"/>
+      <c r="AN13" s="98"/>
+      <c r="AO13" s="98"/>
+      <c r="AP13" s="98"/>
+      <c r="AQ13" s="98"/>
+      <c r="AR13" s="98"/>
+      <c r="AS13" s="98"/>
+      <c r="AT13" s="98"/>
+      <c r="AU13" s="98"/>
+      <c r="AV13" s="98"/>
+      <c r="AW13" s="98"/>
+      <c r="AX13" s="98"/>
+      <c r="AY13" s="98"/>
+      <c r="AZ13" s="99"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="9" t="str">
@@ -2930,56 +2942,56 @@
         <v/>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="95"/>
-      <c r="AF14" s="95"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="95"/>
-      <c r="AI14" s="95"/>
-      <c r="AJ14" s="95"/>
-      <c r="AK14" s="95"/>
-      <c r="AL14" s="96"/>
-      <c r="AM14" s="94"/>
-      <c r="AN14" s="95"/>
-      <c r="AO14" s="95"/>
-      <c r="AP14" s="95"/>
-      <c r="AQ14" s="95"/>
-      <c r="AR14" s="95"/>
-      <c r="AS14" s="95"/>
-      <c r="AT14" s="95"/>
-      <c r="AU14" s="95"/>
-      <c r="AV14" s="95"/>
-      <c r="AW14" s="95"/>
-      <c r="AX14" s="95"/>
-      <c r="AY14" s="95"/>
-      <c r="AZ14" s="96"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="98"/>
+      <c r="AF14" s="98"/>
+      <c r="AG14" s="98"/>
+      <c r="AH14" s="98"/>
+      <c r="AI14" s="98"/>
+      <c r="AJ14" s="98"/>
+      <c r="AK14" s="98"/>
+      <c r="AL14" s="99"/>
+      <c r="AM14" s="97"/>
+      <c r="AN14" s="98"/>
+      <c r="AO14" s="98"/>
+      <c r="AP14" s="98"/>
+      <c r="AQ14" s="98"/>
+      <c r="AR14" s="98"/>
+      <c r="AS14" s="98"/>
+      <c r="AT14" s="98"/>
+      <c r="AU14" s="98"/>
+      <c r="AV14" s="98"/>
+      <c r="AW14" s="98"/>
+      <c r="AX14" s="98"/>
+      <c r="AY14" s="98"/>
+      <c r="AZ14" s="99"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="9" t="str">
@@ -2987,56 +2999,56 @@
         <v/>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="95"/>
-      <c r="AF15" s="95"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="95"/>
-      <c r="AI15" s="95"/>
-      <c r="AJ15" s="95"/>
-      <c r="AK15" s="95"/>
-      <c r="AL15" s="96"/>
-      <c r="AM15" s="94"/>
-      <c r="AN15" s="95"/>
-      <c r="AO15" s="95"/>
-      <c r="AP15" s="95"/>
-      <c r="AQ15" s="95"/>
-      <c r="AR15" s="95"/>
-      <c r="AS15" s="95"/>
-      <c r="AT15" s="95"/>
-      <c r="AU15" s="95"/>
-      <c r="AV15" s="95"/>
-      <c r="AW15" s="95"/>
-      <c r="AX15" s="95"/>
-      <c r="AY15" s="95"/>
-      <c r="AZ15" s="96"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="98"/>
+      <c r="AF15" s="98"/>
+      <c r="AG15" s="98"/>
+      <c r="AH15" s="98"/>
+      <c r="AI15" s="98"/>
+      <c r="AJ15" s="98"/>
+      <c r="AK15" s="98"/>
+      <c r="AL15" s="99"/>
+      <c r="AM15" s="97"/>
+      <c r="AN15" s="98"/>
+      <c r="AO15" s="98"/>
+      <c r="AP15" s="98"/>
+      <c r="AQ15" s="98"/>
+      <c r="AR15" s="98"/>
+      <c r="AS15" s="98"/>
+      <c r="AT15" s="98"/>
+      <c r="AU15" s="98"/>
+      <c r="AV15" s="98"/>
+      <c r="AW15" s="98"/>
+      <c r="AX15" s="98"/>
+      <c r="AY15" s="98"/>
+      <c r="AZ15" s="99"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="9" t="str">
@@ -3044,56 +3056,56 @@
         <v/>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="93"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="95"/>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="95"/>
-      <c r="AG16" s="95"/>
-      <c r="AH16" s="95"/>
-      <c r="AI16" s="95"/>
-      <c r="AJ16" s="95"/>
-      <c r="AK16" s="95"/>
-      <c r="AL16" s="96"/>
-      <c r="AM16" s="94"/>
-      <c r="AN16" s="95"/>
-      <c r="AO16" s="95"/>
-      <c r="AP16" s="95"/>
-      <c r="AQ16" s="95"/>
-      <c r="AR16" s="95"/>
-      <c r="AS16" s="95"/>
-      <c r="AT16" s="95"/>
-      <c r="AU16" s="95"/>
-      <c r="AV16" s="95"/>
-      <c r="AW16" s="95"/>
-      <c r="AX16" s="95"/>
-      <c r="AY16" s="95"/>
-      <c r="AZ16" s="96"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="98"/>
+      <c r="P16" s="99"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="98"/>
+      <c r="AF16" s="98"/>
+      <c r="AG16" s="98"/>
+      <c r="AH16" s="98"/>
+      <c r="AI16" s="98"/>
+      <c r="AJ16" s="98"/>
+      <c r="AK16" s="98"/>
+      <c r="AL16" s="99"/>
+      <c r="AM16" s="97"/>
+      <c r="AN16" s="98"/>
+      <c r="AO16" s="98"/>
+      <c r="AP16" s="98"/>
+      <c r="AQ16" s="98"/>
+      <c r="AR16" s="98"/>
+      <c r="AS16" s="98"/>
+      <c r="AT16" s="98"/>
+      <c r="AU16" s="98"/>
+      <c r="AV16" s="98"/>
+      <c r="AW16" s="98"/>
+      <c r="AX16" s="98"/>
+      <c r="AY16" s="98"/>
+      <c r="AZ16" s="99"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="9" t="str">
@@ -3101,56 +3113,56 @@
         <v/>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="95"/>
-      <c r="AB17" s="95"/>
-      <c r="AC17" s="95"/>
-      <c r="AD17" s="95"/>
-      <c r="AE17" s="95"/>
-      <c r="AF17" s="95"/>
-      <c r="AG17" s="95"/>
-      <c r="AH17" s="95"/>
-      <c r="AI17" s="95"/>
-      <c r="AJ17" s="95"/>
-      <c r="AK17" s="95"/>
-      <c r="AL17" s="96"/>
-      <c r="AM17" s="94"/>
-      <c r="AN17" s="95"/>
-      <c r="AO17" s="95"/>
-      <c r="AP17" s="95"/>
-      <c r="AQ17" s="95"/>
-      <c r="AR17" s="95"/>
-      <c r="AS17" s="95"/>
-      <c r="AT17" s="95"/>
-      <c r="AU17" s="95"/>
-      <c r="AV17" s="95"/>
-      <c r="AW17" s="95"/>
-      <c r="AX17" s="95"/>
-      <c r="AY17" s="95"/>
-      <c r="AZ17" s="96"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="98"/>
+      <c r="AF17" s="98"/>
+      <c r="AG17" s="98"/>
+      <c r="AH17" s="98"/>
+      <c r="AI17" s="98"/>
+      <c r="AJ17" s="98"/>
+      <c r="AK17" s="98"/>
+      <c r="AL17" s="99"/>
+      <c r="AM17" s="97"/>
+      <c r="AN17" s="98"/>
+      <c r="AO17" s="98"/>
+      <c r="AP17" s="98"/>
+      <c r="AQ17" s="98"/>
+      <c r="AR17" s="98"/>
+      <c r="AS17" s="98"/>
+      <c r="AT17" s="98"/>
+      <c r="AU17" s="98"/>
+      <c r="AV17" s="98"/>
+      <c r="AW17" s="98"/>
+      <c r="AX17" s="98"/>
+      <c r="AY17" s="98"/>
+      <c r="AZ17" s="99"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="9" t="str">
@@ -3158,56 +3170,56 @@
         <v/>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="95"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="95"/>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="95"/>
-      <c r="AF18" s="95"/>
-      <c r="AG18" s="95"/>
-      <c r="AH18" s="95"/>
-      <c r="AI18" s="95"/>
-      <c r="AJ18" s="95"/>
-      <c r="AK18" s="95"/>
-      <c r="AL18" s="96"/>
-      <c r="AM18" s="94"/>
-      <c r="AN18" s="95"/>
-      <c r="AO18" s="95"/>
-      <c r="AP18" s="95"/>
-      <c r="AQ18" s="95"/>
-      <c r="AR18" s="95"/>
-      <c r="AS18" s="95"/>
-      <c r="AT18" s="95"/>
-      <c r="AU18" s="95"/>
-      <c r="AV18" s="95"/>
-      <c r="AW18" s="95"/>
-      <c r="AX18" s="95"/>
-      <c r="AY18" s="95"/>
-      <c r="AZ18" s="96"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="98"/>
+      <c r="AF18" s="98"/>
+      <c r="AG18" s="98"/>
+      <c r="AH18" s="98"/>
+      <c r="AI18" s="98"/>
+      <c r="AJ18" s="98"/>
+      <c r="AK18" s="98"/>
+      <c r="AL18" s="99"/>
+      <c r="AM18" s="97"/>
+      <c r="AN18" s="98"/>
+      <c r="AO18" s="98"/>
+      <c r="AP18" s="98"/>
+      <c r="AQ18" s="98"/>
+      <c r="AR18" s="98"/>
+      <c r="AS18" s="98"/>
+      <c r="AT18" s="98"/>
+      <c r="AU18" s="98"/>
+      <c r="AV18" s="98"/>
+      <c r="AW18" s="98"/>
+      <c r="AX18" s="98"/>
+      <c r="AY18" s="98"/>
+      <c r="AZ18" s="99"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="9" t="str">
@@ -3215,56 +3227,56 @@
         <v/>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="95"/>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="95"/>
-      <c r="AE19" s="95"/>
-      <c r="AF19" s="95"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="95"/>
-      <c r="AI19" s="95"/>
-      <c r="AJ19" s="95"/>
-      <c r="AK19" s="95"/>
-      <c r="AL19" s="96"/>
-      <c r="AM19" s="94"/>
-      <c r="AN19" s="95"/>
-      <c r="AO19" s="95"/>
-      <c r="AP19" s="95"/>
-      <c r="AQ19" s="95"/>
-      <c r="AR19" s="95"/>
-      <c r="AS19" s="95"/>
-      <c r="AT19" s="95"/>
-      <c r="AU19" s="95"/>
-      <c r="AV19" s="95"/>
-      <c r="AW19" s="95"/>
-      <c r="AX19" s="95"/>
-      <c r="AY19" s="95"/>
-      <c r="AZ19" s="96"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="98"/>
+      <c r="AF19" s="98"/>
+      <c r="AG19" s="98"/>
+      <c r="AH19" s="98"/>
+      <c r="AI19" s="98"/>
+      <c r="AJ19" s="98"/>
+      <c r="AK19" s="98"/>
+      <c r="AL19" s="99"/>
+      <c r="AM19" s="97"/>
+      <c r="AN19" s="98"/>
+      <c r="AO19" s="98"/>
+      <c r="AP19" s="98"/>
+      <c r="AQ19" s="98"/>
+      <c r="AR19" s="98"/>
+      <c r="AS19" s="98"/>
+      <c r="AT19" s="98"/>
+      <c r="AU19" s="98"/>
+      <c r="AV19" s="98"/>
+      <c r="AW19" s="98"/>
+      <c r="AX19" s="98"/>
+      <c r="AY19" s="98"/>
+      <c r="AZ19" s="99"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="9" t="str">
@@ -3272,56 +3284,56 @@
         <v/>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="95"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="95"/>
-      <c r="AF20" s="95"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="95"/>
-      <c r="AI20" s="95"/>
-      <c r="AJ20" s="95"/>
-      <c r="AK20" s="95"/>
-      <c r="AL20" s="96"/>
-      <c r="AM20" s="94"/>
-      <c r="AN20" s="95"/>
-      <c r="AO20" s="95"/>
-      <c r="AP20" s="95"/>
-      <c r="AQ20" s="95"/>
-      <c r="AR20" s="95"/>
-      <c r="AS20" s="95"/>
-      <c r="AT20" s="95"/>
-      <c r="AU20" s="95"/>
-      <c r="AV20" s="95"/>
-      <c r="AW20" s="95"/>
-      <c r="AX20" s="95"/>
-      <c r="AY20" s="95"/>
-      <c r="AZ20" s="96"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="98"/>
+      <c r="AF20" s="98"/>
+      <c r="AG20" s="98"/>
+      <c r="AH20" s="98"/>
+      <c r="AI20" s="98"/>
+      <c r="AJ20" s="98"/>
+      <c r="AK20" s="98"/>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="97"/>
+      <c r="AN20" s="98"/>
+      <c r="AO20" s="98"/>
+      <c r="AP20" s="98"/>
+      <c r="AQ20" s="98"/>
+      <c r="AR20" s="98"/>
+      <c r="AS20" s="98"/>
+      <c r="AT20" s="98"/>
+      <c r="AU20" s="98"/>
+      <c r="AV20" s="98"/>
+      <c r="AW20" s="98"/>
+      <c r="AX20" s="98"/>
+      <c r="AY20" s="98"/>
+      <c r="AZ20" s="99"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="9" t="str">
@@ -3329,56 +3341,56 @@
         <v/>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="95"/>
-      <c r="AG21" s="95"/>
-      <c r="AH21" s="95"/>
-      <c r="AI21" s="95"/>
-      <c r="AJ21" s="95"/>
-      <c r="AK21" s="95"/>
-      <c r="AL21" s="96"/>
-      <c r="AM21" s="94"/>
-      <c r="AN21" s="95"/>
-      <c r="AO21" s="95"/>
-      <c r="AP21" s="95"/>
-      <c r="AQ21" s="95"/>
-      <c r="AR21" s="95"/>
-      <c r="AS21" s="95"/>
-      <c r="AT21" s="95"/>
-      <c r="AU21" s="95"/>
-      <c r="AV21" s="95"/>
-      <c r="AW21" s="95"/>
-      <c r="AX21" s="95"/>
-      <c r="AY21" s="95"/>
-      <c r="AZ21" s="96"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="98"/>
+      <c r="AF21" s="98"/>
+      <c r="AG21" s="98"/>
+      <c r="AH21" s="98"/>
+      <c r="AI21" s="98"/>
+      <c r="AJ21" s="98"/>
+      <c r="AK21" s="98"/>
+      <c r="AL21" s="99"/>
+      <c r="AM21" s="97"/>
+      <c r="AN21" s="98"/>
+      <c r="AO21" s="98"/>
+      <c r="AP21" s="98"/>
+      <c r="AQ21" s="98"/>
+      <c r="AR21" s="98"/>
+      <c r="AS21" s="98"/>
+      <c r="AT21" s="98"/>
+      <c r="AU21" s="98"/>
+      <c r="AV21" s="98"/>
+      <c r="AW21" s="98"/>
+      <c r="AX21" s="98"/>
+      <c r="AY21" s="98"/>
+      <c r="AZ21" s="99"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="9" t="str">
@@ -3386,56 +3398,56 @@
         <v/>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="95"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="95"/>
-      <c r="AE22" s="95"/>
-      <c r="AF22" s="95"/>
-      <c r="AG22" s="95"/>
-      <c r="AH22" s="95"/>
-      <c r="AI22" s="95"/>
-      <c r="AJ22" s="95"/>
-      <c r="AK22" s="95"/>
-      <c r="AL22" s="96"/>
-      <c r="AM22" s="94"/>
-      <c r="AN22" s="95"/>
-      <c r="AO22" s="95"/>
-      <c r="AP22" s="95"/>
-      <c r="AQ22" s="95"/>
-      <c r="AR22" s="95"/>
-      <c r="AS22" s="95"/>
-      <c r="AT22" s="95"/>
-      <c r="AU22" s="95"/>
-      <c r="AV22" s="95"/>
-      <c r="AW22" s="95"/>
-      <c r="AX22" s="95"/>
-      <c r="AY22" s="95"/>
-      <c r="AZ22" s="96"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="98"/>
+      <c r="N22" s="98"/>
+      <c r="O22" s="98"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="98"/>
+      <c r="AF22" s="98"/>
+      <c r="AG22" s="98"/>
+      <c r="AH22" s="98"/>
+      <c r="AI22" s="98"/>
+      <c r="AJ22" s="98"/>
+      <c r="AK22" s="98"/>
+      <c r="AL22" s="99"/>
+      <c r="AM22" s="97"/>
+      <c r="AN22" s="98"/>
+      <c r="AO22" s="98"/>
+      <c r="AP22" s="98"/>
+      <c r="AQ22" s="98"/>
+      <c r="AR22" s="98"/>
+      <c r="AS22" s="98"/>
+      <c r="AT22" s="98"/>
+      <c r="AU22" s="98"/>
+      <c r="AV22" s="98"/>
+      <c r="AW22" s="98"/>
+      <c r="AX22" s="98"/>
+      <c r="AY22" s="98"/>
+      <c r="AZ22" s="99"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="9" t="str">
@@ -3443,56 +3455,56 @@
         <v/>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="93"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="95"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95"/>
-      <c r="AE23" s="95"/>
-      <c r="AF23" s="95"/>
-      <c r="AG23" s="95"/>
-      <c r="AH23" s="95"/>
-      <c r="AI23" s="95"/>
-      <c r="AJ23" s="95"/>
-      <c r="AK23" s="95"/>
-      <c r="AL23" s="96"/>
-      <c r="AM23" s="94"/>
-      <c r="AN23" s="95"/>
-      <c r="AO23" s="95"/>
-      <c r="AP23" s="95"/>
-      <c r="AQ23" s="95"/>
-      <c r="AR23" s="95"/>
-      <c r="AS23" s="95"/>
-      <c r="AT23" s="95"/>
-      <c r="AU23" s="95"/>
-      <c r="AV23" s="95"/>
-      <c r="AW23" s="95"/>
-      <c r="AX23" s="95"/>
-      <c r="AY23" s="95"/>
-      <c r="AZ23" s="96"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="98"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="98"/>
+      <c r="AF23" s="98"/>
+      <c r="AG23" s="98"/>
+      <c r="AH23" s="98"/>
+      <c r="AI23" s="98"/>
+      <c r="AJ23" s="98"/>
+      <c r="AK23" s="98"/>
+      <c r="AL23" s="99"/>
+      <c r="AM23" s="97"/>
+      <c r="AN23" s="98"/>
+      <c r="AO23" s="98"/>
+      <c r="AP23" s="98"/>
+      <c r="AQ23" s="98"/>
+      <c r="AR23" s="98"/>
+      <c r="AS23" s="98"/>
+      <c r="AT23" s="98"/>
+      <c r="AU23" s="98"/>
+      <c r="AV23" s="98"/>
+      <c r="AW23" s="98"/>
+      <c r="AX23" s="98"/>
+      <c r="AY23" s="98"/>
+      <c r="AZ23" s="99"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="9" t="str">
@@ -3500,56 +3512,56 @@
         <v/>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="95"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="95"/>
-      <c r="AE24" s="95"/>
-      <c r="AF24" s="95"/>
-      <c r="AG24" s="95"/>
-      <c r="AH24" s="95"/>
-      <c r="AI24" s="95"/>
-      <c r="AJ24" s="95"/>
-      <c r="AK24" s="95"/>
-      <c r="AL24" s="96"/>
-      <c r="AM24" s="94"/>
-      <c r="AN24" s="95"/>
-      <c r="AO24" s="95"/>
-      <c r="AP24" s="95"/>
-      <c r="AQ24" s="95"/>
-      <c r="AR24" s="95"/>
-      <c r="AS24" s="95"/>
-      <c r="AT24" s="95"/>
-      <c r="AU24" s="95"/>
-      <c r="AV24" s="95"/>
-      <c r="AW24" s="95"/>
-      <c r="AX24" s="95"/>
-      <c r="AY24" s="95"/>
-      <c r="AZ24" s="96"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="98"/>
+      <c r="AF24" s="98"/>
+      <c r="AG24" s="98"/>
+      <c r="AH24" s="98"/>
+      <c r="AI24" s="98"/>
+      <c r="AJ24" s="98"/>
+      <c r="AK24" s="98"/>
+      <c r="AL24" s="99"/>
+      <c r="AM24" s="97"/>
+      <c r="AN24" s="98"/>
+      <c r="AO24" s="98"/>
+      <c r="AP24" s="98"/>
+      <c r="AQ24" s="98"/>
+      <c r="AR24" s="98"/>
+      <c r="AS24" s="98"/>
+      <c r="AT24" s="98"/>
+      <c r="AU24" s="98"/>
+      <c r="AV24" s="98"/>
+      <c r="AW24" s="98"/>
+      <c r="AX24" s="98"/>
+      <c r="AY24" s="98"/>
+      <c r="AZ24" s="99"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="9" t="str">
@@ -3557,56 +3569,56 @@
         <v/>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="95"/>
-      <c r="W25" s="95"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="95"/>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95"/>
-      <c r="AE25" s="95"/>
-      <c r="AF25" s="95"/>
-      <c r="AG25" s="95"/>
-      <c r="AH25" s="95"/>
-      <c r="AI25" s="95"/>
-      <c r="AJ25" s="95"/>
-      <c r="AK25" s="95"/>
-      <c r="AL25" s="96"/>
-      <c r="AM25" s="94"/>
-      <c r="AN25" s="95"/>
-      <c r="AO25" s="95"/>
-      <c r="AP25" s="95"/>
-      <c r="AQ25" s="95"/>
-      <c r="AR25" s="95"/>
-      <c r="AS25" s="95"/>
-      <c r="AT25" s="95"/>
-      <c r="AU25" s="95"/>
-      <c r="AV25" s="95"/>
-      <c r="AW25" s="95"/>
-      <c r="AX25" s="95"/>
-      <c r="AY25" s="95"/>
-      <c r="AZ25" s="96"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="98"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="98"/>
+      <c r="AF25" s="98"/>
+      <c r="AG25" s="98"/>
+      <c r="AH25" s="98"/>
+      <c r="AI25" s="98"/>
+      <c r="AJ25" s="98"/>
+      <c r="AK25" s="98"/>
+      <c r="AL25" s="99"/>
+      <c r="AM25" s="97"/>
+      <c r="AN25" s="98"/>
+      <c r="AO25" s="98"/>
+      <c r="AP25" s="98"/>
+      <c r="AQ25" s="98"/>
+      <c r="AR25" s="98"/>
+      <c r="AS25" s="98"/>
+      <c r="AT25" s="98"/>
+      <c r="AU25" s="98"/>
+      <c r="AV25" s="98"/>
+      <c r="AW25" s="98"/>
+      <c r="AX25" s="98"/>
+      <c r="AY25" s="98"/>
+      <c r="AZ25" s="99"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="9" t="str">
@@ -3614,56 +3626,56 @@
         <v/>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="95"/>
-      <c r="U26" s="95"/>
-      <c r="V26" s="95"/>
-      <c r="W26" s="95"/>
-      <c r="X26" s="95"/>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="95"/>
-      <c r="AA26" s="95"/>
-      <c r="AB26" s="95"/>
-      <c r="AC26" s="95"/>
-      <c r="AD26" s="95"/>
-      <c r="AE26" s="95"/>
-      <c r="AF26" s="95"/>
-      <c r="AG26" s="95"/>
-      <c r="AH26" s="95"/>
-      <c r="AI26" s="95"/>
-      <c r="AJ26" s="95"/>
-      <c r="AK26" s="95"/>
-      <c r="AL26" s="96"/>
-      <c r="AM26" s="94"/>
-      <c r="AN26" s="95"/>
-      <c r="AO26" s="95"/>
-      <c r="AP26" s="95"/>
-      <c r="AQ26" s="95"/>
-      <c r="AR26" s="95"/>
-      <c r="AS26" s="95"/>
-      <c r="AT26" s="95"/>
-      <c r="AU26" s="95"/>
-      <c r="AV26" s="95"/>
-      <c r="AW26" s="95"/>
-      <c r="AX26" s="95"/>
-      <c r="AY26" s="95"/>
-      <c r="AZ26" s="96"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="98"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="98"/>
+      <c r="AF26" s="98"/>
+      <c r="AG26" s="98"/>
+      <c r="AH26" s="98"/>
+      <c r="AI26" s="98"/>
+      <c r="AJ26" s="98"/>
+      <c r="AK26" s="98"/>
+      <c r="AL26" s="99"/>
+      <c r="AM26" s="97"/>
+      <c r="AN26" s="98"/>
+      <c r="AO26" s="98"/>
+      <c r="AP26" s="98"/>
+      <c r="AQ26" s="98"/>
+      <c r="AR26" s="98"/>
+      <c r="AS26" s="98"/>
+      <c r="AT26" s="98"/>
+      <c r="AU26" s="98"/>
+      <c r="AV26" s="98"/>
+      <c r="AW26" s="98"/>
+      <c r="AX26" s="98"/>
+      <c r="AY26" s="98"/>
+      <c r="AZ26" s="99"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="9" t="str">
@@ -3671,56 +3683,56 @@
         <v/>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="95"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="95"/>
-      <c r="X27" s="95"/>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="95"/>
-      <c r="AA27" s="95"/>
-      <c r="AB27" s="95"/>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="95"/>
-      <c r="AF27" s="95"/>
-      <c r="AG27" s="95"/>
-      <c r="AH27" s="95"/>
-      <c r="AI27" s="95"/>
-      <c r="AJ27" s="95"/>
-      <c r="AK27" s="95"/>
-      <c r="AL27" s="96"/>
-      <c r="AM27" s="94"/>
-      <c r="AN27" s="95"/>
-      <c r="AO27" s="95"/>
-      <c r="AP27" s="95"/>
-      <c r="AQ27" s="95"/>
-      <c r="AR27" s="95"/>
-      <c r="AS27" s="95"/>
-      <c r="AT27" s="95"/>
-      <c r="AU27" s="95"/>
-      <c r="AV27" s="95"/>
-      <c r="AW27" s="95"/>
-      <c r="AX27" s="95"/>
-      <c r="AY27" s="95"/>
-      <c r="AZ27" s="96"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="98"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="98"/>
+      <c r="AF27" s="98"/>
+      <c r="AG27" s="98"/>
+      <c r="AH27" s="98"/>
+      <c r="AI27" s="98"/>
+      <c r="AJ27" s="98"/>
+      <c r="AK27" s="98"/>
+      <c r="AL27" s="99"/>
+      <c r="AM27" s="97"/>
+      <c r="AN27" s="98"/>
+      <c r="AO27" s="98"/>
+      <c r="AP27" s="98"/>
+      <c r="AQ27" s="98"/>
+      <c r="AR27" s="98"/>
+      <c r="AS27" s="98"/>
+      <c r="AT27" s="98"/>
+      <c r="AU27" s="98"/>
+      <c r="AV27" s="98"/>
+      <c r="AW27" s="98"/>
+      <c r="AX27" s="98"/>
+      <c r="AY27" s="98"/>
+      <c r="AZ27" s="99"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="9" t="str">
@@ -3728,56 +3740,56 @@
         <v/>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
-      <c r="U28" s="95"/>
-      <c r="V28" s="95"/>
-      <c r="W28" s="95"/>
-      <c r="X28" s="95"/>
-      <c r="Y28" s="95"/>
-      <c r="Z28" s="95"/>
-      <c r="AA28" s="95"/>
-      <c r="AB28" s="95"/>
-      <c r="AC28" s="95"/>
-      <c r="AD28" s="95"/>
-      <c r="AE28" s="95"/>
-      <c r="AF28" s="95"/>
-      <c r="AG28" s="95"/>
-      <c r="AH28" s="95"/>
-      <c r="AI28" s="95"/>
-      <c r="AJ28" s="95"/>
-      <c r="AK28" s="95"/>
-      <c r="AL28" s="96"/>
-      <c r="AM28" s="94"/>
-      <c r="AN28" s="95"/>
-      <c r="AO28" s="95"/>
-      <c r="AP28" s="95"/>
-      <c r="AQ28" s="95"/>
-      <c r="AR28" s="95"/>
-      <c r="AS28" s="95"/>
-      <c r="AT28" s="95"/>
-      <c r="AU28" s="95"/>
-      <c r="AV28" s="95"/>
-      <c r="AW28" s="95"/>
-      <c r="AX28" s="95"/>
-      <c r="AY28" s="95"/>
-      <c r="AZ28" s="96"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="98"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="98"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="98"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="98"/>
+      <c r="AB28" s="98"/>
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="98"/>
+      <c r="AE28" s="98"/>
+      <c r="AF28" s="98"/>
+      <c r="AG28" s="98"/>
+      <c r="AH28" s="98"/>
+      <c r="AI28" s="98"/>
+      <c r="AJ28" s="98"/>
+      <c r="AK28" s="98"/>
+      <c r="AL28" s="99"/>
+      <c r="AM28" s="97"/>
+      <c r="AN28" s="98"/>
+      <c r="AO28" s="98"/>
+      <c r="AP28" s="98"/>
+      <c r="AQ28" s="98"/>
+      <c r="AR28" s="98"/>
+      <c r="AS28" s="98"/>
+      <c r="AT28" s="98"/>
+      <c r="AU28" s="98"/>
+      <c r="AV28" s="98"/>
+      <c r="AW28" s="98"/>
+      <c r="AX28" s="98"/>
+      <c r="AY28" s="98"/>
+      <c r="AZ28" s="99"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="9" t="str">
@@ -3785,56 +3797,56 @@
         <v/>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="95"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="95"/>
-      <c r="AF29" s="95"/>
-      <c r="AG29" s="95"/>
-      <c r="AH29" s="95"/>
-      <c r="AI29" s="95"/>
-      <c r="AJ29" s="95"/>
-      <c r="AK29" s="95"/>
-      <c r="AL29" s="96"/>
-      <c r="AM29" s="94"/>
-      <c r="AN29" s="95"/>
-      <c r="AO29" s="95"/>
-      <c r="AP29" s="95"/>
-      <c r="AQ29" s="95"/>
-      <c r="AR29" s="95"/>
-      <c r="AS29" s="95"/>
-      <c r="AT29" s="95"/>
-      <c r="AU29" s="95"/>
-      <c r="AV29" s="95"/>
-      <c r="AW29" s="95"/>
-      <c r="AX29" s="95"/>
-      <c r="AY29" s="95"/>
-      <c r="AZ29" s="96"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="98"/>
+      <c r="AF29" s="98"/>
+      <c r="AG29" s="98"/>
+      <c r="AH29" s="98"/>
+      <c r="AI29" s="98"/>
+      <c r="AJ29" s="98"/>
+      <c r="AK29" s="98"/>
+      <c r="AL29" s="99"/>
+      <c r="AM29" s="97"/>
+      <c r="AN29" s="98"/>
+      <c r="AO29" s="98"/>
+      <c r="AP29" s="98"/>
+      <c r="AQ29" s="98"/>
+      <c r="AR29" s="98"/>
+      <c r="AS29" s="98"/>
+      <c r="AT29" s="98"/>
+      <c r="AU29" s="98"/>
+      <c r="AV29" s="98"/>
+      <c r="AW29" s="98"/>
+      <c r="AX29" s="98"/>
+      <c r="AY29" s="98"/>
+      <c r="AZ29" s="99"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="9" t="str">
@@ -3842,56 +3854,56 @@
         <v/>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="95"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="95"/>
-      <c r="AF30" s="95"/>
-      <c r="AG30" s="95"/>
-      <c r="AH30" s="95"/>
-      <c r="AI30" s="95"/>
-      <c r="AJ30" s="95"/>
-      <c r="AK30" s="95"/>
-      <c r="AL30" s="96"/>
-      <c r="AM30" s="94"/>
-      <c r="AN30" s="95"/>
-      <c r="AO30" s="95"/>
-      <c r="AP30" s="95"/>
-      <c r="AQ30" s="95"/>
-      <c r="AR30" s="95"/>
-      <c r="AS30" s="95"/>
-      <c r="AT30" s="95"/>
-      <c r="AU30" s="95"/>
-      <c r="AV30" s="95"/>
-      <c r="AW30" s="95"/>
-      <c r="AX30" s="95"/>
-      <c r="AY30" s="95"/>
-      <c r="AZ30" s="96"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="97"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="98"/>
+      <c r="AF30" s="98"/>
+      <c r="AG30" s="98"/>
+      <c r="AH30" s="98"/>
+      <c r="AI30" s="98"/>
+      <c r="AJ30" s="98"/>
+      <c r="AK30" s="98"/>
+      <c r="AL30" s="99"/>
+      <c r="AM30" s="97"/>
+      <c r="AN30" s="98"/>
+      <c r="AO30" s="98"/>
+      <c r="AP30" s="98"/>
+      <c r="AQ30" s="98"/>
+      <c r="AR30" s="98"/>
+      <c r="AS30" s="98"/>
+      <c r="AT30" s="98"/>
+      <c r="AU30" s="98"/>
+      <c r="AV30" s="98"/>
+      <c r="AW30" s="98"/>
+      <c r="AX30" s="98"/>
+      <c r="AY30" s="98"/>
+      <c r="AZ30" s="99"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="9" t="str">
@@ -3899,56 +3911,56 @@
         <v/>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="95"/>
-      <c r="AF31" s="95"/>
-      <c r="AG31" s="95"/>
-      <c r="AH31" s="95"/>
-      <c r="AI31" s="95"/>
-      <c r="AJ31" s="95"/>
-      <c r="AK31" s="95"/>
-      <c r="AL31" s="96"/>
-      <c r="AM31" s="94"/>
-      <c r="AN31" s="95"/>
-      <c r="AO31" s="95"/>
-      <c r="AP31" s="95"/>
-      <c r="AQ31" s="95"/>
-      <c r="AR31" s="95"/>
-      <c r="AS31" s="95"/>
-      <c r="AT31" s="95"/>
-      <c r="AU31" s="95"/>
-      <c r="AV31" s="95"/>
-      <c r="AW31" s="95"/>
-      <c r="AX31" s="95"/>
-      <c r="AY31" s="95"/>
-      <c r="AZ31" s="96"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="98"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="98"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="98"/>
+      <c r="U31" s="98"/>
+      <c r="V31" s="98"/>
+      <c r="W31" s="98"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="98"/>
+      <c r="AB31" s="98"/>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="98"/>
+      <c r="AE31" s="98"/>
+      <c r="AF31" s="98"/>
+      <c r="AG31" s="98"/>
+      <c r="AH31" s="98"/>
+      <c r="AI31" s="98"/>
+      <c r="AJ31" s="98"/>
+      <c r="AK31" s="98"/>
+      <c r="AL31" s="99"/>
+      <c r="AM31" s="97"/>
+      <c r="AN31" s="98"/>
+      <c r="AO31" s="98"/>
+      <c r="AP31" s="98"/>
+      <c r="AQ31" s="98"/>
+      <c r="AR31" s="98"/>
+      <c r="AS31" s="98"/>
+      <c r="AT31" s="98"/>
+      <c r="AU31" s="98"/>
+      <c r="AV31" s="98"/>
+      <c r="AW31" s="98"/>
+      <c r="AX31" s="98"/>
+      <c r="AY31" s="98"/>
+      <c r="AZ31" s="99"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="9" t="str">
@@ -3956,56 +3968,56 @@
         <v/>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="93"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="95"/>
-      <c r="AA32" s="95"/>
-      <c r="AB32" s="95"/>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="95"/>
-      <c r="AE32" s="95"/>
-      <c r="AF32" s="95"/>
-      <c r="AG32" s="95"/>
-      <c r="AH32" s="95"/>
-      <c r="AI32" s="95"/>
-      <c r="AJ32" s="95"/>
-      <c r="AK32" s="95"/>
-      <c r="AL32" s="96"/>
-      <c r="AM32" s="94"/>
-      <c r="AN32" s="95"/>
-      <c r="AO32" s="95"/>
-      <c r="AP32" s="95"/>
-      <c r="AQ32" s="95"/>
-      <c r="AR32" s="95"/>
-      <c r="AS32" s="95"/>
-      <c r="AT32" s="95"/>
-      <c r="AU32" s="95"/>
-      <c r="AV32" s="95"/>
-      <c r="AW32" s="95"/>
-      <c r="AX32" s="95"/>
-      <c r="AY32" s="95"/>
-      <c r="AZ32" s="96"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="98"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="98"/>
+      <c r="T32" s="98"/>
+      <c r="U32" s="98"/>
+      <c r="V32" s="98"/>
+      <c r="W32" s="98"/>
+      <c r="X32" s="98"/>
+      <c r="Y32" s="98"/>
+      <c r="Z32" s="98"/>
+      <c r="AA32" s="98"/>
+      <c r="AB32" s="98"/>
+      <c r="AC32" s="98"/>
+      <c r="AD32" s="98"/>
+      <c r="AE32" s="98"/>
+      <c r="AF32" s="98"/>
+      <c r="AG32" s="98"/>
+      <c r="AH32" s="98"/>
+      <c r="AI32" s="98"/>
+      <c r="AJ32" s="98"/>
+      <c r="AK32" s="98"/>
+      <c r="AL32" s="99"/>
+      <c r="AM32" s="97"/>
+      <c r="AN32" s="98"/>
+      <c r="AO32" s="98"/>
+      <c r="AP32" s="98"/>
+      <c r="AQ32" s="98"/>
+      <c r="AR32" s="98"/>
+      <c r="AS32" s="98"/>
+      <c r="AT32" s="98"/>
+      <c r="AU32" s="98"/>
+      <c r="AV32" s="98"/>
+      <c r="AW32" s="98"/>
+      <c r="AX32" s="98"/>
+      <c r="AY32" s="98"/>
+      <c r="AZ32" s="99"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="9" t="str">
@@ -4013,56 +4025,56 @@
         <v/>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="95"/>
-      <c r="AB33" s="95"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="95"/>
-      <c r="AF33" s="95"/>
-      <c r="AG33" s="95"/>
-      <c r="AH33" s="95"/>
-      <c r="AI33" s="95"/>
-      <c r="AJ33" s="95"/>
-      <c r="AK33" s="95"/>
-      <c r="AL33" s="96"/>
-      <c r="AM33" s="94"/>
-      <c r="AN33" s="95"/>
-      <c r="AO33" s="95"/>
-      <c r="AP33" s="95"/>
-      <c r="AQ33" s="95"/>
-      <c r="AR33" s="95"/>
-      <c r="AS33" s="95"/>
-      <c r="AT33" s="95"/>
-      <c r="AU33" s="95"/>
-      <c r="AV33" s="95"/>
-      <c r="AW33" s="95"/>
-      <c r="AX33" s="95"/>
-      <c r="AY33" s="95"/>
-      <c r="AZ33" s="96"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="97"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="98"/>
+      <c r="P33" s="99"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="98"/>
+      <c r="V33" s="98"/>
+      <c r="W33" s="98"/>
+      <c r="X33" s="98"/>
+      <c r="Y33" s="98"/>
+      <c r="Z33" s="98"/>
+      <c r="AA33" s="98"/>
+      <c r="AB33" s="98"/>
+      <c r="AC33" s="98"/>
+      <c r="AD33" s="98"/>
+      <c r="AE33" s="98"/>
+      <c r="AF33" s="98"/>
+      <c r="AG33" s="98"/>
+      <c r="AH33" s="98"/>
+      <c r="AI33" s="98"/>
+      <c r="AJ33" s="98"/>
+      <c r="AK33" s="98"/>
+      <c r="AL33" s="99"/>
+      <c r="AM33" s="97"/>
+      <c r="AN33" s="98"/>
+      <c r="AO33" s="98"/>
+      <c r="AP33" s="98"/>
+      <c r="AQ33" s="98"/>
+      <c r="AR33" s="98"/>
+      <c r="AS33" s="98"/>
+      <c r="AT33" s="98"/>
+      <c r="AU33" s="98"/>
+      <c r="AV33" s="98"/>
+      <c r="AW33" s="98"/>
+      <c r="AX33" s="98"/>
+      <c r="AY33" s="98"/>
+      <c r="AZ33" s="99"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="9" t="str">
@@ -4070,56 +4082,56 @@
         <v/>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="96"/>
-      <c r="Q34" s="94"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="95"/>
-      <c r="V34" s="95"/>
-      <c r="W34" s="95"/>
-      <c r="X34" s="95"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="95"/>
-      <c r="AA34" s="95"/>
-      <c r="AB34" s="95"/>
-      <c r="AC34" s="95"/>
-      <c r="AD34" s="95"/>
-      <c r="AE34" s="95"/>
-      <c r="AF34" s="95"/>
-      <c r="AG34" s="95"/>
-      <c r="AH34" s="95"/>
-      <c r="AI34" s="95"/>
-      <c r="AJ34" s="95"/>
-      <c r="AK34" s="95"/>
-      <c r="AL34" s="96"/>
-      <c r="AM34" s="94"/>
-      <c r="AN34" s="95"/>
-      <c r="AO34" s="95"/>
-      <c r="AP34" s="95"/>
-      <c r="AQ34" s="95"/>
-      <c r="AR34" s="95"/>
-      <c r="AS34" s="95"/>
-      <c r="AT34" s="95"/>
-      <c r="AU34" s="95"/>
-      <c r="AV34" s="95"/>
-      <c r="AW34" s="95"/>
-      <c r="AX34" s="95"/>
-      <c r="AY34" s="95"/>
-      <c r="AZ34" s="96"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="98"/>
+      <c r="O34" s="98"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="98"/>
+      <c r="S34" s="98"/>
+      <c r="T34" s="98"/>
+      <c r="U34" s="98"/>
+      <c r="V34" s="98"/>
+      <c r="W34" s="98"/>
+      <c r="X34" s="98"/>
+      <c r="Y34" s="98"/>
+      <c r="Z34" s="98"/>
+      <c r="AA34" s="98"/>
+      <c r="AB34" s="98"/>
+      <c r="AC34" s="98"/>
+      <c r="AD34" s="98"/>
+      <c r="AE34" s="98"/>
+      <c r="AF34" s="98"/>
+      <c r="AG34" s="98"/>
+      <c r="AH34" s="98"/>
+      <c r="AI34" s="98"/>
+      <c r="AJ34" s="98"/>
+      <c r="AK34" s="98"/>
+      <c r="AL34" s="99"/>
+      <c r="AM34" s="97"/>
+      <c r="AN34" s="98"/>
+      <c r="AO34" s="98"/>
+      <c r="AP34" s="98"/>
+      <c r="AQ34" s="98"/>
+      <c r="AR34" s="98"/>
+      <c r="AS34" s="98"/>
+      <c r="AT34" s="98"/>
+      <c r="AU34" s="98"/>
+      <c r="AV34" s="98"/>
+      <c r="AW34" s="98"/>
+      <c r="AX34" s="98"/>
+      <c r="AY34" s="98"/>
+      <c r="AZ34" s="99"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="9" t="str">
@@ -4127,59 +4139,189 @@
         <v/>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="93"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="94"/>
-      <c r="R35" s="95"/>
-      <c r="S35" s="95"/>
-      <c r="T35" s="95"/>
-      <c r="U35" s="95"/>
-      <c r="V35" s="95"/>
-      <c r="W35" s="95"/>
-      <c r="X35" s="95"/>
-      <c r="Y35" s="95"/>
-      <c r="Z35" s="95"/>
-      <c r="AA35" s="95"/>
-      <c r="AB35" s="95"/>
-      <c r="AC35" s="95"/>
-      <c r="AD35" s="95"/>
-      <c r="AE35" s="95"/>
-      <c r="AF35" s="95"/>
-      <c r="AG35" s="95"/>
-      <c r="AH35" s="95"/>
-      <c r="AI35" s="95"/>
-      <c r="AJ35" s="95"/>
-      <c r="AK35" s="95"/>
-      <c r="AL35" s="96"/>
-      <c r="AM35" s="94"/>
-      <c r="AN35" s="95"/>
-      <c r="AO35" s="95"/>
-      <c r="AP35" s="95"/>
-      <c r="AQ35" s="95"/>
-      <c r="AR35" s="95"/>
-      <c r="AS35" s="95"/>
-      <c r="AT35" s="95"/>
-      <c r="AU35" s="95"/>
-      <c r="AV35" s="95"/>
-      <c r="AW35" s="95"/>
-      <c r="AX35" s="95"/>
-      <c r="AY35" s="95"/>
-      <c r="AZ35" s="96"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="97"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="97"/>
+      <c r="R35" s="98"/>
+      <c r="S35" s="98"/>
+      <c r="T35" s="98"/>
+      <c r="U35" s="98"/>
+      <c r="V35" s="98"/>
+      <c r="W35" s="98"/>
+      <c r="X35" s="98"/>
+      <c r="Y35" s="98"/>
+      <c r="Z35" s="98"/>
+      <c r="AA35" s="98"/>
+      <c r="AB35" s="98"/>
+      <c r="AC35" s="98"/>
+      <c r="AD35" s="98"/>
+      <c r="AE35" s="98"/>
+      <c r="AF35" s="98"/>
+      <c r="AG35" s="98"/>
+      <c r="AH35" s="98"/>
+      <c r="AI35" s="98"/>
+      <c r="AJ35" s="98"/>
+      <c r="AK35" s="98"/>
+      <c r="AL35" s="99"/>
+      <c r="AM35" s="97"/>
+      <c r="AN35" s="98"/>
+      <c r="AO35" s="98"/>
+      <c r="AP35" s="98"/>
+      <c r="AQ35" s="98"/>
+      <c r="AR35" s="98"/>
+      <c r="AS35" s="98"/>
+      <c r="AT35" s="98"/>
+      <c r="AU35" s="98"/>
+      <c r="AV35" s="98"/>
+      <c r="AW35" s="98"/>
+      <c r="AX35" s="98"/>
+      <c r="AY35" s="98"/>
+      <c r="AZ35" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="Q8:AL8"/>
+    <mergeCell ref="AM8:AZ8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="Q9:AL9"/>
+    <mergeCell ref="AM9:AZ9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:AL10"/>
+    <mergeCell ref="AM10:AZ10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:AL11"/>
+    <mergeCell ref="AM11:AZ11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:AL12"/>
+    <mergeCell ref="AM12:AZ12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:AL13"/>
+    <mergeCell ref="AM13:AZ13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:AL14"/>
+    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AL15"/>
+    <mergeCell ref="AM15:AZ15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:AL17"/>
+    <mergeCell ref="AM17:AZ17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:AL19"/>
+    <mergeCell ref="AM19:AZ19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:AL21"/>
+    <mergeCell ref="AM21:AZ21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:AL22"/>
+    <mergeCell ref="AM22:AZ22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:AL23"/>
+    <mergeCell ref="AM23:AZ23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:AL24"/>
+    <mergeCell ref="AM24:AZ24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:AL25"/>
+    <mergeCell ref="AM25:AZ25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:AL26"/>
+    <mergeCell ref="AM26:AZ26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:AL27"/>
+    <mergeCell ref="AM27:AZ27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:AL28"/>
+    <mergeCell ref="AM28:AZ28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:AL29"/>
+    <mergeCell ref="AM29:AZ29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:AL30"/>
+    <mergeCell ref="AM30:AZ30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:AL31"/>
+    <mergeCell ref="AM31:AZ31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:AL32"/>
+    <mergeCell ref="AM32:AZ32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Q33:AL33"/>
+    <mergeCell ref="AM33:AZ33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="G34:K34"/>
     <mergeCell ref="L34:P34"/>
@@ -4190,136 +4332,6 @@
     <mergeCell ref="L35:P35"/>
     <mergeCell ref="Q35:AL35"/>
     <mergeCell ref="AM35:AZ35"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:AL32"/>
-    <mergeCell ref="AM32:AZ32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Q33:AL33"/>
-    <mergeCell ref="AM33:AZ33"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:AL30"/>
-    <mergeCell ref="AM30:AZ30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:AL31"/>
-    <mergeCell ref="AM31:AZ31"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:AL28"/>
-    <mergeCell ref="AM28:AZ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:AL29"/>
-    <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:AL26"/>
-    <mergeCell ref="AM26:AZ26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:AL27"/>
-    <mergeCell ref="AM27:AZ27"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:AL24"/>
-    <mergeCell ref="AM24:AZ24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:AL25"/>
-    <mergeCell ref="AM25:AZ25"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:AL22"/>
-    <mergeCell ref="AM22:AZ22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:AL23"/>
-    <mergeCell ref="AM23:AZ23"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:AL21"/>
-    <mergeCell ref="AM21:AZ21"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:AL19"/>
-    <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:AL15"/>
-    <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:AL12"/>
-    <mergeCell ref="AM12:AZ12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:AL13"/>
-    <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:AL11"/>
-    <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="Q8:AL8"/>
-    <mergeCell ref="AM8:AZ8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="Q9:AL9"/>
-    <mergeCell ref="AM9:AZ9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4333,8 +4345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9307939-537D-9F44-B482-1E22BD0105F1}">
   <dimension ref="A1:BG90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="BG26" sqref="BG26"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A59" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AA70" sqref="AA70:AV70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
@@ -4585,7 +4597,7 @@
     </row>
     <row r="6" spans="1:51" customFormat="1">
       <c r="A6" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -6965,7 +6977,7 @@
     <row r="54" spans="1:51" s="27" customFormat="1">
       <c r="A54" s="35"/>
       <c r="B54" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C54" s="52"/>
       <c r="D54" s="52"/>
@@ -7072,7 +7084,7 @@
       <c r="AO55" s="54"/>
       <c r="AP55" s="55"/>
       <c r="AQ55" s="50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AR55" s="54"/>
       <c r="AS55" s="54"/>
@@ -7765,7 +7777,7 @@
       </c>
       <c r="C67" s="23"/>
       <c r="D67" s="106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E67" s="107"/>
       <c r="F67" s="108"/>
@@ -7793,27 +7805,30 @@
       <c r="X67" s="104"/>
       <c r="Y67" s="104"/>
       <c r="Z67" s="105"/>
-      <c r="AA67" s="22" t="s">
+      <c r="AA67" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="AB67" s="24"/>
-      <c r="AC67" s="24"/>
-      <c r="AD67" s="24"/>
-      <c r="AE67" s="24"/>
-      <c r="AF67" s="24"/>
-      <c r="AG67" s="24"/>
-      <c r="AH67" s="24"/>
-      <c r="AI67" s="24"/>
-      <c r="AJ67" s="26"/>
-      <c r="AK67" s="26"/>
-      <c r="AL67" s="26"/>
-      <c r="AM67" s="26"/>
-      <c r="AN67" s="26"/>
-      <c r="AO67" s="26"/>
-      <c r="AP67" s="26"/>
-      <c r="AQ67" s="26"/>
-      <c r="AR67" s="26"/>
-      <c r="AS67" s="23"/>
+      <c r="AB67" s="109"/>
+      <c r="AC67" s="109"/>
+      <c r="AD67" s="109"/>
+      <c r="AE67" s="109"/>
+      <c r="AF67" s="109"/>
+      <c r="AG67" s="109"/>
+      <c r="AH67" s="109"/>
+      <c r="AI67" s="109"/>
+      <c r="AJ67" s="109"/>
+      <c r="AK67" s="109"/>
+      <c r="AL67" s="109"/>
+      <c r="AM67" s="109"/>
+      <c r="AN67" s="109"/>
+      <c r="AO67" s="109"/>
+      <c r="AP67" s="109"/>
+      <c r="AQ67" s="109"/>
+      <c r="AR67" s="109"/>
+      <c r="AS67" s="109"/>
+      <c r="AT67" s="109"/>
+      <c r="AU67" s="109"/>
+      <c r="AV67" s="109"/>
     </row>
     <row r="68" spans="1:59">
       <c r="A68" s="35"/>
@@ -7853,27 +7868,30 @@
       <c r="X68" s="38"/>
       <c r="Y68" s="38"/>
       <c r="Z68" s="39"/>
-      <c r="AA68" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB68" s="38"/>
-      <c r="AC68" s="38"/>
-      <c r="AD68" s="38"/>
-      <c r="AE68" s="38"/>
-      <c r="AF68" s="38"/>
-      <c r="AG68" s="38"/>
-      <c r="AH68" s="38"/>
-      <c r="AI68" s="38"/>
-      <c r="AJ68" s="38"/>
-      <c r="AK68" s="38"/>
-      <c r="AL68" s="38"/>
-      <c r="AM68" s="38"/>
-      <c r="AN68" s="38"/>
-      <c r="AO68" s="38"/>
-      <c r="AP68" s="38"/>
-      <c r="AQ68" s="38"/>
-      <c r="AR68" s="38"/>
-      <c r="AS68" s="39"/>
+      <c r="AA68" s="110" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB68" s="110"/>
+      <c r="AC68" s="110"/>
+      <c r="AD68" s="110"/>
+      <c r="AE68" s="110"/>
+      <c r="AF68" s="110"/>
+      <c r="AG68" s="110"/>
+      <c r="AH68" s="110"/>
+      <c r="AI68" s="110"/>
+      <c r="AJ68" s="110"/>
+      <c r="AK68" s="110"/>
+      <c r="AL68" s="110"/>
+      <c r="AM68" s="110"/>
+      <c r="AN68" s="110"/>
+      <c r="AO68" s="110"/>
+      <c r="AP68" s="110"/>
+      <c r="AQ68" s="110"/>
+      <c r="AR68" s="110"/>
+      <c r="AS68" s="110"/>
+      <c r="AT68" s="110"/>
+      <c r="AU68" s="110"/>
+      <c r="AV68" s="110"/>
     </row>
     <row r="69" spans="1:59">
       <c r="A69" s="35"/>
@@ -7913,27 +7931,30 @@
       <c r="X69" s="38"/>
       <c r="Y69" s="38"/>
       <c r="Z69" s="39"/>
-      <c r="AA69" s="49" t="s">
+      <c r="AA69" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="AB69" s="38"/>
-      <c r="AC69" s="38"/>
-      <c r="AD69" s="38"/>
-      <c r="AE69" s="38"/>
-      <c r="AF69" s="38"/>
-      <c r="AG69" s="38"/>
-      <c r="AH69" s="38"/>
-      <c r="AI69" s="38"/>
-      <c r="AJ69" s="38"/>
-      <c r="AK69" s="38"/>
-      <c r="AL69" s="38"/>
-      <c r="AM69" s="38"/>
-      <c r="AN69" s="38"/>
-      <c r="AO69" s="38"/>
-      <c r="AP69" s="38"/>
-      <c r="AQ69" s="38"/>
-      <c r="AR69" s="38"/>
-      <c r="AS69" s="39"/>
+      <c r="AB69" s="110"/>
+      <c r="AC69" s="110"/>
+      <c r="AD69" s="110"/>
+      <c r="AE69" s="110"/>
+      <c r="AF69" s="110"/>
+      <c r="AG69" s="110"/>
+      <c r="AH69" s="110"/>
+      <c r="AI69" s="110"/>
+      <c r="AJ69" s="110"/>
+      <c r="AK69" s="110"/>
+      <c r="AL69" s="110"/>
+      <c r="AM69" s="110"/>
+      <c r="AN69" s="110"/>
+      <c r="AO69" s="110"/>
+      <c r="AP69" s="110"/>
+      <c r="AQ69" s="110"/>
+      <c r="AR69" s="110"/>
+      <c r="AS69" s="110"/>
+      <c r="AT69" s="110"/>
+      <c r="AU69" s="110"/>
+      <c r="AV69" s="110"/>
     </row>
     <row r="70" spans="1:59">
       <c r="A70" s="35"/>
@@ -7973,27 +7994,30 @@
       <c r="X70" s="38"/>
       <c r="Y70" s="38"/>
       <c r="Z70" s="39"/>
-      <c r="AA70" s="49" t="s">
+      <c r="AA70" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="AB70" s="38"/>
-      <c r="AC70" s="38"/>
-      <c r="AD70" s="38"/>
-      <c r="AE70" s="38"/>
-      <c r="AF70" s="38"/>
-      <c r="AG70" s="38"/>
-      <c r="AH70" s="38"/>
-      <c r="AI70" s="38"/>
-      <c r="AJ70" s="38"/>
-      <c r="AK70" s="38"/>
-      <c r="AL70" s="38"/>
-      <c r="AM70" s="38"/>
-      <c r="AN70" s="38"/>
-      <c r="AO70" s="38"/>
-      <c r="AP70" s="38"/>
-      <c r="AQ70" s="38"/>
-      <c r="AR70" s="38"/>
-      <c r="AS70" s="39"/>
+      <c r="AB70" s="110"/>
+      <c r="AC70" s="110"/>
+      <c r="AD70" s="110"/>
+      <c r="AE70" s="110"/>
+      <c r="AF70" s="110"/>
+      <c r="AG70" s="110"/>
+      <c r="AH70" s="110"/>
+      <c r="AI70" s="110"/>
+      <c r="AJ70" s="110"/>
+      <c r="AK70" s="110"/>
+      <c r="AL70" s="110"/>
+      <c r="AM70" s="110"/>
+      <c r="AN70" s="110"/>
+      <c r="AO70" s="110"/>
+      <c r="AP70" s="110"/>
+      <c r="AQ70" s="110"/>
+      <c r="AR70" s="110"/>
+      <c r="AS70" s="110"/>
+      <c r="AT70" s="110"/>
+      <c r="AU70" s="110"/>
+      <c r="AV70" s="110"/>
     </row>
     <row r="71" spans="1:59">
       <c r="A71" s="35"/>
@@ -8033,27 +8057,30 @@
       <c r="X71" s="38"/>
       <c r="Y71" s="38"/>
       <c r="Z71" s="39"/>
-      <c r="AA71" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB71" s="38"/>
-      <c r="AC71" s="38"/>
-      <c r="AD71" s="38"/>
-      <c r="AE71" s="38"/>
-      <c r="AF71" s="38"/>
-      <c r="AG71" s="38"/>
-      <c r="AH71" s="38"/>
-      <c r="AI71" s="38"/>
-      <c r="AJ71" s="38"/>
-      <c r="AK71" s="38"/>
-      <c r="AL71" s="38"/>
-      <c r="AM71" s="38"/>
-      <c r="AN71" s="38"/>
-      <c r="AO71" s="38"/>
-      <c r="AP71" s="38"/>
-      <c r="AQ71" s="38"/>
-      <c r="AR71" s="38"/>
-      <c r="AS71" s="39"/>
+      <c r="AA71" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB71" s="110"/>
+      <c r="AC71" s="110"/>
+      <c r="AD71" s="110"/>
+      <c r="AE71" s="110"/>
+      <c r="AF71" s="110"/>
+      <c r="AG71" s="110"/>
+      <c r="AH71" s="110"/>
+      <c r="AI71" s="110"/>
+      <c r="AJ71" s="110"/>
+      <c r="AK71" s="110"/>
+      <c r="AL71" s="110"/>
+      <c r="AM71" s="110"/>
+      <c r="AN71" s="110"/>
+      <c r="AO71" s="110"/>
+      <c r="AP71" s="110"/>
+      <c r="AQ71" s="110"/>
+      <c r="AR71" s="110"/>
+      <c r="AS71" s="110"/>
+      <c r="AT71" s="110"/>
+      <c r="AU71" s="110"/>
+      <c r="AV71" s="110"/>
     </row>
     <row r="72" spans="1:59">
       <c r="A72" s="35"/>
@@ -8093,27 +8120,30 @@
       <c r="X72" s="38"/>
       <c r="Y72" s="38"/>
       <c r="Z72" s="39"/>
-      <c r="AA72" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB72" s="38"/>
-      <c r="AC72" s="38"/>
-      <c r="AD72" s="38"/>
-      <c r="AE72" s="38"/>
-      <c r="AF72" s="38"/>
-      <c r="AG72" s="38"/>
-      <c r="AH72" s="38"/>
-      <c r="AI72" s="38"/>
-      <c r="AJ72" s="38"/>
-      <c r="AK72" s="38"/>
-      <c r="AL72" s="38"/>
-      <c r="AM72" s="38"/>
-      <c r="AN72" s="38"/>
-      <c r="AO72" s="38"/>
-      <c r="AP72" s="38"/>
-      <c r="AQ72" s="38"/>
-      <c r="AR72" s="38"/>
-      <c r="AS72" s="39"/>
+      <c r="AA72" s="110" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB72" s="110"/>
+      <c r="AC72" s="110"/>
+      <c r="AD72" s="110"/>
+      <c r="AE72" s="110"/>
+      <c r="AF72" s="110"/>
+      <c r="AG72" s="110"/>
+      <c r="AH72" s="110"/>
+      <c r="AI72" s="110"/>
+      <c r="AJ72" s="110"/>
+      <c r="AK72" s="110"/>
+      <c r="AL72" s="110"/>
+      <c r="AM72" s="110"/>
+      <c r="AN72" s="110"/>
+      <c r="AO72" s="110"/>
+      <c r="AP72" s="110"/>
+      <c r="AQ72" s="110"/>
+      <c r="AR72" s="110"/>
+      <c r="AS72" s="110"/>
+      <c r="AT72" s="110"/>
+      <c r="AU72" s="110"/>
+      <c r="AV72" s="110"/>
     </row>
     <row r="73" spans="1:59">
       <c r="A73" s="35"/>
@@ -8162,7 +8192,7 @@
     <row r="74" spans="1:59">
       <c r="A74" s="35"/>
       <c r="B74" s="56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C74" s="57"/>
       <c r="D74" s="57"/>
@@ -8223,7 +8253,7 @@
       </c>
       <c r="C75" s="59"/>
       <c r="D75" s="100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E75" s="101"/>
       <c r="F75" s="102"/>
@@ -8238,7 +8268,7 @@
       <c r="M75" s="61"/>
       <c r="N75" s="61"/>
       <c r="O75" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P75" s="15"/>
       <c r="Q75" s="15"/>
@@ -8255,7 +8285,7 @@
       <c r="Z75" s="15"/>
       <c r="AA75" s="15"/>
       <c r="AB75" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AC75" s="15"/>
       <c r="AD75" s="15"/>
@@ -8312,7 +8342,7 @@
       <c r="M76" s="63"/>
       <c r="N76" s="63"/>
       <c r="O76" s="50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P76" s="54"/>
       <c r="Q76" s="54"/>
@@ -8329,7 +8359,7 @@
       <c r="Z76" s="54"/>
       <c r="AA76" s="54"/>
       <c r="AB76" s="50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC76" s="54"/>
       <c r="AD76" s="54"/>
@@ -8381,7 +8411,7 @@
       <c r="M77" s="63"/>
       <c r="N77" s="63"/>
       <c r="O77" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P77" s="54"/>
       <c r="Q77" s="54"/>
@@ -8389,7 +8419,7 @@
       <c r="S77" s="54"/>
       <c r="T77" s="55"/>
       <c r="U77" s="50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V77" s="54"/>
       <c r="W77" s="54"/>
@@ -8398,7 +8428,7 @@
       <c r="Z77" s="54"/>
       <c r="AA77" s="54"/>
       <c r="AB77" s="50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AC77" s="54"/>
       <c r="AD77" s="54"/>
@@ -8444,7 +8474,7 @@
       <c r="E78" s="63"/>
       <c r="F78" s="63"/>
       <c r="G78" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
@@ -8454,7 +8484,7 @@
       <c r="M78" s="63"/>
       <c r="N78" s="63"/>
       <c r="O78" s="50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P78" s="54"/>
       <c r="Q78" s="54"/>
@@ -8471,7 +8501,7 @@
       <c r="Z78" s="54"/>
       <c r="AA78" s="54"/>
       <c r="AB78" s="50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC78" s="54"/>
       <c r="AD78" s="54"/>
@@ -8523,7 +8553,7 @@
       <c r="M79" s="63"/>
       <c r="N79" s="63"/>
       <c r="O79" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P79" s="54"/>
       <c r="Q79" s="54"/>
@@ -8531,7 +8561,7 @@
       <c r="S79" s="54"/>
       <c r="T79" s="55"/>
       <c r="U79" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V79" s="54"/>
       <c r="W79" s="54"/>
@@ -8540,7 +8570,7 @@
       <c r="Z79" s="54"/>
       <c r="AA79" s="54"/>
       <c r="AB79" s="50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC79" s="54"/>
       <c r="AD79" s="54"/>
@@ -8592,7 +8622,7 @@
       <c r="M80" s="63"/>
       <c r="N80" s="63"/>
       <c r="O80" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P80" s="54"/>
       <c r="Q80" s="54"/>
@@ -8600,7 +8630,7 @@
       <c r="S80" s="54"/>
       <c r="T80" s="55"/>
       <c r="U80" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V80" s="54"/>
       <c r="W80" s="54"/>
@@ -8609,7 +8639,7 @@
       <c r="Z80" s="54"/>
       <c r="AA80" s="54"/>
       <c r="AB80" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AC80" s="54"/>
       <c r="AD80" s="54"/>
@@ -8661,7 +8691,7 @@
       <c r="M81" s="63"/>
       <c r="N81" s="63"/>
       <c r="O81" s="50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P81" s="54"/>
       <c r="Q81" s="54"/>
@@ -8669,7 +8699,7 @@
       <c r="S81" s="54"/>
       <c r="T81" s="55"/>
       <c r="U81" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V81" s="54"/>
       <c r="W81" s="54"/>
@@ -8678,7 +8708,7 @@
       <c r="Z81" s="54"/>
       <c r="AA81" s="54"/>
       <c r="AB81" s="50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AC81" s="54"/>
       <c r="AD81" s="54"/>
@@ -8730,7 +8760,7 @@
       <c r="M82" s="63"/>
       <c r="N82" s="63"/>
       <c r="O82" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P82" s="54"/>
       <c r="Q82" s="54"/>
@@ -8738,7 +8768,7 @@
       <c r="S82" s="54"/>
       <c r="T82" s="55"/>
       <c r="U82" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V82" s="54"/>
       <c r="W82" s="54"/>
@@ -8747,7 +8777,7 @@
       <c r="Z82" s="54"/>
       <c r="AA82" s="54"/>
       <c r="AB82" s="50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC82" s="54"/>
       <c r="AD82" s="54"/>
@@ -8793,7 +8823,7 @@
       <c r="E83" s="63"/>
       <c r="F83" s="63"/>
       <c r="G83" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
@@ -8803,7 +8833,7 @@
       <c r="M83" s="63"/>
       <c r="N83" s="63"/>
       <c r="O83" s="50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P83" s="54"/>
       <c r="Q83" s="54"/>
@@ -8820,7 +8850,7 @@
       <c r="Z83" s="54"/>
       <c r="AA83" s="54"/>
       <c r="AB83" s="50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC83" s="54"/>
       <c r="AD83" s="54"/>
@@ -8872,7 +8902,7 @@
       <c r="M84" s="63"/>
       <c r="N84" s="63"/>
       <c r="O84" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P84" s="54"/>
       <c r="Q84" s="54"/>
@@ -8880,7 +8910,7 @@
       <c r="S84" s="54"/>
       <c r="T84" s="55"/>
       <c r="U84" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V84" s="54"/>
       <c r="W84" s="54"/>
@@ -8889,7 +8919,7 @@
       <c r="Z84" s="54"/>
       <c r="AA84" s="54"/>
       <c r="AB84" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AC84" s="54"/>
       <c r="AD84" s="54"/>
@@ -8941,7 +8971,7 @@
       <c r="M85" s="63"/>
       <c r="N85" s="63"/>
       <c r="O85" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P85" s="54"/>
       <c r="Q85" s="54"/>
@@ -8949,7 +8979,7 @@
       <c r="S85" s="54"/>
       <c r="T85" s="55"/>
       <c r="U85" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V85" s="54"/>
       <c r="W85" s="54"/>
@@ -8958,7 +8988,7 @@
       <c r="Z85" s="54"/>
       <c r="AA85" s="54"/>
       <c r="AB85" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC85" s="54"/>
       <c r="AD85" s="54"/>
@@ -9010,7 +9040,7 @@
       <c r="M86" s="63"/>
       <c r="N86" s="63"/>
       <c r="O86" s="50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P86" s="54"/>
       <c r="Q86" s="54"/>
@@ -9018,7 +9048,7 @@
       <c r="S86" s="54"/>
       <c r="T86" s="55"/>
       <c r="U86" s="50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V86" s="54"/>
       <c r="W86" s="54"/>
@@ -9027,7 +9057,7 @@
       <c r="Z86" s="54"/>
       <c r="AA86" s="54"/>
       <c r="AB86" s="50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC86" s="54"/>
       <c r="AD86" s="54"/>
@@ -9079,7 +9109,7 @@
       <c r="M87" s="63"/>
       <c r="N87" s="63"/>
       <c r="O87" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P87" s="54"/>
       <c r="Q87" s="54"/>
@@ -9087,7 +9117,7 @@
       <c r="S87" s="54"/>
       <c r="T87" s="55"/>
       <c r="U87" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V87" s="54"/>
       <c r="W87" s="54"/>
@@ -9096,7 +9126,7 @@
       <c r="Z87" s="54"/>
       <c r="AA87" s="54"/>
       <c r="AB87" s="50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AC87" s="54"/>
       <c r="AD87" s="54"/>
@@ -9137,12 +9167,12 @@
       </c>
       <c r="C88" s="62"/>
       <c r="D88" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E88" s="63"/>
       <c r="F88" s="63"/>
       <c r="G88" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
@@ -9152,7 +9182,7 @@
       <c r="M88" s="63"/>
       <c r="N88" s="63"/>
       <c r="O88" s="50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P88" s="54"/>
       <c r="Q88" s="54"/>
@@ -9169,7 +9199,7 @@
       <c r="Z88" s="54"/>
       <c r="AA88" s="54"/>
       <c r="AB88" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC88" s="54"/>
       <c r="AD88" s="54"/>
@@ -9224,10 +9254,16 @@
       <c r="C90" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
     <mergeCell ref="D75:F75"/>
     <mergeCell ref="S67:Z67"/>
     <mergeCell ref="D67:F67"/>
+    <mergeCell ref="AA67:AV67"/>
+    <mergeCell ref="AA68:AV68"/>
+    <mergeCell ref="AA69:AV69"/>
+    <mergeCell ref="AA70:AV70"/>
+    <mergeCell ref="AA71:AV71"/>
+    <mergeCell ref="AA72:AV72"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_ユーザ情報編集画面.xlsx
+++ b/2021年_テトリス/02_基本設計書/【基本設計】画面設計書(処理設計)_ユーザ情報編集画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beaming-boy/growth/テトリス/ドキュメント共有フォルダ/2021年_テトリス/02_基本設計書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iwasuji/document/2021年_テトリス/02_基本設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907B0776-51AB-504B-B0CB-90A16C360070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677F88DB-27AE-434F-9866-A8E9CB4B6023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20920" activeTab="2" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" xr2:uid="{3C8D862C-6145-E842-B259-880AA5F992AF}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ユーザ情報編集画面!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ヘッダー!$A$1:$AZ$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">ユーザ情報編集画面!$A$1:$AY$90</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">ユーザ情報編集画面!$A$1:$AY$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改訂履歴!$A$1:$BA$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="135">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -412,10 +412,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログアウト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボタン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -499,20 +495,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>変更する</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニューに戻る</t>
-    <rPh sb="5" eb="6">
-      <t>モドｒウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>半角入力のみ可能</t>
     <rPh sb="0" eb="2">
       <t>ハンカｋウ</t>
@@ -591,25 +573,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>編集内容を破棄して、ログアウト確認画面を表示する</t>
-    <rPh sb="0" eb="4">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハｋイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カクニｎン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガメｎン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エラー分類</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -844,17 +807,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン後</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マイページ画面（メイン）</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>基本設計書_ユーザ情報編集画面</t>
     <rPh sb="0" eb="5">
       <t>キホンセッケイショ</t>
@@ -865,22 +817,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・マイページ画面からユーザ情報編集ボタン押下時に遷移する画面</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>ジョウホウヘンシュウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>各項目のバリデーションを行いニックネームとパスワードを更新する、完了後、完了メッセージをメッセージエリアに表示する。</t>
     <rPh sb="0" eb="3">
       <t>カクコウ</t>
@@ -896,6 +832,73 @@
     </rPh>
     <rPh sb="53" eb="55">
       <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">モドル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ情報テーブルからニックネームを取得し表示</t>
+    <rPh sb="18" eb="20">
+      <t>シュトｋウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDは入力必須です</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDは環境依存文字は使用できません</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角入力のみ可能</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ハンカク </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ニュウリョク </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ノミ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">カノウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・トップメニュー画面（ログイン後）からユーザ情報編集ボタン押下時に遷移する画面</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ガメン </t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t xml:space="preserve">アト </t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ジョウホウヘンシュウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1263,7 +1266,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1417,15 +1420,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1465,6 +1459,33 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1510,32 +1531,23 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1544,24 +1556,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1649,7 +1643,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s4003"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s4032"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1689,7 +1683,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>48</xdr:col>
-      <xdr:colOff>162100</xdr:colOff>
+      <xdr:colOff>126224</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1735,7 +1729,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>50</xdr:col>
-          <xdr:colOff>73276</xdr:colOff>
+          <xdr:colOff>37400</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>75084</xdr:rowOff>
         </xdr:to>
@@ -1752,7 +1746,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s2976"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3005"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1804,8 +1798,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="254000" y="2984500"/>
-          <a:ext cx="10805832" cy="6550803"/>
+          <a:off x="254000" y="3005667"/>
+          <a:ext cx="10852399" cy="6550803"/>
           <a:chOff x="254000" y="2984500"/>
           <a:chExt cx="10805832" cy="6550803"/>
         </a:xfrm>
@@ -2273,198 +2267,198 @@
   </sheetPr>
   <dimension ref="A1:BB4"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AF25" sqref="AF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="67" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="67" t="s">
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="67" t="s">
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="67" t="s">
+      <c r="AG1" s="74"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="74"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="67" t="s">
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="75"/>
+      <c r="AP1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="AQ1" s="68"/>
-      <c r="AR1" s="68"/>
-      <c r="AS1" s="68"/>
-      <c r="AT1" s="69"/>
-      <c r="AU1" s="67" t="s">
+      <c r="AQ1" s="74"/>
+      <c r="AR1" s="74"/>
+      <c r="AS1" s="74"/>
+      <c r="AT1" s="75"/>
+      <c r="AU1" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="AV1" s="68"/>
-      <c r="AW1" s="68"/>
-      <c r="AX1" s="68"/>
-      <c r="AY1" s="69"/>
+      <c r="AV1" s="74"/>
+      <c r="AW1" s="74"/>
+      <c r="AX1" s="74"/>
+      <c r="AY1" s="75"/>
       <c r="BB1" s="3"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="70" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="76">
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="82">
         <v>44577</v>
       </c>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="76">
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL2" s="77"/>
+      <c r="AM2" s="77"/>
+      <c r="AN2" s="77"/>
+      <c r="AO2" s="78"/>
+      <c r="AP2" s="82">
         <v>44619</v>
       </c>
-      <c r="AQ2" s="77"/>
-      <c r="AR2" s="77"/>
-      <c r="AS2" s="77"/>
-      <c r="AT2" s="78"/>
-      <c r="AU2" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="72"/>
+      <c r="AQ2" s="83"/>
+      <c r="AR2" s="83"/>
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="84"/>
+      <c r="AU2" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV2" s="77"/>
+      <c r="AW2" s="77"/>
+      <c r="AX2" s="77"/>
+      <c r="AY2" s="78"/>
       <c r="BB2" s="3"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1">
-      <c r="A3" s="88"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="79"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="73"/>
-      <c r="AL3" s="74"/>
-      <c r="AM3" s="74"/>
-      <c r="AN3" s="74"/>
-      <c r="AO3" s="75"/>
-      <c r="AP3" s="79"/>
-      <c r="AQ3" s="80"/>
-      <c r="AR3" s="80"/>
-      <c r="AS3" s="80"/>
-      <c r="AT3" s="81"/>
-      <c r="AU3" s="73"/>
-      <c r="AV3" s="74"/>
-      <c r="AW3" s="74"/>
-      <c r="AX3" s="74"/>
-      <c r="AY3" s="75"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="81"/>
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="86"/>
+      <c r="AJ3" s="87"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="80"/>
+      <c r="AO3" s="81"/>
+      <c r="AP3" s="85"/>
+      <c r="AQ3" s="86"/>
+      <c r="AR3" s="86"/>
+      <c r="AS3" s="86"/>
+      <c r="AT3" s="87"/>
+      <c r="AU3" s="79"/>
+      <c r="AV3" s="80"/>
+      <c r="AW3" s="80"/>
+      <c r="AX3" s="80"/>
+      <c r="AY3" s="81"/>
       <c r="BB3" s="3"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1">
@@ -2481,11 +2475,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="K2:AE3"/>
-    <mergeCell ref="F2:J3"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="AP1:AT1"/>
@@ -2494,6 +2483,11 @@
     <mergeCell ref="AP2:AT3"/>
     <mergeCell ref="AK2:AO3"/>
     <mergeCell ref="AF2:AJ3"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="K2:AE3"/>
+    <mergeCell ref="F2:J3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2595,118 +2589,118 @@
         <v>1</v>
       </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="94">
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="88">
         <v>44577</v>
       </c>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="96"/>
-      <c r="L8" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="97" t="s">
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="98"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="98"/>
-      <c r="V8" s="98"/>
-      <c r="W8" s="98"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="98"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="98"/>
-      <c r="AB8" s="98"/>
-      <c r="AC8" s="98"/>
-      <c r="AD8" s="98"/>
-      <c r="AE8" s="98"/>
-      <c r="AF8" s="98"/>
-      <c r="AG8" s="98"/>
-      <c r="AH8" s="98"/>
-      <c r="AI8" s="98"/>
-      <c r="AJ8" s="98"/>
-      <c r="AK8" s="98"/>
-      <c r="AL8" s="99"/>
-      <c r="AM8" s="97"/>
-      <c r="AN8" s="98"/>
-      <c r="AO8" s="98"/>
-      <c r="AP8" s="98"/>
-      <c r="AQ8" s="98"/>
-      <c r="AR8" s="98"/>
-      <c r="AS8" s="98"/>
-      <c r="AT8" s="98"/>
-      <c r="AU8" s="98"/>
-      <c r="AV8" s="98"/>
-      <c r="AW8" s="98"/>
-      <c r="AX8" s="98"/>
-      <c r="AY8" s="98"/>
-      <c r="AZ8" s="99"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="92"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="92"/>
+      <c r="AD8" s="92"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="92"/>
+      <c r="AG8" s="92"/>
+      <c r="AH8" s="92"/>
+      <c r="AI8" s="92"/>
+      <c r="AJ8" s="92"/>
+      <c r="AK8" s="92"/>
+      <c r="AL8" s="93"/>
+      <c r="AM8" s="91"/>
+      <c r="AN8" s="92"/>
+      <c r="AO8" s="92"/>
+      <c r="AP8" s="92"/>
+      <c r="AQ8" s="92"/>
+      <c r="AR8" s="92"/>
+      <c r="AS8" s="92"/>
+      <c r="AT8" s="92"/>
+      <c r="AU8" s="92"/>
+      <c r="AV8" s="92"/>
+      <c r="AW8" s="92"/>
+      <c r="AX8" s="92"/>
+      <c r="AY8" s="92"/>
+      <c r="AZ8" s="93"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="96"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="98"/>
-      <c r="AF9" s="98"/>
-      <c r="AG9" s="98"/>
-      <c r="AH9" s="98"/>
-      <c r="AI9" s="98"/>
-      <c r="AJ9" s="98"/>
-      <c r="AK9" s="98"/>
-      <c r="AL9" s="99"/>
-      <c r="AM9" s="97"/>
-      <c r="AN9" s="98"/>
-      <c r="AO9" s="98"/>
-      <c r="AP9" s="98"/>
-      <c r="AQ9" s="98"/>
-      <c r="AR9" s="98"/>
-      <c r="AS9" s="98"/>
-      <c r="AT9" s="98"/>
-      <c r="AU9" s="98"/>
-      <c r="AV9" s="98"/>
-      <c r="AW9" s="98"/>
-      <c r="AX9" s="98"/>
-      <c r="AY9" s="98"/>
-      <c r="AZ9" s="99"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="92"/>
+      <c r="AF9" s="92"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="92"/>
+      <c r="AJ9" s="92"/>
+      <c r="AK9" s="92"/>
+      <c r="AL9" s="93"/>
+      <c r="AM9" s="91"/>
+      <c r="AN9" s="92"/>
+      <c r="AO9" s="92"/>
+      <c r="AP9" s="92"/>
+      <c r="AQ9" s="92"/>
+      <c r="AR9" s="92"/>
+      <c r="AS9" s="92"/>
+      <c r="AT9" s="92"/>
+      <c r="AU9" s="92"/>
+      <c r="AV9" s="92"/>
+      <c r="AW9" s="92"/>
+      <c r="AX9" s="92"/>
+      <c r="AY9" s="92"/>
+      <c r="AZ9" s="93"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="9" t="str">
@@ -2714,56 +2708,56 @@
         <v/>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="97"/>
-      <c r="R10" s="98"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="98"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="98"/>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="98"/>
-      <c r="AB10" s="98"/>
-      <c r="AC10" s="98"/>
-      <c r="AD10" s="98"/>
-      <c r="AE10" s="98"/>
-      <c r="AF10" s="98"/>
-      <c r="AG10" s="98"/>
-      <c r="AH10" s="98"/>
-      <c r="AI10" s="98"/>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="98"/>
-      <c r="AL10" s="99"/>
-      <c r="AM10" s="97"/>
-      <c r="AN10" s="98"/>
-      <c r="AO10" s="98"/>
-      <c r="AP10" s="98"/>
-      <c r="AQ10" s="98"/>
-      <c r="AR10" s="98"/>
-      <c r="AS10" s="98"/>
-      <c r="AT10" s="98"/>
-      <c r="AU10" s="98"/>
-      <c r="AV10" s="98"/>
-      <c r="AW10" s="98"/>
-      <c r="AX10" s="98"/>
-      <c r="AY10" s="98"/>
-      <c r="AZ10" s="99"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="90"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="91"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="92"/>
+      <c r="AF10" s="92"/>
+      <c r="AG10" s="92"/>
+      <c r="AH10" s="92"/>
+      <c r="AI10" s="92"/>
+      <c r="AJ10" s="92"/>
+      <c r="AK10" s="92"/>
+      <c r="AL10" s="93"/>
+      <c r="AM10" s="91"/>
+      <c r="AN10" s="92"/>
+      <c r="AO10" s="92"/>
+      <c r="AP10" s="92"/>
+      <c r="AQ10" s="92"/>
+      <c r="AR10" s="92"/>
+      <c r="AS10" s="92"/>
+      <c r="AT10" s="92"/>
+      <c r="AU10" s="92"/>
+      <c r="AV10" s="92"/>
+      <c r="AW10" s="92"/>
+      <c r="AX10" s="92"/>
+      <c r="AY10" s="92"/>
+      <c r="AZ10" s="93"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="9" t="str">
@@ -2771,56 +2765,56 @@
         <v/>
       </c>
       <c r="B11" s="10"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="98"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="98"/>
-      <c r="U11" s="98"/>
-      <c r="V11" s="98"/>
-      <c r="W11" s="98"/>
-      <c r="X11" s="98"/>
-      <c r="Y11" s="98"/>
-      <c r="Z11" s="98"/>
-      <c r="AA11" s="98"/>
-      <c r="AB11" s="98"/>
-      <c r="AC11" s="98"/>
-      <c r="AD11" s="98"/>
-      <c r="AE11" s="98"/>
-      <c r="AF11" s="98"/>
-      <c r="AG11" s="98"/>
-      <c r="AH11" s="98"/>
-      <c r="AI11" s="98"/>
-      <c r="AJ11" s="98"/>
-      <c r="AK11" s="98"/>
-      <c r="AL11" s="99"/>
-      <c r="AM11" s="97"/>
-      <c r="AN11" s="98"/>
-      <c r="AO11" s="98"/>
-      <c r="AP11" s="98"/>
-      <c r="AQ11" s="98"/>
-      <c r="AR11" s="98"/>
-      <c r="AS11" s="98"/>
-      <c r="AT11" s="98"/>
-      <c r="AU11" s="98"/>
-      <c r="AV11" s="98"/>
-      <c r="AW11" s="98"/>
-      <c r="AX11" s="98"/>
-      <c r="AY11" s="98"/>
-      <c r="AZ11" s="99"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="92"/>
+      <c r="W11" s="92"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="92"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="92"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="92"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="92"/>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="93"/>
+      <c r="AM11" s="91"/>
+      <c r="AN11" s="92"/>
+      <c r="AO11" s="92"/>
+      <c r="AP11" s="92"/>
+      <c r="AQ11" s="92"/>
+      <c r="AR11" s="92"/>
+      <c r="AS11" s="92"/>
+      <c r="AT11" s="92"/>
+      <c r="AU11" s="92"/>
+      <c r="AV11" s="92"/>
+      <c r="AW11" s="92"/>
+      <c r="AX11" s="92"/>
+      <c r="AY11" s="92"/>
+      <c r="AZ11" s="93"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="9" t="str">
@@ -2828,56 +2822,56 @@
         <v/>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="98"/>
-      <c r="V12" s="98"/>
-      <c r="W12" s="98"/>
-      <c r="X12" s="98"/>
-      <c r="Y12" s="98"/>
-      <c r="Z12" s="98"/>
-      <c r="AA12" s="98"/>
-      <c r="AB12" s="98"/>
-      <c r="AC12" s="98"/>
-      <c r="AD12" s="98"/>
-      <c r="AE12" s="98"/>
-      <c r="AF12" s="98"/>
-      <c r="AG12" s="98"/>
-      <c r="AH12" s="98"/>
-      <c r="AI12" s="98"/>
-      <c r="AJ12" s="98"/>
-      <c r="AK12" s="98"/>
-      <c r="AL12" s="99"/>
-      <c r="AM12" s="97"/>
-      <c r="AN12" s="98"/>
-      <c r="AO12" s="98"/>
-      <c r="AP12" s="98"/>
-      <c r="AQ12" s="98"/>
-      <c r="AR12" s="98"/>
-      <c r="AS12" s="98"/>
-      <c r="AT12" s="98"/>
-      <c r="AU12" s="98"/>
-      <c r="AV12" s="98"/>
-      <c r="AW12" s="98"/>
-      <c r="AX12" s="98"/>
-      <c r="AY12" s="98"/>
-      <c r="AZ12" s="99"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="91"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="92"/>
+      <c r="Z12" s="92"/>
+      <c r="AA12" s="92"/>
+      <c r="AB12" s="92"/>
+      <c r="AC12" s="92"/>
+      <c r="AD12" s="92"/>
+      <c r="AE12" s="92"/>
+      <c r="AF12" s="92"/>
+      <c r="AG12" s="92"/>
+      <c r="AH12" s="92"/>
+      <c r="AI12" s="92"/>
+      <c r="AJ12" s="92"/>
+      <c r="AK12" s="92"/>
+      <c r="AL12" s="93"/>
+      <c r="AM12" s="91"/>
+      <c r="AN12" s="92"/>
+      <c r="AO12" s="92"/>
+      <c r="AP12" s="92"/>
+      <c r="AQ12" s="92"/>
+      <c r="AR12" s="92"/>
+      <c r="AS12" s="92"/>
+      <c r="AT12" s="92"/>
+      <c r="AU12" s="92"/>
+      <c r="AV12" s="92"/>
+      <c r="AW12" s="92"/>
+      <c r="AX12" s="92"/>
+      <c r="AY12" s="92"/>
+      <c r="AZ12" s="93"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="9" t="str">
@@ -2885,56 +2879,56 @@
         <v/>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="98"/>
-      <c r="S13" s="98"/>
-      <c r="T13" s="98"/>
-      <c r="U13" s="98"/>
-      <c r="V13" s="98"/>
-      <c r="W13" s="98"/>
-      <c r="X13" s="98"/>
-      <c r="Y13" s="98"/>
-      <c r="Z13" s="98"/>
-      <c r="AA13" s="98"/>
-      <c r="AB13" s="98"/>
-      <c r="AC13" s="98"/>
-      <c r="AD13" s="98"/>
-      <c r="AE13" s="98"/>
-      <c r="AF13" s="98"/>
-      <c r="AG13" s="98"/>
-      <c r="AH13" s="98"/>
-      <c r="AI13" s="98"/>
-      <c r="AJ13" s="98"/>
-      <c r="AK13" s="98"/>
-      <c r="AL13" s="99"/>
-      <c r="AM13" s="97"/>
-      <c r="AN13" s="98"/>
-      <c r="AO13" s="98"/>
-      <c r="AP13" s="98"/>
-      <c r="AQ13" s="98"/>
-      <c r="AR13" s="98"/>
-      <c r="AS13" s="98"/>
-      <c r="AT13" s="98"/>
-      <c r="AU13" s="98"/>
-      <c r="AV13" s="98"/>
-      <c r="AW13" s="98"/>
-      <c r="AX13" s="98"/>
-      <c r="AY13" s="98"/>
-      <c r="AZ13" s="99"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="92"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="92"/>
+      <c r="AA13" s="92"/>
+      <c r="AB13" s="92"/>
+      <c r="AC13" s="92"/>
+      <c r="AD13" s="92"/>
+      <c r="AE13" s="92"/>
+      <c r="AF13" s="92"/>
+      <c r="AG13" s="92"/>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="92"/>
+      <c r="AJ13" s="92"/>
+      <c r="AK13" s="92"/>
+      <c r="AL13" s="93"/>
+      <c r="AM13" s="91"/>
+      <c r="AN13" s="92"/>
+      <c r="AO13" s="92"/>
+      <c r="AP13" s="92"/>
+      <c r="AQ13" s="92"/>
+      <c r="AR13" s="92"/>
+      <c r="AS13" s="92"/>
+      <c r="AT13" s="92"/>
+      <c r="AU13" s="92"/>
+      <c r="AV13" s="92"/>
+      <c r="AW13" s="92"/>
+      <c r="AX13" s="92"/>
+      <c r="AY13" s="92"/>
+      <c r="AZ13" s="93"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="9" t="str">
@@ -2942,56 +2936,56 @@
         <v/>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="99"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="98"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="98"/>
-      <c r="W14" s="98"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="98"/>
-      <c r="Z14" s="98"/>
-      <c r="AA14" s="98"/>
-      <c r="AB14" s="98"/>
-      <c r="AC14" s="98"/>
-      <c r="AD14" s="98"/>
-      <c r="AE14" s="98"/>
-      <c r="AF14" s="98"/>
-      <c r="AG14" s="98"/>
-      <c r="AH14" s="98"/>
-      <c r="AI14" s="98"/>
-      <c r="AJ14" s="98"/>
-      <c r="AK14" s="98"/>
-      <c r="AL14" s="99"/>
-      <c r="AM14" s="97"/>
-      <c r="AN14" s="98"/>
-      <c r="AO14" s="98"/>
-      <c r="AP14" s="98"/>
-      <c r="AQ14" s="98"/>
-      <c r="AR14" s="98"/>
-      <c r="AS14" s="98"/>
-      <c r="AT14" s="98"/>
-      <c r="AU14" s="98"/>
-      <c r="AV14" s="98"/>
-      <c r="AW14" s="98"/>
-      <c r="AX14" s="98"/>
-      <c r="AY14" s="98"/>
-      <c r="AZ14" s="99"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="92"/>
+      <c r="U14" s="92"/>
+      <c r="V14" s="92"/>
+      <c r="W14" s="92"/>
+      <c r="X14" s="92"/>
+      <c r="Y14" s="92"/>
+      <c r="Z14" s="92"/>
+      <c r="AA14" s="92"/>
+      <c r="AB14" s="92"/>
+      <c r="AC14" s="92"/>
+      <c r="AD14" s="92"/>
+      <c r="AE14" s="92"/>
+      <c r="AF14" s="92"/>
+      <c r="AG14" s="92"/>
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="92"/>
+      <c r="AJ14" s="92"/>
+      <c r="AK14" s="92"/>
+      <c r="AL14" s="93"/>
+      <c r="AM14" s="91"/>
+      <c r="AN14" s="92"/>
+      <c r="AO14" s="92"/>
+      <c r="AP14" s="92"/>
+      <c r="AQ14" s="92"/>
+      <c r="AR14" s="92"/>
+      <c r="AS14" s="92"/>
+      <c r="AT14" s="92"/>
+      <c r="AU14" s="92"/>
+      <c r="AV14" s="92"/>
+      <c r="AW14" s="92"/>
+      <c r="AX14" s="92"/>
+      <c r="AY14" s="92"/>
+      <c r="AZ14" s="93"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="9" t="str">
@@ -2999,56 +2993,56 @@
         <v/>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="99"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="98"/>
-      <c r="T15" s="98"/>
-      <c r="U15" s="98"/>
-      <c r="V15" s="98"/>
-      <c r="W15" s="98"/>
-      <c r="X15" s="98"/>
-      <c r="Y15" s="98"/>
-      <c r="Z15" s="98"/>
-      <c r="AA15" s="98"/>
-      <c r="AB15" s="98"/>
-      <c r="AC15" s="98"/>
-      <c r="AD15" s="98"/>
-      <c r="AE15" s="98"/>
-      <c r="AF15" s="98"/>
-      <c r="AG15" s="98"/>
-      <c r="AH15" s="98"/>
-      <c r="AI15" s="98"/>
-      <c r="AJ15" s="98"/>
-      <c r="AK15" s="98"/>
-      <c r="AL15" s="99"/>
-      <c r="AM15" s="97"/>
-      <c r="AN15" s="98"/>
-      <c r="AO15" s="98"/>
-      <c r="AP15" s="98"/>
-      <c r="AQ15" s="98"/>
-      <c r="AR15" s="98"/>
-      <c r="AS15" s="98"/>
-      <c r="AT15" s="98"/>
-      <c r="AU15" s="98"/>
-      <c r="AV15" s="98"/>
-      <c r="AW15" s="98"/>
-      <c r="AX15" s="98"/>
-      <c r="AY15" s="98"/>
-      <c r="AZ15" s="99"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="92"/>
+      <c r="AA15" s="92"/>
+      <c r="AB15" s="92"/>
+      <c r="AC15" s="92"/>
+      <c r="AD15" s="92"/>
+      <c r="AE15" s="92"/>
+      <c r="AF15" s="92"/>
+      <c r="AG15" s="92"/>
+      <c r="AH15" s="92"/>
+      <c r="AI15" s="92"/>
+      <c r="AJ15" s="92"/>
+      <c r="AK15" s="92"/>
+      <c r="AL15" s="93"/>
+      <c r="AM15" s="91"/>
+      <c r="AN15" s="92"/>
+      <c r="AO15" s="92"/>
+      <c r="AP15" s="92"/>
+      <c r="AQ15" s="92"/>
+      <c r="AR15" s="92"/>
+      <c r="AS15" s="92"/>
+      <c r="AT15" s="92"/>
+      <c r="AU15" s="92"/>
+      <c r="AV15" s="92"/>
+      <c r="AW15" s="92"/>
+      <c r="AX15" s="92"/>
+      <c r="AY15" s="92"/>
+      <c r="AZ15" s="93"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="9" t="str">
@@ -3056,56 +3050,56 @@
         <v/>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="99"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="98"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="98"/>
-      <c r="W16" s="98"/>
-      <c r="X16" s="98"/>
-      <c r="Y16" s="98"/>
-      <c r="Z16" s="98"/>
-      <c r="AA16" s="98"/>
-      <c r="AB16" s="98"/>
-      <c r="AC16" s="98"/>
-      <c r="AD16" s="98"/>
-      <c r="AE16" s="98"/>
-      <c r="AF16" s="98"/>
-      <c r="AG16" s="98"/>
-      <c r="AH16" s="98"/>
-      <c r="AI16" s="98"/>
-      <c r="AJ16" s="98"/>
-      <c r="AK16" s="98"/>
-      <c r="AL16" s="99"/>
-      <c r="AM16" s="97"/>
-      <c r="AN16" s="98"/>
-      <c r="AO16" s="98"/>
-      <c r="AP16" s="98"/>
-      <c r="AQ16" s="98"/>
-      <c r="AR16" s="98"/>
-      <c r="AS16" s="98"/>
-      <c r="AT16" s="98"/>
-      <c r="AU16" s="98"/>
-      <c r="AV16" s="98"/>
-      <c r="AW16" s="98"/>
-      <c r="AX16" s="98"/>
-      <c r="AY16" s="98"/>
-      <c r="AZ16" s="99"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="92"/>
+      <c r="AD16" s="92"/>
+      <c r="AE16" s="92"/>
+      <c r="AF16" s="92"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="92"/>
+      <c r="AJ16" s="92"/>
+      <c r="AK16" s="92"/>
+      <c r="AL16" s="93"/>
+      <c r="AM16" s="91"/>
+      <c r="AN16" s="92"/>
+      <c r="AO16" s="92"/>
+      <c r="AP16" s="92"/>
+      <c r="AQ16" s="92"/>
+      <c r="AR16" s="92"/>
+      <c r="AS16" s="92"/>
+      <c r="AT16" s="92"/>
+      <c r="AU16" s="92"/>
+      <c r="AV16" s="92"/>
+      <c r="AW16" s="92"/>
+      <c r="AX16" s="92"/>
+      <c r="AY16" s="92"/>
+      <c r="AZ16" s="93"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="9" t="str">
@@ -3113,56 +3107,56 @@
         <v/>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="98"/>
-      <c r="W17" s="98"/>
-      <c r="X17" s="98"/>
-      <c r="Y17" s="98"/>
-      <c r="Z17" s="98"/>
-      <c r="AA17" s="98"/>
-      <c r="AB17" s="98"/>
-      <c r="AC17" s="98"/>
-      <c r="AD17" s="98"/>
-      <c r="AE17" s="98"/>
-      <c r="AF17" s="98"/>
-      <c r="AG17" s="98"/>
-      <c r="AH17" s="98"/>
-      <c r="AI17" s="98"/>
-      <c r="AJ17" s="98"/>
-      <c r="AK17" s="98"/>
-      <c r="AL17" s="99"/>
-      <c r="AM17" s="97"/>
-      <c r="AN17" s="98"/>
-      <c r="AO17" s="98"/>
-      <c r="AP17" s="98"/>
-      <c r="AQ17" s="98"/>
-      <c r="AR17" s="98"/>
-      <c r="AS17" s="98"/>
-      <c r="AT17" s="98"/>
-      <c r="AU17" s="98"/>
-      <c r="AV17" s="98"/>
-      <c r="AW17" s="98"/>
-      <c r="AX17" s="98"/>
-      <c r="AY17" s="98"/>
-      <c r="AZ17" s="99"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="92"/>
+      <c r="T17" s="92"/>
+      <c r="U17" s="92"/>
+      <c r="V17" s="92"/>
+      <c r="W17" s="92"/>
+      <c r="X17" s="92"/>
+      <c r="Y17" s="92"/>
+      <c r="Z17" s="92"/>
+      <c r="AA17" s="92"/>
+      <c r="AB17" s="92"/>
+      <c r="AC17" s="92"/>
+      <c r="AD17" s="92"/>
+      <c r="AE17" s="92"/>
+      <c r="AF17" s="92"/>
+      <c r="AG17" s="92"/>
+      <c r="AH17" s="92"/>
+      <c r="AI17" s="92"/>
+      <c r="AJ17" s="92"/>
+      <c r="AK17" s="92"/>
+      <c r="AL17" s="93"/>
+      <c r="AM17" s="91"/>
+      <c r="AN17" s="92"/>
+      <c r="AO17" s="92"/>
+      <c r="AP17" s="92"/>
+      <c r="AQ17" s="92"/>
+      <c r="AR17" s="92"/>
+      <c r="AS17" s="92"/>
+      <c r="AT17" s="92"/>
+      <c r="AU17" s="92"/>
+      <c r="AV17" s="92"/>
+      <c r="AW17" s="92"/>
+      <c r="AX17" s="92"/>
+      <c r="AY17" s="92"/>
+      <c r="AZ17" s="93"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="9" t="str">
@@ -3170,56 +3164,56 @@
         <v/>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="98"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="98"/>
-      <c r="W18" s="98"/>
-      <c r="X18" s="98"/>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="98"/>
-      <c r="AB18" s="98"/>
-      <c r="AC18" s="98"/>
-      <c r="AD18" s="98"/>
-      <c r="AE18" s="98"/>
-      <c r="AF18" s="98"/>
-      <c r="AG18" s="98"/>
-      <c r="AH18" s="98"/>
-      <c r="AI18" s="98"/>
-      <c r="AJ18" s="98"/>
-      <c r="AK18" s="98"/>
-      <c r="AL18" s="99"/>
-      <c r="AM18" s="97"/>
-      <c r="AN18" s="98"/>
-      <c r="AO18" s="98"/>
-      <c r="AP18" s="98"/>
-      <c r="AQ18" s="98"/>
-      <c r="AR18" s="98"/>
-      <c r="AS18" s="98"/>
-      <c r="AT18" s="98"/>
-      <c r="AU18" s="98"/>
-      <c r="AV18" s="98"/>
-      <c r="AW18" s="98"/>
-      <c r="AX18" s="98"/>
-      <c r="AY18" s="98"/>
-      <c r="AZ18" s="99"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="92"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="92"/>
+      <c r="Y18" s="92"/>
+      <c r="Z18" s="92"/>
+      <c r="AA18" s="92"/>
+      <c r="AB18" s="92"/>
+      <c r="AC18" s="92"/>
+      <c r="AD18" s="92"/>
+      <c r="AE18" s="92"/>
+      <c r="AF18" s="92"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="92"/>
+      <c r="AJ18" s="92"/>
+      <c r="AK18" s="92"/>
+      <c r="AL18" s="93"/>
+      <c r="AM18" s="91"/>
+      <c r="AN18" s="92"/>
+      <c r="AO18" s="92"/>
+      <c r="AP18" s="92"/>
+      <c r="AQ18" s="92"/>
+      <c r="AR18" s="92"/>
+      <c r="AS18" s="92"/>
+      <c r="AT18" s="92"/>
+      <c r="AU18" s="92"/>
+      <c r="AV18" s="92"/>
+      <c r="AW18" s="92"/>
+      <c r="AX18" s="92"/>
+      <c r="AY18" s="92"/>
+      <c r="AZ18" s="93"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="9" t="str">
@@ -3227,56 +3221,56 @@
         <v/>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="98"/>
-      <c r="S19" s="98"/>
-      <c r="T19" s="98"/>
-      <c r="U19" s="98"/>
-      <c r="V19" s="98"/>
-      <c r="W19" s="98"/>
-      <c r="X19" s="98"/>
-      <c r="Y19" s="98"/>
-      <c r="Z19" s="98"/>
-      <c r="AA19" s="98"/>
-      <c r="AB19" s="98"/>
-      <c r="AC19" s="98"/>
-      <c r="AD19" s="98"/>
-      <c r="AE19" s="98"/>
-      <c r="AF19" s="98"/>
-      <c r="AG19" s="98"/>
-      <c r="AH19" s="98"/>
-      <c r="AI19" s="98"/>
-      <c r="AJ19" s="98"/>
-      <c r="AK19" s="98"/>
-      <c r="AL19" s="99"/>
-      <c r="AM19" s="97"/>
-      <c r="AN19" s="98"/>
-      <c r="AO19" s="98"/>
-      <c r="AP19" s="98"/>
-      <c r="AQ19" s="98"/>
-      <c r="AR19" s="98"/>
-      <c r="AS19" s="98"/>
-      <c r="AT19" s="98"/>
-      <c r="AU19" s="98"/>
-      <c r="AV19" s="98"/>
-      <c r="AW19" s="98"/>
-      <c r="AX19" s="98"/>
-      <c r="AY19" s="98"/>
-      <c r="AZ19" s="99"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="92"/>
+      <c r="X19" s="92"/>
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="92"/>
+      <c r="AA19" s="92"/>
+      <c r="AB19" s="92"/>
+      <c r="AC19" s="92"/>
+      <c r="AD19" s="92"/>
+      <c r="AE19" s="92"/>
+      <c r="AF19" s="92"/>
+      <c r="AG19" s="92"/>
+      <c r="AH19" s="92"/>
+      <c r="AI19" s="92"/>
+      <c r="AJ19" s="92"/>
+      <c r="AK19" s="92"/>
+      <c r="AL19" s="93"/>
+      <c r="AM19" s="91"/>
+      <c r="AN19" s="92"/>
+      <c r="AO19" s="92"/>
+      <c r="AP19" s="92"/>
+      <c r="AQ19" s="92"/>
+      <c r="AR19" s="92"/>
+      <c r="AS19" s="92"/>
+      <c r="AT19" s="92"/>
+      <c r="AU19" s="92"/>
+      <c r="AV19" s="92"/>
+      <c r="AW19" s="92"/>
+      <c r="AX19" s="92"/>
+      <c r="AY19" s="92"/>
+      <c r="AZ19" s="93"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="9" t="str">
@@ -3284,56 +3278,56 @@
         <v/>
       </c>
       <c r="B20" s="10"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="99"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="98"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="98"/>
-      <c r="U20" s="98"/>
-      <c r="V20" s="98"/>
-      <c r="W20" s="98"/>
-      <c r="X20" s="98"/>
-      <c r="Y20" s="98"/>
-      <c r="Z20" s="98"/>
-      <c r="AA20" s="98"/>
-      <c r="AB20" s="98"/>
-      <c r="AC20" s="98"/>
-      <c r="AD20" s="98"/>
-      <c r="AE20" s="98"/>
-      <c r="AF20" s="98"/>
-      <c r="AG20" s="98"/>
-      <c r="AH20" s="98"/>
-      <c r="AI20" s="98"/>
-      <c r="AJ20" s="98"/>
-      <c r="AK20" s="98"/>
-      <c r="AL20" s="99"/>
-      <c r="AM20" s="97"/>
-      <c r="AN20" s="98"/>
-      <c r="AO20" s="98"/>
-      <c r="AP20" s="98"/>
-      <c r="AQ20" s="98"/>
-      <c r="AR20" s="98"/>
-      <c r="AS20" s="98"/>
-      <c r="AT20" s="98"/>
-      <c r="AU20" s="98"/>
-      <c r="AV20" s="98"/>
-      <c r="AW20" s="98"/>
-      <c r="AX20" s="98"/>
-      <c r="AY20" s="98"/>
-      <c r="AZ20" s="99"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="92"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="92"/>
+      <c r="V20" s="92"/>
+      <c r="W20" s="92"/>
+      <c r="X20" s="92"/>
+      <c r="Y20" s="92"/>
+      <c r="Z20" s="92"/>
+      <c r="AA20" s="92"/>
+      <c r="AB20" s="92"/>
+      <c r="AC20" s="92"/>
+      <c r="AD20" s="92"/>
+      <c r="AE20" s="92"/>
+      <c r="AF20" s="92"/>
+      <c r="AG20" s="92"/>
+      <c r="AH20" s="92"/>
+      <c r="AI20" s="92"/>
+      <c r="AJ20" s="92"/>
+      <c r="AK20" s="92"/>
+      <c r="AL20" s="93"/>
+      <c r="AM20" s="91"/>
+      <c r="AN20" s="92"/>
+      <c r="AO20" s="92"/>
+      <c r="AP20" s="92"/>
+      <c r="AQ20" s="92"/>
+      <c r="AR20" s="92"/>
+      <c r="AS20" s="92"/>
+      <c r="AT20" s="92"/>
+      <c r="AU20" s="92"/>
+      <c r="AV20" s="92"/>
+      <c r="AW20" s="92"/>
+      <c r="AX20" s="92"/>
+      <c r="AY20" s="92"/>
+      <c r="AZ20" s="93"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="9" t="str">
@@ -3341,56 +3335,56 @@
         <v/>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="98"/>
-      <c r="S21" s="98"/>
-      <c r="T21" s="98"/>
-      <c r="U21" s="98"/>
-      <c r="V21" s="98"/>
-      <c r="W21" s="98"/>
-      <c r="X21" s="98"/>
-      <c r="Y21" s="98"/>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="98"/>
-      <c r="AB21" s="98"/>
-      <c r="AC21" s="98"/>
-      <c r="AD21" s="98"/>
-      <c r="AE21" s="98"/>
-      <c r="AF21" s="98"/>
-      <c r="AG21" s="98"/>
-      <c r="AH21" s="98"/>
-      <c r="AI21" s="98"/>
-      <c r="AJ21" s="98"/>
-      <c r="AK21" s="98"/>
-      <c r="AL21" s="99"/>
-      <c r="AM21" s="97"/>
-      <c r="AN21" s="98"/>
-      <c r="AO21" s="98"/>
-      <c r="AP21" s="98"/>
-      <c r="AQ21" s="98"/>
-      <c r="AR21" s="98"/>
-      <c r="AS21" s="98"/>
-      <c r="AT21" s="98"/>
-      <c r="AU21" s="98"/>
-      <c r="AV21" s="98"/>
-      <c r="AW21" s="98"/>
-      <c r="AX21" s="98"/>
-      <c r="AY21" s="98"/>
-      <c r="AZ21" s="99"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="92"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="92"/>
+      <c r="W21" s="92"/>
+      <c r="X21" s="92"/>
+      <c r="Y21" s="92"/>
+      <c r="Z21" s="92"/>
+      <c r="AA21" s="92"/>
+      <c r="AB21" s="92"/>
+      <c r="AC21" s="92"/>
+      <c r="AD21" s="92"/>
+      <c r="AE21" s="92"/>
+      <c r="AF21" s="92"/>
+      <c r="AG21" s="92"/>
+      <c r="AH21" s="92"/>
+      <c r="AI21" s="92"/>
+      <c r="AJ21" s="92"/>
+      <c r="AK21" s="92"/>
+      <c r="AL21" s="93"/>
+      <c r="AM21" s="91"/>
+      <c r="AN21" s="92"/>
+      <c r="AO21" s="92"/>
+      <c r="AP21" s="92"/>
+      <c r="AQ21" s="92"/>
+      <c r="AR21" s="92"/>
+      <c r="AS21" s="92"/>
+      <c r="AT21" s="92"/>
+      <c r="AU21" s="92"/>
+      <c r="AV21" s="92"/>
+      <c r="AW21" s="92"/>
+      <c r="AX21" s="92"/>
+      <c r="AY21" s="92"/>
+      <c r="AZ21" s="93"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="9" t="str">
@@ -3398,56 +3392,56 @@
         <v/>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="98"/>
-      <c r="AC22" s="98"/>
-      <c r="AD22" s="98"/>
-      <c r="AE22" s="98"/>
-      <c r="AF22" s="98"/>
-      <c r="AG22" s="98"/>
-      <c r="AH22" s="98"/>
-      <c r="AI22" s="98"/>
-      <c r="AJ22" s="98"/>
-      <c r="AK22" s="98"/>
-      <c r="AL22" s="99"/>
-      <c r="AM22" s="97"/>
-      <c r="AN22" s="98"/>
-      <c r="AO22" s="98"/>
-      <c r="AP22" s="98"/>
-      <c r="AQ22" s="98"/>
-      <c r="AR22" s="98"/>
-      <c r="AS22" s="98"/>
-      <c r="AT22" s="98"/>
-      <c r="AU22" s="98"/>
-      <c r="AV22" s="98"/>
-      <c r="AW22" s="98"/>
-      <c r="AX22" s="98"/>
-      <c r="AY22" s="98"/>
-      <c r="AZ22" s="99"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="92"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="92"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="92"/>
+      <c r="AB22" s="92"/>
+      <c r="AC22" s="92"/>
+      <c r="AD22" s="92"/>
+      <c r="AE22" s="92"/>
+      <c r="AF22" s="92"/>
+      <c r="AG22" s="92"/>
+      <c r="AH22" s="92"/>
+      <c r="AI22" s="92"/>
+      <c r="AJ22" s="92"/>
+      <c r="AK22" s="92"/>
+      <c r="AL22" s="93"/>
+      <c r="AM22" s="91"/>
+      <c r="AN22" s="92"/>
+      <c r="AO22" s="92"/>
+      <c r="AP22" s="92"/>
+      <c r="AQ22" s="92"/>
+      <c r="AR22" s="92"/>
+      <c r="AS22" s="92"/>
+      <c r="AT22" s="92"/>
+      <c r="AU22" s="92"/>
+      <c r="AV22" s="92"/>
+      <c r="AW22" s="92"/>
+      <c r="AX22" s="92"/>
+      <c r="AY22" s="92"/>
+      <c r="AZ22" s="93"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="9" t="str">
@@ -3455,56 +3449,56 @@
         <v/>
       </c>
       <c r="B23" s="10"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="97"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="98"/>
-      <c r="W23" s="98"/>
-      <c r="X23" s="98"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="98"/>
-      <c r="AB23" s="98"/>
-      <c r="AC23" s="98"/>
-      <c r="AD23" s="98"/>
-      <c r="AE23" s="98"/>
-      <c r="AF23" s="98"/>
-      <c r="AG23" s="98"/>
-      <c r="AH23" s="98"/>
-      <c r="AI23" s="98"/>
-      <c r="AJ23" s="98"/>
-      <c r="AK23" s="98"/>
-      <c r="AL23" s="99"/>
-      <c r="AM23" s="97"/>
-      <c r="AN23" s="98"/>
-      <c r="AO23" s="98"/>
-      <c r="AP23" s="98"/>
-      <c r="AQ23" s="98"/>
-      <c r="AR23" s="98"/>
-      <c r="AS23" s="98"/>
-      <c r="AT23" s="98"/>
-      <c r="AU23" s="98"/>
-      <c r="AV23" s="98"/>
-      <c r="AW23" s="98"/>
-      <c r="AX23" s="98"/>
-      <c r="AY23" s="98"/>
-      <c r="AZ23" s="99"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="92"/>
+      <c r="S23" s="92"/>
+      <c r="T23" s="92"/>
+      <c r="U23" s="92"/>
+      <c r="V23" s="92"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="92"/>
+      <c r="Y23" s="92"/>
+      <c r="Z23" s="92"/>
+      <c r="AA23" s="92"/>
+      <c r="AB23" s="92"/>
+      <c r="AC23" s="92"/>
+      <c r="AD23" s="92"/>
+      <c r="AE23" s="92"/>
+      <c r="AF23" s="92"/>
+      <c r="AG23" s="92"/>
+      <c r="AH23" s="92"/>
+      <c r="AI23" s="92"/>
+      <c r="AJ23" s="92"/>
+      <c r="AK23" s="92"/>
+      <c r="AL23" s="93"/>
+      <c r="AM23" s="91"/>
+      <c r="AN23" s="92"/>
+      <c r="AO23" s="92"/>
+      <c r="AP23" s="92"/>
+      <c r="AQ23" s="92"/>
+      <c r="AR23" s="92"/>
+      <c r="AS23" s="92"/>
+      <c r="AT23" s="92"/>
+      <c r="AU23" s="92"/>
+      <c r="AV23" s="92"/>
+      <c r="AW23" s="92"/>
+      <c r="AX23" s="92"/>
+      <c r="AY23" s="92"/>
+      <c r="AZ23" s="93"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="9" t="str">
@@ -3512,56 +3506,56 @@
         <v/>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="98"/>
-      <c r="AB24" s="98"/>
-      <c r="AC24" s="98"/>
-      <c r="AD24" s="98"/>
-      <c r="AE24" s="98"/>
-      <c r="AF24" s="98"/>
-      <c r="AG24" s="98"/>
-      <c r="AH24" s="98"/>
-      <c r="AI24" s="98"/>
-      <c r="AJ24" s="98"/>
-      <c r="AK24" s="98"/>
-      <c r="AL24" s="99"/>
-      <c r="AM24" s="97"/>
-      <c r="AN24" s="98"/>
-      <c r="AO24" s="98"/>
-      <c r="AP24" s="98"/>
-      <c r="AQ24" s="98"/>
-      <c r="AR24" s="98"/>
-      <c r="AS24" s="98"/>
-      <c r="AT24" s="98"/>
-      <c r="AU24" s="98"/>
-      <c r="AV24" s="98"/>
-      <c r="AW24" s="98"/>
-      <c r="AX24" s="98"/>
-      <c r="AY24" s="98"/>
-      <c r="AZ24" s="99"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="92"/>
+      <c r="S24" s="92"/>
+      <c r="T24" s="92"/>
+      <c r="U24" s="92"/>
+      <c r="V24" s="92"/>
+      <c r="W24" s="92"/>
+      <c r="X24" s="92"/>
+      <c r="Y24" s="92"/>
+      <c r="Z24" s="92"/>
+      <c r="AA24" s="92"/>
+      <c r="AB24" s="92"/>
+      <c r="AC24" s="92"/>
+      <c r="AD24" s="92"/>
+      <c r="AE24" s="92"/>
+      <c r="AF24" s="92"/>
+      <c r="AG24" s="92"/>
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="92"/>
+      <c r="AJ24" s="92"/>
+      <c r="AK24" s="92"/>
+      <c r="AL24" s="93"/>
+      <c r="AM24" s="91"/>
+      <c r="AN24" s="92"/>
+      <c r="AO24" s="92"/>
+      <c r="AP24" s="92"/>
+      <c r="AQ24" s="92"/>
+      <c r="AR24" s="92"/>
+      <c r="AS24" s="92"/>
+      <c r="AT24" s="92"/>
+      <c r="AU24" s="92"/>
+      <c r="AV24" s="92"/>
+      <c r="AW24" s="92"/>
+      <c r="AX24" s="92"/>
+      <c r="AY24" s="92"/>
+      <c r="AZ24" s="93"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="9" t="str">
@@ -3569,56 +3563,56 @@
         <v/>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
-      <c r="U25" s="98"/>
-      <c r="V25" s="98"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="98"/>
-      <c r="AB25" s="98"/>
-      <c r="AC25" s="98"/>
-      <c r="AD25" s="98"/>
-      <c r="AE25" s="98"/>
-      <c r="AF25" s="98"/>
-      <c r="AG25" s="98"/>
-      <c r="AH25" s="98"/>
-      <c r="AI25" s="98"/>
-      <c r="AJ25" s="98"/>
-      <c r="AK25" s="98"/>
-      <c r="AL25" s="99"/>
-      <c r="AM25" s="97"/>
-      <c r="AN25" s="98"/>
-      <c r="AO25" s="98"/>
-      <c r="AP25" s="98"/>
-      <c r="AQ25" s="98"/>
-      <c r="AR25" s="98"/>
-      <c r="AS25" s="98"/>
-      <c r="AT25" s="98"/>
-      <c r="AU25" s="98"/>
-      <c r="AV25" s="98"/>
-      <c r="AW25" s="98"/>
-      <c r="AX25" s="98"/>
-      <c r="AY25" s="98"/>
-      <c r="AZ25" s="99"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="92"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="92"/>
+      <c r="V25" s="92"/>
+      <c r="W25" s="92"/>
+      <c r="X25" s="92"/>
+      <c r="Y25" s="92"/>
+      <c r="Z25" s="92"/>
+      <c r="AA25" s="92"/>
+      <c r="AB25" s="92"/>
+      <c r="AC25" s="92"/>
+      <c r="AD25" s="92"/>
+      <c r="AE25" s="92"/>
+      <c r="AF25" s="92"/>
+      <c r="AG25" s="92"/>
+      <c r="AH25" s="92"/>
+      <c r="AI25" s="92"/>
+      <c r="AJ25" s="92"/>
+      <c r="AK25" s="92"/>
+      <c r="AL25" s="93"/>
+      <c r="AM25" s="91"/>
+      <c r="AN25" s="92"/>
+      <c r="AO25" s="92"/>
+      <c r="AP25" s="92"/>
+      <c r="AQ25" s="92"/>
+      <c r="AR25" s="92"/>
+      <c r="AS25" s="92"/>
+      <c r="AT25" s="92"/>
+      <c r="AU25" s="92"/>
+      <c r="AV25" s="92"/>
+      <c r="AW25" s="92"/>
+      <c r="AX25" s="92"/>
+      <c r="AY25" s="92"/>
+      <c r="AZ25" s="93"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="9" t="str">
@@ -3626,56 +3620,56 @@
         <v/>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="98"/>
-      <c r="Y26" s="98"/>
-      <c r="Z26" s="98"/>
-      <c r="AA26" s="98"/>
-      <c r="AB26" s="98"/>
-      <c r="AC26" s="98"/>
-      <c r="AD26" s="98"/>
-      <c r="AE26" s="98"/>
-      <c r="AF26" s="98"/>
-      <c r="AG26" s="98"/>
-      <c r="AH26" s="98"/>
-      <c r="AI26" s="98"/>
-      <c r="AJ26" s="98"/>
-      <c r="AK26" s="98"/>
-      <c r="AL26" s="99"/>
-      <c r="AM26" s="97"/>
-      <c r="AN26" s="98"/>
-      <c r="AO26" s="98"/>
-      <c r="AP26" s="98"/>
-      <c r="AQ26" s="98"/>
-      <c r="AR26" s="98"/>
-      <c r="AS26" s="98"/>
-      <c r="AT26" s="98"/>
-      <c r="AU26" s="98"/>
-      <c r="AV26" s="98"/>
-      <c r="AW26" s="98"/>
-      <c r="AX26" s="98"/>
-      <c r="AY26" s="98"/>
-      <c r="AZ26" s="99"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="92"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="92"/>
+      <c r="Y26" s="92"/>
+      <c r="Z26" s="92"/>
+      <c r="AA26" s="92"/>
+      <c r="AB26" s="92"/>
+      <c r="AC26" s="92"/>
+      <c r="AD26" s="92"/>
+      <c r="AE26" s="92"/>
+      <c r="AF26" s="92"/>
+      <c r="AG26" s="92"/>
+      <c r="AH26" s="92"/>
+      <c r="AI26" s="92"/>
+      <c r="AJ26" s="92"/>
+      <c r="AK26" s="92"/>
+      <c r="AL26" s="93"/>
+      <c r="AM26" s="91"/>
+      <c r="AN26" s="92"/>
+      <c r="AO26" s="92"/>
+      <c r="AP26" s="92"/>
+      <c r="AQ26" s="92"/>
+      <c r="AR26" s="92"/>
+      <c r="AS26" s="92"/>
+      <c r="AT26" s="92"/>
+      <c r="AU26" s="92"/>
+      <c r="AV26" s="92"/>
+      <c r="AW26" s="92"/>
+      <c r="AX26" s="92"/>
+      <c r="AY26" s="92"/>
+      <c r="AZ26" s="93"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="9" t="str">
@@ -3683,56 +3677,56 @@
         <v/>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="97"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="99"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="98"/>
-      <c r="S27" s="98"/>
-      <c r="T27" s="98"/>
-      <c r="U27" s="98"/>
-      <c r="V27" s="98"/>
-      <c r="W27" s="98"/>
-      <c r="X27" s="98"/>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="98"/>
-      <c r="AB27" s="98"/>
-      <c r="AC27" s="98"/>
-      <c r="AD27" s="98"/>
-      <c r="AE27" s="98"/>
-      <c r="AF27" s="98"/>
-      <c r="AG27" s="98"/>
-      <c r="AH27" s="98"/>
-      <c r="AI27" s="98"/>
-      <c r="AJ27" s="98"/>
-      <c r="AK27" s="98"/>
-      <c r="AL27" s="99"/>
-      <c r="AM27" s="97"/>
-      <c r="AN27" s="98"/>
-      <c r="AO27" s="98"/>
-      <c r="AP27" s="98"/>
-      <c r="AQ27" s="98"/>
-      <c r="AR27" s="98"/>
-      <c r="AS27" s="98"/>
-      <c r="AT27" s="98"/>
-      <c r="AU27" s="98"/>
-      <c r="AV27" s="98"/>
-      <c r="AW27" s="98"/>
-      <c r="AX27" s="98"/>
-      <c r="AY27" s="98"/>
-      <c r="AZ27" s="99"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="92"/>
+      <c r="X27" s="92"/>
+      <c r="Y27" s="92"/>
+      <c r="Z27" s="92"/>
+      <c r="AA27" s="92"/>
+      <c r="AB27" s="92"/>
+      <c r="AC27" s="92"/>
+      <c r="AD27" s="92"/>
+      <c r="AE27" s="92"/>
+      <c r="AF27" s="92"/>
+      <c r="AG27" s="92"/>
+      <c r="AH27" s="92"/>
+      <c r="AI27" s="92"/>
+      <c r="AJ27" s="92"/>
+      <c r="AK27" s="92"/>
+      <c r="AL27" s="93"/>
+      <c r="AM27" s="91"/>
+      <c r="AN27" s="92"/>
+      <c r="AO27" s="92"/>
+      <c r="AP27" s="92"/>
+      <c r="AQ27" s="92"/>
+      <c r="AR27" s="92"/>
+      <c r="AS27" s="92"/>
+      <c r="AT27" s="92"/>
+      <c r="AU27" s="92"/>
+      <c r="AV27" s="92"/>
+      <c r="AW27" s="92"/>
+      <c r="AX27" s="92"/>
+      <c r="AY27" s="92"/>
+      <c r="AZ27" s="93"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="9" t="str">
@@ -3740,56 +3734,56 @@
         <v/>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="96"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="97"/>
-      <c r="R28" s="98"/>
-      <c r="S28" s="98"/>
-      <c r="T28" s="98"/>
-      <c r="U28" s="98"/>
-      <c r="V28" s="98"/>
-      <c r="W28" s="98"/>
-      <c r="X28" s="98"/>
-      <c r="Y28" s="98"/>
-      <c r="Z28" s="98"/>
-      <c r="AA28" s="98"/>
-      <c r="AB28" s="98"/>
-      <c r="AC28" s="98"/>
-      <c r="AD28" s="98"/>
-      <c r="AE28" s="98"/>
-      <c r="AF28" s="98"/>
-      <c r="AG28" s="98"/>
-      <c r="AH28" s="98"/>
-      <c r="AI28" s="98"/>
-      <c r="AJ28" s="98"/>
-      <c r="AK28" s="98"/>
-      <c r="AL28" s="99"/>
-      <c r="AM28" s="97"/>
-      <c r="AN28" s="98"/>
-      <c r="AO28" s="98"/>
-      <c r="AP28" s="98"/>
-      <c r="AQ28" s="98"/>
-      <c r="AR28" s="98"/>
-      <c r="AS28" s="98"/>
-      <c r="AT28" s="98"/>
-      <c r="AU28" s="98"/>
-      <c r="AV28" s="98"/>
-      <c r="AW28" s="98"/>
-      <c r="AX28" s="98"/>
-      <c r="AY28" s="98"/>
-      <c r="AZ28" s="99"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="92"/>
+      <c r="S28" s="92"/>
+      <c r="T28" s="92"/>
+      <c r="U28" s="92"/>
+      <c r="V28" s="92"/>
+      <c r="W28" s="92"/>
+      <c r="X28" s="92"/>
+      <c r="Y28" s="92"/>
+      <c r="Z28" s="92"/>
+      <c r="AA28" s="92"/>
+      <c r="AB28" s="92"/>
+      <c r="AC28" s="92"/>
+      <c r="AD28" s="92"/>
+      <c r="AE28" s="92"/>
+      <c r="AF28" s="92"/>
+      <c r="AG28" s="92"/>
+      <c r="AH28" s="92"/>
+      <c r="AI28" s="92"/>
+      <c r="AJ28" s="92"/>
+      <c r="AK28" s="92"/>
+      <c r="AL28" s="93"/>
+      <c r="AM28" s="91"/>
+      <c r="AN28" s="92"/>
+      <c r="AO28" s="92"/>
+      <c r="AP28" s="92"/>
+      <c r="AQ28" s="92"/>
+      <c r="AR28" s="92"/>
+      <c r="AS28" s="92"/>
+      <c r="AT28" s="92"/>
+      <c r="AU28" s="92"/>
+      <c r="AV28" s="92"/>
+      <c r="AW28" s="92"/>
+      <c r="AX28" s="92"/>
+      <c r="AY28" s="92"/>
+      <c r="AZ28" s="93"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="9" t="str">
@@ -3797,56 +3791,56 @@
         <v/>
       </c>
       <c r="B29" s="10"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="94"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="97"/>
-      <c r="M29" s="98"/>
-      <c r="N29" s="98"/>
-      <c r="O29" s="98"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="98"/>
-      <c r="S29" s="98"/>
-      <c r="T29" s="98"/>
-      <c r="U29" s="98"/>
-      <c r="V29" s="98"/>
-      <c r="W29" s="98"/>
-      <c r="X29" s="98"/>
-      <c r="Y29" s="98"/>
-      <c r="Z29" s="98"/>
-      <c r="AA29" s="98"/>
-      <c r="AB29" s="98"/>
-      <c r="AC29" s="98"/>
-      <c r="AD29" s="98"/>
-      <c r="AE29" s="98"/>
-      <c r="AF29" s="98"/>
-      <c r="AG29" s="98"/>
-      <c r="AH29" s="98"/>
-      <c r="AI29" s="98"/>
-      <c r="AJ29" s="98"/>
-      <c r="AK29" s="98"/>
-      <c r="AL29" s="99"/>
-      <c r="AM29" s="97"/>
-      <c r="AN29" s="98"/>
-      <c r="AO29" s="98"/>
-      <c r="AP29" s="98"/>
-      <c r="AQ29" s="98"/>
-      <c r="AR29" s="98"/>
-      <c r="AS29" s="98"/>
-      <c r="AT29" s="98"/>
-      <c r="AU29" s="98"/>
-      <c r="AV29" s="98"/>
-      <c r="AW29" s="98"/>
-      <c r="AX29" s="98"/>
-      <c r="AY29" s="98"/>
-      <c r="AZ29" s="99"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="92"/>
+      <c r="S29" s="92"/>
+      <c r="T29" s="92"/>
+      <c r="U29" s="92"/>
+      <c r="V29" s="92"/>
+      <c r="W29" s="92"/>
+      <c r="X29" s="92"/>
+      <c r="Y29" s="92"/>
+      <c r="Z29" s="92"/>
+      <c r="AA29" s="92"/>
+      <c r="AB29" s="92"/>
+      <c r="AC29" s="92"/>
+      <c r="AD29" s="92"/>
+      <c r="AE29" s="92"/>
+      <c r="AF29" s="92"/>
+      <c r="AG29" s="92"/>
+      <c r="AH29" s="92"/>
+      <c r="AI29" s="92"/>
+      <c r="AJ29" s="92"/>
+      <c r="AK29" s="92"/>
+      <c r="AL29" s="93"/>
+      <c r="AM29" s="91"/>
+      <c r="AN29" s="92"/>
+      <c r="AO29" s="92"/>
+      <c r="AP29" s="92"/>
+      <c r="AQ29" s="92"/>
+      <c r="AR29" s="92"/>
+      <c r="AS29" s="92"/>
+      <c r="AT29" s="92"/>
+      <c r="AU29" s="92"/>
+      <c r="AV29" s="92"/>
+      <c r="AW29" s="92"/>
+      <c r="AX29" s="92"/>
+      <c r="AY29" s="92"/>
+      <c r="AZ29" s="93"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="9" t="str">
@@ -3854,56 +3848,56 @@
         <v/>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="97"/>
-      <c r="R30" s="98"/>
-      <c r="S30" s="98"/>
-      <c r="T30" s="98"/>
-      <c r="U30" s="98"/>
-      <c r="V30" s="98"/>
-      <c r="W30" s="98"/>
-      <c r="X30" s="98"/>
-      <c r="Y30" s="98"/>
-      <c r="Z30" s="98"/>
-      <c r="AA30" s="98"/>
-      <c r="AB30" s="98"/>
-      <c r="AC30" s="98"/>
-      <c r="AD30" s="98"/>
-      <c r="AE30" s="98"/>
-      <c r="AF30" s="98"/>
-      <c r="AG30" s="98"/>
-      <c r="AH30" s="98"/>
-      <c r="AI30" s="98"/>
-      <c r="AJ30" s="98"/>
-      <c r="AK30" s="98"/>
-      <c r="AL30" s="99"/>
-      <c r="AM30" s="97"/>
-      <c r="AN30" s="98"/>
-      <c r="AO30" s="98"/>
-      <c r="AP30" s="98"/>
-      <c r="AQ30" s="98"/>
-      <c r="AR30" s="98"/>
-      <c r="AS30" s="98"/>
-      <c r="AT30" s="98"/>
-      <c r="AU30" s="98"/>
-      <c r="AV30" s="98"/>
-      <c r="AW30" s="98"/>
-      <c r="AX30" s="98"/>
-      <c r="AY30" s="98"/>
-      <c r="AZ30" s="99"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="92"/>
+      <c r="Y30" s="92"/>
+      <c r="Z30" s="92"/>
+      <c r="AA30" s="92"/>
+      <c r="AB30" s="92"/>
+      <c r="AC30" s="92"/>
+      <c r="AD30" s="92"/>
+      <c r="AE30" s="92"/>
+      <c r="AF30" s="92"/>
+      <c r="AG30" s="92"/>
+      <c r="AH30" s="92"/>
+      <c r="AI30" s="92"/>
+      <c r="AJ30" s="92"/>
+      <c r="AK30" s="92"/>
+      <c r="AL30" s="93"/>
+      <c r="AM30" s="91"/>
+      <c r="AN30" s="92"/>
+      <c r="AO30" s="92"/>
+      <c r="AP30" s="92"/>
+      <c r="AQ30" s="92"/>
+      <c r="AR30" s="92"/>
+      <c r="AS30" s="92"/>
+      <c r="AT30" s="92"/>
+      <c r="AU30" s="92"/>
+      <c r="AV30" s="92"/>
+      <c r="AW30" s="92"/>
+      <c r="AX30" s="92"/>
+      <c r="AY30" s="92"/>
+      <c r="AZ30" s="93"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="9" t="str">
@@ -3911,56 +3905,56 @@
         <v/>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="98"/>
-      <c r="N31" s="98"/>
-      <c r="O31" s="98"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="97"/>
-      <c r="R31" s="98"/>
-      <c r="S31" s="98"/>
-      <c r="T31" s="98"/>
-      <c r="U31" s="98"/>
-      <c r="V31" s="98"/>
-      <c r="W31" s="98"/>
-      <c r="X31" s="98"/>
-      <c r="Y31" s="98"/>
-      <c r="Z31" s="98"/>
-      <c r="AA31" s="98"/>
-      <c r="AB31" s="98"/>
-      <c r="AC31" s="98"/>
-      <c r="AD31" s="98"/>
-      <c r="AE31" s="98"/>
-      <c r="AF31" s="98"/>
-      <c r="AG31" s="98"/>
-      <c r="AH31" s="98"/>
-      <c r="AI31" s="98"/>
-      <c r="AJ31" s="98"/>
-      <c r="AK31" s="98"/>
-      <c r="AL31" s="99"/>
-      <c r="AM31" s="97"/>
-      <c r="AN31" s="98"/>
-      <c r="AO31" s="98"/>
-      <c r="AP31" s="98"/>
-      <c r="AQ31" s="98"/>
-      <c r="AR31" s="98"/>
-      <c r="AS31" s="98"/>
-      <c r="AT31" s="98"/>
-      <c r="AU31" s="98"/>
-      <c r="AV31" s="98"/>
-      <c r="AW31" s="98"/>
-      <c r="AX31" s="98"/>
-      <c r="AY31" s="98"/>
-      <c r="AZ31" s="99"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="92"/>
+      <c r="S31" s="92"/>
+      <c r="T31" s="92"/>
+      <c r="U31" s="92"/>
+      <c r="V31" s="92"/>
+      <c r="W31" s="92"/>
+      <c r="X31" s="92"/>
+      <c r="Y31" s="92"/>
+      <c r="Z31" s="92"/>
+      <c r="AA31" s="92"/>
+      <c r="AB31" s="92"/>
+      <c r="AC31" s="92"/>
+      <c r="AD31" s="92"/>
+      <c r="AE31" s="92"/>
+      <c r="AF31" s="92"/>
+      <c r="AG31" s="92"/>
+      <c r="AH31" s="92"/>
+      <c r="AI31" s="92"/>
+      <c r="AJ31" s="92"/>
+      <c r="AK31" s="92"/>
+      <c r="AL31" s="93"/>
+      <c r="AM31" s="91"/>
+      <c r="AN31" s="92"/>
+      <c r="AO31" s="92"/>
+      <c r="AP31" s="92"/>
+      <c r="AQ31" s="92"/>
+      <c r="AR31" s="92"/>
+      <c r="AS31" s="92"/>
+      <c r="AT31" s="92"/>
+      <c r="AU31" s="92"/>
+      <c r="AV31" s="92"/>
+      <c r="AW31" s="92"/>
+      <c r="AX31" s="92"/>
+      <c r="AY31" s="92"/>
+      <c r="AZ31" s="93"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="9" t="str">
@@ -3968,56 +3962,56 @@
         <v/>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="97"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="98"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="97"/>
-      <c r="R32" s="98"/>
-      <c r="S32" s="98"/>
-      <c r="T32" s="98"/>
-      <c r="U32" s="98"/>
-      <c r="V32" s="98"/>
-      <c r="W32" s="98"/>
-      <c r="X32" s="98"/>
-      <c r="Y32" s="98"/>
-      <c r="Z32" s="98"/>
-      <c r="AA32" s="98"/>
-      <c r="AB32" s="98"/>
-      <c r="AC32" s="98"/>
-      <c r="AD32" s="98"/>
-      <c r="AE32" s="98"/>
-      <c r="AF32" s="98"/>
-      <c r="AG32" s="98"/>
-      <c r="AH32" s="98"/>
-      <c r="AI32" s="98"/>
-      <c r="AJ32" s="98"/>
-      <c r="AK32" s="98"/>
-      <c r="AL32" s="99"/>
-      <c r="AM32" s="97"/>
-      <c r="AN32" s="98"/>
-      <c r="AO32" s="98"/>
-      <c r="AP32" s="98"/>
-      <c r="AQ32" s="98"/>
-      <c r="AR32" s="98"/>
-      <c r="AS32" s="98"/>
-      <c r="AT32" s="98"/>
-      <c r="AU32" s="98"/>
-      <c r="AV32" s="98"/>
-      <c r="AW32" s="98"/>
-      <c r="AX32" s="98"/>
-      <c r="AY32" s="98"/>
-      <c r="AZ32" s="99"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="91"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="92"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="92"/>
+      <c r="V32" s="92"/>
+      <c r="W32" s="92"/>
+      <c r="X32" s="92"/>
+      <c r="Y32" s="92"/>
+      <c r="Z32" s="92"/>
+      <c r="AA32" s="92"/>
+      <c r="AB32" s="92"/>
+      <c r="AC32" s="92"/>
+      <c r="AD32" s="92"/>
+      <c r="AE32" s="92"/>
+      <c r="AF32" s="92"/>
+      <c r="AG32" s="92"/>
+      <c r="AH32" s="92"/>
+      <c r="AI32" s="92"/>
+      <c r="AJ32" s="92"/>
+      <c r="AK32" s="92"/>
+      <c r="AL32" s="93"/>
+      <c r="AM32" s="91"/>
+      <c r="AN32" s="92"/>
+      <c r="AO32" s="92"/>
+      <c r="AP32" s="92"/>
+      <c r="AQ32" s="92"/>
+      <c r="AR32" s="92"/>
+      <c r="AS32" s="92"/>
+      <c r="AT32" s="92"/>
+      <c r="AU32" s="92"/>
+      <c r="AV32" s="92"/>
+      <c r="AW32" s="92"/>
+      <c r="AX32" s="92"/>
+      <c r="AY32" s="92"/>
+      <c r="AZ32" s="93"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="9" t="str">
@@ -4025,56 +4019,56 @@
         <v/>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="97"/>
-      <c r="M33" s="98"/>
-      <c r="N33" s="98"/>
-      <c r="O33" s="98"/>
-      <c r="P33" s="99"/>
-      <c r="Q33" s="97"/>
-      <c r="R33" s="98"/>
-      <c r="S33" s="98"/>
-      <c r="T33" s="98"/>
-      <c r="U33" s="98"/>
-      <c r="V33" s="98"/>
-      <c r="W33" s="98"/>
-      <c r="X33" s="98"/>
-      <c r="Y33" s="98"/>
-      <c r="Z33" s="98"/>
-      <c r="AA33" s="98"/>
-      <c r="AB33" s="98"/>
-      <c r="AC33" s="98"/>
-      <c r="AD33" s="98"/>
-      <c r="AE33" s="98"/>
-      <c r="AF33" s="98"/>
-      <c r="AG33" s="98"/>
-      <c r="AH33" s="98"/>
-      <c r="AI33" s="98"/>
-      <c r="AJ33" s="98"/>
-      <c r="AK33" s="98"/>
-      <c r="AL33" s="99"/>
-      <c r="AM33" s="97"/>
-      <c r="AN33" s="98"/>
-      <c r="AO33" s="98"/>
-      <c r="AP33" s="98"/>
-      <c r="AQ33" s="98"/>
-      <c r="AR33" s="98"/>
-      <c r="AS33" s="98"/>
-      <c r="AT33" s="98"/>
-      <c r="AU33" s="98"/>
-      <c r="AV33" s="98"/>
-      <c r="AW33" s="98"/>
-      <c r="AX33" s="98"/>
-      <c r="AY33" s="98"/>
-      <c r="AZ33" s="99"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="91"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="92"/>
+      <c r="V33" s="92"/>
+      <c r="W33" s="92"/>
+      <c r="X33" s="92"/>
+      <c r="Y33" s="92"/>
+      <c r="Z33" s="92"/>
+      <c r="AA33" s="92"/>
+      <c r="AB33" s="92"/>
+      <c r="AC33" s="92"/>
+      <c r="AD33" s="92"/>
+      <c r="AE33" s="92"/>
+      <c r="AF33" s="92"/>
+      <c r="AG33" s="92"/>
+      <c r="AH33" s="92"/>
+      <c r="AI33" s="92"/>
+      <c r="AJ33" s="92"/>
+      <c r="AK33" s="92"/>
+      <c r="AL33" s="93"/>
+      <c r="AM33" s="91"/>
+      <c r="AN33" s="92"/>
+      <c r="AO33" s="92"/>
+      <c r="AP33" s="92"/>
+      <c r="AQ33" s="92"/>
+      <c r="AR33" s="92"/>
+      <c r="AS33" s="92"/>
+      <c r="AT33" s="92"/>
+      <c r="AU33" s="92"/>
+      <c r="AV33" s="92"/>
+      <c r="AW33" s="92"/>
+      <c r="AX33" s="92"/>
+      <c r="AY33" s="92"/>
+      <c r="AZ33" s="93"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="9" t="str">
@@ -4082,56 +4076,56 @@
         <v/>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="98"/>
-      <c r="N34" s="98"/>
-      <c r="O34" s="98"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="97"/>
-      <c r="R34" s="98"/>
-      <c r="S34" s="98"/>
-      <c r="T34" s="98"/>
-      <c r="U34" s="98"/>
-      <c r="V34" s="98"/>
-      <c r="W34" s="98"/>
-      <c r="X34" s="98"/>
-      <c r="Y34" s="98"/>
-      <c r="Z34" s="98"/>
-      <c r="AA34" s="98"/>
-      <c r="AB34" s="98"/>
-      <c r="AC34" s="98"/>
-      <c r="AD34" s="98"/>
-      <c r="AE34" s="98"/>
-      <c r="AF34" s="98"/>
-      <c r="AG34" s="98"/>
-      <c r="AH34" s="98"/>
-      <c r="AI34" s="98"/>
-      <c r="AJ34" s="98"/>
-      <c r="AK34" s="98"/>
-      <c r="AL34" s="99"/>
-      <c r="AM34" s="97"/>
-      <c r="AN34" s="98"/>
-      <c r="AO34" s="98"/>
-      <c r="AP34" s="98"/>
-      <c r="AQ34" s="98"/>
-      <c r="AR34" s="98"/>
-      <c r="AS34" s="98"/>
-      <c r="AT34" s="98"/>
-      <c r="AU34" s="98"/>
-      <c r="AV34" s="98"/>
-      <c r="AW34" s="98"/>
-      <c r="AX34" s="98"/>
-      <c r="AY34" s="98"/>
-      <c r="AZ34" s="99"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="92"/>
+      <c r="O34" s="92"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="92"/>
+      <c r="S34" s="92"/>
+      <c r="T34" s="92"/>
+      <c r="U34" s="92"/>
+      <c r="V34" s="92"/>
+      <c r="W34" s="92"/>
+      <c r="X34" s="92"/>
+      <c r="Y34" s="92"/>
+      <c r="Z34" s="92"/>
+      <c r="AA34" s="92"/>
+      <c r="AB34" s="92"/>
+      <c r="AC34" s="92"/>
+      <c r="AD34" s="92"/>
+      <c r="AE34" s="92"/>
+      <c r="AF34" s="92"/>
+      <c r="AG34" s="92"/>
+      <c r="AH34" s="92"/>
+      <c r="AI34" s="92"/>
+      <c r="AJ34" s="92"/>
+      <c r="AK34" s="92"/>
+      <c r="AL34" s="93"/>
+      <c r="AM34" s="91"/>
+      <c r="AN34" s="92"/>
+      <c r="AO34" s="92"/>
+      <c r="AP34" s="92"/>
+      <c r="AQ34" s="92"/>
+      <c r="AR34" s="92"/>
+      <c r="AS34" s="92"/>
+      <c r="AT34" s="92"/>
+      <c r="AU34" s="92"/>
+      <c r="AV34" s="92"/>
+      <c r="AW34" s="92"/>
+      <c r="AX34" s="92"/>
+      <c r="AY34" s="92"/>
+      <c r="AZ34" s="93"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="9" t="str">
@@ -4139,59 +4133,189 @@
         <v/>
       </c>
       <c r="B35" s="10"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="97"/>
-      <c r="M35" s="98"/>
-      <c r="N35" s="98"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="99"/>
-      <c r="Q35" s="97"/>
-      <c r="R35" s="98"/>
-      <c r="S35" s="98"/>
-      <c r="T35" s="98"/>
-      <c r="U35" s="98"/>
-      <c r="V35" s="98"/>
-      <c r="W35" s="98"/>
-      <c r="X35" s="98"/>
-      <c r="Y35" s="98"/>
-      <c r="Z35" s="98"/>
-      <c r="AA35" s="98"/>
-      <c r="AB35" s="98"/>
-      <c r="AC35" s="98"/>
-      <c r="AD35" s="98"/>
-      <c r="AE35" s="98"/>
-      <c r="AF35" s="98"/>
-      <c r="AG35" s="98"/>
-      <c r="AH35" s="98"/>
-      <c r="AI35" s="98"/>
-      <c r="AJ35" s="98"/>
-      <c r="AK35" s="98"/>
-      <c r="AL35" s="99"/>
-      <c r="AM35" s="97"/>
-      <c r="AN35" s="98"/>
-      <c r="AO35" s="98"/>
-      <c r="AP35" s="98"/>
-      <c r="AQ35" s="98"/>
-      <c r="AR35" s="98"/>
-      <c r="AS35" s="98"/>
-      <c r="AT35" s="98"/>
-      <c r="AU35" s="98"/>
-      <c r="AV35" s="98"/>
-      <c r="AW35" s="98"/>
-      <c r="AX35" s="98"/>
-      <c r="AY35" s="98"/>
-      <c r="AZ35" s="99"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="90"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+      <c r="W35" s="92"/>
+      <c r="X35" s="92"/>
+      <c r="Y35" s="92"/>
+      <c r="Z35" s="92"/>
+      <c r="AA35" s="92"/>
+      <c r="AB35" s="92"/>
+      <c r="AC35" s="92"/>
+      <c r="AD35" s="92"/>
+      <c r="AE35" s="92"/>
+      <c r="AF35" s="92"/>
+      <c r="AG35" s="92"/>
+      <c r="AH35" s="92"/>
+      <c r="AI35" s="92"/>
+      <c r="AJ35" s="92"/>
+      <c r="AK35" s="92"/>
+      <c r="AL35" s="93"/>
+      <c r="AM35" s="91"/>
+      <c r="AN35" s="92"/>
+      <c r="AO35" s="92"/>
+      <c r="AP35" s="92"/>
+      <c r="AQ35" s="92"/>
+      <c r="AR35" s="92"/>
+      <c r="AS35" s="92"/>
+      <c r="AT35" s="92"/>
+      <c r="AU35" s="92"/>
+      <c r="AV35" s="92"/>
+      <c r="AW35" s="92"/>
+      <c r="AX35" s="92"/>
+      <c r="AY35" s="92"/>
+      <c r="AZ35" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="Q34:AL34"/>
+    <mergeCell ref="AM34:AZ34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="Q35:AL35"/>
+    <mergeCell ref="AM35:AZ35"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:AL32"/>
+    <mergeCell ref="AM32:AZ32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Q33:AL33"/>
+    <mergeCell ref="AM33:AZ33"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:AL30"/>
+    <mergeCell ref="AM30:AZ30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:AL31"/>
+    <mergeCell ref="AM31:AZ31"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:AL28"/>
+    <mergeCell ref="AM28:AZ28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:AL29"/>
+    <mergeCell ref="AM29:AZ29"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:AL26"/>
+    <mergeCell ref="AM26:AZ26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:AL27"/>
+    <mergeCell ref="AM27:AZ27"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:AL24"/>
+    <mergeCell ref="AM24:AZ24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:AL25"/>
+    <mergeCell ref="AM25:AZ25"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:AL22"/>
+    <mergeCell ref="AM22:AZ22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:AL23"/>
+    <mergeCell ref="AM23:AZ23"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:AL21"/>
+    <mergeCell ref="AM21:AZ21"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:AL19"/>
+    <mergeCell ref="AM19:AZ19"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:AL17"/>
+    <mergeCell ref="AM17:AZ17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:AL14"/>
+    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AL15"/>
+    <mergeCell ref="AM15:AZ15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:AL12"/>
+    <mergeCell ref="AM12:AZ12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:AL13"/>
+    <mergeCell ref="AM13:AZ13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:AL10"/>
+    <mergeCell ref="AM10:AZ10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:AL11"/>
+    <mergeCell ref="AM11:AZ11"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:P8"/>
     <mergeCell ref="Q8:AL8"/>
@@ -4202,136 +4326,6 @@
     <mergeCell ref="L9:P9"/>
     <mergeCell ref="Q9:AL9"/>
     <mergeCell ref="AM9:AZ9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:AL11"/>
-    <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:AL12"/>
-    <mergeCell ref="AM12:AZ12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:AL13"/>
-    <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:AL15"/>
-    <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:AL19"/>
-    <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:AL21"/>
-    <mergeCell ref="AM21:AZ21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:AL22"/>
-    <mergeCell ref="AM22:AZ22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:AL23"/>
-    <mergeCell ref="AM23:AZ23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:AL24"/>
-    <mergeCell ref="AM24:AZ24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:AL25"/>
-    <mergeCell ref="AM25:AZ25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:AL26"/>
-    <mergeCell ref="AM26:AZ26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:AL27"/>
-    <mergeCell ref="AM27:AZ27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:AL28"/>
-    <mergeCell ref="AM28:AZ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:AL29"/>
-    <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:AL30"/>
-    <mergeCell ref="AM30:AZ30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:AL31"/>
-    <mergeCell ref="AM31:AZ31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:AL32"/>
-    <mergeCell ref="AM32:AZ32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Q33:AL33"/>
-    <mergeCell ref="AM33:AZ33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="Q34:AL34"/>
-    <mergeCell ref="AM34:AZ34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="Q35:AL35"/>
-    <mergeCell ref="AM35:AZ35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4343,18 +4337,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9307939-537D-9F44-B482-1E22BD0105F1}">
-  <dimension ref="A1:BG90"/>
+  <dimension ref="A1:BG89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A59" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AA70" sqref="AA70:AV70"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="13"/>
-    <col min="2" max="2" width="3.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.33203125" style="13"/>
-    <col min="4" max="4" width="3.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="3.33203125" style="13"/>
     <col min="10" max="10" width="2.5" style="13" customWidth="1"/>
     <col min="11" max="11" width="2.6640625" style="13" customWidth="1"/>
@@ -4597,7 +4589,7 @@
     </row>
     <row r="6" spans="1:51" customFormat="1">
       <c r="A6" s="35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B6" s="34"/>
       <c r="C6" s="34"/>
@@ -4693,7 +4685,7 @@
     </row>
     <row r="8" spans="1:51">
       <c r="A8" s="35" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -6937,7 +6929,7 @@
       <c r="S53" s="15"/>
       <c r="T53" s="16"/>
       <c r="U53" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V53" s="24"/>
       <c r="W53" s="24"/>
@@ -6956,7 +6948,7 @@
       <c r="AH53" s="26"/>
       <c r="AI53" s="23"/>
       <c r="AJ53" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AK53" s="26"/>
       <c r="AL53" s="26"/>
@@ -6974,68 +6966,79 @@
       <c r="AV53" s="24"/>
       <c r="AW53" s="25"/>
     </row>
-    <row r="54" spans="1:51" s="27" customFormat="1">
+    <row r="54" spans="1:51">
       <c r="A54" s="35"/>
-      <c r="B54" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="52"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="52"/>
-      <c r="R54" s="52"/>
-      <c r="S54" s="52"/>
+      <c r="B54" s="40">
+        <f>ROW()-ROW($B$53)</f>
+        <v>1</v>
+      </c>
+      <c r="C54" s="39"/>
+      <c r="D54" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="51"/>
+      <c r="R54" s="51"/>
+      <c r="S54" s="51"/>
       <c r="T54" s="52"/>
-      <c r="U54" s="52"/>
-      <c r="V54" s="52"/>
-      <c r="W54" s="52"/>
-      <c r="X54" s="52"/>
-      <c r="Y54" s="52"/>
-      <c r="Z54" s="52"/>
-      <c r="AA54" s="52"/>
-      <c r="AB54" s="52"/>
-      <c r="AC54" s="52"/>
+      <c r="U54" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="V54" s="51"/>
+      <c r="W54" s="51"/>
+      <c r="X54" s="51"/>
+      <c r="Y54" s="51"/>
+      <c r="Z54" s="51"/>
+      <c r="AA54" s="51"/>
+      <c r="AB54" s="51"/>
+      <c r="AC54" s="51"/>
       <c r="AD54" s="52"/>
-      <c r="AE54" s="52"/>
-      <c r="AF54" s="52"/>
-      <c r="AG54" s="52"/>
-      <c r="AH54" s="52"/>
+      <c r="AE54" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF54" s="51"/>
+      <c r="AG54" s="51"/>
+      <c r="AH54" s="51"/>
       <c r="AI54" s="52"/>
-      <c r="AJ54" s="52"/>
-      <c r="AK54" s="52"/>
-      <c r="AL54" s="52"/>
-      <c r="AM54" s="52"/>
-      <c r="AN54" s="52"/>
-      <c r="AO54" s="52"/>
+      <c r="AJ54" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK54" s="51"/>
+      <c r="AL54" s="51"/>
+      <c r="AM54" s="51"/>
+      <c r="AN54" s="51"/>
+      <c r="AO54" s="51"/>
       <c r="AP54" s="52"/>
-      <c r="AQ54" s="52"/>
-      <c r="AR54" s="52"/>
-      <c r="AS54" s="52"/>
-      <c r="AT54" s="52"/>
-      <c r="AU54" s="52"/>
-      <c r="AV54" s="52"/>
-      <c r="AW54" s="53"/>
+      <c r="AQ54" s="50"/>
+      <c r="AR54" s="51"/>
+      <c r="AS54" s="51"/>
+      <c r="AT54" s="51"/>
+      <c r="AU54" s="51"/>
+      <c r="AV54" s="51"/>
+      <c r="AW54" s="39"/>
     </row>
     <row r="55" spans="1:51">
       <c r="A55" s="35"/>
       <c r="B55" s="40">
-        <f>ROW()-54</f>
-        <v>1</v>
+        <f t="shared" ref="B55:B62" si="0">ROW()-ROW($B$53)</f>
+        <v>2</v>
       </c>
       <c r="C55" s="39"/>
       <c r="D55" s="37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E55" s="38"/>
       <c r="F55" s="38"/>
@@ -7048,60 +7051,58 @@
       <c r="M55" s="38"/>
       <c r="N55" s="39"/>
       <c r="O55" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="54"/>
-      <c r="R55" s="54"/>
-      <c r="S55" s="54"/>
-      <c r="T55" s="55"/>
+        <v>33</v>
+      </c>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="51"/>
+      <c r="R55" s="51"/>
+      <c r="S55" s="51"/>
+      <c r="T55" s="52"/>
       <c r="U55" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="V55" s="54"/>
-      <c r="W55" s="54"/>
-      <c r="X55" s="54"/>
-      <c r="Y55" s="54"/>
-      <c r="Z55" s="54"/>
-      <c r="AA55" s="54"/>
-      <c r="AB55" s="54"/>
-      <c r="AC55" s="54"/>
-      <c r="AD55" s="55"/>
+        <v>87</v>
+      </c>
+      <c r="V55" s="51"/>
+      <c r="W55" s="51"/>
+      <c r="X55" s="51"/>
+      <c r="Y55" s="51"/>
+      <c r="Z55" s="51"/>
+      <c r="AA55" s="51"/>
+      <c r="AB55" s="51"/>
+      <c r="AC55" s="51"/>
+      <c r="AD55" s="52"/>
       <c r="AE55" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AF55" s="54"/>
-      <c r="AG55" s="54"/>
-      <c r="AH55" s="54"/>
-      <c r="AI55" s="55"/>
+      <c r="AF55" s="51"/>
+      <c r="AG55" s="51"/>
+      <c r="AH55" s="51"/>
+      <c r="AI55" s="52"/>
       <c r="AJ55" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK55" s="54"/>
-      <c r="AL55" s="54"/>
-      <c r="AM55" s="54"/>
-      <c r="AN55" s="54"/>
-      <c r="AO55" s="54"/>
-      <c r="AP55" s="55"/>
-      <c r="AQ55" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR55" s="54"/>
-      <c r="AS55" s="54"/>
-      <c r="AT55" s="54"/>
-      <c r="AU55" s="54"/>
-      <c r="AV55" s="54"/>
+        <v>133</v>
+      </c>
+      <c r="AK55" s="51"/>
+      <c r="AL55" s="51"/>
+      <c r="AM55" s="51"/>
+      <c r="AN55" s="51"/>
+      <c r="AO55" s="51"/>
+      <c r="AP55" s="52"/>
+      <c r="AQ55" s="50"/>
+      <c r="AR55" s="51"/>
+      <c r="AS55" s="51"/>
+      <c r="AT55" s="51"/>
+      <c r="AU55" s="51"/>
+      <c r="AV55" s="51"/>
       <c r="AW55" s="39"/>
     </row>
     <row r="56" spans="1:51">
       <c r="A56" s="35"/>
       <c r="B56" s="40">
-        <f t="shared" ref="B56:B64" si="0">ROW()-54</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C56" s="39"/>
       <c r="D56" s="37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E56" s="38"/>
       <c r="F56" s="38"/>
@@ -7114,58 +7115,58 @@
       <c r="M56" s="38"/>
       <c r="N56" s="39"/>
       <c r="O56" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="54"/>
-      <c r="R56" s="54"/>
-      <c r="S56" s="54"/>
-      <c r="T56" s="55"/>
+        <v>33</v>
+      </c>
+      <c r="P56" s="51"/>
+      <c r="Q56" s="51"/>
+      <c r="R56" s="51"/>
+      <c r="S56" s="51"/>
+      <c r="T56" s="52"/>
       <c r="U56" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="V56" s="54"/>
-      <c r="W56" s="54"/>
-      <c r="X56" s="54"/>
-      <c r="Y56" s="54"/>
-      <c r="Z56" s="54"/>
-      <c r="AA56" s="54"/>
-      <c r="AB56" s="54"/>
-      <c r="AC56" s="54"/>
-      <c r="AD56" s="55"/>
+        <v>130</v>
+      </c>
+      <c r="V56" s="51"/>
+      <c r="W56" s="51"/>
+      <c r="X56" s="51"/>
+      <c r="Y56" s="51"/>
+      <c r="Z56" s="51"/>
+      <c r="AA56" s="51"/>
+      <c r="AB56" s="51"/>
+      <c r="AC56" s="51"/>
+      <c r="AD56" s="52"/>
       <c r="AE56" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AF56" s="54"/>
-      <c r="AG56" s="54"/>
-      <c r="AH56" s="54"/>
-      <c r="AI56" s="55"/>
+      <c r="AF56" s="51"/>
+      <c r="AG56" s="51"/>
+      <c r="AH56" s="51"/>
+      <c r="AI56" s="52"/>
       <c r="AJ56" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AK56" s="54"/>
-      <c r="AL56" s="54"/>
-      <c r="AM56" s="54"/>
-      <c r="AN56" s="54"/>
-      <c r="AO56" s="54"/>
-      <c r="AP56" s="55"/>
+      <c r="AK56" s="51"/>
+      <c r="AL56" s="51"/>
+      <c r="AM56" s="51"/>
+      <c r="AN56" s="51"/>
+      <c r="AO56" s="51"/>
+      <c r="AP56" s="52"/>
       <c r="AQ56" s="50"/>
-      <c r="AR56" s="54"/>
-      <c r="AS56" s="54"/>
-      <c r="AT56" s="54"/>
-      <c r="AU56" s="54"/>
-      <c r="AV56" s="54"/>
+      <c r="AR56" s="51"/>
+      <c r="AS56" s="51"/>
+      <c r="AT56" s="51"/>
+      <c r="AU56" s="51"/>
+      <c r="AV56" s="51"/>
       <c r="AW56" s="39"/>
     </row>
     <row r="57" spans="1:51">
       <c r="A57" s="35"/>
       <c r="B57" s="40">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C57" s="39"/>
       <c r="D57" s="37" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="38"/>
@@ -7178,58 +7179,58 @@
       <c r="M57" s="38"/>
       <c r="N57" s="39"/>
       <c r="O57" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="54"/>
-      <c r="R57" s="54"/>
-      <c r="S57" s="54"/>
-      <c r="T57" s="55"/>
+        <v>33</v>
+      </c>
+      <c r="P57" s="51"/>
+      <c r="Q57" s="51"/>
+      <c r="R57" s="51"/>
+      <c r="S57" s="51"/>
+      <c r="T57" s="52"/>
       <c r="U57" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="V57" s="54"/>
-      <c r="W57" s="54"/>
-      <c r="X57" s="54"/>
-      <c r="Y57" s="54"/>
-      <c r="Z57" s="54"/>
-      <c r="AA57" s="54"/>
-      <c r="AB57" s="54"/>
-      <c r="AC57" s="54"/>
-      <c r="AD57" s="55"/>
+        <v>83</v>
+      </c>
+      <c r="V57" s="51"/>
+      <c r="W57" s="51"/>
+      <c r="X57" s="51"/>
+      <c r="Y57" s="51"/>
+      <c r="Z57" s="51"/>
+      <c r="AA57" s="51"/>
+      <c r="AB57" s="51"/>
+      <c r="AC57" s="51"/>
+      <c r="AD57" s="52"/>
       <c r="AE57" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AF57" s="54"/>
-      <c r="AG57" s="54"/>
-      <c r="AH57" s="54"/>
-      <c r="AI57" s="55"/>
+      <c r="AF57" s="51"/>
+      <c r="AG57" s="51"/>
+      <c r="AH57" s="51"/>
+      <c r="AI57" s="52"/>
       <c r="AJ57" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK57" s="54"/>
-      <c r="AL57" s="54"/>
-      <c r="AM57" s="54"/>
-      <c r="AN57" s="54"/>
-      <c r="AO57" s="54"/>
-      <c r="AP57" s="55"/>
+        <v>86</v>
+      </c>
+      <c r="AK57" s="51"/>
+      <c r="AL57" s="51"/>
+      <c r="AM57" s="51"/>
+      <c r="AN57" s="51"/>
+      <c r="AO57" s="51"/>
+      <c r="AP57" s="52"/>
       <c r="AQ57" s="50"/>
-      <c r="AR57" s="54"/>
-      <c r="AS57" s="54"/>
-      <c r="AT57" s="54"/>
-      <c r="AU57" s="54"/>
-      <c r="AV57" s="54"/>
+      <c r="AR57" s="51"/>
+      <c r="AS57" s="51"/>
+      <c r="AT57" s="51"/>
+      <c r="AU57" s="51"/>
+      <c r="AV57" s="51"/>
       <c r="AW57" s="39"/>
     </row>
     <row r="58" spans="1:51">
       <c r="A58" s="35"/>
       <c r="B58" s="40">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C58" s="39"/>
       <c r="D58" s="37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="38"/>
@@ -7242,58 +7243,58 @@
       <c r="M58" s="38"/>
       <c r="N58" s="39"/>
       <c r="O58" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="54"/>
-      <c r="R58" s="54"/>
-      <c r="S58" s="54"/>
-      <c r="T58" s="55"/>
+        <v>88</v>
+      </c>
+      <c r="P58" s="51"/>
+      <c r="Q58" s="51"/>
+      <c r="R58" s="51"/>
+      <c r="S58" s="51"/>
+      <c r="T58" s="52"/>
       <c r="U58" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="V58" s="54"/>
-      <c r="W58" s="54"/>
-      <c r="X58" s="54"/>
-      <c r="Y58" s="54"/>
-      <c r="Z58" s="54"/>
-      <c r="AA58" s="54"/>
-      <c r="AB58" s="54"/>
-      <c r="AC58" s="54"/>
-      <c r="AD58" s="55"/>
+        <v>84</v>
+      </c>
+      <c r="V58" s="51"/>
+      <c r="W58" s="51"/>
+      <c r="X58" s="51"/>
+      <c r="Y58" s="51"/>
+      <c r="Z58" s="51"/>
+      <c r="AA58" s="51"/>
+      <c r="AB58" s="51"/>
+      <c r="AC58" s="51"/>
+      <c r="AD58" s="52"/>
       <c r="AE58" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AF58" s="54"/>
-      <c r="AG58" s="54"/>
-      <c r="AH58" s="54"/>
-      <c r="AI58" s="55"/>
+      <c r="AF58" s="51"/>
+      <c r="AG58" s="51"/>
+      <c r="AH58" s="51"/>
+      <c r="AI58" s="52"/>
       <c r="AJ58" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AK58" s="54"/>
-      <c r="AL58" s="54"/>
-      <c r="AM58" s="54"/>
-      <c r="AN58" s="54"/>
-      <c r="AO58" s="54"/>
-      <c r="AP58" s="55"/>
+      <c r="AK58" s="51"/>
+      <c r="AL58" s="51"/>
+      <c r="AM58" s="51"/>
+      <c r="AN58" s="51"/>
+      <c r="AO58" s="51"/>
+      <c r="AP58" s="52"/>
       <c r="AQ58" s="50"/>
-      <c r="AR58" s="54"/>
-      <c r="AS58" s="54"/>
-      <c r="AT58" s="54"/>
-      <c r="AU58" s="54"/>
-      <c r="AV58" s="54"/>
+      <c r="AR58" s="51"/>
+      <c r="AS58" s="51"/>
+      <c r="AT58" s="51"/>
+      <c r="AU58" s="51"/>
+      <c r="AV58" s="51"/>
       <c r="AW58" s="39"/>
     </row>
     <row r="59" spans="1:51">
       <c r="A59" s="35"/>
       <c r="B59" s="40">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C59" s="39"/>
       <c r="D59" s="37" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="38"/>
@@ -7308,56 +7309,56 @@
       <c r="O59" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="54"/>
-      <c r="R59" s="54"/>
-      <c r="S59" s="54"/>
-      <c r="T59" s="55"/>
+      <c r="P59" s="51"/>
+      <c r="Q59" s="51"/>
+      <c r="R59" s="51"/>
+      <c r="S59" s="51"/>
+      <c r="T59" s="52"/>
       <c r="U59" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="V59" s="54"/>
-      <c r="W59" s="54"/>
-      <c r="X59" s="54"/>
-      <c r="Y59" s="54"/>
-      <c r="Z59" s="54"/>
-      <c r="AA59" s="54"/>
-      <c r="AB59" s="54"/>
-      <c r="AC59" s="54"/>
-      <c r="AD59" s="55"/>
+        <v>83</v>
+      </c>
+      <c r="V59" s="51"/>
+      <c r="W59" s="51"/>
+      <c r="X59" s="51"/>
+      <c r="Y59" s="51"/>
+      <c r="Z59" s="51"/>
+      <c r="AA59" s="51"/>
+      <c r="AB59" s="51"/>
+      <c r="AC59" s="51"/>
+      <c r="AD59" s="52"/>
       <c r="AE59" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AF59" s="54"/>
-      <c r="AG59" s="54"/>
-      <c r="AH59" s="54"/>
-      <c r="AI59" s="55"/>
+      <c r="AF59" s="51"/>
+      <c r="AG59" s="51"/>
+      <c r="AH59" s="51"/>
+      <c r="AI59" s="52"/>
       <c r="AJ59" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK59" s="54"/>
-      <c r="AL59" s="54"/>
-      <c r="AM59" s="54"/>
-      <c r="AN59" s="54"/>
-      <c r="AO59" s="54"/>
-      <c r="AP59" s="55"/>
+        <v>86</v>
+      </c>
+      <c r="AK59" s="51"/>
+      <c r="AL59" s="51"/>
+      <c r="AM59" s="51"/>
+      <c r="AN59" s="51"/>
+      <c r="AO59" s="51"/>
+      <c r="AP59" s="52"/>
       <c r="AQ59" s="50"/>
-      <c r="AR59" s="54"/>
-      <c r="AS59" s="54"/>
-      <c r="AT59" s="54"/>
-      <c r="AU59" s="54"/>
-      <c r="AV59" s="54"/>
+      <c r="AR59" s="51"/>
+      <c r="AS59" s="51"/>
+      <c r="AT59" s="51"/>
+      <c r="AU59" s="51"/>
+      <c r="AV59" s="51"/>
       <c r="AW59" s="39"/>
     </row>
     <row r="60" spans="1:51">
       <c r="A60" s="35"/>
       <c r="B60" s="40">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" s="39"/>
       <c r="D60" s="37" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="38"/>
@@ -7370,58 +7371,58 @@
       <c r="M60" s="38"/>
       <c r="N60" s="39"/>
       <c r="O60" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="54"/>
-      <c r="R60" s="54"/>
-      <c r="S60" s="54"/>
-      <c r="T60" s="55"/>
+        <v>88</v>
+      </c>
+      <c r="P60" s="51"/>
+      <c r="Q60" s="51"/>
+      <c r="R60" s="51"/>
+      <c r="S60" s="51"/>
+      <c r="T60" s="52"/>
       <c r="U60" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="V60" s="54"/>
-      <c r="W60" s="54"/>
-      <c r="X60" s="54"/>
-      <c r="Y60" s="54"/>
-      <c r="Z60" s="54"/>
-      <c r="AA60" s="54"/>
-      <c r="AB60" s="54"/>
-      <c r="AC60" s="54"/>
-      <c r="AD60" s="55"/>
+        <v>84</v>
+      </c>
+      <c r="V60" s="51"/>
+      <c r="W60" s="51"/>
+      <c r="X60" s="51"/>
+      <c r="Y60" s="51"/>
+      <c r="Z60" s="51"/>
+      <c r="AA60" s="51"/>
+      <c r="AB60" s="51"/>
+      <c r="AC60" s="51"/>
+      <c r="AD60" s="52"/>
       <c r="AE60" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AF60" s="54"/>
-      <c r="AG60" s="54"/>
-      <c r="AH60" s="54"/>
-      <c r="AI60" s="55"/>
+      <c r="AF60" s="51"/>
+      <c r="AG60" s="51"/>
+      <c r="AH60" s="51"/>
+      <c r="AI60" s="52"/>
       <c r="AJ60" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AK60" s="54"/>
-      <c r="AL60" s="54"/>
-      <c r="AM60" s="54"/>
-      <c r="AN60" s="54"/>
-      <c r="AO60" s="54"/>
-      <c r="AP60" s="55"/>
+      <c r="AK60" s="51"/>
+      <c r="AL60" s="51"/>
+      <c r="AM60" s="51"/>
+      <c r="AN60" s="51"/>
+      <c r="AO60" s="51"/>
+      <c r="AP60" s="52"/>
       <c r="AQ60" s="50"/>
-      <c r="AR60" s="54"/>
-      <c r="AS60" s="54"/>
-      <c r="AT60" s="54"/>
-      <c r="AU60" s="54"/>
-      <c r="AV60" s="54"/>
+      <c r="AR60" s="51"/>
+      <c r="AS60" s="51"/>
+      <c r="AT60" s="51"/>
+      <c r="AU60" s="51"/>
+      <c r="AV60" s="51"/>
       <c r="AW60" s="39"/>
     </row>
     <row r="61" spans="1:51">
       <c r="A61" s="35"/>
       <c r="B61" s="40">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" s="39"/>
       <c r="D61" s="37" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="38"/>
@@ -7434,58 +7435,58 @@
       <c r="M61" s="38"/>
       <c r="N61" s="39"/>
       <c r="O61" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="54"/>
-      <c r="R61" s="54"/>
-      <c r="S61" s="54"/>
-      <c r="T61" s="55"/>
+        <v>72</v>
+      </c>
+      <c r="P61" s="51"/>
+      <c r="Q61" s="51"/>
+      <c r="R61" s="51"/>
+      <c r="S61" s="51"/>
+      <c r="T61" s="52"/>
       <c r="U61" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="V61" s="54"/>
-      <c r="W61" s="54"/>
-      <c r="X61" s="54"/>
-      <c r="Y61" s="54"/>
-      <c r="Z61" s="54"/>
-      <c r="AA61" s="54"/>
-      <c r="AB61" s="54"/>
-      <c r="AC61" s="54"/>
-      <c r="AD61" s="55"/>
+        <v>85</v>
+      </c>
+      <c r="V61" s="51"/>
+      <c r="W61" s="51"/>
+      <c r="X61" s="51"/>
+      <c r="Y61" s="51"/>
+      <c r="Z61" s="51"/>
+      <c r="AA61" s="51"/>
+      <c r="AB61" s="51"/>
+      <c r="AC61" s="51"/>
+      <c r="AD61" s="52"/>
       <c r="AE61" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AF61" s="54"/>
-      <c r="AG61" s="54"/>
-      <c r="AH61" s="54"/>
-      <c r="AI61" s="55"/>
+      <c r="AF61" s="51"/>
+      <c r="AG61" s="51"/>
+      <c r="AH61" s="51"/>
+      <c r="AI61" s="52"/>
       <c r="AJ61" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK61" s="54"/>
-      <c r="AL61" s="54"/>
-      <c r="AM61" s="54"/>
-      <c r="AN61" s="54"/>
-      <c r="AO61" s="54"/>
-      <c r="AP61" s="55"/>
+        <v>20</v>
+      </c>
+      <c r="AK61" s="51"/>
+      <c r="AL61" s="51"/>
+      <c r="AM61" s="51"/>
+      <c r="AN61" s="51"/>
+      <c r="AO61" s="51"/>
+      <c r="AP61" s="52"/>
       <c r="AQ61" s="50"/>
-      <c r="AR61" s="54"/>
-      <c r="AS61" s="54"/>
-      <c r="AT61" s="54"/>
-      <c r="AU61" s="54"/>
-      <c r="AV61" s="54"/>
+      <c r="AR61" s="51"/>
+      <c r="AS61" s="51"/>
+      <c r="AT61" s="51"/>
+      <c r="AU61" s="51"/>
+      <c r="AV61" s="51"/>
       <c r="AW61" s="39"/>
     </row>
     <row r="62" spans="1:51">
       <c r="A62" s="35"/>
       <c r="B62" s="40">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" s="39"/>
       <c r="D62" s="37" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="38"/>
@@ -7498,354 +7499,352 @@
       <c r="M62" s="38"/>
       <c r="N62" s="39"/>
       <c r="O62" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="54"/>
-      <c r="R62" s="54"/>
-      <c r="S62" s="54"/>
-      <c r="T62" s="55"/>
+        <v>72</v>
+      </c>
+      <c r="P62" s="51"/>
+      <c r="Q62" s="51"/>
+      <c r="R62" s="51"/>
+      <c r="S62" s="51"/>
+      <c r="T62" s="52"/>
       <c r="U62" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="V62" s="54"/>
-      <c r="W62" s="54"/>
-      <c r="X62" s="54"/>
-      <c r="Y62" s="54"/>
-      <c r="Z62" s="54"/>
-      <c r="AA62" s="54"/>
-      <c r="AB62" s="54"/>
-      <c r="AC62" s="54"/>
-      <c r="AD62" s="55"/>
+      <c r="V62" s="51"/>
+      <c r="W62" s="51"/>
+      <c r="X62" s="51"/>
+      <c r="Y62" s="51"/>
+      <c r="Z62" s="51"/>
+      <c r="AA62" s="51"/>
+      <c r="AB62" s="51"/>
+      <c r="AC62" s="51"/>
+      <c r="AD62" s="52"/>
       <c r="AE62" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AF62" s="54"/>
-      <c r="AG62" s="54"/>
-      <c r="AH62" s="54"/>
-      <c r="AI62" s="55"/>
+      <c r="AF62" s="51"/>
+      <c r="AG62" s="51"/>
+      <c r="AH62" s="51"/>
+      <c r="AI62" s="52"/>
       <c r="AJ62" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AK62" s="54"/>
-      <c r="AL62" s="54"/>
-      <c r="AM62" s="54"/>
-      <c r="AN62" s="54"/>
-      <c r="AO62" s="54"/>
-      <c r="AP62" s="55"/>
+      <c r="AK62" s="51"/>
+      <c r="AL62" s="51"/>
+      <c r="AM62" s="51"/>
+      <c r="AN62" s="51"/>
+      <c r="AO62" s="51"/>
+      <c r="AP62" s="52"/>
       <c r="AQ62" s="50"/>
-      <c r="AR62" s="54"/>
-      <c r="AS62" s="54"/>
-      <c r="AT62" s="54"/>
-      <c r="AU62" s="54"/>
-      <c r="AV62" s="54"/>
+      <c r="AR62" s="51"/>
+      <c r="AS62" s="51"/>
+      <c r="AT62" s="51"/>
+      <c r="AU62" s="51"/>
+      <c r="AV62" s="51"/>
       <c r="AW62" s="39"/>
     </row>
     <row r="63" spans="1:51">
       <c r="A63" s="35"/>
-      <c r="B63" s="40">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C63" s="39"/>
-      <c r="D63" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="39"/>
-      <c r="O63" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="54"/>
-      <c r="R63" s="54"/>
-      <c r="S63" s="54"/>
-      <c r="T63" s="55"/>
-      <c r="U63" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="V63" s="54"/>
-      <c r="W63" s="54"/>
-      <c r="X63" s="54"/>
-      <c r="Y63" s="54"/>
-      <c r="Z63" s="54"/>
-      <c r="AA63" s="54"/>
-      <c r="AB63" s="54"/>
-      <c r="AC63" s="54"/>
-      <c r="AD63" s="55"/>
-      <c r="AE63" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF63" s="54"/>
-      <c r="AG63" s="54"/>
-      <c r="AH63" s="54"/>
-      <c r="AI63" s="55"/>
-      <c r="AJ63" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK63" s="54"/>
-      <c r="AL63" s="54"/>
-      <c r="AM63" s="54"/>
-      <c r="AN63" s="54"/>
-      <c r="AO63" s="54"/>
-      <c r="AP63" s="55"/>
-      <c r="AQ63" s="50"/>
-      <c r="AR63" s="54"/>
-      <c r="AS63" s="54"/>
-      <c r="AT63" s="54"/>
-      <c r="AU63" s="54"/>
-      <c r="AV63" s="54"/>
-      <c r="AW63" s="39"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="21"/>
+      <c r="T63" s="21"/>
+      <c r="U63" s="21"/>
+      <c r="V63" s="21"/>
+      <c r="W63" s="21"/>
+      <c r="X63" s="21"/>
+      <c r="Y63" s="21"/>
+      <c r="Z63" s="21"/>
+      <c r="AA63" s="21"/>
+      <c r="AB63" s="21"/>
+      <c r="AC63" s="21"/>
+      <c r="AD63" s="21"/>
+      <c r="AE63" s="21"/>
+      <c r="AF63" s="21"/>
+      <c r="AG63" s="21"/>
+      <c r="AH63" s="21"/>
+      <c r="AI63" s="21"/>
+      <c r="AJ63" s="21"/>
+      <c r="AK63" s="21"/>
+      <c r="AL63" s="21"/>
+      <c r="AM63" s="21"/>
+      <c r="AN63" s="21"/>
+      <c r="AO63" s="21"/>
+      <c r="AP63" s="21"/>
+      <c r="AQ63" s="21"/>
+      <c r="AR63" s="21"/>
+      <c r="AS63" s="21"/>
+      <c r="AT63" s="21"/>
     </row>
     <row r="64" spans="1:51">
       <c r="A64" s="35"/>
-      <c r="B64" s="40">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="39"/>
-      <c r="O64" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="54"/>
-      <c r="R64" s="54"/>
-      <c r="S64" s="54"/>
-      <c r="T64" s="55"/>
-      <c r="U64" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="V64" s="54"/>
-      <c r="W64" s="54"/>
-      <c r="X64" s="54"/>
-      <c r="Y64" s="54"/>
-      <c r="Z64" s="54"/>
-      <c r="AA64" s="54"/>
-      <c r="AB64" s="54"/>
-      <c r="AC64" s="54"/>
-      <c r="AD64" s="55"/>
-      <c r="AE64" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF64" s="54"/>
-      <c r="AG64" s="54"/>
-      <c r="AH64" s="54"/>
-      <c r="AI64" s="55"/>
-      <c r="AJ64" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="AK64" s="54"/>
-      <c r="AL64" s="54"/>
-      <c r="AM64" s="54"/>
-      <c r="AN64" s="54"/>
-      <c r="AO64" s="54"/>
-      <c r="AP64" s="55"/>
-      <c r="AQ64" s="50"/>
-      <c r="AR64" s="54"/>
-      <c r="AS64" s="54"/>
-      <c r="AT64" s="54"/>
-      <c r="AU64" s="54"/>
-      <c r="AV64" s="54"/>
-      <c r="AW64" s="39"/>
-    </row>
-    <row r="65" spans="1:59">
+      <c r="B64" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
+      <c r="U64" s="21"/>
+      <c r="V64" s="21"/>
+      <c r="W64" s="21"/>
+      <c r="X64" s="21"/>
+      <c r="Y64" s="21"/>
+      <c r="Z64" s="21"/>
+      <c r="AA64" s="21"/>
+      <c r="AB64" s="21"/>
+      <c r="AC64" s="21"/>
+      <c r="AD64" s="21"/>
+      <c r="AE64" s="21"/>
+      <c r="AF64" s="21"/>
+      <c r="AG64" s="21"/>
+      <c r="AH64" s="21"/>
+      <c r="AI64" s="21"/>
+      <c r="AJ64" s="21"/>
+      <c r="AK64" s="21"/>
+      <c r="AL64" s="21"/>
+      <c r="AM64" s="21"/>
+      <c r="AN64" s="21"/>
+      <c r="AO64" s="21"/>
+      <c r="AP64" s="21"/>
+      <c r="AQ64" s="21"/>
+      <c r="AR64" s="21"/>
+      <c r="AS64" s="21"/>
+      <c r="AT64" s="21"/>
+      <c r="AU64" s="21"/>
+      <c r="AV64" s="21"/>
+      <c r="AW64" s="21"/>
+    </row>
+    <row r="65" spans="1:59" s="27" customFormat="1" ht="22.5" customHeight="1">
       <c r="A65" s="35"/>
-      <c r="B65" s="34"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="21"/>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="21"/>
-      <c r="U65" s="21"/>
-      <c r="V65" s="21"/>
-      <c r="W65" s="21"/>
-      <c r="X65" s="21"/>
-      <c r="Y65" s="21"/>
-      <c r="Z65" s="21"/>
-      <c r="AA65" s="21"/>
-      <c r="AB65" s="21"/>
-      <c r="AC65" s="21"/>
-      <c r="AD65" s="21"/>
-      <c r="AE65" s="21"/>
-      <c r="AF65" s="21"/>
-      <c r="AG65" s="21"/>
-      <c r="AH65" s="21"/>
-      <c r="AI65" s="21"/>
-      <c r="AJ65" s="21"/>
-      <c r="AK65" s="21"/>
-      <c r="AL65" s="21"/>
-      <c r="AM65" s="21"/>
-      <c r="AN65" s="21"/>
-      <c r="AO65" s="21"/>
-      <c r="AP65" s="21"/>
-      <c r="AQ65" s="21"/>
-      <c r="AR65" s="21"/>
-      <c r="AS65" s="21"/>
-      <c r="AT65" s="21"/>
+      <c r="B65" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="23"/>
+      <c r="D65" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="104"/>
+      <c r="F65" s="105"/>
+      <c r="G65" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="15"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="T65" s="101"/>
+      <c r="U65" s="101"/>
+      <c r="V65" s="101"/>
+      <c r="W65" s="101"/>
+      <c r="X65" s="101"/>
+      <c r="Y65" s="101"/>
+      <c r="Z65" s="102"/>
+      <c r="AA65" s="106" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB65" s="106"/>
+      <c r="AC65" s="106"/>
+      <c r="AD65" s="106"/>
+      <c r="AE65" s="106"/>
+      <c r="AF65" s="106"/>
+      <c r="AG65" s="106"/>
+      <c r="AH65" s="106"/>
+      <c r="AI65" s="106"/>
+      <c r="AJ65" s="106"/>
+      <c r="AK65" s="106"/>
+      <c r="AL65" s="106"/>
+      <c r="AM65" s="106"/>
+      <c r="AN65" s="106"/>
+      <c r="AO65" s="106"/>
+      <c r="AP65" s="106"/>
+      <c r="AQ65" s="106"/>
+      <c r="AR65" s="106"/>
+      <c r="AS65" s="106"/>
+      <c r="AT65" s="106"/>
+      <c r="AU65" s="106"/>
+      <c r="AV65" s="106"/>
     </row>
     <row r="66" spans="1:59">
       <c r="A66" s="35"/>
-      <c r="B66" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
-      <c r="U66" s="21"/>
-      <c r="V66" s="21"/>
-      <c r="W66" s="21"/>
-      <c r="X66" s="21"/>
-      <c r="Y66" s="21"/>
-      <c r="Z66" s="21"/>
-      <c r="AA66" s="21"/>
-      <c r="AB66" s="21"/>
-      <c r="AC66" s="21"/>
-      <c r="AD66" s="21"/>
-      <c r="AE66" s="21"/>
-      <c r="AF66" s="21"/>
-      <c r="AG66" s="21"/>
-      <c r="AH66" s="21"/>
-      <c r="AI66" s="21"/>
-      <c r="AJ66" s="21"/>
-      <c r="AK66" s="21"/>
-      <c r="AL66" s="21"/>
-      <c r="AM66" s="21"/>
-      <c r="AN66" s="21"/>
-      <c r="AO66" s="21"/>
-      <c r="AP66" s="21"/>
-      <c r="AQ66" s="21"/>
-      <c r="AR66" s="21"/>
-      <c r="AS66" s="21"/>
-      <c r="AT66" s="21"/>
-      <c r="AU66" s="21"/>
-      <c r="AV66" s="21"/>
-      <c r="AW66" s="21"/>
-    </row>
-    <row r="67" spans="1:59" s="27" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B66" s="40">
+        <f t="shared" ref="B66:B69" si="1">ROW()-ROW($B$65)</f>
+        <v>1</v>
+      </c>
+      <c r="C66" s="39"/>
+      <c r="D66" s="40">
+        <f>$B$58</f>
+        <v>5</v>
+      </c>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="40" t="str">
+        <f>$D$58</f>
+        <v>パスワード表示アイコン</v>
+      </c>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
+      <c r="Q66" s="38"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="T66" s="38"/>
+      <c r="U66" s="38"/>
+      <c r="V66" s="38"/>
+      <c r="W66" s="38"/>
+      <c r="X66" s="38"/>
+      <c r="Y66" s="38"/>
+      <c r="Z66" s="39"/>
+      <c r="AA66" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB66" s="107"/>
+      <c r="AC66" s="107"/>
+      <c r="AD66" s="107"/>
+      <c r="AE66" s="107"/>
+      <c r="AF66" s="107"/>
+      <c r="AG66" s="107"/>
+      <c r="AH66" s="107"/>
+      <c r="AI66" s="107"/>
+      <c r="AJ66" s="107"/>
+      <c r="AK66" s="107"/>
+      <c r="AL66" s="107"/>
+      <c r="AM66" s="107"/>
+      <c r="AN66" s="107"/>
+      <c r="AO66" s="107"/>
+      <c r="AP66" s="107"/>
+      <c r="AQ66" s="107"/>
+      <c r="AR66" s="107"/>
+      <c r="AS66" s="107"/>
+      <c r="AT66" s="107"/>
+      <c r="AU66" s="107"/>
+      <c r="AV66" s="107"/>
+    </row>
+    <row r="67" spans="1:59">
       <c r="A67" s="35"/>
-      <c r="B67" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="23"/>
-      <c r="D67" s="106" t="s">
-        <v>99</v>
-      </c>
-      <c r="E67" s="107"/>
-      <c r="F67" s="108"/>
-      <c r="G67" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="103" t="s">
-        <v>30</v>
-      </c>
-      <c r="T67" s="104"/>
-      <c r="U67" s="104"/>
-      <c r="V67" s="104"/>
-      <c r="W67" s="104"/>
-      <c r="X67" s="104"/>
-      <c r="Y67" s="104"/>
-      <c r="Z67" s="105"/>
-      <c r="AA67" s="109" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB67" s="109"/>
-      <c r="AC67" s="109"/>
-      <c r="AD67" s="109"/>
-      <c r="AE67" s="109"/>
-      <c r="AF67" s="109"/>
-      <c r="AG67" s="109"/>
-      <c r="AH67" s="109"/>
-      <c r="AI67" s="109"/>
-      <c r="AJ67" s="109"/>
-      <c r="AK67" s="109"/>
-      <c r="AL67" s="109"/>
-      <c r="AM67" s="109"/>
-      <c r="AN67" s="109"/>
-      <c r="AO67" s="109"/>
-      <c r="AP67" s="109"/>
-      <c r="AQ67" s="109"/>
-      <c r="AR67" s="109"/>
-      <c r="AS67" s="109"/>
-      <c r="AT67" s="109"/>
-      <c r="AU67" s="109"/>
-      <c r="AV67" s="109"/>
+      <c r="B67" s="40">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C67" s="39"/>
+      <c r="D67" s="40">
+        <f>$B$60</f>
+        <v>7</v>
+      </c>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="40" t="str">
+        <f>$D$60</f>
+        <v>パスワード表示アイコン(確認)</v>
+      </c>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
+      <c r="Q67" s="38"/>
+      <c r="R67" s="39"/>
+      <c r="S67" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="T67" s="38"/>
+      <c r="U67" s="38"/>
+      <c r="V67" s="38"/>
+      <c r="W67" s="38"/>
+      <c r="X67" s="38"/>
+      <c r="Y67" s="38"/>
+      <c r="Z67" s="39"/>
+      <c r="AA67" s="107" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB67" s="107"/>
+      <c r="AC67" s="107"/>
+      <c r="AD67" s="107"/>
+      <c r="AE67" s="107"/>
+      <c r="AF67" s="107"/>
+      <c r="AG67" s="107"/>
+      <c r="AH67" s="107"/>
+      <c r="AI67" s="107"/>
+      <c r="AJ67" s="107"/>
+      <c r="AK67" s="107"/>
+      <c r="AL67" s="107"/>
+      <c r="AM67" s="107"/>
+      <c r="AN67" s="107"/>
+      <c r="AO67" s="107"/>
+      <c r="AP67" s="107"/>
+      <c r="AQ67" s="107"/>
+      <c r="AR67" s="107"/>
+      <c r="AS67" s="107"/>
+      <c r="AT67" s="107"/>
+      <c r="AU67" s="107"/>
+      <c r="AV67" s="107"/>
     </row>
     <row r="68" spans="1:59">
       <c r="A68" s="35"/>
       <c r="B68" s="40">
-        <f>ROW()-67</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="C68" s="39"/>
       <c r="D68" s="40">
-        <f>$B$55</f>
-        <v>1</v>
+        <f>$B$61</f>
+        <v>8</v>
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38"/>
       <c r="G68" s="40" t="str">
-        <f>$D$55</f>
-        <v>ログアウト</v>
+        <f>$D$61</f>
+        <v>変更</v>
       </c>
       <c r="H68" s="38"/>
       <c r="I68" s="38"/>
@@ -7868,47 +7867,47 @@
       <c r="X68" s="38"/>
       <c r="Y68" s="38"/>
       <c r="Z68" s="39"/>
-      <c r="AA68" s="110" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB68" s="110"/>
-      <c r="AC68" s="110"/>
-      <c r="AD68" s="110"/>
-      <c r="AE68" s="110"/>
-      <c r="AF68" s="110"/>
-      <c r="AG68" s="110"/>
-      <c r="AH68" s="110"/>
-      <c r="AI68" s="110"/>
-      <c r="AJ68" s="110"/>
-      <c r="AK68" s="110"/>
-      <c r="AL68" s="110"/>
-      <c r="AM68" s="110"/>
-      <c r="AN68" s="110"/>
-      <c r="AO68" s="110"/>
-      <c r="AP68" s="110"/>
-      <c r="AQ68" s="110"/>
-      <c r="AR68" s="110"/>
-      <c r="AS68" s="110"/>
-      <c r="AT68" s="110"/>
-      <c r="AU68" s="110"/>
-      <c r="AV68" s="110"/>
+      <c r="AA68" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB68" s="107"/>
+      <c r="AC68" s="107"/>
+      <c r="AD68" s="107"/>
+      <c r="AE68" s="107"/>
+      <c r="AF68" s="107"/>
+      <c r="AG68" s="107"/>
+      <c r="AH68" s="107"/>
+      <c r="AI68" s="107"/>
+      <c r="AJ68" s="107"/>
+      <c r="AK68" s="107"/>
+      <c r="AL68" s="107"/>
+      <c r="AM68" s="107"/>
+      <c r="AN68" s="107"/>
+      <c r="AO68" s="107"/>
+      <c r="AP68" s="107"/>
+      <c r="AQ68" s="107"/>
+      <c r="AR68" s="107"/>
+      <c r="AS68" s="107"/>
+      <c r="AT68" s="107"/>
+      <c r="AU68" s="107"/>
+      <c r="AV68" s="107"/>
     </row>
     <row r="69" spans="1:59">
       <c r="A69" s="35"/>
       <c r="B69" s="40">
-        <f t="shared" ref="B69:B72" si="1">ROW()-67</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="C69" s="39"/>
       <c r="D69" s="40">
-        <f>$B$60</f>
-        <v>6</v>
+        <f>$B$62</f>
+        <v>9</v>
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38"/>
       <c r="G69" s="40" t="str">
-        <f>$D$60</f>
-        <v>パスワード表示アイコン</v>
+        <f>$D$62</f>
+        <v>戻る</v>
       </c>
       <c r="H69" s="38"/>
       <c r="I69" s="38"/>
@@ -7931,456 +7930,478 @@
       <c r="X69" s="38"/>
       <c r="Y69" s="38"/>
       <c r="Z69" s="39"/>
-      <c r="AA69" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB69" s="110"/>
-      <c r="AC69" s="110"/>
-      <c r="AD69" s="110"/>
-      <c r="AE69" s="110"/>
-      <c r="AF69" s="110"/>
-      <c r="AG69" s="110"/>
-      <c r="AH69" s="110"/>
-      <c r="AI69" s="110"/>
-      <c r="AJ69" s="110"/>
-      <c r="AK69" s="110"/>
-      <c r="AL69" s="110"/>
-      <c r="AM69" s="110"/>
-      <c r="AN69" s="110"/>
-      <c r="AO69" s="110"/>
-      <c r="AP69" s="110"/>
-      <c r="AQ69" s="110"/>
-      <c r="AR69" s="110"/>
-      <c r="AS69" s="110"/>
-      <c r="AT69" s="110"/>
-      <c r="AU69" s="110"/>
-      <c r="AV69" s="110"/>
+      <c r="AA69" s="107" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB69" s="107"/>
+      <c r="AC69" s="107"/>
+      <c r="AD69" s="107"/>
+      <c r="AE69" s="107"/>
+      <c r="AF69" s="107"/>
+      <c r="AG69" s="107"/>
+      <c r="AH69" s="107"/>
+      <c r="AI69" s="107"/>
+      <c r="AJ69" s="107"/>
+      <c r="AK69" s="107"/>
+      <c r="AL69" s="107"/>
+      <c r="AM69" s="107"/>
+      <c r="AN69" s="107"/>
+      <c r="AO69" s="107"/>
+      <c r="AP69" s="107"/>
+      <c r="AQ69" s="107"/>
+      <c r="AR69" s="107"/>
+      <c r="AS69" s="107"/>
+      <c r="AT69" s="107"/>
+      <c r="AU69" s="107"/>
+      <c r="AV69" s="107"/>
     </row>
     <row r="70" spans="1:59">
       <c r="A70" s="35"/>
-      <c r="B70" s="40">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C70" s="39"/>
-      <c r="D70" s="40">
-        <f>$B$62</f>
-        <v>8</v>
-      </c>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="40" t="str">
-        <f>$D$62</f>
-        <v>パスワード表示アイコン(確認)</v>
-      </c>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="38"/>
-      <c r="Q70" s="38"/>
-      <c r="R70" s="39"/>
-      <c r="S70" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="T70" s="38"/>
-      <c r="U70" s="38"/>
-      <c r="V70" s="38"/>
-      <c r="W70" s="38"/>
-      <c r="X70" s="38"/>
-      <c r="Y70" s="38"/>
-      <c r="Z70" s="39"/>
-      <c r="AA70" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB70" s="110"/>
-      <c r="AC70" s="110"/>
-      <c r="AD70" s="110"/>
-      <c r="AE70" s="110"/>
-      <c r="AF70" s="110"/>
-      <c r="AG70" s="110"/>
-      <c r="AH70" s="110"/>
-      <c r="AI70" s="110"/>
-      <c r="AJ70" s="110"/>
-      <c r="AK70" s="110"/>
-      <c r="AL70" s="110"/>
-      <c r="AM70" s="110"/>
-      <c r="AN70" s="110"/>
-      <c r="AO70" s="110"/>
-      <c r="AP70" s="110"/>
-      <c r="AQ70" s="110"/>
-      <c r="AR70" s="110"/>
-      <c r="AS70" s="110"/>
-      <c r="AT70" s="110"/>
-      <c r="AU70" s="110"/>
-      <c r="AV70" s="110"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="21"/>
+      <c r="T70" s="21"/>
+      <c r="U70" s="21"/>
+      <c r="V70" s="21"/>
+      <c r="W70" s="21"/>
+      <c r="X70" s="21"/>
+      <c r="Y70" s="21"/>
+      <c r="Z70" s="21"/>
+      <c r="AA70" s="21"/>
+      <c r="AB70" s="21"/>
+      <c r="AC70" s="21"/>
+      <c r="AD70" s="21"/>
+      <c r="AE70" s="21"/>
+      <c r="AF70" s="21"/>
+      <c r="AG70" s="21"/>
+      <c r="AH70" s="21"/>
+      <c r="AI70" s="21"/>
+      <c r="AJ70" s="21"/>
+      <c r="AK70" s="21"/>
+      <c r="AL70" s="21"/>
+      <c r="AM70" s="21"/>
+      <c r="AN70" s="21"/>
+      <c r="AO70" s="21"/>
+      <c r="AP70" s="21"/>
     </row>
     <row r="71" spans="1:59">
       <c r="A71" s="35"/>
-      <c r="B71" s="40">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C71" s="39"/>
-      <c r="D71" s="40">
-        <f>$B$63</f>
-        <v>9</v>
-      </c>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="40" t="str">
-        <f>$D$63</f>
-        <v>変更する</v>
-      </c>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="38"/>
-      <c r="K71" s="38"/>
-      <c r="L71" s="38"/>
-      <c r="M71" s="38"/>
-      <c r="N71" s="38"/>
-      <c r="O71" s="38"/>
-      <c r="P71" s="38"/>
-      <c r="Q71" s="38"/>
-      <c r="R71" s="39"/>
-      <c r="S71" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="T71" s="38"/>
-      <c r="U71" s="38"/>
-      <c r="V71" s="38"/>
-      <c r="W71" s="38"/>
-      <c r="X71" s="38"/>
-      <c r="Y71" s="38"/>
-      <c r="Z71" s="39"/>
-      <c r="AA71" s="110" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB71" s="110"/>
-      <c r="AC71" s="110"/>
-      <c r="AD71" s="110"/>
-      <c r="AE71" s="110"/>
-      <c r="AF71" s="110"/>
-      <c r="AG71" s="110"/>
-      <c r="AH71" s="110"/>
-      <c r="AI71" s="110"/>
-      <c r="AJ71" s="110"/>
-      <c r="AK71" s="110"/>
-      <c r="AL71" s="110"/>
-      <c r="AM71" s="110"/>
-      <c r="AN71" s="110"/>
-      <c r="AO71" s="110"/>
-      <c r="AP71" s="110"/>
-      <c r="AQ71" s="110"/>
-      <c r="AR71" s="110"/>
-      <c r="AS71" s="110"/>
-      <c r="AT71" s="110"/>
-      <c r="AU71" s="110"/>
-      <c r="AV71" s="110"/>
-    </row>
-    <row r="72" spans="1:59">
+      <c r="B71" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="54"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="54"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="21"/>
+      <c r="U71" s="21"/>
+      <c r="V71" s="21"/>
+      <c r="W71" s="21"/>
+      <c r="X71" s="21"/>
+      <c r="Y71" s="21"/>
+      <c r="Z71" s="21"/>
+      <c r="AA71" s="21"/>
+      <c r="AB71" s="21"/>
+      <c r="AC71" s="21"/>
+      <c r="AD71" s="21"/>
+      <c r="AE71" s="21"/>
+      <c r="AF71" s="21"/>
+      <c r="AG71" s="21"/>
+      <c r="AH71" s="21"/>
+      <c r="AI71" s="21"/>
+      <c r="AJ71" s="21"/>
+      <c r="AK71" s="21"/>
+      <c r="AL71" s="21"/>
+      <c r="AM71" s="21"/>
+      <c r="AN71" s="21"/>
+      <c r="AO71" s="21"/>
+      <c r="AP71" s="21"/>
+      <c r="AQ71" s="21"/>
+      <c r="AR71" s="21"/>
+      <c r="AS71" s="21"/>
+      <c r="AT71" s="21"/>
+      <c r="AU71" s="21"/>
+      <c r="AV71" s="21"/>
+      <c r="AW71" s="21"/>
+      <c r="AX71" s="21"/>
+      <c r="AY71" s="21"/>
+      <c r="AZ71" s="21"/>
+      <c r="BA71" s="21"/>
+    </row>
+    <row r="72" spans="1:59" s="27" customFormat="1" ht="32" customHeight="1">
       <c r="A72" s="35"/>
-      <c r="B72" s="40">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="C72" s="39"/>
-      <c r="D72" s="40">
-        <f>$B$64</f>
-        <v>10</v>
-      </c>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="40" t="str">
-        <f>$D$64</f>
-        <v>メニューに戻る</v>
-      </c>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
-      <c r="Q72" s="38"/>
-      <c r="R72" s="39"/>
-      <c r="S72" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="T72" s="38"/>
-      <c r="U72" s="38"/>
-      <c r="V72" s="38"/>
-      <c r="W72" s="38"/>
-      <c r="X72" s="38"/>
-      <c r="Y72" s="38"/>
-      <c r="Z72" s="39"/>
-      <c r="AA72" s="110" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB72" s="110"/>
-      <c r="AC72" s="110"/>
-      <c r="AD72" s="110"/>
-      <c r="AE72" s="110"/>
-      <c r="AF72" s="110"/>
-      <c r="AG72" s="110"/>
-      <c r="AH72" s="110"/>
-      <c r="AI72" s="110"/>
-      <c r="AJ72" s="110"/>
-      <c r="AK72" s="110"/>
-      <c r="AL72" s="110"/>
-      <c r="AM72" s="110"/>
-      <c r="AN72" s="110"/>
-      <c r="AO72" s="110"/>
-      <c r="AP72" s="110"/>
-      <c r="AQ72" s="110"/>
-      <c r="AR72" s="110"/>
-      <c r="AS72" s="110"/>
-      <c r="AT72" s="110"/>
-      <c r="AU72" s="110"/>
-      <c r="AV72" s="110"/>
+      <c r="B72" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="56"/>
+      <c r="D72" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="E72" s="98"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="58"/>
+      <c r="I72" s="58"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="58"/>
+      <c r="L72" s="58"/>
+      <c r="M72" s="58"/>
+      <c r="N72" s="58"/>
+      <c r="O72" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
+      <c r="S72" s="15"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="V72" s="15"/>
+      <c r="W72" s="15"/>
+      <c r="X72" s="15"/>
+      <c r="Y72" s="15"/>
+      <c r="Z72" s="15"/>
+      <c r="AA72" s="15"/>
+      <c r="AB72" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC72" s="15"/>
+      <c r="AD72" s="15"/>
+      <c r="AE72" s="15"/>
+      <c r="AF72" s="15"/>
+      <c r="AG72" s="47"/>
+      <c r="AH72" s="47"/>
+      <c r="AI72" s="47"/>
+      <c r="AJ72" s="47"/>
+      <c r="AK72" s="47"/>
+      <c r="AL72" s="47"/>
+      <c r="AM72" s="47"/>
+      <c r="AN72" s="47"/>
+      <c r="AO72" s="47"/>
+      <c r="AP72" s="47"/>
+      <c r="AQ72" s="47"/>
+      <c r="AR72" s="47"/>
+      <c r="AS72" s="47"/>
+      <c r="AT72" s="47"/>
+      <c r="AU72" s="47"/>
+      <c r="AV72" s="48"/>
+      <c r="AW72" s="42"/>
+      <c r="AX72" s="42"/>
+      <c r="AY72" s="42"/>
+      <c r="AZ72" s="42"/>
+      <c r="BA72" s="42"/>
+      <c r="BB72" s="42"/>
+      <c r="BC72" s="42"/>
+      <c r="BD72" s="21"/>
+      <c r="BE72" s="21"/>
+      <c r="BF72" s="21"/>
+      <c r="BG72" s="13"/>
     </row>
     <row r="73" spans="1:59">
       <c r="A73" s="35"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
-      <c r="O73" s="21"/>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="21"/>
-      <c r="T73" s="21"/>
-      <c r="U73" s="21"/>
-      <c r="V73" s="21"/>
-      <c r="W73" s="21"/>
-      <c r="X73" s="21"/>
-      <c r="Y73" s="21"/>
-      <c r="Z73" s="21"/>
-      <c r="AA73" s="21"/>
-      <c r="AB73" s="21"/>
-      <c r="AC73" s="21"/>
-      <c r="AD73" s="21"/>
-      <c r="AE73" s="21"/>
-      <c r="AF73" s="21"/>
-      <c r="AG73" s="21"/>
-      <c r="AH73" s="21"/>
-      <c r="AI73" s="21"/>
-      <c r="AJ73" s="21"/>
-      <c r="AK73" s="21"/>
-      <c r="AL73" s="21"/>
-      <c r="AM73" s="21"/>
-      <c r="AN73" s="21"/>
-      <c r="AO73" s="21"/>
-      <c r="AP73" s="21"/>
+      <c r="B73" s="49">
+        <f>ROW()-ROW($B$72)</f>
+        <v>1</v>
+      </c>
+      <c r="C73" s="59"/>
+      <c r="D73" s="49">
+        <v>2</v>
+      </c>
+      <c r="E73" s="60"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="60"/>
+      <c r="K73" s="60"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="60"/>
+      <c r="N73" s="60"/>
+      <c r="O73" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="P73" s="51"/>
+      <c r="Q73" s="51"/>
+      <c r="R73" s="51"/>
+      <c r="S73" s="51"/>
+      <c r="T73" s="52"/>
+      <c r="U73" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="V73" s="51"/>
+      <c r="W73" s="51"/>
+      <c r="X73" s="51"/>
+      <c r="Y73" s="51"/>
+      <c r="Z73" s="51"/>
+      <c r="AA73" s="51"/>
+      <c r="AB73" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC73" s="51"/>
+      <c r="AD73" s="51"/>
+      <c r="AE73" s="51"/>
+      <c r="AF73" s="51"/>
+      <c r="AG73" s="51"/>
+      <c r="AH73" s="51"/>
+      <c r="AI73" s="51"/>
+      <c r="AJ73" s="51"/>
+      <c r="AK73" s="51"/>
+      <c r="AL73" s="51"/>
+      <c r="AM73" s="51"/>
+      <c r="AN73" s="51"/>
+      <c r="AO73" s="51"/>
+      <c r="AP73" s="51"/>
+      <c r="AQ73" s="51"/>
+      <c r="AR73" s="51"/>
+      <c r="AS73" s="51"/>
+      <c r="AT73" s="51"/>
+      <c r="AU73" s="51"/>
+      <c r="AV73" s="52"/>
+      <c r="AW73" s="36"/>
+      <c r="AX73" s="36"/>
+      <c r="AY73" s="36"/>
+      <c r="AZ73" s="36"/>
+      <c r="BA73" s="36"/>
+      <c r="BB73" s="36"/>
+      <c r="BC73" s="36"/>
+      <c r="BD73" s="17"/>
+      <c r="BE73" s="17"/>
+      <c r="BF73" s="17"/>
     </row>
     <row r="74" spans="1:59">
       <c r="A74" s="35"/>
-      <c r="B74" s="56" t="s">
+      <c r="B74" s="49">
+        <f t="shared" ref="B74:B87" si="2">ROW()-ROW($B$72)</f>
+        <v>2</v>
+      </c>
+      <c r="C74" s="59"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="60"/>
+      <c r="J74" s="60"/>
+      <c r="K74" s="60"/>
+      <c r="L74" s="60"/>
+      <c r="M74" s="60"/>
+      <c r="N74" s="60"/>
+      <c r="O74" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="57"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="57"/>
-      <c r="J74" s="57"/>
-      <c r="K74" s="57"/>
-      <c r="L74" s="57"/>
-      <c r="M74" s="57"/>
-      <c r="N74" s="57"/>
-      <c r="O74" s="21"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="21"/>
-      <c r="U74" s="21"/>
-      <c r="V74" s="21"/>
-      <c r="W74" s="21"/>
-      <c r="X74" s="21"/>
-      <c r="Y74" s="21"/>
-      <c r="Z74" s="21"/>
-      <c r="AA74" s="21"/>
-      <c r="AB74" s="21"/>
-      <c r="AC74" s="21"/>
-      <c r="AD74" s="21"/>
-      <c r="AE74" s="21"/>
-      <c r="AF74" s="21"/>
-      <c r="AG74" s="21"/>
-      <c r="AH74" s="21"/>
-      <c r="AI74" s="21"/>
-      <c r="AJ74" s="21"/>
-      <c r="AK74" s="21"/>
-      <c r="AL74" s="21"/>
-      <c r="AM74" s="21"/>
-      <c r="AN74" s="21"/>
-      <c r="AO74" s="21"/>
-      <c r="AP74" s="21"/>
-      <c r="AQ74" s="21"/>
-      <c r="AR74" s="21"/>
-      <c r="AS74" s="21"/>
-      <c r="AT74" s="21"/>
-      <c r="AU74" s="21"/>
-      <c r="AV74" s="21"/>
-      <c r="AW74" s="21"/>
-      <c r="AX74" s="21"/>
-      <c r="AY74" s="21"/>
-      <c r="AZ74" s="21"/>
-      <c r="BA74" s="21"/>
-    </row>
-    <row r="75" spans="1:59" s="27" customFormat="1" ht="32" customHeight="1">
+      <c r="P74" s="51"/>
+      <c r="Q74" s="51"/>
+      <c r="R74" s="51"/>
+      <c r="S74" s="51"/>
+      <c r="T74" s="52"/>
+      <c r="U74" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="V74" s="51"/>
+      <c r="W74" s="51"/>
+      <c r="X74" s="51"/>
+      <c r="Y74" s="51"/>
+      <c r="Z74" s="51"/>
+      <c r="AA74" s="51"/>
+      <c r="AB74" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC74" s="51"/>
+      <c r="AD74" s="51"/>
+      <c r="AE74" s="51"/>
+      <c r="AF74" s="51"/>
+      <c r="AG74" s="51"/>
+      <c r="AH74" s="51"/>
+      <c r="AI74" s="51"/>
+      <c r="AJ74" s="51"/>
+      <c r="AK74" s="51"/>
+      <c r="AL74" s="51"/>
+      <c r="AM74" s="51"/>
+      <c r="AN74" s="51"/>
+      <c r="AO74" s="51"/>
+      <c r="AP74" s="51"/>
+      <c r="AQ74" s="51"/>
+      <c r="AR74" s="51"/>
+      <c r="AS74" s="51"/>
+      <c r="AT74" s="51"/>
+      <c r="AU74" s="51"/>
+      <c r="AV74" s="52"/>
+      <c r="AW74" s="36"/>
+      <c r="AX74" s="36"/>
+      <c r="AY74" s="36"/>
+      <c r="AZ74" s="36"/>
+      <c r="BA74" s="36"/>
+      <c r="BB74" s="36"/>
+      <c r="BC74" s="36"/>
+      <c r="BD74" s="17"/>
+      <c r="BE74" s="17"/>
+      <c r="BF74" s="17"/>
+    </row>
+    <row r="75" spans="1:59">
       <c r="A75" s="35"/>
-      <c r="B75" s="58" t="s">
-        <v>17</v>
+      <c r="B75" s="49">
+        <f>ROW()-ROW($B$72)</f>
+        <v>3</v>
       </c>
       <c r="C75" s="59"/>
-      <c r="D75" s="100" t="s">
-        <v>99</v>
-      </c>
-      <c r="E75" s="101"/>
-      <c r="F75" s="102"/>
-      <c r="G75" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="61"/>
-      <c r="K75" s="61"/>
-      <c r="L75" s="61"/>
-      <c r="M75" s="61"/>
-      <c r="N75" s="61"/>
-      <c r="O75" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="P75" s="15"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="15"/>
-      <c r="S75" s="15"/>
-      <c r="T75" s="16"/>
-      <c r="U75" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="V75" s="15"/>
-      <c r="W75" s="15"/>
-      <c r="X75" s="15"/>
-      <c r="Y75" s="15"/>
-      <c r="Z75" s="15"/>
-      <c r="AA75" s="15"/>
-      <c r="AB75" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC75" s="15"/>
-      <c r="AD75" s="15"/>
-      <c r="AE75" s="15"/>
-      <c r="AF75" s="15"/>
-      <c r="AG75" s="47"/>
-      <c r="AH75" s="47"/>
-      <c r="AI75" s="47"/>
-      <c r="AJ75" s="47"/>
-      <c r="AK75" s="47"/>
-      <c r="AL75" s="47"/>
-      <c r="AM75" s="47"/>
-      <c r="AN75" s="47"/>
-      <c r="AO75" s="47"/>
-      <c r="AP75" s="47"/>
-      <c r="AQ75" s="47"/>
-      <c r="AR75" s="47"/>
-      <c r="AS75" s="47"/>
-      <c r="AT75" s="47"/>
-      <c r="AU75" s="47"/>
-      <c r="AV75" s="48"/>
-      <c r="AW75" s="42"/>
-      <c r="AX75" s="42"/>
-      <c r="AY75" s="42"/>
-      <c r="AZ75" s="42"/>
-      <c r="BA75" s="42"/>
-      <c r="BB75" s="42"/>
-      <c r="BC75" s="42"/>
-      <c r="BD75" s="21"/>
-      <c r="BE75" s="21"/>
-      <c r="BF75" s="21"/>
-      <c r="BG75" s="13"/>
+      <c r="D75" s="49">
+        <v>3</v>
+      </c>
+      <c r="E75" s="60"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="60"/>
+      <c r="K75" s="60"/>
+      <c r="L75" s="60"/>
+      <c r="M75" s="60"/>
+      <c r="N75" s="60"/>
+      <c r="O75" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="P75" s="51"/>
+      <c r="Q75" s="51"/>
+      <c r="R75" s="51"/>
+      <c r="S75" s="51"/>
+      <c r="T75" s="52"/>
+      <c r="U75" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="V75" s="51"/>
+      <c r="W75" s="51"/>
+      <c r="X75" s="51"/>
+      <c r="Y75" s="51"/>
+      <c r="Z75" s="51"/>
+      <c r="AA75" s="51"/>
+      <c r="AB75" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC75" s="51"/>
+      <c r="AD75" s="51"/>
+      <c r="AE75" s="51"/>
+      <c r="AF75" s="51"/>
+      <c r="AG75" s="51"/>
+      <c r="AH75" s="51"/>
+      <c r="AI75" s="51"/>
+      <c r="AJ75" s="51"/>
+      <c r="AK75" s="51"/>
+      <c r="AL75" s="51"/>
+      <c r="AM75" s="51"/>
+      <c r="AN75" s="51"/>
+      <c r="AO75" s="51"/>
+      <c r="AP75" s="51"/>
+      <c r="AQ75" s="51"/>
+      <c r="AR75" s="51"/>
+      <c r="AS75" s="51"/>
+      <c r="AT75" s="51"/>
+      <c r="AU75" s="51"/>
+      <c r="AV75" s="52"/>
+      <c r="AW75" s="36"/>
+      <c r="AX75" s="36"/>
+      <c r="AY75" s="36"/>
+      <c r="AZ75" s="36"/>
+      <c r="BA75" s="36"/>
+      <c r="BB75" s="36"/>
+      <c r="BC75" s="36"/>
+      <c r="BD75" s="17"/>
+      <c r="BE75" s="17"/>
+      <c r="BF75" s="17"/>
     </row>
     <row r="76" spans="1:59">
       <c r="A76" s="35"/>
       <c r="B76" s="49">
-        <f>ROW()-75</f>
-        <v>1</v>
-      </c>
-      <c r="C76" s="62"/>
-      <c r="D76" s="49">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E76" s="63"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="H76" s="63"/>
-      <c r="I76" s="63"/>
-      <c r="J76" s="63"/>
-      <c r="K76" s="63"/>
-      <c r="L76" s="63"/>
-      <c r="M76" s="63"/>
-      <c r="N76" s="63"/>
+      <c r="C76" s="59"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="60"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="60"/>
+      <c r="J76" s="60"/>
+      <c r="K76" s="60"/>
+      <c r="L76" s="60"/>
+      <c r="M76" s="60"/>
+      <c r="N76" s="60"/>
       <c r="O76" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="P76" s="54"/>
-      <c r="Q76" s="54"/>
-      <c r="R76" s="54"/>
-      <c r="S76" s="54"/>
-      <c r="T76" s="55"/>
+        <v>100</v>
+      </c>
+      <c r="P76" s="51"/>
+      <c r="Q76" s="51"/>
+      <c r="R76" s="51"/>
+      <c r="S76" s="51"/>
+      <c r="T76" s="52"/>
       <c r="U76" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="V76" s="54"/>
-      <c r="W76" s="54"/>
-      <c r="X76" s="54"/>
-      <c r="Y76" s="54"/>
-      <c r="Z76" s="54"/>
-      <c r="AA76" s="54"/>
+        <v>97</v>
+      </c>
+      <c r="V76" s="51"/>
+      <c r="W76" s="51"/>
+      <c r="X76" s="51"/>
+      <c r="Y76" s="51"/>
+      <c r="Z76" s="51"/>
+      <c r="AA76" s="51"/>
       <c r="AB76" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC76" s="54"/>
-      <c r="AD76" s="54"/>
-      <c r="AE76" s="54"/>
-      <c r="AF76" s="54"/>
-      <c r="AG76" s="54"/>
-      <c r="AH76" s="54"/>
-      <c r="AI76" s="54"/>
-      <c r="AJ76" s="54"/>
-      <c r="AK76" s="54"/>
-      <c r="AL76" s="54"/>
-      <c r="AM76" s="54"/>
-      <c r="AN76" s="54"/>
-      <c r="AO76" s="54"/>
-      <c r="AP76" s="54"/>
-      <c r="AQ76" s="54"/>
-      <c r="AR76" s="54"/>
-      <c r="AS76" s="54"/>
-      <c r="AT76" s="54"/>
-      <c r="AU76" s="54"/>
-      <c r="AV76" s="55"/>
+        <v>99</v>
+      </c>
+      <c r="AC76" s="51"/>
+      <c r="AD76" s="51"/>
+      <c r="AE76" s="51"/>
+      <c r="AF76" s="51"/>
+      <c r="AG76" s="51"/>
+      <c r="AH76" s="51"/>
+      <c r="AI76" s="51"/>
+      <c r="AJ76" s="51"/>
+      <c r="AK76" s="51"/>
+      <c r="AL76" s="51"/>
+      <c r="AM76" s="51"/>
+      <c r="AN76" s="51"/>
+      <c r="AO76" s="51"/>
+      <c r="AP76" s="51"/>
+      <c r="AQ76" s="51"/>
+      <c r="AR76" s="51"/>
+      <c r="AS76" s="51"/>
+      <c r="AT76" s="51"/>
+      <c r="AU76" s="51"/>
+      <c r="AV76" s="52"/>
       <c r="AW76" s="36"/>
       <c r="AX76" s="36"/>
       <c r="AY76" s="36"/>
@@ -8395,61 +8416,65 @@
     <row r="77" spans="1:59">
       <c r="A77" s="35"/>
       <c r="B77" s="49">
-        <f t="shared" ref="B77:B88" si="2">ROW()-75</f>
-        <v>2</v>
-      </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="63"/>
-      <c r="F77" s="63"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="63"/>
-      <c r="I77" s="63"/>
-      <c r="J77" s="63"/>
-      <c r="K77" s="63"/>
-      <c r="L77" s="63"/>
-      <c r="M77" s="63"/>
-      <c r="N77" s="63"/>
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C77" s="59"/>
+      <c r="D77" s="49">
+        <v>4</v>
+      </c>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="H77" s="60"/>
+      <c r="I77" s="60"/>
+      <c r="J77" s="60"/>
+      <c r="K77" s="60"/>
+      <c r="L77" s="60"/>
+      <c r="M77" s="60"/>
+      <c r="N77" s="60"/>
       <c r="O77" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="P77" s="54"/>
-      <c r="Q77" s="54"/>
-      <c r="R77" s="54"/>
-      <c r="S77" s="54"/>
-      <c r="T77" s="55"/>
+        <v>94</v>
+      </c>
+      <c r="P77" s="51"/>
+      <c r="Q77" s="51"/>
+      <c r="R77" s="51"/>
+      <c r="S77" s="51"/>
+      <c r="T77" s="52"/>
       <c r="U77" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="V77" s="54"/>
-      <c r="W77" s="54"/>
-      <c r="X77" s="54"/>
-      <c r="Y77" s="54"/>
-      <c r="Z77" s="54"/>
-      <c r="AA77" s="54"/>
+        <v>27</v>
+      </c>
+      <c r="V77" s="51"/>
+      <c r="W77" s="51"/>
+      <c r="X77" s="51"/>
+      <c r="Y77" s="51"/>
+      <c r="Z77" s="51"/>
+      <c r="AA77" s="51"/>
       <c r="AB77" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC77" s="54"/>
-      <c r="AD77" s="54"/>
-      <c r="AE77" s="54"/>
-      <c r="AF77" s="54"/>
-      <c r="AG77" s="54"/>
-      <c r="AH77" s="54"/>
-      <c r="AI77" s="54"/>
-      <c r="AJ77" s="54"/>
-      <c r="AK77" s="54"/>
-      <c r="AL77" s="54"/>
-      <c r="AM77" s="54"/>
-      <c r="AN77" s="54"/>
-      <c r="AO77" s="54"/>
-      <c r="AP77" s="54"/>
-      <c r="AQ77" s="54"/>
-      <c r="AR77" s="54"/>
-      <c r="AS77" s="54"/>
-      <c r="AT77" s="54"/>
-      <c r="AU77" s="54"/>
-      <c r="AV77" s="55"/>
+        <v>102</v>
+      </c>
+      <c r="AC77" s="51"/>
+      <c r="AD77" s="51"/>
+      <c r="AE77" s="51"/>
+      <c r="AF77" s="51"/>
+      <c r="AG77" s="51"/>
+      <c r="AH77" s="51"/>
+      <c r="AI77" s="51"/>
+      <c r="AJ77" s="51"/>
+      <c r="AK77" s="51"/>
+      <c r="AL77" s="51"/>
+      <c r="AM77" s="51"/>
+      <c r="AN77" s="51"/>
+      <c r="AO77" s="51"/>
+      <c r="AP77" s="51"/>
+      <c r="AQ77" s="51"/>
+      <c r="AR77" s="51"/>
+      <c r="AS77" s="51"/>
+      <c r="AT77" s="51"/>
+      <c r="AU77" s="51"/>
+      <c r="AV77" s="52"/>
       <c r="AW77" s="36"/>
       <c r="AX77" s="36"/>
       <c r="AY77" s="36"/>
@@ -8465,64 +8490,60 @@
       <c r="A78" s="35"/>
       <c r="B78" s="49">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="C78" s="62"/>
-      <c r="D78" s="49">
-        <v>5</v>
-      </c>
-      <c r="E78" s="63"/>
-      <c r="F78" s="63"/>
-      <c r="G78" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="59"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="49"/>
+      <c r="H78" s="60"/>
+      <c r="I78" s="60"/>
+      <c r="J78" s="60"/>
+      <c r="K78" s="60"/>
+      <c r="L78" s="60"/>
+      <c r="M78" s="60"/>
+      <c r="N78" s="60"/>
+      <c r="O78" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="H78" s="63"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="63"/>
-      <c r="K78" s="63"/>
-      <c r="L78" s="63"/>
-      <c r="M78" s="63"/>
-      <c r="N78" s="63"/>
-      <c r="O78" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="P78" s="54"/>
-      <c r="Q78" s="54"/>
-      <c r="R78" s="54"/>
-      <c r="S78" s="54"/>
-      <c r="T78" s="55"/>
+      <c r="P78" s="51"/>
+      <c r="Q78" s="51"/>
+      <c r="R78" s="51"/>
+      <c r="S78" s="51"/>
+      <c r="T78" s="52"/>
       <c r="U78" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="V78" s="54"/>
-      <c r="W78" s="54"/>
-      <c r="X78" s="54"/>
-      <c r="Y78" s="54"/>
-      <c r="Z78" s="54"/>
-      <c r="AA78" s="54"/>
+        <v>106</v>
+      </c>
+      <c r="V78" s="51"/>
+      <c r="W78" s="51"/>
+      <c r="X78" s="51"/>
+      <c r="Y78" s="51"/>
+      <c r="Z78" s="51"/>
+      <c r="AA78" s="51"/>
       <c r="AB78" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC78" s="54"/>
-      <c r="AD78" s="54"/>
-      <c r="AE78" s="54"/>
-      <c r="AF78" s="54"/>
-      <c r="AG78" s="54"/>
-      <c r="AH78" s="54"/>
-      <c r="AI78" s="54"/>
-      <c r="AJ78" s="54"/>
-      <c r="AK78" s="54"/>
-      <c r="AL78" s="54"/>
-      <c r="AM78" s="54"/>
-      <c r="AN78" s="54"/>
-      <c r="AO78" s="54"/>
-      <c r="AP78" s="54"/>
-      <c r="AQ78" s="54"/>
-      <c r="AR78" s="54"/>
-      <c r="AS78" s="54"/>
-      <c r="AT78" s="54"/>
-      <c r="AU78" s="54"/>
-      <c r="AV78" s="55"/>
+        <v>103</v>
+      </c>
+      <c r="AC78" s="51"/>
+      <c r="AD78" s="51"/>
+      <c r="AE78" s="51"/>
+      <c r="AF78" s="51"/>
+      <c r="AG78" s="51"/>
+      <c r="AH78" s="51"/>
+      <c r="AI78" s="51"/>
+      <c r="AJ78" s="51"/>
+      <c r="AK78" s="51"/>
+      <c r="AL78" s="51"/>
+      <c r="AM78" s="51"/>
+      <c r="AN78" s="51"/>
+      <c r="AO78" s="51"/>
+      <c r="AP78" s="51"/>
+      <c r="AQ78" s="51"/>
+      <c r="AR78" s="51"/>
+      <c r="AS78" s="51"/>
+      <c r="AT78" s="51"/>
+      <c r="AU78" s="51"/>
+      <c r="AV78" s="52"/>
       <c r="AW78" s="36"/>
       <c r="AX78" s="36"/>
       <c r="AY78" s="36"/>
@@ -8538,60 +8559,60 @@
       <c r="A79" s="35"/>
       <c r="B79" s="49">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="C79" s="62"/>
+        <v>7</v>
+      </c>
+      <c r="C79" s="59"/>
       <c r="D79" s="49"/>
-      <c r="E79" s="63"/>
-      <c r="F79" s="63"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="60"/>
       <c r="G79" s="49"/>
-      <c r="H79" s="63"/>
-      <c r="I79" s="63"/>
-      <c r="J79" s="63"/>
-      <c r="K79" s="63"/>
-      <c r="L79" s="63"/>
-      <c r="M79" s="63"/>
-      <c r="N79" s="63"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="60"/>
+      <c r="J79" s="60"/>
+      <c r="K79" s="60"/>
+      <c r="L79" s="60"/>
+      <c r="M79" s="60"/>
+      <c r="N79" s="60"/>
       <c r="O79" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="P79" s="54"/>
-      <c r="Q79" s="54"/>
-      <c r="R79" s="54"/>
-      <c r="S79" s="54"/>
-      <c r="T79" s="55"/>
+        <v>123</v>
+      </c>
+      <c r="P79" s="51"/>
+      <c r="Q79" s="51"/>
+      <c r="R79" s="51"/>
+      <c r="S79" s="51"/>
+      <c r="T79" s="52"/>
       <c r="U79" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="V79" s="51"/>
+      <c r="W79" s="51"/>
+      <c r="X79" s="51"/>
+      <c r="Y79" s="51"/>
+      <c r="Z79" s="51"/>
+      <c r="AA79" s="51"/>
+      <c r="AB79" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="V79" s="54"/>
-      <c r="W79" s="54"/>
-      <c r="X79" s="54"/>
-      <c r="Y79" s="54"/>
-      <c r="Z79" s="54"/>
-      <c r="AA79" s="54"/>
-      <c r="AB79" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC79" s="54"/>
-      <c r="AD79" s="54"/>
-      <c r="AE79" s="54"/>
-      <c r="AF79" s="54"/>
-      <c r="AG79" s="54"/>
-      <c r="AH79" s="54"/>
-      <c r="AI79" s="54"/>
-      <c r="AJ79" s="54"/>
-      <c r="AK79" s="54"/>
-      <c r="AL79" s="54"/>
-      <c r="AM79" s="54"/>
-      <c r="AN79" s="54"/>
-      <c r="AO79" s="54"/>
-      <c r="AP79" s="54"/>
-      <c r="AQ79" s="54"/>
-      <c r="AR79" s="54"/>
-      <c r="AS79" s="54"/>
-      <c r="AT79" s="54"/>
-      <c r="AU79" s="54"/>
-      <c r="AV79" s="55"/>
+      <c r="AC79" s="51"/>
+      <c r="AD79" s="51"/>
+      <c r="AE79" s="51"/>
+      <c r="AF79" s="51"/>
+      <c r="AG79" s="51"/>
+      <c r="AH79" s="51"/>
+      <c r="AI79" s="51"/>
+      <c r="AJ79" s="51"/>
+      <c r="AK79" s="51"/>
+      <c r="AL79" s="51"/>
+      <c r="AM79" s="51"/>
+      <c r="AN79" s="51"/>
+      <c r="AO79" s="51"/>
+      <c r="AP79" s="51"/>
+      <c r="AQ79" s="51"/>
+      <c r="AR79" s="51"/>
+      <c r="AS79" s="51"/>
+      <c r="AT79" s="51"/>
+      <c r="AU79" s="51"/>
+      <c r="AV79" s="52"/>
       <c r="AW79" s="36"/>
       <c r="AX79" s="36"/>
       <c r="AY79" s="36"/>
@@ -8607,60 +8628,60 @@
       <c r="A80" s="35"/>
       <c r="B80" s="49">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="C80" s="62"/>
+        <v>8</v>
+      </c>
+      <c r="C80" s="59"/>
       <c r="D80" s="49"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="63"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
       <c r="G80" s="49"/>
-      <c r="H80" s="63"/>
-      <c r="I80" s="63"/>
-      <c r="J80" s="63"/>
-      <c r="K80" s="63"/>
-      <c r="L80" s="63"/>
-      <c r="M80" s="63"/>
-      <c r="N80" s="63"/>
+      <c r="H80" s="60"/>
+      <c r="I80" s="60"/>
+      <c r="J80" s="60"/>
+      <c r="K80" s="60"/>
+      <c r="L80" s="60"/>
+      <c r="M80" s="60"/>
+      <c r="N80" s="60"/>
       <c r="O80" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="P80" s="54"/>
-      <c r="Q80" s="54"/>
-      <c r="R80" s="54"/>
-      <c r="S80" s="54"/>
-      <c r="T80" s="55"/>
+        <v>111</v>
+      </c>
+      <c r="P80" s="51"/>
+      <c r="Q80" s="51"/>
+      <c r="R80" s="51"/>
+      <c r="S80" s="51"/>
+      <c r="T80" s="52"/>
       <c r="U80" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="V80" s="54"/>
-      <c r="W80" s="54"/>
-      <c r="X80" s="54"/>
-      <c r="Y80" s="54"/>
-      <c r="Z80" s="54"/>
-      <c r="AA80" s="54"/>
+        <v>120</v>
+      </c>
+      <c r="V80" s="51"/>
+      <c r="W80" s="51"/>
+      <c r="X80" s="51"/>
+      <c r="Y80" s="51"/>
+      <c r="Z80" s="51"/>
+      <c r="AA80" s="51"/>
       <c r="AB80" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC80" s="54"/>
-      <c r="AD80" s="54"/>
-      <c r="AE80" s="54"/>
-      <c r="AF80" s="54"/>
-      <c r="AG80" s="54"/>
-      <c r="AH80" s="54"/>
-      <c r="AI80" s="54"/>
-      <c r="AJ80" s="54"/>
-      <c r="AK80" s="54"/>
-      <c r="AL80" s="54"/>
-      <c r="AM80" s="54"/>
-      <c r="AN80" s="54"/>
-      <c r="AO80" s="54"/>
-      <c r="AP80" s="54"/>
-      <c r="AQ80" s="54"/>
-      <c r="AR80" s="54"/>
-      <c r="AS80" s="54"/>
-      <c r="AT80" s="54"/>
-      <c r="AU80" s="54"/>
-      <c r="AV80" s="55"/>
+        <v>112</v>
+      </c>
+      <c r="AC80" s="51"/>
+      <c r="AD80" s="51"/>
+      <c r="AE80" s="51"/>
+      <c r="AF80" s="51"/>
+      <c r="AG80" s="51"/>
+      <c r="AH80" s="51"/>
+      <c r="AI80" s="51"/>
+      <c r="AJ80" s="51"/>
+      <c r="AK80" s="51"/>
+      <c r="AL80" s="51"/>
+      <c r="AM80" s="51"/>
+      <c r="AN80" s="51"/>
+      <c r="AO80" s="51"/>
+      <c r="AP80" s="51"/>
+      <c r="AQ80" s="51"/>
+      <c r="AR80" s="51"/>
+      <c r="AS80" s="51"/>
+      <c r="AT80" s="51"/>
+      <c r="AU80" s="51"/>
+      <c r="AV80" s="52"/>
       <c r="AW80" s="36"/>
       <c r="AX80" s="36"/>
       <c r="AY80" s="36"/>
@@ -8676,60 +8697,60 @@
       <c r="A81" s="35"/>
       <c r="B81" s="49">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="C81" s="62"/>
+        <v>9</v>
+      </c>
+      <c r="C81" s="59"/>
       <c r="D81" s="49"/>
-      <c r="E81" s="63"/>
-      <c r="F81" s="63"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="60"/>
       <c r="G81" s="49"/>
-      <c r="H81" s="63"/>
-      <c r="I81" s="63"/>
-      <c r="J81" s="63"/>
-      <c r="K81" s="63"/>
-      <c r="L81" s="63"/>
-      <c r="M81" s="63"/>
-      <c r="N81" s="63"/>
+      <c r="H81" s="60"/>
+      <c r="I81" s="60"/>
+      <c r="J81" s="60"/>
+      <c r="K81" s="60"/>
+      <c r="L81" s="60"/>
+      <c r="M81" s="60"/>
+      <c r="N81" s="60"/>
       <c r="O81" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="P81" s="51"/>
+      <c r="Q81" s="51"/>
+      <c r="R81" s="51"/>
+      <c r="S81" s="51"/>
+      <c r="T81" s="52"/>
+      <c r="U81" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="V81" s="51"/>
+      <c r="W81" s="51"/>
+      <c r="X81" s="51"/>
+      <c r="Y81" s="51"/>
+      <c r="Z81" s="51"/>
+      <c r="AA81" s="51"/>
+      <c r="AB81" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="P81" s="54"/>
-      <c r="Q81" s="54"/>
-      <c r="R81" s="54"/>
-      <c r="S81" s="54"/>
-      <c r="T81" s="55"/>
-      <c r="U81" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="V81" s="54"/>
-      <c r="W81" s="54"/>
-      <c r="X81" s="54"/>
-      <c r="Y81" s="54"/>
-      <c r="Z81" s="54"/>
-      <c r="AA81" s="54"/>
-      <c r="AB81" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC81" s="54"/>
-      <c r="AD81" s="54"/>
-      <c r="AE81" s="54"/>
-      <c r="AF81" s="54"/>
-      <c r="AG81" s="54"/>
-      <c r="AH81" s="54"/>
-      <c r="AI81" s="54"/>
-      <c r="AJ81" s="54"/>
-      <c r="AK81" s="54"/>
-      <c r="AL81" s="54"/>
-      <c r="AM81" s="54"/>
-      <c r="AN81" s="54"/>
-      <c r="AO81" s="54"/>
-      <c r="AP81" s="54"/>
-      <c r="AQ81" s="54"/>
-      <c r="AR81" s="54"/>
-      <c r="AS81" s="54"/>
-      <c r="AT81" s="54"/>
-      <c r="AU81" s="54"/>
-      <c r="AV81" s="55"/>
+      <c r="AC81" s="51"/>
+      <c r="AD81" s="51"/>
+      <c r="AE81" s="51"/>
+      <c r="AF81" s="51"/>
+      <c r="AG81" s="51"/>
+      <c r="AH81" s="51"/>
+      <c r="AI81" s="51"/>
+      <c r="AJ81" s="51"/>
+      <c r="AK81" s="51"/>
+      <c r="AL81" s="51"/>
+      <c r="AM81" s="51"/>
+      <c r="AN81" s="51"/>
+      <c r="AO81" s="51"/>
+      <c r="AP81" s="51"/>
+      <c r="AQ81" s="51"/>
+      <c r="AR81" s="51"/>
+      <c r="AS81" s="51"/>
+      <c r="AT81" s="51"/>
+      <c r="AU81" s="51"/>
+      <c r="AV81" s="52"/>
       <c r="AW81" s="36"/>
       <c r="AX81" s="36"/>
       <c r="AY81" s="36"/>
@@ -8745,60 +8766,64 @@
       <c r="A82" s="35"/>
       <c r="B82" s="49">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="C82" s="62"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="63"/>
-      <c r="F82" s="63"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="63"/>
-      <c r="I82" s="63"/>
-      <c r="J82" s="63"/>
-      <c r="K82" s="63"/>
-      <c r="L82" s="63"/>
-      <c r="M82" s="63"/>
-      <c r="N82" s="63"/>
+        <v>10</v>
+      </c>
+      <c r="C82" s="59"/>
+      <c r="D82" s="49">
+        <v>6</v>
+      </c>
+      <c r="E82" s="60"/>
+      <c r="F82" s="60"/>
+      <c r="G82" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="H82" s="60"/>
+      <c r="I82" s="60"/>
+      <c r="J82" s="60"/>
+      <c r="K82" s="60"/>
+      <c r="L82" s="60"/>
+      <c r="M82" s="60"/>
+      <c r="N82" s="60"/>
       <c r="O82" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="P82" s="54"/>
-      <c r="Q82" s="54"/>
-      <c r="R82" s="54"/>
-      <c r="S82" s="54"/>
-      <c r="T82" s="55"/>
+        <v>94</v>
+      </c>
+      <c r="P82" s="51"/>
+      <c r="Q82" s="51"/>
+      <c r="R82" s="51"/>
+      <c r="S82" s="51"/>
+      <c r="T82" s="52"/>
       <c r="U82" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="V82" s="54"/>
-      <c r="W82" s="54"/>
-      <c r="X82" s="54"/>
-      <c r="Y82" s="54"/>
-      <c r="Z82" s="54"/>
-      <c r="AA82" s="54"/>
+        <v>27</v>
+      </c>
+      <c r="V82" s="51"/>
+      <c r="W82" s="51"/>
+      <c r="X82" s="51"/>
+      <c r="Y82" s="51"/>
+      <c r="Z82" s="51"/>
+      <c r="AA82" s="51"/>
       <c r="AB82" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC82" s="54"/>
-      <c r="AD82" s="54"/>
-      <c r="AE82" s="54"/>
-      <c r="AF82" s="54"/>
-      <c r="AG82" s="54"/>
-      <c r="AH82" s="54"/>
-      <c r="AI82" s="54"/>
-      <c r="AJ82" s="54"/>
-      <c r="AK82" s="54"/>
-      <c r="AL82" s="54"/>
-      <c r="AM82" s="54"/>
-      <c r="AN82" s="54"/>
-      <c r="AO82" s="54"/>
-      <c r="AP82" s="54"/>
-      <c r="AQ82" s="54"/>
-      <c r="AR82" s="54"/>
-      <c r="AS82" s="54"/>
-      <c r="AT82" s="54"/>
-      <c r="AU82" s="54"/>
-      <c r="AV82" s="55"/>
+        <v>108</v>
+      </c>
+      <c r="AC82" s="51"/>
+      <c r="AD82" s="51"/>
+      <c r="AE82" s="51"/>
+      <c r="AF82" s="51"/>
+      <c r="AG82" s="51"/>
+      <c r="AH82" s="51"/>
+      <c r="AI82" s="51"/>
+      <c r="AJ82" s="51"/>
+      <c r="AK82" s="51"/>
+      <c r="AL82" s="51"/>
+      <c r="AM82" s="51"/>
+      <c r="AN82" s="51"/>
+      <c r="AO82" s="51"/>
+      <c r="AP82" s="51"/>
+      <c r="AQ82" s="51"/>
+      <c r="AR82" s="51"/>
+      <c r="AS82" s="51"/>
+      <c r="AT82" s="51"/>
+      <c r="AU82" s="51"/>
+      <c r="AV82" s="52"/>
       <c r="AW82" s="36"/>
       <c r="AX82" s="36"/>
       <c r="AY82" s="36"/>
@@ -8814,64 +8839,60 @@
       <c r="A83" s="35"/>
       <c r="B83" s="49">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="C83" s="62"/>
-      <c r="D83" s="49">
-        <v>6</v>
-      </c>
-      <c r="E83" s="63"/>
-      <c r="F83" s="63"/>
-      <c r="G83" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="H83" s="63"/>
-      <c r="I83" s="63"/>
-      <c r="J83" s="63"/>
-      <c r="K83" s="63"/>
-      <c r="L83" s="63"/>
-      <c r="M83" s="63"/>
-      <c r="N83" s="63"/>
+        <v>11</v>
+      </c>
+      <c r="C83" s="59"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="60"/>
+      <c r="K83" s="60"/>
+      <c r="L83" s="60"/>
+      <c r="M83" s="60"/>
+      <c r="N83" s="60"/>
       <c r="O83" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="P83" s="54"/>
-      <c r="Q83" s="54"/>
-      <c r="R83" s="54"/>
-      <c r="S83" s="54"/>
-      <c r="T83" s="55"/>
+        <v>105</v>
+      </c>
+      <c r="P83" s="51"/>
+      <c r="Q83" s="51"/>
+      <c r="R83" s="51"/>
+      <c r="S83" s="51"/>
+      <c r="T83" s="52"/>
       <c r="U83" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="V83" s="54"/>
-      <c r="W83" s="54"/>
-      <c r="X83" s="54"/>
-      <c r="Y83" s="54"/>
-      <c r="Z83" s="54"/>
-      <c r="AA83" s="54"/>
+        <v>106</v>
+      </c>
+      <c r="V83" s="51"/>
+      <c r="W83" s="51"/>
+      <c r="X83" s="51"/>
+      <c r="Y83" s="51"/>
+      <c r="Z83" s="51"/>
+      <c r="AA83" s="51"/>
       <c r="AB83" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC83" s="54"/>
-      <c r="AD83" s="54"/>
-      <c r="AE83" s="54"/>
-      <c r="AF83" s="54"/>
-      <c r="AG83" s="54"/>
-      <c r="AH83" s="54"/>
-      <c r="AI83" s="54"/>
-      <c r="AJ83" s="54"/>
-      <c r="AK83" s="54"/>
-      <c r="AL83" s="54"/>
-      <c r="AM83" s="54"/>
-      <c r="AN83" s="54"/>
-      <c r="AO83" s="54"/>
-      <c r="AP83" s="54"/>
-      <c r="AQ83" s="54"/>
-      <c r="AR83" s="54"/>
-      <c r="AS83" s="54"/>
-      <c r="AT83" s="54"/>
-      <c r="AU83" s="54"/>
-      <c r="AV83" s="55"/>
+        <v>109</v>
+      </c>
+      <c r="AC83" s="51"/>
+      <c r="AD83" s="51"/>
+      <c r="AE83" s="51"/>
+      <c r="AF83" s="51"/>
+      <c r="AG83" s="51"/>
+      <c r="AH83" s="51"/>
+      <c r="AI83" s="51"/>
+      <c r="AJ83" s="51"/>
+      <c r="AK83" s="51"/>
+      <c r="AL83" s="51"/>
+      <c r="AM83" s="51"/>
+      <c r="AN83" s="51"/>
+      <c r="AO83" s="51"/>
+      <c r="AP83" s="51"/>
+      <c r="AQ83" s="51"/>
+      <c r="AR83" s="51"/>
+      <c r="AS83" s="51"/>
+      <c r="AT83" s="51"/>
+      <c r="AU83" s="51"/>
+      <c r="AV83" s="52"/>
       <c r="AW83" s="36"/>
       <c r="AX83" s="36"/>
       <c r="AY83" s="36"/>
@@ -8887,60 +8908,60 @@
       <c r="A84" s="35"/>
       <c r="B84" s="49">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="C84" s="62"/>
+        <v>12</v>
+      </c>
+      <c r="C84" s="59"/>
       <c r="D84" s="49"/>
-      <c r="E84" s="63"/>
-      <c r="F84" s="63"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
       <c r="G84" s="49"/>
-      <c r="H84" s="63"/>
-      <c r="I84" s="63"/>
-      <c r="J84" s="63"/>
-      <c r="K84" s="63"/>
-      <c r="L84" s="63"/>
-      <c r="M84" s="63"/>
-      <c r="N84" s="63"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="60"/>
+      <c r="J84" s="60"/>
+      <c r="K84" s="60"/>
+      <c r="L84" s="60"/>
+      <c r="M84" s="60"/>
+      <c r="N84" s="60"/>
       <c r="O84" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="P84" s="54"/>
-      <c r="Q84" s="54"/>
-      <c r="R84" s="54"/>
-      <c r="S84" s="54"/>
-      <c r="T84" s="55"/>
+        <v>123</v>
+      </c>
+      <c r="P84" s="51"/>
+      <c r="Q84" s="51"/>
+      <c r="R84" s="51"/>
+      <c r="S84" s="51"/>
+      <c r="T84" s="52"/>
       <c r="U84" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="V84" s="54"/>
-      <c r="W84" s="54"/>
-      <c r="X84" s="54"/>
-      <c r="Y84" s="54"/>
-      <c r="Z84" s="54"/>
-      <c r="AA84" s="54"/>
+        <v>120</v>
+      </c>
+      <c r="V84" s="51"/>
+      <c r="W84" s="51"/>
+      <c r="X84" s="51"/>
+      <c r="Y84" s="51"/>
+      <c r="Z84" s="51"/>
+      <c r="AA84" s="51"/>
       <c r="AB84" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="AC84" s="54"/>
-      <c r="AD84" s="54"/>
-      <c r="AE84" s="54"/>
-      <c r="AF84" s="54"/>
-      <c r="AG84" s="54"/>
-      <c r="AH84" s="54"/>
-      <c r="AI84" s="54"/>
-      <c r="AJ84" s="54"/>
-      <c r="AK84" s="54"/>
-      <c r="AL84" s="54"/>
-      <c r="AM84" s="54"/>
-      <c r="AN84" s="54"/>
-      <c r="AO84" s="54"/>
-      <c r="AP84" s="54"/>
-      <c r="AQ84" s="54"/>
-      <c r="AR84" s="54"/>
-      <c r="AS84" s="54"/>
-      <c r="AT84" s="54"/>
-      <c r="AU84" s="54"/>
-      <c r="AV84" s="55"/>
+      <c r="AC84" s="51"/>
+      <c r="AD84" s="51"/>
+      <c r="AE84" s="51"/>
+      <c r="AF84" s="51"/>
+      <c r="AG84" s="51"/>
+      <c r="AH84" s="51"/>
+      <c r="AI84" s="51"/>
+      <c r="AJ84" s="51"/>
+      <c r="AK84" s="51"/>
+      <c r="AL84" s="51"/>
+      <c r="AM84" s="51"/>
+      <c r="AN84" s="51"/>
+      <c r="AO84" s="51"/>
+      <c r="AP84" s="51"/>
+      <c r="AQ84" s="51"/>
+      <c r="AR84" s="51"/>
+      <c r="AS84" s="51"/>
+      <c r="AT84" s="51"/>
+      <c r="AU84" s="51"/>
+      <c r="AV84" s="52"/>
       <c r="AW84" s="36"/>
       <c r="AX84" s="36"/>
       <c r="AY84" s="36"/>
@@ -8956,60 +8977,60 @@
       <c r="A85" s="35"/>
       <c r="B85" s="49">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="C85" s="62"/>
+        <v>13</v>
+      </c>
+      <c r="C85" s="59"/>
       <c r="D85" s="49"/>
-      <c r="E85" s="63"/>
-      <c r="F85" s="63"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="60"/>
       <c r="G85" s="49"/>
-      <c r="H85" s="63"/>
-      <c r="I85" s="63"/>
-      <c r="J85" s="63"/>
-      <c r="K85" s="63"/>
-      <c r="L85" s="63"/>
-      <c r="M85" s="63"/>
-      <c r="N85" s="63"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="60"/>
+      <c r="K85" s="60"/>
+      <c r="L85" s="60"/>
+      <c r="M85" s="60"/>
+      <c r="N85" s="60"/>
       <c r="O85" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="P85" s="54"/>
-      <c r="Q85" s="54"/>
-      <c r="R85" s="54"/>
-      <c r="S85" s="54"/>
-      <c r="T85" s="55"/>
+        <v>111</v>
+      </c>
+      <c r="P85" s="51"/>
+      <c r="Q85" s="51"/>
+      <c r="R85" s="51"/>
+      <c r="S85" s="51"/>
+      <c r="T85" s="52"/>
       <c r="U85" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="V85" s="54"/>
-      <c r="W85" s="54"/>
-      <c r="X85" s="54"/>
-      <c r="Y85" s="54"/>
-      <c r="Z85" s="54"/>
-      <c r="AA85" s="54"/>
+        <v>120</v>
+      </c>
+      <c r="V85" s="51"/>
+      <c r="W85" s="51"/>
+      <c r="X85" s="51"/>
+      <c r="Y85" s="51"/>
+      <c r="Z85" s="51"/>
+      <c r="AA85" s="51"/>
       <c r="AB85" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC85" s="54"/>
-      <c r="AD85" s="54"/>
-      <c r="AE85" s="54"/>
-      <c r="AF85" s="54"/>
-      <c r="AG85" s="54"/>
-      <c r="AH85" s="54"/>
-      <c r="AI85" s="54"/>
-      <c r="AJ85" s="54"/>
-      <c r="AK85" s="54"/>
-      <c r="AL85" s="54"/>
-      <c r="AM85" s="54"/>
-      <c r="AN85" s="54"/>
-      <c r="AO85" s="54"/>
-      <c r="AP85" s="54"/>
-      <c r="AQ85" s="54"/>
-      <c r="AR85" s="54"/>
-      <c r="AS85" s="54"/>
-      <c r="AT85" s="54"/>
-      <c r="AU85" s="54"/>
-      <c r="AV85" s="55"/>
+        <v>114</v>
+      </c>
+      <c r="AC85" s="51"/>
+      <c r="AD85" s="51"/>
+      <c r="AE85" s="51"/>
+      <c r="AF85" s="51"/>
+      <c r="AG85" s="51"/>
+      <c r="AH85" s="51"/>
+      <c r="AI85" s="51"/>
+      <c r="AJ85" s="51"/>
+      <c r="AK85" s="51"/>
+      <c r="AL85" s="51"/>
+      <c r="AM85" s="51"/>
+      <c r="AN85" s="51"/>
+      <c r="AO85" s="51"/>
+      <c r="AP85" s="51"/>
+      <c r="AQ85" s="51"/>
+      <c r="AR85" s="51"/>
+      <c r="AS85" s="51"/>
+      <c r="AT85" s="51"/>
+      <c r="AU85" s="51"/>
+      <c r="AV85" s="52"/>
       <c r="AW85" s="36"/>
       <c r="AX85" s="36"/>
       <c r="AY85" s="36"/>
@@ -9025,60 +9046,60 @@
       <c r="A86" s="35"/>
       <c r="B86" s="49">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="C86" s="62"/>
+        <v>14</v>
+      </c>
+      <c r="C86" s="59"/>
       <c r="D86" s="49"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
       <c r="G86" s="49"/>
-      <c r="H86" s="63"/>
-      <c r="I86" s="63"/>
-      <c r="J86" s="63"/>
-      <c r="K86" s="63"/>
-      <c r="L86" s="63"/>
-      <c r="M86" s="63"/>
-      <c r="N86" s="63"/>
+      <c r="H86" s="60"/>
+      <c r="I86" s="60"/>
+      <c r="J86" s="60"/>
+      <c r="K86" s="60"/>
+      <c r="L86" s="60"/>
+      <c r="M86" s="60"/>
+      <c r="N86" s="60"/>
       <c r="O86" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="P86" s="54"/>
-      <c r="Q86" s="54"/>
-      <c r="R86" s="54"/>
-      <c r="S86" s="54"/>
-      <c r="T86" s="55"/>
+        <v>124</v>
+      </c>
+      <c r="P86" s="51"/>
+      <c r="Q86" s="51"/>
+      <c r="R86" s="51"/>
+      <c r="S86" s="51"/>
+      <c r="T86" s="52"/>
       <c r="U86" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="V86" s="54"/>
-      <c r="W86" s="54"/>
-      <c r="X86" s="54"/>
-      <c r="Y86" s="54"/>
-      <c r="Z86" s="54"/>
-      <c r="AA86" s="54"/>
+        <v>121</v>
+      </c>
+      <c r="V86" s="51"/>
+      <c r="W86" s="51"/>
+      <c r="X86" s="51"/>
+      <c r="Y86" s="51"/>
+      <c r="Z86" s="51"/>
+      <c r="AA86" s="51"/>
       <c r="AB86" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC86" s="54"/>
-      <c r="AD86" s="54"/>
-      <c r="AE86" s="54"/>
-      <c r="AF86" s="54"/>
-      <c r="AG86" s="54"/>
-      <c r="AH86" s="54"/>
-      <c r="AI86" s="54"/>
-      <c r="AJ86" s="54"/>
-      <c r="AK86" s="54"/>
-      <c r="AL86" s="54"/>
-      <c r="AM86" s="54"/>
-      <c r="AN86" s="54"/>
-      <c r="AO86" s="54"/>
-      <c r="AP86" s="54"/>
-      <c r="AQ86" s="54"/>
-      <c r="AR86" s="54"/>
-      <c r="AS86" s="54"/>
-      <c r="AT86" s="54"/>
-      <c r="AU86" s="54"/>
-      <c r="AV86" s="55"/>
+        <v>116</v>
+      </c>
+      <c r="AC86" s="51"/>
+      <c r="AD86" s="51"/>
+      <c r="AE86" s="51"/>
+      <c r="AF86" s="51"/>
+      <c r="AG86" s="51"/>
+      <c r="AH86" s="51"/>
+      <c r="AI86" s="51"/>
+      <c r="AJ86" s="51"/>
+      <c r="AK86" s="51"/>
+      <c r="AL86" s="51"/>
+      <c r="AM86" s="51"/>
+      <c r="AN86" s="51"/>
+      <c r="AO86" s="51"/>
+      <c r="AP86" s="51"/>
+      <c r="AQ86" s="51"/>
+      <c r="AR86" s="51"/>
+      <c r="AS86" s="51"/>
+      <c r="AT86" s="51"/>
+      <c r="AU86" s="51"/>
+      <c r="AV86" s="52"/>
       <c r="AW86" s="36"/>
       <c r="AX86" s="36"/>
       <c r="AY86" s="36"/>
@@ -9094,60 +9115,64 @@
       <c r="A87" s="35"/>
       <c r="B87" s="49">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="C87" s="62"/>
-      <c r="D87" s="49"/>
-      <c r="E87" s="63"/>
-      <c r="F87" s="63"/>
-      <c r="G87" s="49"/>
-      <c r="H87" s="63"/>
-      <c r="I87" s="63"/>
-      <c r="J87" s="63"/>
-      <c r="K87" s="63"/>
-      <c r="L87" s="63"/>
-      <c r="M87" s="63"/>
-      <c r="N87" s="63"/>
+        <v>15</v>
+      </c>
+      <c r="C87" s="59"/>
+      <c r="D87" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E87" s="60"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="60"/>
+      <c r="K87" s="60"/>
+      <c r="L87" s="60"/>
+      <c r="M87" s="60"/>
+      <c r="N87" s="60"/>
       <c r="O87" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="P87" s="54"/>
-      <c r="Q87" s="54"/>
-      <c r="R87" s="54"/>
-      <c r="S87" s="54"/>
-      <c r="T87" s="55"/>
+        <v>119</v>
+      </c>
+      <c r="P87" s="51"/>
+      <c r="Q87" s="51"/>
+      <c r="R87" s="51"/>
+      <c r="S87" s="51"/>
+      <c r="T87" s="52"/>
       <c r="U87" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="V87" s="54"/>
-      <c r="W87" s="54"/>
-      <c r="X87" s="54"/>
-      <c r="Y87" s="54"/>
-      <c r="Z87" s="54"/>
-      <c r="AA87" s="54"/>
+        <v>27</v>
+      </c>
+      <c r="V87" s="51"/>
+      <c r="W87" s="51"/>
+      <c r="X87" s="51"/>
+      <c r="Y87" s="51"/>
+      <c r="Z87" s="51"/>
+      <c r="AA87" s="51"/>
       <c r="AB87" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC87" s="54"/>
-      <c r="AD87" s="54"/>
-      <c r="AE87" s="54"/>
-      <c r="AF87" s="54"/>
-      <c r="AG87" s="54"/>
-      <c r="AH87" s="54"/>
-      <c r="AI87" s="54"/>
-      <c r="AJ87" s="54"/>
-      <c r="AK87" s="54"/>
-      <c r="AL87" s="54"/>
-      <c r="AM87" s="54"/>
-      <c r="AN87" s="54"/>
-      <c r="AO87" s="54"/>
-      <c r="AP87" s="54"/>
-      <c r="AQ87" s="54"/>
-      <c r="AR87" s="54"/>
-      <c r="AS87" s="54"/>
-      <c r="AT87" s="54"/>
-      <c r="AU87" s="54"/>
-      <c r="AV87" s="55"/>
+        <v>122</v>
+      </c>
+      <c r="AC87" s="51"/>
+      <c r="AD87" s="51"/>
+      <c r="AE87" s="51"/>
+      <c r="AF87" s="51"/>
+      <c r="AG87" s="51"/>
+      <c r="AH87" s="51"/>
+      <c r="AI87" s="51"/>
+      <c r="AJ87" s="51"/>
+      <c r="AK87" s="51"/>
+      <c r="AL87" s="51"/>
+      <c r="AM87" s="51"/>
+      <c r="AN87" s="51"/>
+      <c r="AO87" s="51"/>
+      <c r="AP87" s="51"/>
+      <c r="AQ87" s="51"/>
+      <c r="AR87" s="51"/>
+      <c r="AS87" s="51"/>
+      <c r="AT87" s="51"/>
+      <c r="AU87" s="51"/>
+      <c r="AV87" s="52"/>
       <c r="AW87" s="36"/>
       <c r="AX87" s="36"/>
       <c r="AY87" s="36"/>
@@ -9160,20 +9185,13 @@
       <c r="BF87" s="17"/>
     </row>
     <row r="88" spans="1:58">
-      <c r="A88" s="35"/>
-      <c r="B88" s="49">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
+      <c r="A88" s="28"/>
+      <c r="B88" s="61"/>
       <c r="C88" s="62"/>
-      <c r="D88" s="49" t="s">
-        <v>121</v>
-      </c>
+      <c r="D88" s="63"/>
       <c r="E88" s="63"/>
       <c r="F88" s="63"/>
-      <c r="G88" s="49" t="s">
-        <v>122</v>
-      </c>
+      <c r="G88" s="63"/>
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="63"/>
@@ -9181,98 +9199,34 @@
       <c r="L88" s="63"/>
       <c r="M88" s="63"/>
       <c r="N88" s="63"/>
-      <c r="O88" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="P88" s="54"/>
-      <c r="Q88" s="54"/>
-      <c r="R88" s="54"/>
-      <c r="S88" s="54"/>
-      <c r="T88" s="55"/>
-      <c r="U88" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="V88" s="54"/>
-      <c r="W88" s="54"/>
-      <c r="X88" s="54"/>
-      <c r="Y88" s="54"/>
-      <c r="Z88" s="54"/>
-      <c r="AA88" s="54"/>
-      <c r="AB88" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC88" s="54"/>
-      <c r="AD88" s="54"/>
-      <c r="AE88" s="54"/>
-      <c r="AF88" s="54"/>
-      <c r="AG88" s="54"/>
-      <c r="AH88" s="54"/>
-      <c r="AI88" s="54"/>
-      <c r="AJ88" s="54"/>
-      <c r="AK88" s="54"/>
-      <c r="AL88" s="54"/>
-      <c r="AM88" s="54"/>
-      <c r="AN88" s="54"/>
-      <c r="AO88" s="54"/>
-      <c r="AP88" s="54"/>
-      <c r="AQ88" s="54"/>
-      <c r="AR88" s="54"/>
-      <c r="AS88" s="54"/>
-      <c r="AT88" s="54"/>
-      <c r="AU88" s="54"/>
-      <c r="AV88" s="55"/>
-      <c r="AW88" s="36"/>
-      <c r="AX88" s="36"/>
-      <c r="AY88" s="36"/>
-      <c r="AZ88" s="36"/>
-      <c r="BA88" s="36"/>
-      <c r="BB88" s="36"/>
-      <c r="BC88" s="36"/>
-      <c r="BD88" s="17"/>
-      <c r="BE88" s="17"/>
-      <c r="BF88" s="17"/>
     </row>
     <row r="89" spans="1:58">
       <c r="A89" s="28"/>
-      <c r="B89" s="64"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="66"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="66"/>
-      <c r="J89" s="66"/>
-      <c r="K89" s="66"/>
-      <c r="L89" s="66"/>
-      <c r="M89" s="66"/>
-      <c r="N89" s="66"/>
-    </row>
-    <row r="90" spans="1:58">
-      <c r="A90" s="28"/>
-      <c r="B90" s="30"/>
-      <c r="C90" s="29"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="S67:Z67"/>
-    <mergeCell ref="D67:F67"/>
+  <mergeCells count="8">
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="S65:Z65"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="AA65:AV65"/>
+    <mergeCell ref="AA66:AV66"/>
     <mergeCell ref="AA67:AV67"/>
     <mergeCell ref="AA68:AV68"/>
     <mergeCell ref="AA69:AV69"/>
-    <mergeCell ref="AA70:AV70"/>
-    <mergeCell ref="AA71:AV71"/>
-    <mergeCell ref="AA72:AV72"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="55" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="51" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader xml:space="preserve">&amp;C&amp;F&amp;R&amp;D
 </oddHeader>
     <oddFooter>&amp;C-&amp;P&amp;'-</oddFooter>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="88" max="50" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
